--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1,239 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="audio" sheetId="1" r:id="rId1"/>
+    <sheet name="audio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>bytes</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>EventPath</t>
-  </si>
-  <si>
-    <t>DevComment</t>
-  </si>
-  <si>
-    <t>主Key</t>
-  </si>
-  <si>
-    <t>音效资产路径</t>
-  </si>
-  <si>
-    <t>事件描述</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -534,156 +484,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -739,11 +689,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1003,79 +1016,8034 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="F483" sqref="F483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.575" customWidth="1"/>
-    <col min="2" max="2" width="15.1416666666667" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col width="9.574999999999999" customWidth="1" min="1" max="1"/>
+    <col width="15.1416666666667" customWidth="1" min="2" max="2"/>
+    <col width="58.25" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>uint32</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>bytes</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>bytes</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>bytes</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>EventPath</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>EventName</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>DevComment</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>主Key</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>音效资产路径</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>事件名称</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>事件描述</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Shot_Aim_Start.AKE_Play_Mon_Boss_Body_B01_Shot_Aim_Start'</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Shot_Aim_Start</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8002</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Shot_Aim_Start.AKE_Play_Mon_Boss_Body_B01_Shot_Aim_Start'</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Shot</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8003</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Shot_Aim_End.AKE_Play_Mon_Boss_Body_B01_Shot_Aim_End'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Shot_Aim_End</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8004</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk1.AKE_Play_Mon_Boss_Body_B01_Atk1'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8005</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk2.AKE_Play_Mon_Boss_Body_B01_Atk2'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8006</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk3.AKE_Play_Mon_Boss_Body_B01_Atk3'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8007</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk4.AKE_Play_Mon_Boss_Body_B01_Atk4'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk5.AKE_Play_Mon_Boss_Body_B01_Atk5'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8009</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk6_Start.AKE_Play_Mon_Boss_Body_B01_Atk6_Start'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk6_Start</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8010</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk6_Shoot.AKE_Play_Mon_Boss_Body_B01_Atk6_Shoot'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk6_Shoot</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8011</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Atk6_End.AKE_Play_Mon_Boss_Body_B01_Atk6_End'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Atk6_End</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8012</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Move_Start.AKE_Play_Mon_Boss_Body_B01_Execu_Move_Start'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Move_Start</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8013</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Move_LP.AKE_Play_Mon_Boss_Body_B01_Execu_Move_LP'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Move_LP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Stop_Mon_Boss_Body_B01_Execu_Move_LP.AKE_Stop_Mon_Boss_Body_B01_Execu_Move_LP'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Body_B01_Execu_Move_LP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8015</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Move_End.AKE_Play_Mon_Boss_Body_B01_Execu_Move_End'</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Move_End</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8016</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Start.AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Start'</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Start</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8017</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Tread_LP.AKE_Play_Mon_Boss_Body_B01_Execu_Tread_LP'</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Tread_LP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8018</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Stop_Mon_Boss_Body_B01_Execu_Tread_LP.AKE_Stop_Mon_Boss_Body_B01_Execu_Tread_LP'</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Body_B01_Execu_Tread_LP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8019</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Start.AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Start'</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Start</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8020</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_LP.AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_LP'</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_LP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8021</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Stop_Mon_Boss_Body_B01_Execu_Tread_Parried_LP.AKE_Stop_Mon_Boss_Body_B01_Execu_Tread_Parried_LP'</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Body_B01_Execu_Tread_Parried_LP</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8022</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Fail.AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Fail'</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Fail</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8023</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Sucs.AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Sucs'</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Tread_Parried_Sucs</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8024</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_Tread_End.AKE_Play_Mon_Boss_Body_B01_Execu_Tread_End'</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_Tread_End</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8025</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Jump_Car.AKE_Play_Mon_Boss_Body_B01_Jump_Car'</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Jump_Car</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8026</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Jump_Grd.AKE_Play_Mon_Boss_Body_B01_Jump_Grd'</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Jump_Grd</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8027</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Stun.AKE_Play_Mon_Boss_Body_B01_Stun'</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Stun</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>aaaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8028</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Ult.AKE_Play_Mon_Boss_Body_B01_Ult'</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Ult</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8029</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Kick.AKE_Play_Mon_Boss_Body_B01_Kick'</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Kick</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8030</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Walk_Start.AKE_Play_Mon_Boss_Foley_B01_Car_Walk_Start'</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Walk_Start</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8031</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Walk_LP.AKE_Play_Mon_Boss_Foley_B01_Car_Walk_LP'</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Walk_LP</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8032</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Stop_Mon_Boss_Foley_B01_Car_Walk_LP.AKE_Stop_Mon_Boss_Foley_B01_Car_Walk_LP'</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Foley_B01_Car_Walk_LP</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8033</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Walk_Stop.AKE_Play_Mon_Boss_Foley_B01_Car_Walk_Stop'</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Walk_Stop</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8034</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Run_Start.AKE_Play_Mon_Boss_Foley_B01_Car_Run_Start'</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Run_Start</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8035</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Run_LP.AKE_Play_Mon_Boss_Foley_B01_Car_Run_LP'</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Run_LP</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8036</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Stop_Mon_Boss_Foley_B01_Car_Run_LP.AKE_Stop_Mon_Boss_Foley_B01_Car_Run_LP'</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Foley_B01_Car_Run_LP</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8037</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Run_Stop.AKE_Play_Mon_Boss_Foley_B01_Car_Run_Stop'</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Run_Stop</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8038</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Sprint_Start.AKE_Play_Mon_Boss_Foley_B01_Car_Sprint_Start'</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Sprint_Start</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8039</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Sprint_LP.AKE_Play_Mon_Boss_Foley_B01_Car_Sprint_LP'</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Sprint_LP</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8040</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Stop_Mon_Boss_Foley_B01_Car_Sprint_LP.AKE_Stop_Mon_Boss_Foley_B01_Car_Sprint_LP'</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Foley_B01_Car_Sprint_LP</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8041</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Piaffe_LP.AKE_Play_Mon_Boss_Foley_B01_Car_Piaffe_LP'</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Piaffe_LP</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8042</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Stop_Mon_Boss_Foley_B01_Car_Piaffe_LP.AKE_Stop_Mon_Boss_Foley_B01_Car_Piaffe_LP'</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Foley_B01_Car_Piaffe_LP</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8043</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Surround_Start.AKE_Play_Mon_Boss_Foley_B01_Car_Surround_Start'</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Surround_Start</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>8044</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Stun_Start.AKE_Play_Mon_Boss_Foley_B01_Car_Stun_Start'</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Stun_Start</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8045</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Stun_LP.AKE_Play_Mon_Boss_Foley_B01_Car_Stun_LP'</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Stun_LP</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>8046</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Stop_Mon_Boss_Foley_B01_Car_Stun_LP.AKE_Stop_Mon_Boss_Foley_B01_Car_Stun_LP'</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Foley_B01_Car_Stun_LP</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8047</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Stun_Hit.AKE_Play_Mon_Boss_Foley_B01_Car_Stun_Hit'</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Stun_Hit</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8048</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Stun_End.AKE_Play_Mon_Boss_Foley_B01_Car_Stun_End'</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Stun_End</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8049</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Foley_B01/AKE_Play_Mon_Boss_Foley_B01_Car_Death.AKE_Play_Mon_Boss_Foley_B01_Car_Death'</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Foley_B01_Car_Death</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3001</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Charge_Storage_Start.AKE_Play_Mon_Boss_Part_B01_Car_Charge_Storage_Start'</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Charge_Storage_Start</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3002</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Charge_Storage_LP.AKE_Play_Mon_Boss_Part_B01_Car_Charge_Storage_LP'</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Charge_Storage_LP</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3003</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Car_Charge_Storage_LP.AKE_Stop_Mon_Boss_Part_B01_Car_Charge_Storage_LP'</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Car_Charge_Storage_LP</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_Start.AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_Start'</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_Start</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3005</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_LP.AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_LP'</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_LP</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3006</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Car_Charge_Atk_LP.AKE_Stop_Mon_Boss_Part_B01_Car_Charge_Atk_LP'</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Car_Charge_Atk_LP</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3007</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Charge_Cancel.AKE_Play_Mon_Boss_Part_B01_Car_Charge_Cancel'</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Charge_Cancel</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3008</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_End2.AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_End2'</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_End2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3009</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_End3.AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_End3'</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Charge_Atk_End3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8050</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Trample_Start.AKE_Play_Mon_Boss_Part_B01_Car_Trample_Start'</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Trample_Start</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>8051</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_LP.AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_LP'</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_LP</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>8052</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Car_Trample_Move_LP.AKE_Stop_Mon_Boss_Part_B01_Car_Trample_Move_LP'</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Car_Trample_Move_LP</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>8053</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_Start.AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_Start'</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_Start</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>8054</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Trample_End.AKE_Play_Mon_Boss_Part_B01_Car_Trample_End'</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Trample_End</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>8055</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_End.AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_End'</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Trample_Move_End</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>8056</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Acc_Puff_Start.AKE_Play_Mon_Boss_Part_B01_Acc_Puff_Start'</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Acc_Puff_Start</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>8057</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Acc_Puff_LP.AKE_Play_Mon_Boss_Part_B01_Acc_Puff_LP'</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Acc_Puff_LP</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>8058</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Acc_Puff_LP.AKE_Stop_Mon_Boss_Part_B01_Acc_Puff_LP'</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Acc_Puff_LP</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8059</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Acc_Contract_Start.AKE_Play_Mon_Boss_Part_B01_Acc_Contract_Start'</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Acc_Contract_Start</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>8060</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Acc_Contract_LP.AKE_Play_Mon_Boss_Part_B01_Acc_Contract_LP'</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Acc_Contract_LP</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>8061</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Acc_Contract_LP.AKE_Stop_Mon_Boss_Part_B01_Acc_Contract_LP'</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Acc_Contract_LP</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>8062</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Acc_Contract_End.AKE_Play_Mon_Boss_Part_B01_Acc_Contract_End'</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Acc_Contract_End</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>8063</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Bombing_Start.AKE_Play_Mon_Boss_Part_B01_Car_Bombing_Start'</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Bombing_Start</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>8064</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Bombing_LP.AKE_Play_Mon_Boss_Part_B01_Car_Bombing_LP'</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Bombing_LP</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>8065</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Car_Bombing_LP.AKE_Stop_Mon_Boss_Part_B01_Car_Bombing_LP'</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Car_Bombing_LP</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8066</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Bombing_End.AKE_Play_Mon_Boss_Part_B01_Car_Bombing_End'</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Bombing_End</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8067</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Drift_L.AKE_Play_Mon_Boss_Part_B01_Car_Drift_L'</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Drift_L</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>8068</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Drift_R.AKE_Play_Mon_Boss_Part_B01_Car_Drift_R'</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Drift_R</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>8069</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_Start.AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_Start'</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_Start</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>8070</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_LP.AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_LP'</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_LP</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>8071</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Pumpkin_Seed_LP.AKE_Stop_Mon_Boss_Part_B01_Pumpkin_Seed_LP'</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Pumpkin_Seed_LP</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8072</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_End.AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_End'</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Pumpkin_Seed_End</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8073</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spi_Action.AKE_Play_Mon_Boss_Part_B01_Spi_Action'</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spi_Action</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>8074</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spi_Born.AKE_Play_Mon_Boss_Part_B01_Spi_Born'</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spi_Born</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>8075</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spi_Spread.AKE_Play_Mon_Boss_Part_B01_Spi_Spread'</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spi_Spread</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8076</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spi_Run_LP.AKE_Play_Mon_Boss_Part_B01_Spi_Run_LP'</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spi_Run_LP</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8077</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Spi_Run_LP.AKE_Stop_Mon_Boss_Part_B01_Spi_Run_LP'</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Spi_Run_LP</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>8078</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spi_Plant.AKE_Play_Mon_Boss_Part_B01_Spi_Plant'</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spi_Plant</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>8079</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spi_Bomb.AKE_Play_Mon_Boss_Part_B01_Spi_Bomb'</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spi_Bomb</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>8080</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_88_Start.AKE_Play_Mon_Boss_Part_B01_Car_88_Start'</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_88_Start</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>8081</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_88_Recoil.AKE_Play_Mon_Boss_Part_B01_Car_88_Recoil'</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_88_Recoil</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>8082</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_88_End.AKE_Play_Mon_Boss_Part_B01_Car_88_End'</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_88_End</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>8083</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Party_Start.AKE_Play_Mon_Boss_Part_B01_Car_Party_Start'</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Party_Start</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>8084</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Party_LP.AKE_Play_Mon_Boss_Part_B01_Car_Party_LP'</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Party_LP</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>8085</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Stop_Mon_Boss_Part_B01_Car_Party_LP.AKE_Stop_Mon_Boss_Part_B01_Car_Party_LP'</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Part_B01_Car_Party_LP</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>8086</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Car_Party_End.AKE_Play_Mon_Boss_Part_B01_Car_Party_End'</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Car_Party_End</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>8087</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Pumpkin_Door_Hit.AKE_Play_Mon_Boss_Part_B01_Pumpkin_Door_Hit'</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Pumpkin_Door_Hit</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>8088</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Pumpkin_Core_Silent.AKE_Play_Mon_Boss_Part_B01_Pumpkin_Core_Silent'</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Pumpkin_Core_Silent</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>8089</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Pumpkin_Core_Active.AKE_Play_Mon_Boss_Part_B01_Pumpkin_Core_Active'</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Pumpkin_Core_Active</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>8090</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Pumpkin_Hit_Hvy.AKE_Play_Mon_Boss_Part_B01_Pumpkin_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Pumpkin_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>8091</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Coffin_Drop.AKE_Play_Mon_Boss_Part_B01_Coffin_Drop'</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Coffin_Drop</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>8092</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Hit_Lit.AKE_Play_Mon_Boss_Shout_B01_Horse_Hit_Lit'</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Hit_Lit</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>8093</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Hit_Hvy.AKE_Play_Mon_Boss_Shout_B01_Horse_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>8094</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_Start.AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_Start'</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_Start</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>8095</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_LP.AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_LP'</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_LP</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>8096</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Stop_Mon_Boss_Shout_B01_Horse_Stun_LP.AKE_Stop_Mon_Boss_Shout_B01_Horse_Stun_LP'</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Boss_Shout_B01_Horse_Stun_LP</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>8097</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_Hit.AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_Hit'</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_Hit</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>8098</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_End.AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_End'</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Stun_End</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>8099</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Death.AKE_Play_Mon_Boss_Shout_B01_Horse_Death'</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Death</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>8100</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Start.AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Start'</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Start</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>8101</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Hvy.AKE_Play_Mon_Boss_Shout_B01_Horse_Hvy'</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Hvy</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>8102</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Stop.AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Stop'</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Stop</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>8103</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Snort.AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Snort'</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Horse_Gen_Snort</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>8104</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Atk1.AKE_Play_Mon_Boss_Shout_B01_Atk1'</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Atk1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>8105</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Atk2.AKE_Play_Mon_Boss_Shout_B01_Atk2'</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Atk2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>8106</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Atk3.AKE_Play_Mon_Boss_Shout_B01_Atk3'</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Atk3</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>8107</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Atk4.AKE_Play_Mon_Boss_Shout_B01_Atk4'</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Atk4</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>8108</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Atk5.AKE_Play_Mon_Boss_Shout_B01_Atk5'</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Atk5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>8109</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Atk6.AKE_Play_Mon_Boss_Shout_B01_Atk6'</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Atk6</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>8110</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Execu_Parried.AKE_Play_Mon_Boss_Shout_B01_Execu_Parried'</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Execu</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>8111</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Execu_Parried.AKE_Play_Mon_Boss_Shout_B01_Execu_Parried'</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Execu_Parried</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>8112</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Hit_Hvy.AKE_Play_Mon_Boss_Shout_B01_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Hit</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>8113</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Shout_B01/AKE_Play_Mon_Boss_Shout_B01_Hit_Hvy.AKE_Play_Mon_Boss_Shout_B01_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Shout_B01_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>8114</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Getup.AKE_Play_Mon_Mob_Foley_M01_Getup'</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Getup</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>8115</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Jump.AKE_Play_Mon_Mob_Foley_M01_Jump'</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Jump</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>8116</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Rub.AKE_Play_Mon_Mob_Foley_M01_Rub'</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Rub</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>8117</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Step.AKE_Play_Mon_Mob_Foley_M01_Step'</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Step</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>8118</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Run.AKE_Play_Mon_Mob_Foley_M01_Run'</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Run</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>8119</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Walk.AKE_Play_Mon_Mob_Foley_M01_Walk'</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Walk</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>8120</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Fall_Death.AKE_Play_Mon_Mob_Foley_M01_Fall_Death'</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Fall_Death</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>8121</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Falll_Foley.AKE_Play_Mon_Mob_Foley_M01_Falll_Foley'</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Falll_Foley</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>8122</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Fall_Hvy.AKE_Play_Mon_Mob_Foley_M01_Fall_Hvy'</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Fall_Hvy</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>8123</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Foley_M01/AKE_Play_Mon_Mob_Foley_M01_Fall_Land.AKE_Play_Mon_Mob_Foley_M01_Fall_Land'</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M01_Fall_Land</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>8124</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Born_Trans.AKE_Play_Mon_Mob_Shout_M01_Born_Trans'</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Born_Trans</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>8125</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Born_Foley.AKE_Play_Mon_Mob_Shout_M01_Born_Foley'</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Born_Foley</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>8126</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Threaten.AKE_Play_Mon_Mob_Shout_M01_Threaten'</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Threaten</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>8127</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Land.AKE_Play_Mon_Mob_Shout_M01_Land'</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Land</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>8128</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Jump.AKE_Play_Mon_Mob_Shout_M01_Jump'</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Jump</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>8129</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Hit_Hvy.AKE_Play_Mon_Mob_Shout_M01_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Hit</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>8130</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Hit_Hvy.AKE_Play_Mon_Mob_Shout_M01_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>8131</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Death_Hvy.AKE_Play_Mon_Mob_Shout_M01_Death_Hvy'</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Death</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>8132</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Death_Hvy.AKE_Play_Mon_Mob_Shout_M01_Death_Hvy'</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Death_Hvy</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>8133</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Stun.AKE_Play_Mon_Mob_Shout_M01_Stun'</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Stun</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>8134</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Knock.AKE_Play_Mon_Mob_Shout_M01_Knock'</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Knock</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>8135</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Getup.AKE_Play_Mon_Mob_Shout_M01_Getup'</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Getup</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>8136</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Sprint.AKE_Play_Mon_Mob_Shout_M01_Sprint'</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Sprint</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>8137</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Atk_Hvy.AKE_Play_Mon_Mob_Shout_M01_Atk_Hvy'</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Atk</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>8138</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Atk_Hvy.AKE_Play_Mon_Mob_Shout_M01_Atk_Hvy'</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Atk_Hvy</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>8139</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Atk_D.AKE_Play_Mon_Mob_Shout_M01_Atk_D'</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Atk_D</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>8140</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Shout_M01/AKE_Play_Mon_Mob_Shout_M01_Step.AKE_Play_Mon_Mob_Shout_M01_Step'</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M01_Step</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>8141</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Born_Trans.AKE_Play_Mon_Mob_Skill_M01_Born_Trans'</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Born_Trans</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>8142</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Jump_Start.AKE_Play_Mon_Mob_Skill_M01_Jump_Start'</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Jump_Start</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>8143</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Born_Foley.AKE_Play_Mon_Mob_Skill_M01_Born_Foley'</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Born_Foley</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>8144</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Door.AKE_Play_Mon_Mob_Skill_M01_Door'</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Door</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>8145</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1.AKE_Play_Mon_Mob_Skill_M01_Atk1'</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>8146</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2.AKE_Play_Mon_Mob_Skill_M01_Atk2'</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>8147</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Step.AKE_Play_Mon_Mob_Skill_M01_Step'</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Step</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>8148</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Stun.AKE_Play_Mon_Mob_Skill_M01_Stun'</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Stun</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>8149</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Death_Hit_Hvy.AKE_Play_Mon_Mob_Skill_M01_Death_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Death_Hit</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>8150</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Death_Hit_Hvy.AKE_Play_Mon_Mob_Skill_M01_Death_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Death_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>8151</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Death_Stun.AKE_Play_Mon_Mob_Skill_M01_Death_Stun'</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Death_Stun</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>8152</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Death_Stun.AKE_Play_Mon_Mob_Skill_M01_Death_Stun'</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Death</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>8153</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Born_Trans_LP</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>8154</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mon_Mob_Skill_M01_Born_Trans_LP</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>8155</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Jump_Start.AKE_Play_Mon_Mob_Skill_M01_Jump_Start'</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Jump</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>8156</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Run_To_Crawl.AKE_Play_Mon_Mob_Foley_M02_Run_To_Crawl'</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Run_To_Crawl</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>8157</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Run_To_Crawl.AKE_Play_Mon_Mob_Foley_M02_Run_To_Crawl'</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Run</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>8158</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Stop.AKE_Play_Mon_Mob_Foley_M02_Stop'</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Stop</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>8159</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Crawl.AKE_Play_Mon_Mob_Foley_M02_Crawl'</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Crawl</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>8160</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Death.AKE_Play_Mon_Mob_Foley_M02_Death'</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Death</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>8161</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Getup.AKE_Play_Mon_Mob_Foley_M02_Getup'</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Getup</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>8162</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Knock.AKE_Play_Mon_Mob_Foley_M02_Knock'</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Knock</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>8163</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Mutilate.AKE_Play_Mon_Mob_Foley_M02_Mutilate'</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Mutilate</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>8164</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Fall_Down.AKE_Play_Mon_Mob_Foley_M02_Fall_Down'</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Fall_Down</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>8165</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy.AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy'</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Atk</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>8166</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy.AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy'</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Atk5.AKE_Play_Mon_Mob_Shout_M02_Atk5'</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Atk5</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>8168</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Atk6.AKE_Play_Mon_Mob_Shout_M02_Atk6'</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Atk6</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>8169</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Born.AKE_Play_Mon_Mob_Shout_M02_Born'</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Born</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>8170</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Buffer.AKE_Play_Mon_Mob_Shout_M02_Buffer'</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Buffer</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>8171</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Getup.AKE_Play_Mon_Mob_Shout_M02_Getup'</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Getup</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>8172</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy.AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Hit</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>8173</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy.AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>8174</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Knock.AKE_Play_Mon_Mob_Shout_M02_Knock'</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Knock</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>8175</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Death_Hvy.AKE_Play_Mon_Mob_Shout_M02_Death_Hvy'</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Death</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>8176</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Death_Hvy.AKE_Play_Mon_Mob_Shout_M02_Death_Hvy'</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Death_Hvy</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>8177</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Run_To_Crawl.AKE_Play_Mon_Mob_Shout_M02_Run_To_Crawl'</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Run_To_Crawl</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>8178</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Struggle.AKE_Play_Mon_Mob_Shout_M02_Struggle'</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Struggle</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>8179</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Born.AKE_Play_Mon_Mob_Skill_M02_Born'</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Born</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>8180</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk1.AKE_Play_Mon_Mob_Skill_M02_Atk1'</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk2.AKE_Play_Mon_Mob_Skill_M02_Atk2'</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>8182</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk3.AKE_Play_Mon_Mob_Skill_M02_Atk3'</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk3</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>8183</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk4.AKE_Play_Mon_Mob_Skill_M02_Atk4'</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk4</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>8184</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk5_Crawl.AKE_Play_Mon_Mob_Skill_M02_Atk5_Crawl'</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk5</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>8185</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk5_Crawl.AKE_Play_Mon_Mob_Skill_M02_Atk5_Crawl'</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk5_Crawl</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>8186</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk6_Crawl.AKE_Play_Mon_Mob_Skill_M02_Atk6_Crawl'</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk6</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>8187</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk6_Crawl.AKE_Play_Mon_Mob_Skill_M02_Atk6_Crawl'</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk6_Crawl</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>8188</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Buffer_Crawl.AKE_Play_Mon_Mob_Skill_M02_Buffer_Crawl'</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Buffer</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>8189</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Buffer_Crawl.AKE_Play_Mon_Mob_Skill_M02_Buffer_Crawl'</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Buffer_Crawl</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>8190</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Death.AKE_Play_Mon_Mob_Skill_M02_Death'</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Death</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Battle_Enter1.AKE_Play_Char_Skill_C02_Battle_Enter1'</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Battle_Enter1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>3011</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Battle_Enter2.AKE_Play_Char_Skill_C02_Battle_Enter2'</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Battle_Enter2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>3012</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Battle_Exit.AKE_Play_Char_Skill_C02_Battle_Exit'</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Battle_Exit</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>3013</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk1.AKE_Play_Char_Skill_C02_Atk1'</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk1</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>3014</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk2.AKE_Play_Char_Skill_C02_Atk2'</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk3.AKE_Play_Char_Skill_C02_Atk3'</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk3</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>3016</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk4.AKE_Play_Char_Skill_C02_Atk4'</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk4</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>3017</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5.AKE_Play_Char_Skill_C02_Atk5'</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk5</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>3018</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready1.AKE_Play_Char_Skill_C02_Focus_Ready1'</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready1</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>3019</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready2.AKE_Play_Char_Skill_C02_Focus_Ready2'</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready2</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>3020</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready3.AKE_Play_Char_Skill_C02_Focus_Ready3'</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready3</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready4.AKE_Play_Char_Skill_C02_Focus_Ready4'</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready4</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>3022</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready5.AKE_Play_Char_Skill_C02_Focus_Ready5'</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready5</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>3023</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready6.AKE_Play_Char_Skill_C02_Focus_Ready6'</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready6</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>3024</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready7.AKE_Play_Char_Skill_C02_Focus_Ready7'</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready7</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>3025</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready8.AKE_Play_Char_Skill_C02_Focus_Ready8'</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready8</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>3026</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk1.AKE_Play_Char_Skill_C02_Focus_Atk1'</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk1</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>3027</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2.AKE_Play_Char_Skill_C02_Focus_Atk2'</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk2</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>3028</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3.AKE_Play_Char_Skill_C02_Focus_Atk3'</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>3029</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk_Rush.AKE_Play_Char_Skill_C02_Atk_Rush'</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk_Rush</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_SkyAtk_Start.AKE_Play_Char_Skill_C02_SkyAtk_Start'</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_SkyAtk_Start</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_SkyAtk_End.AKE_Play_Char_Skill_C02_SkyAtk_End'</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_SkyAtk_End</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>3032</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Enter.AKE_Play_Char_Skill_C02_Strafe_Enter'</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Enter</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Exit.AKE_Play_Char_Skill_C02_Strafe_Exit'</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Exit</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Shake.AKE_Play_Char_Skill_C02_Strafe_Shake'</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Shake</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>3035</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Atk.AKE_Play_Char_Skill_C02_Strafe_Defense_Atk'</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Atk</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>3036</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2.AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2'</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>3037</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Counter_Atk3.AKE_Play_Char_Skill_C02_Strafe_Counter_Atk3'</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Counter_Atk3</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>3038</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Hit.AKE_Play_Char_Skill_C02_Strafe_Defense_Hit'</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Hit</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>3039</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Break.AKE_Play_Char_Skill_C02_Strafe_Defense_Break'</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Break</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Launch_F.AKE_Play_Char_Skill_C02_Hook_Launch_F'</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hook_Launch_F</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>3041</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Launch_B.AKE_Play_Char_Skill_C02_Hook_Launch_B'</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hook_Launch_B</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>3042</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Suc_F.AKE_Play_Char_Skill_C02_Hook_Suc_F'</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hook_Suc_F</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>3043</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Suc_D.AKE_Play_Char_Skill_C02_Hook_Suc_D'</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hook_Suc_D</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>3044</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Fly.AKE_Play_Char_Skill_C02_Hook_Fly'</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hook_Fly</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>3045</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Fail.AKE_Play_Char_Skill_C02_Hook_Fail'</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hook_Fail</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>3046</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook'</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Far</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>3048</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Hook</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>3049</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook'</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>3050</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu1</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>3051</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_Start.AKE_Play_Char_Skill_C02_Execu2_Start'</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu2_Start</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>3052</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_LP.AKE_Play_Char_Skill_C02_Execu2_LP'</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu2_LP</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>3053</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Stop_Char_Skill_C02_Execu2_LP.AKE_Stop_Char_Skill_C02_Execu2_LP'</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Char_Skill_C02_Execu2_LP</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>3054</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_End_Sp.AKE_Play_Char_Skill_C02_Execu2_End_Sp'</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu2_End</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_End_Sp.AKE_Play_Char_Skill_C02_Execu2_End_Sp'</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Execu2_End_Sp</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult.AKE_Play_Char_Skill_C02_Ult'</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Ult</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Sp_Atk.AKE_Play_Char_Skill_C02_Counter_Sp_Atk'</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Counter</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>3058</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Lit.AKE_Play_Char_Skill_C02_Counter_Lit'</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Counter_Lit</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>3059</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Hvy.AKE_Play_Char_Skill_C02_Counter_Hvy'</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Counter_Hvy</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>3060</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Sp_Atk.AKE_Play_Char_Skill_C02_Counter_Sp_Atk'</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Counter_Sp_Atk</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>3061</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Dodge_Step.AKE_Play_Char_Skill_C02_Dodge_Step'</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Dodge</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>3062</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Dodge_Step.AKE_Play_Char_Skill_C02_Dodge_Step'</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Dodge_Step</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>3063</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fly_Start.AKE_Play_Char_Skill_C02_Hit_Fly_Start'</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fly_Start</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>3064</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fly_End.AKE_Play_Char_Skill_C02_Hit_Fly_End'</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fly_End</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Wall_End.AKE_Play_Char_Skill_C02_Hit_Wall_End'</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Wall</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>3066</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Wall_End.AKE_Play_Char_Skill_C02_Hit_Wall_End'</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Wall_End</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>3067</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Death_Grd.AKE_Play_Char_Skill_C02_Hit_Death_Grd'</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Death</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>3068</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Death_Grd.AKE_Play_Char_Skill_C02_Hit_Death_Grd'</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Death_Grd</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>3069</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fall_Start.AKE_Play_Char_Skill_C02_Hit_Fall_Start'</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fall_Start</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>3070</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fall_End.AKE_Play_Char_Skill_C02_Hit_Fall_End'</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fall_End</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>3071</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Hvy.AKE_Play_Char_Skill_C02_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>3072</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk1.AKE_Play_Char_Skill_C01_Atk1'</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk1</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>3073</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk2.AKE_Play_Char_Skill_C01_Atk2'</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk2</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3074</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk3.AKE_Play_Char_Skill_C01_Atk3'</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk3</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>3075</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk4.AKE_Play_Char_Skill_C01_Atk4'</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk4</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>3076</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk5.AKE_Play_Char_Skill_C01_Atk5'</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk5</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready1.AKE_Play_Char_Skill_C01_Focus_Ready1'</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready1</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>3078</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready2.AKE_Play_Char_Skill_C01_Focus_Ready2'</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready2</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>3079</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready3.AKE_Play_Char_Skill_C01_Focus_Ready3'</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready3</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>3080</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready4.AKE_Play_Char_Skill_C01_Focus_Ready4'</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready4</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>3081</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready5.AKE_Play_Char_Skill_C01_Focus_Ready5'</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready5</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>3082</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk1.AKE_Play_Char_Skill_C01_Focus_Atk1'</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk1</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>3083</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2.AKE_Play_Char_Skill_C01_Focus_Atk2'</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>3084</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3.AKE_Play_Char_Skill_C01_Focus_Atk3'</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>3085</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Enter.AKE_Play_Char_Skill_C01_Strafe_Enter'</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Enter</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3086</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Fire.AKE_Play_Char_Skill_C01_Strafe_Fire'</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Fire</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>3087</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Reload.AKE_Play_Char_Skill_C01_Strafe_Reload'</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Reload</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>3088</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Exit.AKE_Play_Char_Skill_C01_Strafe_Exit'</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Exit</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>3089</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Launch_F.AKE_Play_Char_Skill_C01_Hook_Launch_F'</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hook_Launch_F</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Launch_B.AKE_Play_Char_Skill_C01_Hook_Launch_B'</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hook_Launch_B</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>3091</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Suc_F.AKE_Play_Char_Skill_C01_Hook_Suc_F'</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hook_Suc_F</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3092</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Suc_D.AKE_Play_Char_Skill_C01_Hook_Suc_D'</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hook_Suc_D</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>3093</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Fly.AKE_Play_Char_Skill_C01_Hook_Fly'</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hook_Fly</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>3094</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Fail.AKE_Play_Char_Skill_C01_Hook_Fail'</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hook_Fail</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>3095</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>3096</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook'</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Far</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3097</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Hook</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3098</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook'</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3099</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Execu1</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3100</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu2.AKE_Play_Char_Skill_C01_Execu2'</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Execu2</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3101</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Ult_End.AKE_Play_Char_Skill_C01_Ult_End'</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Ult</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3102</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Ult_End.AKE_Play_Char_Skill_C01_Ult_End'</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Ult_End</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Counter_Sp.AKE_Play_Char_Skill_C01_Counter_Sp'</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Counter</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3104</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Counter_Sp.AKE_Play_Char_Skill_C01_Counter_Sp'</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Counter_Sp</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3105</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Dodge_Step.AKE_Play_Char_Skill_C01_Dodge_Step'</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Dodge</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3106</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Dodge_Step.AKE_Play_Char_Skill_C01_Dodge_Step'</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Dodge_Step</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3107</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_FlyStart.AKE_Play_Char_Skill_C01_Hit_FlyStart'</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_FlyStart</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3108</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_FlyEnd.AKE_Play_Char_Skill_C01_Hit_FlyEnd'</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_FlyEnd</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3109</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Wall_End.AKE_Play_Char_Skill_C01_Hit_Wall_End'</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Wall</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3110</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Wall_End.AKE_Play_Char_Skill_C01_Hit_Wall_End'</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Wall_End</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3111</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death_Grd.AKE_Play_Char_Skill_C01_Hit_Death_Grd'</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Death</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3112</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death_Grd.AKE_Play_Char_Skill_C01_Hit_Death_Grd'</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Death_Grd</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3113</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Fall_Start.AKE_Play_Char_Skill_C01_Hit_Fall_Start'</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Fall_Start</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3114</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Fall_End.AKE_Play_Char_Skill_C01_Hit_Fall_End'</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Fall_End</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3115</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Hvy.AKE_Play_Char_Skill_C01_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3116</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death_B.AKE_Play_Char_Skill_C01_Hit_Death_B'</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Hit_Death_B</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3117</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk1.AKE_Play_Char_Skill_C03_Atk1'</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Atk1</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3118</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk2.AKE_Play_Char_Skill_C03_Atk2'</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Atk2</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3119</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk3_1.AKE_Play_Char_Skill_C03_Atk3_1'</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Atk3</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3120</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk3_1.AKE_Play_Char_Skill_C03_Atk3_1'</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Atk3_1</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3121</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_ReadyN.AKE_Play_Char_Skill_C03_Focus_ReadyN'</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_ReadyN</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3122</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready1.AKE_Play_Char_Skill_C03_Focus_Ready1'</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready1</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3123</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready2.AKE_Play_Char_Skill_C03_Focus_Ready2'</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready2</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready3.AKE_Play_Char_Skill_C03_Focus_Ready3'</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready3</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3125</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready4.AKE_Play_Char_Skill_C03_Focus_Ready4'</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready4</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3126</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk1_Exp_Lit.AKE_Play_Char_Skill_C03_Focus_Atk1_Exp_Lit'</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk1</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3127</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk1_Exp_Lit.AKE_Play_Char_Skill_C03_Focus_Atk1_Exp_Lit'</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk1_Exp_Lit</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3128</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk2_Exp_Mid.AKE_Play_Char_Skill_C03_Focus_Atk2_Exp_Mid'</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk2</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3129</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk2_Exp_Mid.AKE_Play_Char_Skill_C03_Focus_Atk2_Exp_Mid'</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk2_Exp_Mid</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3130</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk3_Exp_Hvy.AKE_Play_Char_Skill_C03_Focus_Atk3_Exp_Hvy'</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk3</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3131</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk3_Exp_Hvy.AKE_Play_Char_Skill_C03_Focus_Atk3_Exp_Hvy'</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk3_Exp_Hvy</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3132</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_LP.AKE_Play_Char_Skill_C03_Focus_LP'</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Focus_LP</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3133</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Focus_LP.AKE_Stop_Char_Skill_C03_Focus_LP'</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Char_Skill_C03_Focus_LP</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Enter.AKE_Play_Char_Skill_C03_Strafe_Enter'</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Enter</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3135</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Exit.AKE_Play_Char_Skill_C03_Strafe_Exit'</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Exit</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3136</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Fire_Single.AKE_Play_Char_Skill_C03_Strafe_Fire_Single'</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Fire_Single</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3137</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Start.AKE_Play_Char_Skill_C03_Strafe_Reload_Start'</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Start</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3138</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_LP.AKE_Play_Char_Skill_C03_Strafe_Reload_LP'</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_LP</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3139</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Strafe_Reload_LP.AKE_Stop_Char_Skill_C03_Strafe_Reload_LP'</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Char_Skill_C03_Strafe_Reload_LP</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3140</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Single.AKE_Play_Char_Skill_C03_Strafe_Reload_Single'</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Single</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3141</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_End.AKE_Play_Char_Skill_C03_Strafe_Reload_End'</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_End</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3142</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP.AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP'</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3143</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP.AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP'</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3144</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Shell_Fall.AKE_Play_Char_Skill_C03_Strafe_Shell_Fall'</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Shell_Fall</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu2.AKE_Play_Char_Skill_C03_Execu2'</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Execu2</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3146</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu3.AKE_Play_Char_Skill_C03_Execu3'</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Execu3</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3147</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu1_Pre_Hook.AKE_Play_Char_Skill_C03_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Execu1_Pre_Hook</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3148</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu1_Pre_Cls.AKE_Play_Char_Skill_C03_Execu1_Pre_Cls'</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Execu1_Pre_Cls</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3149</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu1_Pre_Hook.AKE_Play_Char_Skill_C03_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Execu1_Pre</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3150</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu1_Pre_Hook.AKE_Play_Char_Skill_C03_Execu1_Pre_Hook'</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Execu1</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3151</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Dodge_Step.AKE_Play_Char_Skill_C03_Dodge_Step'</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Dodge</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3152</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Dodge_Step.AKE_Play_Char_Skill_C03_Dodge_Step'</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Dodge_Step</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3153</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Full.AKE_Play_Char_Skill_C03_Ult_Full'</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Ult_Full</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3154</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Hit.AKE_Play_Char_Skill_C03_Ult_Hit'</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Ult_Hit</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>3155</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Shot.AKE_Play_Char_Skill_C03_Ult_Shot'</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Ult_Shot</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_LP.AKE_Play_Char_Skill_C03_Ult_LP'</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Ult_LP</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3157</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Ult_LP.AKE_Stop_Char_Skill_C03_Ult_LP'</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Char_Skill_C03_Ult_LP</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3158</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_End.AKE_Play_Char_Skill_C03_Ult_End'</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Ult_End</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3159</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_End.AKE_Play_Char_Skill_C03_Strafe_End'</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Strafe_End</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3160</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Battle_Enter.AKE_Play_Char_Skill_C03_Battle_Enter'</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Battle_Enter</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3161</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Battle_Exit.AKE_Play_Char_Skill_C03_Battle_Exit'</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Battle_Exit</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3162</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Fly_End.AKE_Play_Char_Skill_C03_Hit_Fly_End'</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Fly</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3163</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Fly_End.AKE_Play_Char_Skill_C03_Hit_Fly_End'</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Fly_End</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3164</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Wall_End.AKE_Play_Char_Skill_C03_Hit_Wall_End'</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Wall</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3165</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Wall_End.AKE_Play_Char_Skill_C03_Hit_Wall_End'</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Wall_End</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3166</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Death.AKE_Play_Char_Skill_C03_Death'</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Death</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Death_Grd.AKE_Play_Char_Skill_C03_Hit_Death_Grd'</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Death_Grd</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3168</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Fall_Start.AKE_Play_Char_Skill_C03_Hit_Fall_Start'</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Fall_Start</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3169</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Fall_End.AKE_Play_Char_Skill_C03_Hit_Fall_End'</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Fall_End</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3170</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Hvy.AKE_Play_Char_Skill_C03_Hit_Hvy'</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Hvy</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3171</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Hit_Death_B.AKE_Play_Char_Skill_C03_Hit_Death_B'</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C03_Hit_Death_B</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3172</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt'</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3173</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock.AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock'</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3174</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood.AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood'</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3175</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt'</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3176</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt'</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_End_Dirt.AKE_Play_Char_Mov_Gen_HHeel_End_Dirt'</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_End_Dirt</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3178</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop'</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3179</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev'</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3180</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop'</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3181</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt'</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3182</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen.AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen'</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3183</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt'</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3184</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy'</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3185</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit'</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3186</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt.AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt'</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3187</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Rock.AKE_Play_Char_Mov_Gen_Boot_Walk_Rock'</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Rock</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Run_Dirt.AKE_Play_Char_Mov_Gen_Boot_Run_Dirt'</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Run_Dirt</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3189</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt.AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt'</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3190</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_End_Dirt.AKE_Play_Char_Mov_Gen_Boot_End_Dirt'</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_End_Dirt</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3191</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop'</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>3192</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev'</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>3193</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop'</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>3194</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt.AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt'</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3195</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Climb_Gen.AKE_Play_Char_Mov_Gen_Boot_Climb_Gen'</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Climb_Gen</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>3196</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt.AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt'</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>3197</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy'</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>3198</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit'</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt'</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>3200</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock.AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock'</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>3201</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood.AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood'</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>3202</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt'</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>3203</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt'</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>3204</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_End_Dirt.AKE_Play_Char_Mov_Gen_SHeel_End_Dirt'</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_End_Dirt</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>3205</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop'</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3206</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev'</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>3207</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop'</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>3208</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt'</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>3209</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen.AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen'</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>3210</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt'</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>3211</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy'</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit'</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>3213</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_LP</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>3214</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Char_Mov_Gen_HHeel_Slide_Gen_LP</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>14001</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose01.AKE_Play_Sys_Show_C03_Def_Enter_Pose01'</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose01</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>14002</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose02.AKE_Play_Sys_Show_C03_Def_Enter_Pose02'</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose02</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>14003</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>14004</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>14005</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03'</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>14006</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04'</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>14007</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05'</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>14008</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose04.AKE_Play_Sys_Show_C03_Def_Enter_Pose04'</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose04</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>14009</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>14010</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose05_02.AKE_Play_Sys_Show_C03_Def_Enter_Pose05_02'</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose05_02</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>14011</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose06.AKE_Play_Sys_Show_C03_Def_Enter_Pose06'</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose06</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>14012</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose04.AKE_Play_Sys_Show_C03_Def_Exit_Pose04'</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose04</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>14013</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1'</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>14014</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1'</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>14015</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01'</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>14016</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose01.AKE_Play_Sys_Show_C02_Def_Enter_Pose01'</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose01</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>14017</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose02.AKE_Play_Sys_Show_C02_Def_Enter_Pose02'</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose02</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>14018</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>14019</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>14020</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03'</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>14021</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04'</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>14022</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05'</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>14023</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose04.AKE_Play_Sys_Show_C02_Def_Enter_Pose04'</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose04</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>14024</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose05.AKE_Play_Sys_Show_C02_Def_Enter_Pose05'</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose05</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>14025</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim.AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim'</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose06</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>14026</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim.AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim'</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>14027</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>14028</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B'</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>14029</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B'</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>14030</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03'</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>14031</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04'</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>14032</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05'</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>14033</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose04.AKE_Play_Sys_Show_C02_Def_Exit_Pose04'</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose04</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>14034</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose05.AKE_Play_Sys_Show_C02_Def_Exit_Pose05'</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose05</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>14035</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose06.AKE_Play_Sys_Show_C02_Def_Exit_Pose06'</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose06</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>14036</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01'</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>14037</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose01.AKE_Play_Sys_Show_C04_Def_Enter_Pose01'</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose01</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>14038</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose02.AKE_Play_Sys_Show_C04_Def_Enter_Pose02'</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose02</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>14039</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>14040</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>14041</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03'</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>14042</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04'</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>14043</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05'</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>14044</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06'</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>14045</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose04.AKE_Play_Sys_Show_C04_Def_Enter_Pose04'</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose04</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>14046</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose05</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>14047</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>14048</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>14049</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>14050</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03'</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>14051</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04'</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>14052</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05'</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>14053</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_06.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_06'</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_06</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>14054</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose04.AKE_Play_Sys_Show_C04_Def_Exit_Pose04'</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose04</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>14055</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose05</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>14056</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>14057</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv.AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv'</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>14058</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose01.AKE_Play_Sys_Show_C05_Def_Enter_Pose01'</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose01</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>14059</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose02.AKE_Play_Sys_Show_C05_Def_Enter_Pose02'</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose02</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>14060</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>14061</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>14062</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose04.AKE_Play_Sys_Show_C05_Def_Enter_Pose04'</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose04</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>14063</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>14064</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02.AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02'</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>14065</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose06.AKE_Play_Sys_Show_C05_Def_Enter_Pose06'</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose06</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>14066</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>14067</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>14068</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose04.AKE_Play_Sys_Show_C05_Def_Exit_Pose04'</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose04</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>14069</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>14070</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02.AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02'</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>14071</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose06.AKE_Play_Sys_Show_C05_Def_Exit_Pose06'</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose06</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>14072</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01'</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>14073</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02.AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>14074</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose01.AKE_Play_Sys_Show_C01_Def_Enter_Pose01'</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose01</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>14075</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose02.AKE_Play_Sys_Show_C01_Def_Enter_Pose02'</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose02</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>14076</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>14077</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>14078</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03'</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>14079</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04'</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>14080</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose04.AKE_Play_Sys_Show_C01_Def_Enter_Pose04'</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose04</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>14081</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>14082</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02.AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02'</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>14083</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose06.AKE_Play_Sys_Show_C01_Def_Enter_Pose06'</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose06</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>14084</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01'</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>14085</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02'</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>14086</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03'</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>14087</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04'</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>14088</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose04.AKE_Play_Sys_Show_C01_Def_Exit_Pose04'</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose04</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>14089</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01'</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>14090</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02.AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02'</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>14091</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose06.AKE_Play_Sys_Show_C01_Def_Exit_Pose06'</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose06</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01'</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim.AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06.AKE_Play_Sys_Show_C02_Def_Enter_Pose06'</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02'</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>馨西亚_Default_EnterPose02</t>
+          <t>馨西亚_Default_EnterPose02_哈哈哈</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_050.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_050'</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_050</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05.AKE_Play_Sys_Show_C04_Def_Enter_Pose05'</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05.AKE_Play_Sys_Show_C04_Def_Exit_Pose05'</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose04.AKE_Play_Sys_Show_C01_Def_Enter_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose0460.AKE_Play_Sys_Show_C01_Def_Enter_Pose0460'</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose04</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose0460</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose06.AKE_Play_Sys_Show_C01_Def_Enter_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Stop_Sys_Show_C01_Def_Enter_Pose06_3_LP.AKE_Stop_Sys_Show_C01_Def_Enter_Pose06_3_LP'</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose06</t>
+          <t>AKE_Stop_Sys_Show_C01_Def_Enter_Pose06_3_LP</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose04.AKE_Play_Sys_Show_C01_Def_Exit_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose041.AKE_Play_Sys_Show_C01_Def_Exit_Pose041'</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose04</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose041</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,12 +1014,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H580"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D574" sqref="D574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>女骑士库拉蒂_普攻连段ATK_1段</t>
+          <t>女骑士库拉蒂_普攻连段ATK_1段开始</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>女骑士库拉蒂_普攻连段ATK_2段</t>
+          <t>女骑士库拉蒂_普攻连段ATK_2段开始</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>女骑士库拉蒂_普攻连段ATK_3段</t>
+          <t>女骑士库拉蒂_普攻连段ATK_3段开始</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>女骑士库拉蒂_普攻连段ATK_4段</t>
+          <t>女骑士库拉蒂_普攻连段ATK_4段开始</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>女骑士库拉蒂_普攻连段ATK_5段</t>
+          <t>女骑士库拉蒂_普攻连段ATK_5段开始</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>女骑士库拉蒂_蓄力攻击Focus_派生-蓄力攻击2</t>
+          <t>女骑士库拉蒂_蓄力攻击Focus_派生-蓄力攻击2开始</t>
         </is>
       </c>
     </row>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>标志台词_我的目标是成为令所有人都感到骄傲的骑士！计划表？那是什么？</t>
+          <t>女骑士库拉蒂语音_标志台词_我的目标是成为令所有人都感到骄傲的骑士！计划表？那是什么？</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>初次见面_你面前的正是御用骑士库拉蒂！学东西慢了点，但毅力是百分百，嘻嘻，算你走运！</t>
+          <t>女骑士库拉蒂语音_初次见面_你面前的正是御用骑士库拉蒂！学东西慢了点，但毅力是百分百，嘻嘻，算你走运！</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>角色选择_（语气）</t>
+          <t>女骑士库拉蒂语音_角色选择_（语气）</t>
         </is>
       </c>
     </row>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>入队1_佩剑、盾牌、骑枪，好嘞，都带齐啦！</t>
+          <t>女骑士库拉蒂语音_入队1_佩剑、盾牌、骑枪，好嘞，都带齐啦！</t>
         </is>
       </c>
     </row>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>入队2_哼、哼、哼，让你们见识见识白银骑士的厉害！</t>
+          <t>女骑士库拉蒂语音_入队2_哼、哼、哼，让你们见识见识白银骑士的厉害！</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>装备液银生物_对了，还得带上这个小小的战友呢！</t>
+          <t>女骑士库拉蒂语音_装备液银生物_对了，还得带上这个小小的战友呢！</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>装备专属液银生物_这个是？！你……你对我太好了吧！我好感动……</t>
+          <t>女骑士库拉蒂语音_装备专属液银生物_这个是？！你……你对我太好了吧！我好感动……</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>角色突破_喂？！别随便就偷看我的心啊！就算我脑子空空，也怀有少女的秘密啊！</t>
+          <t>女骑士库拉蒂语音_角色突破_喂？！别随便就偷看我的心啊！就算我脑子空空，也怀有少女的秘密啊！</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>角色满突破_听说智商越高的人，越擅长把人骗得团团转，但是……被你骗，似乎是好事呢！我相信你哦，侦探！</t>
+          <t>女骑士库拉蒂语音_角色满突破_听说智商越高的人，越擅长把人骗得团团转，但是……被你骗，似乎是好事呢！我相信你哦，侦探！</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>停驻闲聊-1_（伸懒腰）嗯——天气真不错，该巡逻啦。</t>
+          <t>女骑士库拉蒂语音_停驻闲聊-1_（伸懒腰）嗯——天气真不错，该巡逻啦。</t>
         </is>
       </c>
     </row>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>停驻闲聊-2_危险分子，危险分子在吗？白银骑士库拉蒂命令你立刻现身，然后投降！</t>
+          <t>女骑士库拉蒂语音_停驻闲聊-2_危险分子，危险分子在吗？白银骑士库拉蒂命令你立刻现身，然后投降！</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>停驻闲聊-3_我懂了，现在要用侦探办案绝招之一，蹲点！对吧？</t>
+          <t>女骑士库拉蒂语音_停驻闲聊-3_我懂了，现在要用侦探办案绝招之一，蹲点！对吧？</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>雨天-1_堂堂白银骑士，才不会输给区区雨天——啊呸呸呸，呃、吃到雨水了……</t>
+          <t>女骑士库拉蒂语音_雨天-1_堂堂白银骑士，才不会输给区区雨天——啊呸呸呸，呃、吃到雨水了……</t>
         </is>
       </c>
     </row>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>雨天-2_虽然下雨很烦，但是往好了想，至少馨西亚家的猫不会在外面乱跑啦。</t>
+          <t>女骑士库拉蒂语音_雨天-2_虽然下雨很烦，但是往好了想，至少馨西亚家的猫不会在外面乱跑啦。</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>雪天-1_（打喷嚏）阿嚏！呜呜……我、我才不怕冷呢，刚刚那个是因为……雪花吹进鼻子里啦！</t>
+          <t>女骑士库拉蒂语音_雪天-1_（打喷嚏）阿嚏！呜呜……我、我才不怕冷呢，刚刚那个是因为……雪花吹进鼻子里啦！</t>
         </is>
       </c>
     </row>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>雪天-2_多穿点？不行不行，白银骑士的制服就是这样，不能乱改的，这可是传统！</t>
+          <t>女骑士库拉蒂语音_雪天-2_多穿点？不行不行，白银骑士的制服就是这样，不能乱改的，这可是传统！</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>夜晚-1_危险分子，危险——唔唔！干嘛突然捂我的嘴？！啊，我太扰民？</t>
+          <t>女骑士库拉蒂语音_夜晚-1_危险分子，危险——唔唔！干嘛突然捂我的嘴？！啊，我太扰民？</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>夜晚-2_夜晚才是危险分子最活跃的时间，但是不用怕，有我这个白银骑士在呢！</t>
+          <t>女骑士库拉蒂语音_夜晚-2_夜晚才是危险分子最活跃的时间，但是不用怕，有我这个白银骑士在呢！</t>
         </is>
       </c>
     </row>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>特定地点-面包店_呜呜，好香的面包……不行不行，执勤时间不能吃东西，有损骑士形象！</t>
+          <t>女骑士库拉蒂语音_特定地点-面包店_呜呜，好香的面包……不行不行，执勤时间不能吃东西，有损骑士形象！</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>特定地点-引力桥_听说引力桥的运作原理和我们的装甲一样，但我就算知道了也没懂，怎么个“一样”法啊？</t>
+          <t>女骑士库拉蒂语音_特定地点-引力桥_听说引力桥的运作原理和我们的装甲一样，但我就算知道了也没懂，怎么个“一样”法啊？</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>特定地点-舞厅_骑士团的前辈交代过，要留心这里的可疑人物。嗯……从身材的角度来说，还是我更胜一筹！</t>
+          <t>女骑士库拉蒂语音_特定地点-舞厅_骑士团的前辈交代过，要留心这里的可疑人物。嗯……从身材的角度来说，还是我更胜一筹！</t>
         </is>
       </c>
     </row>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>使用钩索_（语气）</t>
+          <t>女骑士库拉蒂语音_使用钩索_（语气）</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>单人骑乘中_我这匹马不错吧，侦探，你要好好爱惜哦。</t>
+          <t>女骑士库拉蒂语音_单人骑乘中_我这匹马不错吧，侦探，你要好好爱惜哦。</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>进入聚焦状态_我来我来，让我三两下把破绽找出来！</t>
+          <t>女骑士库拉蒂语音_进入聚焦状态_我来我来，让我三两下把破绽找出来！</t>
         </is>
       </c>
     </row>
@@ -14262,7 +14262,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>保持聚焦状态-1_我一定会找到的，再给我半分钟，不，30秒！</t>
+          <t>女骑士库拉蒂语音_保持聚焦状态-1_我一定会找到的，再给我半分钟，不，30秒！</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>保持聚焦状态-2_唔唔……不行了，提示！我需要提示！</t>
+          <t>女骑士库拉蒂语音_保持聚焦状态-2_唔唔……不行了，提示！我需要提示！</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>揭发_危险分子就是他！</t>
+          <t>女骑士库拉蒂语音_揭发_危险分子就是他！</t>
         </is>
       </c>
     </row>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>打开宝箱-1_哇，好东西耶。</t>
+          <t>女骑士库拉蒂语音_打开宝箱-1_哇，好东西耶。</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,605 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>打开宝箱-2_这个用得上吗？那我拿着啦。</t>
+          <t>女骑士库拉蒂语音_打开宝箱-2_这个用得上吗？那我拿着啦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>3202</v>
+      </c>
+      <c r="B581" t="n">
+        <v>3202</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_Start</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_Start.AKE_Play_Char_Skill_C02_Focus_Atk3_Start'</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_蓄力攻击Focus_派生-蓄力攻击3开始</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>3203</v>
+      </c>
+      <c r="B582" t="n">
+        <v>3203</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk_End</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk_End.AKE_Play_Char_Skill_C02_Focus_Atk_End'</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_蓄力攻击Focus_蓄力攻击通用end</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>3204</v>
+      </c>
+      <c r="B583" t="n">
+        <v>3204</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk1_End</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk1_End.AKE_Play_Char_Skill_C02_Atk1_End'</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_普攻连段ATK_1段结束</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>3205</v>
+      </c>
+      <c r="B584" t="n">
+        <v>3205</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk2_End</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk2_End.AKE_Play_Char_Skill_C02_Atk2_End'</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_普攻连段ATK_2段结束</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>3206</v>
+      </c>
+      <c r="B585" t="n">
+        <v>3206</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk3_End</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk3_End.AKE_Play_Char_Skill_C02_Atk3_End'</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_普攻连段ATK_3段结束</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>3207</v>
+      </c>
+      <c r="B586" t="n">
+        <v>3207</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk4_End</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk4_End.AKE_Play_Char_Skill_C02_Atk4_End'</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_普攻连段ATK_4段结束</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>3208</v>
+      </c>
+      <c r="B587" t="n">
+        <v>3208</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk5_End</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5_End.AKE_Play_Char_Skill_C02_Atk5_End'</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_普攻连段ATK_5段结束</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>3209</v>
+      </c>
+      <c r="B588" t="n">
+        <v>3209</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2_2nd.AKE_Play_Char_Skill_C02_Focus_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_蓄力攻击Focus_派生-蓄力攻击2结束</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>3210</v>
+      </c>
+      <c r="B589" t="n">
+        <v>3210</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd.AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd'</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_蓄力攻击Focus_派生-蓄力攻击3阶段2</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>3211</v>
+      </c>
+      <c r="B590" t="n">
+        <v>3211</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_2nd</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_2nd.AKE_Play_Char_Skill_C02_Focus_Atk3_2nd'</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_蓄力攻击Focus_派生-蓄力攻击3结束</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B591" t="n">
+        <v>3212</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Ult_End</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_End.AKE_Play_Char_Skill_C02_Ult_End'</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_大招_长矛击穿单位并插入墙面</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>3213</v>
+      </c>
+      <c r="B592" t="n">
+        <v>3213</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Ult_Exp</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_Exp.AKE_Play_Char_Skill_C02_Ult_Exp'</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_大招_长矛碎裂爆炸回复铠甲</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>3214</v>
+      </c>
+      <c r="B593" t="n">
+        <v>3214</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Hit_Lit</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Lit.AKE_Play_Char_Skill_C02_Hit_Lit'</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂_受击_轻受击</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>15125</v>
+      </c>
+      <c r="B594" t="n">
+        <v>15125</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_01</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_01.AKE_Play_VO_Game_Battle_B01_01'</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_无前提条件喊话_知我罪我，唯有你，侦探……但你，为什么要背叛？！</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>15126</v>
+      </c>
+      <c r="B595" t="n">
+        <v>15126</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_02</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_02.AKE_Play_VO_Game_Battle_B01_02'</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_灰姑娘受击/硬直触发_不痛不痒！</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>15127</v>
+      </c>
+      <c r="B596" t="n">
+        <v>15127</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_03</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_03.AKE_Play_VO_Game_Battle_B01_03'</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_玩家受击触发_别示弱啊！不是想逮捕我这个杀人犯吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>15128</v>
+      </c>
+      <c r="B597" t="n">
+        <v>15128</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_04</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_04.AKE_Play_VO_Game_Battle_B01_04'</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_玩家死亡触发_早知道，就不把你卷入这件事了……</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>15129</v>
+      </c>
+      <c r="B598" t="n">
+        <v>15129</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_05</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_05.AKE_Play_VO_Game_Battle_B01_05'</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_战争践踏_我受够背叛了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>15130</v>
+      </c>
+      <c r="B599" t="n">
+        <v>15130</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_06</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_06.AKE_Play_VO_Game_Battle_B01_06'</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_马车冲锋_承认吧，你没有当恶人的天分！</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>15131</v>
+      </c>
+      <c r="B600" t="n">
+        <v>15131</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_07</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_07.AKE_Play_VO_Game_Battle_B01_07'</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_南瓜派对_书里说，骗子将经受火刑之罚……这点你与我同罪，侦探！</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>15132</v>
+      </c>
+      <c r="B601" t="n">
+        <v>15132</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_08</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_08.AKE_Play_VO_Game_Battle_B01_08'</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_射击/扫射_子弹可是不会讲理的，侦探！不如过来和我硬碰硬！</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>15133</v>
+      </c>
+      <c r="B602" t="n">
+        <v>15133</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_09</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_09.AKE_Play_VO_Game_Battle_B01_09'</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_本体模式_灼烧之苦……相比那时，根本就不算什么！</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>15134</v>
+      </c>
+      <c r="B603" t="n">
+        <v>15134</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_10</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_10.AKE_Play_VO_Game_Battle_B01_10'</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_人形态近战攻击_东看西看的，还有余力想别的事？专心接招！</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>15135</v>
+      </c>
+      <c r="B604" t="n">
+        <v>15135</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_11</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_11.AKE_Play_VO_Game_Battle_B01_11'</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_燃烧状态_怎么？不敢过来了？那那时你为什么能牵起我的手呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>15136</v>
+      </c>
+      <c r="B605" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_12</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_12.AKE_Play_VO_Game_Battle_B01_12'</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_踩踏QTE_给我求饶！</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>15137</v>
+      </c>
+      <c r="B606" t="n">
+        <v>15137</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_13</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_13.AKE_Play_VO_Game_Battle_B01_13'</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_踩踏QTE触发三次以上_又来？你难道是喜欢被我这么打？真变态……</t>
         </is>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G599"/>
+  <dimension ref="A1:G600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13618,6 +13618,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>13002</v>
+      </c>
+      <c r="B600" t="n">
+        <v>13002</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mus_Global</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mus/AKE_Stop_Mus_Global.AKE_Stop_Mus_Global'</t>
+        </is>
+      </c>
+      <c r="E600" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1016,10 +1016,10 @@
   </sheetPr>
   <dimension ref="A1:G600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="F589" sqref="F589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13615,7 +13615,7 @@
         </is>
       </c>
       <c r="E599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1016,10 +1016,10 @@
   </sheetPr>
   <dimension ref="A1:G600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F589" sqref="F589"/>
+      <selection pane="bottomLeft" activeCell="D586" sqref="D586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4989,19 +4989,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="B189" t="n">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk4</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk4.AKE_Play_Char_Skill_C02_Atk4'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready1.AKE_Play_Char_Skill_C02_Focus_Ready1'</t>
         </is>
       </c>
       <c r="E189" t="b">
@@ -5010,19 +5010,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="B190" t="n">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk5</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready2</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5.AKE_Play_Char_Skill_C02_Atk5'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready2.AKE_Play_Char_Skill_C02_Focus_Ready2'</t>
         </is>
       </c>
       <c r="E190" t="b">
@@ -5031,19 +5031,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="B191" t="n">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready1</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready3</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready1.AKE_Play_Char_Skill_C02_Focus_Ready1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready3.AKE_Play_Char_Skill_C02_Focus_Ready3'</t>
         </is>
       </c>
       <c r="E191" t="b">
@@ -5052,19 +5052,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="B192" t="n">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready2</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready4</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready2.AKE_Play_Char_Skill_C02_Focus_Ready2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready4.AKE_Play_Char_Skill_C02_Focus_Ready4'</t>
         </is>
       </c>
       <c r="E192" t="b">
@@ -5073,19 +5073,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="B193" t="n">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready3</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready5</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready3.AKE_Play_Char_Skill_C02_Focus_Ready3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready5.AKE_Play_Char_Skill_C02_Focus_Ready5'</t>
         </is>
       </c>
       <c r="E193" t="b">
@@ -5094,19 +5094,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="B194" t="n">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready4</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready6</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready4.AKE_Play_Char_Skill_C02_Focus_Ready4'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready6.AKE_Play_Char_Skill_C02_Focus_Ready6'</t>
         </is>
       </c>
       <c r="E194" t="b">
@@ -5115,19 +5115,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="B195" t="n">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready5</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready7</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready5.AKE_Play_Char_Skill_C02_Focus_Ready5'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready7.AKE_Play_Char_Skill_C02_Focus_Ready7'</t>
         </is>
       </c>
       <c r="E195" t="b">
@@ -5136,19 +5136,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="B196" t="n">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready6</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Ready8</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready6.AKE_Play_Char_Skill_C02_Focus_Ready6'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready8.AKE_Play_Char_Skill_C02_Focus_Ready8'</t>
         </is>
       </c>
       <c r="E196" t="b">
@@ -5157,19 +5157,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="B197" t="n">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready7</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready7.AKE_Play_Char_Skill_C02_Focus_Ready7'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk1.AKE_Play_Char_Skill_C02_Focus_Atk1'</t>
         </is>
       </c>
       <c r="E197" t="b">
@@ -5178,19 +5178,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="B198" t="n">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Ready8</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk2</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Ready8.AKE_Play_Char_Skill_C02_Focus_Ready8'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2.AKE_Play_Char_Skill_C02_Focus_Atk2'</t>
         </is>
       </c>
       <c r="E198" t="b">
@@ -5199,19 +5199,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="B199" t="n">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Atk1</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_Start</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk1.AKE_Play_Char_Skill_C02_Focus_Atk1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_Start.AKE_Play_Char_Skill_C02_Focus_Atk3_Start'</t>
         </is>
       </c>
       <c r="E199" t="b">
@@ -5220,19 +5220,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="B200" t="n">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Atk2</t>
+          <t>AKE_Play_Char_Skill_C02_SkyAtk_Start</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2.AKE_Play_Char_Skill_C02_Focus_Atk2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_SkyAtk_Start.AKE_Play_Char_Skill_C02_SkyAtk_Start'</t>
         </is>
       </c>
       <c r="E200" t="b">
@@ -5241,19 +5241,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="B201" t="n">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_Start</t>
+          <t>AKE_Play_Char_Skill_C02_SkyAtk_End</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_Start.AKE_Play_Char_Skill_C02_Focus_Atk3_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_SkyAtk_End.AKE_Play_Char_Skill_C02_SkyAtk_End'</t>
         </is>
       </c>
       <c r="E201" t="b">
@@ -5262,19 +5262,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="B202" t="n">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_SkyAtk_Start</t>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Enter</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_SkyAtk_Start.AKE_Play_Char_Skill_C02_SkyAtk_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Enter.AKE_Play_Char_Skill_C02_Strafe_Enter'</t>
         </is>
       </c>
       <c r="E202" t="b">
@@ -5283,19 +5283,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="B203" t="n">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_SkyAtk_End</t>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Exit</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_SkyAtk_End.AKE_Play_Char_Skill_C02_SkyAtk_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Exit.AKE_Play_Char_Skill_C02_Strafe_Exit'</t>
         </is>
       </c>
       <c r="E203" t="b">
@@ -5304,19 +5304,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="B204" t="n">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Strafe_Enter</t>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Atk</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Enter.AKE_Play_Char_Skill_C02_Strafe_Enter'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Atk.AKE_Play_Char_Skill_C02_Strafe_Defense_Atk'</t>
         </is>
       </c>
       <c r="E204" t="b">
@@ -5325,19 +5325,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="B205" t="n">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Strafe_Exit</t>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Counter_Atk1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Exit.AKE_Play_Char_Skill_C02_Strafe_Exit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Counter_Atk1.AKE_Play_Char_Skill_C02_Strafe_Counter_Atk1'</t>
         </is>
       </c>
       <c r="E205" t="b">
@@ -5346,19 +5346,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="B206" t="n">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Atk</t>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Atk.AKE_Play_Char_Skill_C02_Strafe_Defense_Atk'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2.AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2'</t>
         </is>
       </c>
       <c r="E206" t="b">
@@ -5367,19 +5367,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="B207" t="n">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Strafe_Counter_Atk1</t>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Hit</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Counter_Atk1.AKE_Play_Char_Skill_C02_Strafe_Counter_Atk1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Hit.AKE_Play_Char_Skill_C02_Strafe_Defense_Hit'</t>
         </is>
       </c>
       <c r="E207" t="b">
@@ -5388,19 +5388,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="B208" t="n">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2</t>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Break</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2.AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Break.AKE_Play_Char_Skill_C02_Strafe_Defense_Break'</t>
         </is>
       </c>
       <c r="E208" t="b">
@@ -5409,19 +5409,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="B209" t="n">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Hit</t>
+          <t>AKE_Play_Char_Skill_C02_Hook_Launch_F</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Hit.AKE_Play_Char_Skill_C02_Strafe_Defense_Hit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Launch_F.AKE_Play_Char_Skill_C02_Hook_Launch_F'</t>
         </is>
       </c>
       <c r="E209" t="b">
@@ -5430,19 +5430,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="B210" t="n">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Strafe_Defense_Break</t>
+          <t>AKE_Play_Char_Skill_C02_Hook_Launch_B</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Defense_Break.AKE_Play_Char_Skill_C02_Strafe_Defense_Break'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Launch_B.AKE_Play_Char_Skill_C02_Hook_Launch_B'</t>
         </is>
       </c>
       <c r="E210" t="b">
@@ -5451,19 +5451,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="B211" t="n">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hook_Launch_F</t>
+          <t>AKE_Play_Char_Skill_C02_Hook_Suc_F</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Launch_F.AKE_Play_Char_Skill_C02_Hook_Launch_F'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Suc_F.AKE_Play_Char_Skill_C02_Hook_Suc_F'</t>
         </is>
       </c>
       <c r="E211" t="b">
@@ -5472,19 +5472,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="B212" t="n">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hook_Launch_B</t>
+          <t>AKE_Play_Char_Skill_C02_Hook_Suc_D</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Launch_B.AKE_Play_Char_Skill_C02_Hook_Launch_B'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Suc_D.AKE_Play_Char_Skill_C02_Hook_Suc_D'</t>
         </is>
       </c>
       <c r="E212" t="b">
@@ -5493,19 +5493,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="B213" t="n">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hook_Suc_F</t>
+          <t>AKE_Play_Char_Skill_C02_Hook_Fly</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Suc_F.AKE_Play_Char_Skill_C02_Hook_Suc_F'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Fly.AKE_Play_Char_Skill_C02_Hook_Fly'</t>
         </is>
       </c>
       <c r="E213" t="b">
@@ -5514,19 +5514,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="B214" t="n">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hook_Suc_D</t>
+          <t>AKE_Play_Char_Skill_C02_Hook_Fail</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Suc_D.AKE_Play_Char_Skill_C02_Hook_Suc_D'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Fail.AKE_Play_Char_Skill_C02_Hook_Fail'</t>
         </is>
       </c>
       <c r="E214" t="b">
@@ -5535,19 +5535,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="B215" t="n">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hook_Fly</t>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Fly.AKE_Play_Char_Skill_C02_Hook_Fly'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre.AKE_Play_Char_Skill_C02_Execu1_Pre'</t>
         </is>
       </c>
       <c r="E215" t="b">
@@ -5556,19 +5556,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="B216" t="n">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hook_Fail</t>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Far</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hook_Fail.AKE_Play_Char_Skill_C02_Hook_Fail'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Far.AKE_Play_Char_Skill_C02_Execu1_Pre_Far'</t>
         </is>
       </c>
       <c r="E216" t="b">
@@ -5577,19 +5577,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="B217" t="n">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu1_Pre</t>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Hook</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre.AKE_Play_Char_Skill_C02_Execu1_Pre'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Hook'</t>
         </is>
       </c>
       <c r="E217" t="b">
@@ -5598,19 +5598,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="B218" t="n">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Far</t>
+          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Far.AKE_Play_Char_Skill_C02_Execu1_Pre_Far'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook'</t>
         </is>
       </c>
       <c r="E218" t="b">
@@ -5619,19 +5619,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="B219" t="n">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Hook</t>
+          <t>AKE_Play_Char_Skill_C02_Execu1</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Hook'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1.AKE_Play_Char_Skill_C02_Execu1'</t>
         </is>
       </c>
       <c r="E219" t="b">
@@ -5640,19 +5640,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="B220" t="n">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook</t>
+          <t>AKE_Play_Char_Skill_C02_Execu2_Start</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C02_Execu1_Pre_Far_Hook'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_Start.AKE_Play_Char_Skill_C02_Execu2_Start'</t>
         </is>
       </c>
       <c r="E220" t="b">
@@ -5661,19 +5661,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="B221" t="n">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu1</t>
+          <t>AKE_Play_Char_Skill_C02_Execu2_LP</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu1.AKE_Play_Char_Skill_C02_Execu1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_LP.AKE_Play_Char_Skill_C02_Execu2_LP'</t>
         </is>
       </c>
       <c r="E221" t="b">
@@ -5682,19 +5682,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="B222" t="n">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu2_Start</t>
+          <t>AKE_Stop_Char_Skill_C02_Execu2_LP</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_Start.AKE_Play_Char_Skill_C02_Execu2_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Stop_Char_Skill_C02_Execu2_LP.AKE_Stop_Char_Skill_C02_Execu2_LP'</t>
         </is>
       </c>
       <c r="E222" t="b">
@@ -5703,19 +5703,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="B223" t="n">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu2_LP</t>
+          <t>AKE_Play_Char_Skill_C02_Execu2_End</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_LP.AKE_Play_Char_Skill_C02_Execu2_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_End.AKE_Play_Char_Skill_C02_Execu2_End'</t>
         </is>
       </c>
       <c r="E223" t="b">
@@ -5724,19 +5724,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="B224" t="n">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>AKE_Stop_Char_Skill_C02_Execu2_LP</t>
+          <t>AKE_Play_Char_Skill_C02_Execu2_End_Sp</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Stop_Char_Skill_C02_Execu2_LP.AKE_Stop_Char_Skill_C02_Execu2_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_End_Sp.AKE_Play_Char_Skill_C02_Execu2_End_Sp'</t>
         </is>
       </c>
       <c r="E224" t="b">
@@ -5745,19 +5745,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="B225" t="n">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu2_End</t>
+          <t>AKE_Play_Char_Skill_C02_Ult</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_End.AKE_Play_Char_Skill_C02_Execu2_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult.AKE_Play_Char_Skill_C02_Ult'</t>
         </is>
       </c>
       <c r="E225" t="b">
@@ -5766,19 +5766,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="B226" t="n">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Execu2_End_Sp</t>
+          <t>AKE_Play_Char_Skill_C02_Counter</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Execu2_End_Sp.AKE_Play_Char_Skill_C02_Execu2_End_Sp'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter.AKE_Play_Char_Skill_C02_Counter'</t>
         </is>
       </c>
       <c r="E226" t="b">
@@ -5787,19 +5787,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="B227" t="n">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Ult</t>
+          <t>AKE_Play_Char_Skill_C02_Counter_Lit</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult.AKE_Play_Char_Skill_C02_Ult'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Lit.AKE_Play_Char_Skill_C02_Counter_Lit'</t>
         </is>
       </c>
       <c r="E227" t="b">
@@ -5808,19 +5808,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="B228" t="n">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Counter</t>
+          <t>AKE_Play_Char_Skill_C02_Counter_Hvy</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter.AKE_Play_Char_Skill_C02_Counter'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Hvy.AKE_Play_Char_Skill_C02_Counter_Hvy'</t>
         </is>
       </c>
       <c r="E228" t="b">
@@ -5829,19 +5829,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="B229" t="n">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Counter_Lit</t>
+          <t>AKE_Play_Char_Skill_C02_Counter_Sp_Atk</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Lit.AKE_Play_Char_Skill_C02_Counter_Lit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Sp_Atk.AKE_Play_Char_Skill_C02_Counter_Sp_Atk'</t>
         </is>
       </c>
       <c r="E229" t="b">
@@ -5850,19 +5850,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="B230" t="n">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Counter_Hvy</t>
+          <t>AKE_Play_Char_Skill_C02_Atk_Rush</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Hvy.AKE_Play_Char_Skill_C02_Counter_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk_Rush.AKE_Play_Char_Skill_C02_Atk_Rush'</t>
         </is>
       </c>
       <c r="E230" t="b">
@@ -5871,19 +5871,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3048</v>
+        <v>3050</v>
       </c>
       <c r="B231" t="n">
-        <v>3048</v>
+        <v>3050</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Counter_Sp_Atk</t>
+          <t>AKE_Play_Char_Skill_C02_Dodge</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Counter_Sp_Atk.AKE_Play_Char_Skill_C02_Counter_Sp_Atk'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Dodge.AKE_Play_Char_Skill_C02_Dodge'</t>
         </is>
       </c>
       <c r="E231" t="b">
@@ -5892,19 +5892,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="B232" t="n">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk_Rush</t>
+          <t>AKE_Play_Char_Skill_C02_Dodge_Step</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk_Rush.AKE_Play_Char_Skill_C02_Atk_Rush'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Dodge_Step.AKE_Play_Char_Skill_C02_Dodge_Step'</t>
         </is>
       </c>
       <c r="E232" t="b">
@@ -5913,19 +5913,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="B233" t="n">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Dodge</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fly_Start</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Dodge.AKE_Play_Char_Skill_C02_Dodge'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fly_Start.AKE_Play_Char_Skill_C02_Hit_Fly_Start'</t>
         </is>
       </c>
       <c r="E233" t="b">
@@ -5934,19 +5934,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="B234" t="n">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Dodge_Step</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fly_End</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Dodge_Step.AKE_Play_Char_Skill_C02_Dodge_Step'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fly_End.AKE_Play_Char_Skill_C02_Hit_Fly_End'</t>
         </is>
       </c>
       <c r="E234" t="b">
@@ -5955,19 +5955,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="B235" t="n">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Fly_Start</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Wall</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fly_Start.AKE_Play_Char_Skill_C02_Hit_Fly_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Wall.AKE_Play_Char_Skill_C02_Hit_Wall'</t>
         </is>
       </c>
       <c r="E235" t="b">
@@ -5976,19 +5976,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="B236" t="n">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Fly_End</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Wall_End</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fly_End.AKE_Play_Char_Skill_C02_Hit_Fly_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Wall_End.AKE_Play_Char_Skill_C02_Hit_Wall_End'</t>
         </is>
       </c>
       <c r="E236" t="b">
@@ -5997,19 +5997,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="B237" t="n">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Wall</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Death</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Wall.AKE_Play_Char_Skill_C02_Hit_Wall'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Death.AKE_Play_Char_Skill_C02_Hit_Death'</t>
         </is>
       </c>
       <c r="E237" t="b">
@@ -6018,19 +6018,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="B238" t="n">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Wall_End</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Death_Grd</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Wall_End.AKE_Play_Char_Skill_C02_Hit_Wall_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Death_Grd.AKE_Play_Char_Skill_C02_Hit_Death_Grd'</t>
         </is>
       </c>
       <c r="E238" t="b">
@@ -6039,19 +6039,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="B239" t="n">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Death</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fall_Start</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Death.AKE_Play_Char_Skill_C02_Hit_Death'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fall_Start.AKE_Play_Char_Skill_C02_Hit_Fall_Start'</t>
         </is>
       </c>
       <c r="E239" t="b">
@@ -6060,19 +6060,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="B240" t="n">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Death_Grd</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Fall_End</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Death_Grd.AKE_Play_Char_Skill_C02_Hit_Death_Grd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fall_End.AKE_Play_Char_Skill_C02_Hit_Fall_End'</t>
         </is>
       </c>
       <c r="E240" t="b">
@@ -6081,19 +6081,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="B241" t="n">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Fall_Start</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Hvy</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fall_Start.AKE_Play_Char_Skill_C02_Hit_Fall_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Hvy.AKE_Play_Char_Skill_C02_Hit_Hvy'</t>
         </is>
       </c>
       <c r="E241" t="b">
@@ -6102,19 +6102,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="B242" t="n">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Fall_End</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk_End</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Fall_End.AKE_Play_Char_Skill_C02_Hit_Fall_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk_End.AKE_Play_Char_Skill_C02_Focus_Atk_End'</t>
         </is>
       </c>
       <c r="E242" t="b">
@@ -6123,19 +6123,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="B243" t="n">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Hvy</t>
+          <t>AKE_Play_Char_Skill_C02_Atk1_End</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Hvy.AKE_Play_Char_Skill_C02_Hit_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk1_End.AKE_Play_Char_Skill_C02_Atk1_End'</t>
         </is>
       </c>
       <c r="E243" t="b">
@@ -6144,19 +6144,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="B244" t="n">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Atk_End</t>
+          <t>AKE_Play_Char_Skill_C02_Atk2_End</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk_End.AKE_Play_Char_Skill_C02_Focus_Atk_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk2_End.AKE_Play_Char_Skill_C02_Atk2_End'</t>
         </is>
       </c>
       <c r="E244" t="b">
@@ -6165,19 +6165,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="B245" t="n">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk1_End</t>
+          <t>AKE_Play_Char_Skill_C02_Atk3_End</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk1_End.AKE_Play_Char_Skill_C02_Atk1_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk3_End.AKE_Play_Char_Skill_C02_Atk3_End'</t>
         </is>
       </c>
       <c r="E245" t="b">
@@ -6186,19 +6186,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="B246" t="n">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk2_End</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk2_2nd</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk2_End.AKE_Play_Char_Skill_C02_Atk2_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2_2nd.AKE_Play_Char_Skill_C02_Focus_Atk2_2nd'</t>
         </is>
       </c>
       <c r="E246" t="b">
@@ -6207,19 +6207,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="B247" t="n">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk3_End</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk3_End.AKE_Play_Char_Skill_C02_Atk3_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd.AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd'</t>
         </is>
       </c>
       <c r="E247" t="b">
@@ -6228,19 +6228,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="B248" t="n">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk4_End</t>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_2nd</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk4_End.AKE_Play_Char_Skill_C02_Atk4_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_2nd.AKE_Play_Char_Skill_C02_Focus_Atk3_2nd'</t>
         </is>
       </c>
       <c r="E248" t="b">
@@ -6249,19 +6249,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="B249" t="n">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Atk5_End</t>
+          <t>AKE_Play_Char_Skill_C02_Ult_End</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5_End.AKE_Play_Char_Skill_C02_Atk5_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_End.AKE_Play_Char_Skill_C02_Ult_End'</t>
         </is>
       </c>
       <c r="E249" t="b">
@@ -6270,19 +6270,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="B250" t="n">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Atk2_2nd</t>
+          <t>AKE_Play_Char_Skill_C02_Ult_Exp</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2_2nd.AKE_Play_Char_Skill_C02_Focus_Atk2_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_Exp.AKE_Play_Char_Skill_C02_Ult_Exp'</t>
         </is>
       </c>
       <c r="E250" t="b">
@@ -6291,19 +6291,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="B251" t="n">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd</t>
+          <t>AKE_Play_Char_Skill_C02_Hit_Lit</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd.AKE_Play_Char_Skill_C02_Focus_Atk3_Start_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Lit.AKE_Play_Char_Skill_C02_Hit_Lit'</t>
         </is>
       </c>
       <c r="E251" t="b">
@@ -6312,19 +6312,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="B252" t="n">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_2nd</t>
+          <t>AKE_Play_Char_Skill_C01_Atk1</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_2nd.AKE_Play_Char_Skill_C02_Focus_Atk3_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk1.AKE_Play_Char_Skill_C01_Atk1'</t>
         </is>
       </c>
       <c r="E252" t="b">
@@ -6333,19 +6333,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="B253" t="n">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Ult_End</t>
+          <t>AKE_Play_Char_Skill_C01_Atk2</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_End.AKE_Play_Char_Skill_C02_Ult_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk2.AKE_Play_Char_Skill_C01_Atk2'</t>
         </is>
       </c>
       <c r="E253" t="b">
@@ -6354,19 +6354,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="B254" t="n">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Ult_Exp</t>
+          <t>AKE_Play_Char_Skill_C01_Atk3</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_Exp.AKE_Play_Char_Skill_C02_Ult_Exp'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk3.AKE_Play_Char_Skill_C01_Atk3'</t>
         </is>
       </c>
       <c r="E254" t="b">
@@ -6375,19 +6375,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="B255" t="n">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C02_Hit_Lit</t>
+          <t>AKE_Play_Char_Skill_C01_Atk4</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Hit_Lit.AKE_Play_Char_Skill_C02_Hit_Lit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk4.AKE_Play_Char_Skill_C01_Atk4'</t>
         </is>
       </c>
       <c r="E255" t="b">
@@ -6396,19 +6396,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="B256" t="n">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Atk1</t>
+          <t>AKE_Play_Char_Skill_C01_Atk5</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk1.AKE_Play_Char_Skill_C01_Atk1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk5.AKE_Play_Char_Skill_C01_Atk5'</t>
         </is>
       </c>
       <c r="E256" t="b">
@@ -6417,19 +6417,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="B257" t="n">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Atk2</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready1</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk2.AKE_Play_Char_Skill_C01_Atk2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready1.AKE_Play_Char_Skill_C01_Focus_Ready1'</t>
         </is>
       </c>
       <c r="E257" t="b">
@@ -6438,19 +6438,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="B258" t="n">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Atk3</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready2</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk3.AKE_Play_Char_Skill_C01_Atk3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready2.AKE_Play_Char_Skill_C01_Focus_Ready2'</t>
         </is>
       </c>
       <c r="E258" t="b">
@@ -6459,19 +6459,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3076</v>
+        <v>3080</v>
       </c>
       <c r="B259" t="n">
-        <v>3076</v>
+        <v>3080</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Atk4</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready3</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk4.AKE_Play_Char_Skill_C01_Atk4'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready3.AKE_Play_Char_Skill_C01_Focus_Ready3'</t>
         </is>
       </c>
       <c r="E259" t="b">
@@ -6480,19 +6480,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="B260" t="n">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Atk5</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready4</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk5.AKE_Play_Char_Skill_C01_Atk5'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready4.AKE_Play_Char_Skill_C01_Focus_Ready4'</t>
         </is>
       </c>
       <c r="E260" t="b">
@@ -6501,19 +6501,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="B261" t="n">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Ready1</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Ready5</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready1.AKE_Play_Char_Skill_C01_Focus_Ready1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready5.AKE_Play_Char_Skill_C01_Focus_Ready5'</t>
         </is>
       </c>
       <c r="E261" t="b">
@@ -6522,19 +6522,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="B262" t="n">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Ready2</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk1</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready2.AKE_Play_Char_Skill_C01_Focus_Ready2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk1.AKE_Play_Char_Skill_C01_Focus_Atk1'</t>
         </is>
       </c>
       <c r="E262" t="b">
@@ -6543,19 +6543,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3080</v>
+        <v>3084</v>
       </c>
       <c r="B263" t="n">
-        <v>3080</v>
+        <v>3084</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Ready3</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready3.AKE_Play_Char_Skill_C01_Focus_Ready3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2.AKE_Play_Char_Skill_C01_Focus_Atk2'</t>
         </is>
       </c>
       <c r="E263" t="b">
@@ -6564,19 +6564,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="B264" t="n">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Ready4</t>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready4.AKE_Play_Char_Skill_C01_Focus_Ready4'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3.AKE_Play_Char_Skill_C01_Focus_Atk3'</t>
         </is>
       </c>
       <c r="E264" t="b">
@@ -6585,19 +6585,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="B265" t="n">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Ready5</t>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Enter</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Ready5.AKE_Play_Char_Skill_C01_Focus_Ready5'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Enter.AKE_Play_Char_Skill_C01_Strafe_Enter'</t>
         </is>
       </c>
       <c r="E265" t="b">
@@ -6606,19 +6606,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="B266" t="n">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Atk1</t>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Fire</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk1.AKE_Play_Char_Skill_C01_Focus_Atk1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Fire.AKE_Play_Char_Skill_C01_Strafe_Fire'</t>
         </is>
       </c>
       <c r="E266" t="b">
@@ -6627,19 +6627,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="B267" t="n">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Atk2</t>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Reload</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2.AKE_Play_Char_Skill_C01_Focus_Atk2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Reload.AKE_Play_Char_Skill_C01_Strafe_Reload'</t>
         </is>
       </c>
       <c r="E267" t="b">
@@ -6648,19 +6648,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="B268" t="n">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Focus_Atk3</t>
+          <t>AKE_Play_Char_Skill_C01_Strafe_Exit</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3.AKE_Play_Char_Skill_C01_Focus_Atk3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Exit.AKE_Play_Char_Skill_C01_Strafe_Exit'</t>
         </is>
       </c>
       <c r="E268" t="b">
@@ -6669,19 +6669,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="B269" t="n">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Strafe_Enter</t>
+          <t>AKE_Play_Char_Skill_C01_Hook_Launch_F</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Enter.AKE_Play_Char_Skill_C01_Strafe_Enter'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Launch_F.AKE_Play_Char_Skill_C01_Hook_Launch_F'</t>
         </is>
       </c>
       <c r="E269" t="b">
@@ -6690,19 +6690,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="B270" t="n">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Strafe_Fire</t>
+          <t>AKE_Play_Char_Skill_C01_Hook_Launch_B</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Fire.AKE_Play_Char_Skill_C01_Strafe_Fire'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Launch_B.AKE_Play_Char_Skill_C01_Hook_Launch_B'</t>
         </is>
       </c>
       <c r="E270" t="b">
@@ -6711,19 +6711,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3088</v>
+        <v>3092</v>
       </c>
       <c r="B271" t="n">
-        <v>3088</v>
+        <v>3092</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Strafe_Reload</t>
+          <t>AKE_Play_Char_Skill_C01_Hook_Suc_F</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Reload.AKE_Play_Char_Skill_C01_Strafe_Reload'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Suc_F.AKE_Play_Char_Skill_C01_Hook_Suc_F'</t>
         </is>
       </c>
       <c r="E271" t="b">
@@ -6732,19 +6732,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3089</v>
+        <v>3093</v>
       </c>
       <c r="B272" t="n">
-        <v>3089</v>
+        <v>3093</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Strafe_Exit</t>
+          <t>AKE_Play_Char_Skill_C01_Hook_Suc_D</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_Exit.AKE_Play_Char_Skill_C01_Strafe_Exit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Suc_D.AKE_Play_Char_Skill_C01_Hook_Suc_D'</t>
         </is>
       </c>
       <c r="E272" t="b">
@@ -6753,19 +6753,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3090</v>
+        <v>3094</v>
       </c>
       <c r="B273" t="n">
-        <v>3090</v>
+        <v>3094</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hook_Launch_F</t>
+          <t>AKE_Play_Char_Skill_C01_Hook_Fly</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Launch_F.AKE_Play_Char_Skill_C01_Hook_Launch_F'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Fly.AKE_Play_Char_Skill_C01_Hook_Fly'</t>
         </is>
       </c>
       <c r="E273" t="b">
@@ -6774,19 +6774,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3091</v>
+        <v>3095</v>
       </c>
       <c r="B274" t="n">
-        <v>3091</v>
+        <v>3095</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hook_Launch_B</t>
+          <t>AKE_Play_Char_Skill_C01_Hook_Fail</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Launch_B.AKE_Play_Char_Skill_C01_Hook_Launch_B'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Fail.AKE_Play_Char_Skill_C01_Hook_Fail'</t>
         </is>
       </c>
       <c r="E274" t="b">
@@ -6795,19 +6795,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3092</v>
+        <v>3096</v>
       </c>
       <c r="B275" t="n">
-        <v>3092</v>
+        <v>3096</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hook_Suc_F</t>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Suc_F.AKE_Play_Char_Skill_C01_Hook_Suc_F'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre.AKE_Play_Char_Skill_C01_Execu1_Pre'</t>
         </is>
       </c>
       <c r="E275" t="b">
@@ -6816,19 +6816,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3093</v>
+        <v>3097</v>
       </c>
       <c r="B276" t="n">
-        <v>3093</v>
+        <v>3097</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hook_Suc_D</t>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Far</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Suc_D.AKE_Play_Char_Skill_C01_Hook_Suc_D'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Far.AKE_Play_Char_Skill_C01_Execu1_Pre_Far'</t>
         </is>
       </c>
       <c r="E276" t="b">
@@ -6837,19 +6837,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3094</v>
+        <v>3098</v>
       </c>
       <c r="B277" t="n">
-        <v>3094</v>
+        <v>3098</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hook_Fly</t>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Hook</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Fly.AKE_Play_Char_Skill_C01_Hook_Fly'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Hook'</t>
         </is>
       </c>
       <c r="E277" t="b">
@@ -6858,19 +6858,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3095</v>
+        <v>3099</v>
       </c>
       <c r="B278" t="n">
-        <v>3095</v>
+        <v>3099</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hook_Fail</t>
+          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hook_Fail.AKE_Play_Char_Skill_C01_Hook_Fail'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook'</t>
         </is>
       </c>
       <c r="E278" t="b">
@@ -6879,19 +6879,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3096</v>
+        <v>3100</v>
       </c>
       <c r="B279" t="n">
-        <v>3096</v>
+        <v>3100</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Execu1_Pre</t>
+          <t>AKE_Play_Char_Skill_C01_Execu1</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre.AKE_Play_Char_Skill_C01_Execu1_Pre'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1.AKE_Play_Char_Skill_C01_Execu1'</t>
         </is>
       </c>
       <c r="E279" t="b">
@@ -6900,19 +6900,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3097</v>
+        <v>3101</v>
       </c>
       <c r="B280" t="n">
-        <v>3097</v>
+        <v>3101</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Far</t>
+          <t>AKE_Play_Char_Skill_C01_Execu2</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Far.AKE_Play_Char_Skill_C01_Execu1_Pre_Far'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu2.AKE_Play_Char_Skill_C01_Execu2'</t>
         </is>
       </c>
       <c r="E280" t="b">
@@ -6921,19 +6921,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3098</v>
+        <v>3102</v>
       </c>
       <c r="B281" t="n">
-        <v>3098</v>
+        <v>3102</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Hook</t>
+          <t>AKE_Play_Char_Skill_C01_Ult</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Hook'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Ult.AKE_Play_Char_Skill_C01_Ult'</t>
         </is>
       </c>
       <c r="E281" t="b">
@@ -6942,19 +6942,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="B282" t="n">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook</t>
+          <t>AKE_Play_Char_Skill_C01_Ult_End</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook.AKE_Play_Char_Skill_C01_Execu1_Pre_Far_Hook'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Ult_End.AKE_Play_Char_Skill_C01_Ult_End'</t>
         </is>
       </c>
       <c r="E282" t="b">
@@ -6963,19 +6963,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3100</v>
+        <v>3104</v>
       </c>
       <c r="B283" t="n">
-        <v>3100</v>
+        <v>3104</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Execu1</t>
+          <t>AKE_Play_Char_Skill_C01_Counter</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu1.AKE_Play_Char_Skill_C01_Execu1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Counter.AKE_Play_Char_Skill_C01_Counter'</t>
         </is>
       </c>
       <c r="E283" t="b">
@@ -6984,19 +6984,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3101</v>
+        <v>3105</v>
       </c>
       <c r="B284" t="n">
-        <v>3101</v>
+        <v>3105</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Execu2</t>
+          <t>AKE_Play_Char_Skill_C01_Counter_Sp</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Execu2.AKE_Play_Char_Skill_C01_Execu2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Counter_Sp.AKE_Play_Char_Skill_C01_Counter_Sp'</t>
         </is>
       </c>
       <c r="E284" t="b">
@@ -7005,19 +7005,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3102</v>
+        <v>3106</v>
       </c>
       <c r="B285" t="n">
-        <v>3102</v>
+        <v>3106</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Ult</t>
+          <t>AKE_Play_Char_Skill_C01_Dodge</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Ult.AKE_Play_Char_Skill_C01_Ult'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Dodge.AKE_Play_Char_Skill_C01_Dodge'</t>
         </is>
       </c>
       <c r="E285" t="b">
@@ -7026,19 +7026,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3103</v>
+        <v>3107</v>
       </c>
       <c r="B286" t="n">
-        <v>3103</v>
+        <v>3107</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Ult_End</t>
+          <t>AKE_Play_Char_Skill_C01_Dodge_Step</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Ult_End.AKE_Play_Char_Skill_C01_Ult_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Dodge_Step.AKE_Play_Char_Skill_C01_Dodge_Step'</t>
         </is>
       </c>
       <c r="E286" t="b">
@@ -7047,19 +7047,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="B287" t="n">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Counter</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_FlyStart</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Counter.AKE_Play_Char_Skill_C01_Counter'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_FlyStart.AKE_Play_Char_Skill_C01_Hit_FlyStart'</t>
         </is>
       </c>
       <c r="E287" t="b">
@@ -7068,19 +7068,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3105</v>
+        <v>3109</v>
       </c>
       <c r="B288" t="n">
-        <v>3105</v>
+        <v>3109</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Counter_Sp</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_FlyEnd</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Counter_Sp.AKE_Play_Char_Skill_C01_Counter_Sp'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_FlyEnd.AKE_Play_Char_Skill_C01_Hit_FlyEnd'</t>
         </is>
       </c>
       <c r="E288" t="b">
@@ -7089,19 +7089,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3106</v>
+        <v>3110</v>
       </c>
       <c r="B289" t="n">
-        <v>3106</v>
+        <v>3110</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Dodge</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Wall</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Dodge.AKE_Play_Char_Skill_C01_Dodge'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Wall.AKE_Play_Char_Skill_C01_Hit_Wall'</t>
         </is>
       </c>
       <c r="E289" t="b">
@@ -7110,19 +7110,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3107</v>
+        <v>3111</v>
       </c>
       <c r="B290" t="n">
-        <v>3107</v>
+        <v>3111</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Dodge_Step</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Wall_End</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Dodge_Step.AKE_Play_Char_Skill_C01_Dodge_Step'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Wall_End.AKE_Play_Char_Skill_C01_Hit_Wall_End'</t>
         </is>
       </c>
       <c r="E290" t="b">
@@ -7131,19 +7131,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="B291" t="n">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_FlyStart</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Death</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_FlyStart.AKE_Play_Char_Skill_C01_Hit_FlyStart'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death.AKE_Play_Char_Skill_C01_Hit_Death'</t>
         </is>
       </c>
       <c r="E291" t="b">
@@ -7152,19 +7152,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="B292" t="n">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_FlyEnd</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Death_Grd</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_FlyEnd.AKE_Play_Char_Skill_C01_Hit_FlyEnd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death_Grd.AKE_Play_Char_Skill_C01_Hit_Death_Grd'</t>
         </is>
       </c>
       <c r="E292" t="b">
@@ -7173,19 +7173,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="B293" t="n">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Wall</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Fall_Start</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Wall.AKE_Play_Char_Skill_C01_Hit_Wall'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Fall_Start.AKE_Play_Char_Skill_C01_Hit_Fall_Start'</t>
         </is>
       </c>
       <c r="E293" t="b">
@@ -7194,19 +7194,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="B294" t="n">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Wall_End</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Fall_End</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Wall_End.AKE_Play_Char_Skill_C01_Hit_Wall_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Fall_End.AKE_Play_Char_Skill_C01_Hit_Fall_End'</t>
         </is>
       </c>
       <c r="E294" t="b">
@@ -7215,19 +7215,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="B295" t="n">
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Death</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Hvy</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death.AKE_Play_Char_Skill_C01_Hit_Death'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Hvy.AKE_Play_Char_Skill_C01_Hit_Hvy'</t>
         </is>
       </c>
       <c r="E295" t="b">
@@ -7236,19 +7236,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="B296" t="n">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Death_Grd</t>
+          <t>AKE_Play_Char_Skill_C01_Hit_Death_B</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death_Grd.AKE_Play_Char_Skill_C01_Hit_Death_Grd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death_B.AKE_Play_Char_Skill_C01_Hit_Death_B'</t>
         </is>
       </c>
       <c r="E296" t="b">
@@ -7257,19 +7257,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="B297" t="n">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Fall_Start</t>
+          <t>AKE_Play_Char_Skill_C03_Atk1</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Fall_Start.AKE_Play_Char_Skill_C01_Hit_Fall_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk1.AKE_Play_Char_Skill_C03_Atk1'</t>
         </is>
       </c>
       <c r="E297" t="b">
@@ -7278,19 +7278,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="B298" t="n">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Fall_End</t>
+          <t>AKE_Play_Char_Skill_C03_Atk2</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Fall_End.AKE_Play_Char_Skill_C01_Hit_Fall_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk2.AKE_Play_Char_Skill_C03_Atk2'</t>
         </is>
       </c>
       <c r="E298" t="b">
@@ -7299,19 +7299,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3116</v>
+        <v>3120</v>
       </c>
       <c r="B299" t="n">
-        <v>3116</v>
+        <v>3120</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Hvy</t>
+          <t>AKE_Play_Char_Skill_C03_Atk3</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Hvy.AKE_Play_Char_Skill_C01_Hit_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk3.AKE_Play_Char_Skill_C03_Atk3'</t>
         </is>
       </c>
       <c r="E299" t="b">
@@ -7320,19 +7320,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="B300" t="n">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C01_Hit_Death_B</t>
+          <t>AKE_Play_Char_Skill_C03_Atk3_1</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Hit_Death_B.AKE_Play_Char_Skill_C01_Hit_Death_B'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk3_1.AKE_Play_Char_Skill_C03_Atk3_1'</t>
         </is>
       </c>
       <c r="E300" t="b">
@@ -7341,19 +7341,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="B301" t="n">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Atk1</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_ReadyN</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk1.AKE_Play_Char_Skill_C03_Atk1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_ReadyN.AKE_Play_Char_Skill_C03_Focus_ReadyN'</t>
         </is>
       </c>
       <c r="E301" t="b">
@@ -7362,19 +7362,19 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="B302" t="n">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Atk2</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready1</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk2.AKE_Play_Char_Skill_C03_Atk2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready1.AKE_Play_Char_Skill_C03_Focus_Ready1'</t>
         </is>
       </c>
       <c r="E302" t="b">
@@ -7383,19 +7383,19 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="B303" t="n">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Atk3</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready2</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk3.AKE_Play_Char_Skill_C03_Atk3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready2.AKE_Play_Char_Skill_C03_Focus_Ready2'</t>
         </is>
       </c>
       <c r="E303" t="b">
@@ -7404,19 +7404,19 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="B304" t="n">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Atk3_1</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready3</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Atk3_1.AKE_Play_Char_Skill_C03_Atk3_1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready3.AKE_Play_Char_Skill_C03_Focus_Ready3'</t>
         </is>
       </c>
       <c r="E304" t="b">
@@ -7425,19 +7425,19 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="B305" t="n">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_ReadyN</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_Ready4</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_ReadyN.AKE_Play_Char_Skill_C03_Focus_ReadyN'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready4.AKE_Play_Char_Skill_C03_Focus_Ready4'</t>
         </is>
       </c>
       <c r="E305" t="b">
@@ -7446,19 +7446,19 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="B306" t="n">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_Ready1</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk1</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready1.AKE_Play_Char_Skill_C03_Focus_Ready1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk1.AKE_Play_Char_Skill_C03_Focus_Atk1'</t>
         </is>
       </c>
       <c r="E306" t="b">
@@ -7467,19 +7467,19 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="B307" t="n">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_Ready2</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk2</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready2.AKE_Play_Char_Skill_C03_Focus_Ready2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk2.AKE_Play_Char_Skill_C03_Focus_Atk2'</t>
         </is>
       </c>
       <c r="E307" t="b">
@@ -7488,19 +7488,19 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="B308" t="n">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_Ready3</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_Atk3</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready3.AKE_Play_Char_Skill_C03_Focus_Ready3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk3.AKE_Play_Char_Skill_C03_Focus_Atk3'</t>
         </is>
       </c>
       <c r="E308" t="b">
@@ -7509,40 +7509,40 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="B309" t="n">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_Ready4</t>
+          <t>AKE_Play_Char_Skill_C03_Focus_LP</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Ready4.AKE_Play_Char_Skill_C03_Focus_Ready4'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_LP.AKE_Play_Char_Skill_C03_Focus_LP'</t>
         </is>
       </c>
       <c r="E309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="B310" t="n">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_Atk1</t>
+          <t>AKE_Stop_Char_Skill_C03_Focus_LP</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk1.AKE_Play_Char_Skill_C03_Focus_Atk1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Focus_LP.AKE_Stop_Char_Skill_C03_Focus_LP'</t>
         </is>
       </c>
       <c r="E310" t="b">
@@ -7551,19 +7551,19 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="B311" t="n">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_Atk2</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Enter</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk2.AKE_Play_Char_Skill_C03_Focus_Atk2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Enter.AKE_Play_Char_Skill_C03_Strafe_Enter'</t>
         </is>
       </c>
       <c r="E311" t="b">
@@ -7572,19 +7572,19 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="B312" t="n">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_Atk3</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Exit</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_Atk3.AKE_Play_Char_Skill_C03_Focus_Atk3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Exit.AKE_Play_Char_Skill_C03_Strafe_Exit'</t>
         </is>
       </c>
       <c r="E312" t="b">
@@ -7593,40 +7593,40 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="B313" t="n">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Focus_LP</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Fire_Single</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Focus_LP.AKE_Play_Char_Skill_C03_Focus_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Fire_Single.AKE_Play_Char_Skill_C03_Strafe_Fire_Single'</t>
         </is>
       </c>
       <c r="E313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3131</v>
+        <v>3135</v>
       </c>
       <c r="B314" t="n">
-        <v>3131</v>
+        <v>3135</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>AKE_Stop_Char_Skill_C03_Focus_LP</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Start</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Focus_LP.AKE_Stop_Char_Skill_C03_Focus_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Start.AKE_Play_Char_Skill_C03_Strafe_Reload_Start'</t>
         </is>
       </c>
       <c r="E314" t="b">
@@ -7635,40 +7635,40 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="B315" t="n">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Enter</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_LP</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Enter.AKE_Play_Char_Skill_C03_Strafe_Enter'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_LP.AKE_Play_Char_Skill_C03_Strafe_Reload_LP'</t>
         </is>
       </c>
       <c r="E315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="B316" t="n">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Exit</t>
+          <t>AKE_Stop_Char_Skill_C03_Strafe_Reload_LP</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Exit.AKE_Play_Char_Skill_C03_Strafe_Exit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Strafe_Reload_LP.AKE_Stop_Char_Skill_C03_Strafe_Reload_LP'</t>
         </is>
       </c>
       <c r="E316" t="b">
@@ -7677,19 +7677,19 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="B317" t="n">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Fire_Single</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Single</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Fire_Single.AKE_Play_Char_Skill_C03_Strafe_Fire_Single'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Single.AKE_Play_Char_Skill_C03_Strafe_Reload_Single'</t>
         </is>
       </c>
       <c r="E317" t="b">
@@ -7698,19 +7698,19 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="B318" t="n">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Start</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_End</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Start.AKE_Play_Char_Skill_C03_Strafe_Reload_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_End.AKE_Play_Char_Skill_C03_Strafe_Reload_End'</t>
         </is>
       </c>
       <c r="E318" t="b">
@@ -7719,19 +7719,19 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="B319" t="n">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_LP</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_LP.AKE_Play_Char_Skill_C03_Strafe_Reload_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP.AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP'</t>
         </is>
       </c>
       <c r="E319" t="b">
@@ -7740,19 +7740,19 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="B320" t="n">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>AKE_Stop_Char_Skill_C03_Strafe_Reload_LP</t>
+          <t>AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Strafe_Reload_LP.AKE_Stop_Char_Skill_C03_Strafe_Reload_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP.AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP'</t>
         </is>
       </c>
       <c r="E320" t="b">
@@ -7761,19 +7761,19 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="B321" t="n">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Single</t>
+          <t>AKE_Play_Char_Skill_C03_Strafe_Shell_Fall</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Single.AKE_Play_Char_Skill_C03_Strafe_Reload_Single'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Shell_Fall.AKE_Play_Char_Skill_C03_Strafe_Shell_Fall'</t>
         </is>
       </c>
       <c r="E321" t="b">
@@ -7782,19 +7782,19 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3139</v>
+        <v>3143</v>
       </c>
       <c r="B322" t="n">
-        <v>3139</v>
+        <v>3143</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_End</t>
+          <t>AKE_Play_Char_Skill_C03_Execu2</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_End.AKE_Play_Char_Skill_C03_Strafe_Reload_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu2.AKE_Play_Char_Skill_C03_Execu2'</t>
         </is>
       </c>
       <c r="E322" t="b">
@@ -7803,40 +7803,40 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="B323" t="n">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP</t>
+          <t>AKE_Play_Char_Skill_C03_Execu1</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP.AKE_Play_Char_Skill_C03_Strafe_Reload_Multi_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu1.AKE_Play_Char_Skill_C03_Execu1'</t>
         </is>
       </c>
       <c r="E323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="B324" t="n">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP</t>
+          <t>AKE_Play_Char_Skill_C03_Dodge</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP.AKE_Stop_Char_Skill_C03_Strafe_Reload_Multi_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Dodge.AKE_Play_Char_Skill_C03_Dodge'</t>
         </is>
       </c>
       <c r="E324" t="b">
@@ -7845,19 +7845,19 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B325" t="n">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Strafe_Shell_Fall</t>
+          <t>AKE_Play_Char_Skill_C03_Dodge_Step</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Strafe_Shell_Fall.AKE_Play_Char_Skill_C03_Strafe_Shell_Fall'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Dodge_Step.AKE_Play_Char_Skill_C03_Dodge_Step'</t>
         </is>
       </c>
       <c r="E325" t="b">
@@ -7866,19 +7866,19 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="B326" t="n">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Execu2</t>
+          <t>AKE_Play_Char_Skill_C03_Ult_Full</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu2.AKE_Play_Char_Skill_C03_Execu2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Full.AKE_Play_Char_Skill_C03_Ult_Full'</t>
         </is>
       </c>
       <c r="E326" t="b">
@@ -7887,19 +7887,19 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="B327" t="n">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Execu1</t>
+          <t>AKE_Play_Char_Skill_C03_Ult_Hit</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Execu1.AKE_Play_Char_Skill_C03_Execu1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Hit.AKE_Play_Char_Skill_C03_Ult_Hit'</t>
         </is>
       </c>
       <c r="E327" t="b">
@@ -7908,19 +7908,19 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="B328" t="n">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Dodge</t>
+          <t>AKE_Play_Char_Skill_C03_Ult_Shot</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Dodge.AKE_Play_Char_Skill_C03_Dodge'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Shot.AKE_Play_Char_Skill_C03_Ult_Shot'</t>
         </is>
       </c>
       <c r="E328" t="b">
@@ -7929,40 +7929,40 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="B329" t="n">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Dodge_Step</t>
+          <t>AKE_Play_Char_Skill_C03_Ult_LP</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Dodge_Step.AKE_Play_Char_Skill_C03_Dodge_Step'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_LP.AKE_Play_Char_Skill_C03_Ult_LP'</t>
         </is>
       </c>
       <c r="E329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>3147</v>
+        <v>3151</v>
       </c>
       <c r="B330" t="n">
-        <v>3147</v>
+        <v>3151</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Ult_Full</t>
+          <t>AKE_Stop_Char_Skill_C03_Ult_LP</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Full.AKE_Play_Char_Skill_C03_Ult_Full'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Ult_LP.AKE_Stop_Char_Skill_C03_Ult_LP'</t>
         </is>
       </c>
       <c r="E330" t="b">
@@ -7971,19 +7971,19 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="B331" t="n">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Ult_Hit</t>
+          <t>AKE_Play_Char_Skill_C03_Ult_End</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Hit.AKE_Play_Char_Skill_C03_Ult_Hit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_End.AKE_Play_Char_Skill_C03_Ult_End'</t>
         </is>
       </c>
       <c r="E331" t="b">
@@ -7992,19 +7992,19 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="B332" t="n">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Ult_Shot</t>
+          <t>AKE_Play_Char_Skill_C03_Battle_Enter</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_Shot.AKE_Play_Char_Skill_C03_Ult_Shot'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Battle_Enter.AKE_Play_Char_Skill_C03_Battle_Enter'</t>
         </is>
       </c>
       <c r="E332" t="b">
@@ -8013,40 +8013,40 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="B333" t="n">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Ult_LP</t>
+          <t>AKE_Play_Char_Skill_C03_Battle_Exit</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_LP.AKE_Play_Char_Skill_C03_Ult_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Battle_Exit.AKE_Play_Char_Skill_C03_Battle_Exit'</t>
         </is>
       </c>
       <c r="E333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="B334" t="n">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>AKE_Stop_Char_Skill_C03_Ult_LP</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Stop_Char_Skill_C03_Ult_LP.AKE_Stop_Char_Skill_C03_Ult_LP'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt'</t>
         </is>
       </c>
       <c r="E334" t="b">
@@ -8055,19 +8055,19 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="B335" t="n">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Ult_End</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Ult_End.AKE_Play_Char_Skill_C03_Ult_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock.AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock'</t>
         </is>
       </c>
       <c r="E335" t="b">
@@ -8076,19 +8076,19 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="B336" t="n">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Battle_Enter</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Battle_Enter.AKE_Play_Char_Skill_C03_Battle_Enter'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood.AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood'</t>
         </is>
       </c>
       <c r="E336" t="b">
@@ -8097,19 +8097,19 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="B337" t="n">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C03_Battle_Exit</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C03/Char_Skill_C03/AKE_Play_Char_Skill_C03_Battle_Exit.AKE_Play_Char_Skill_C03_Battle_Exit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt'</t>
         </is>
       </c>
       <c r="E337" t="b">
@@ -8118,19 +8118,19 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="B338" t="n">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Walk_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt'</t>
         </is>
       </c>
       <c r="E338" t="b">
@@ -8139,19 +8139,19 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="B339" t="n">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_End_Dirt</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock.AKE_Play_Char_Mov_Gen_HHeel_Walk_Rock'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_End_Dirt.AKE_Play_Char_Mov_Gen_HHeel_End_Dirt'</t>
         </is>
       </c>
       <c r="E339" t="b">
@@ -8160,19 +8160,19 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="B340" t="n">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood.AKE_Play_Char_Mov_Gen_HHeel_Walk_Wood'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen'</t>
         </is>
       </c>
       <c r="E340" t="b">
@@ -8181,19 +8181,19 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="B341" t="n">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Run_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev'</t>
         </is>
       </c>
       <c r="E341" t="b">
@@ -8202,19 +8202,19 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="B342" t="n">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Sprint_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop'</t>
         </is>
       </c>
       <c r="E342" t="b">
@@ -8223,19 +8223,19 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="B343" t="n">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_End_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_End_Dirt.AKE_Play_Char_Mov_Gen_HHeel_End_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt'</t>
         </is>
       </c>
       <c r="E343" t="b">
@@ -8244,19 +8244,19 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="B344" t="n">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen.AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen'</t>
         </is>
       </c>
       <c r="E344" t="b">
@@ -8265,19 +8265,19 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="B345" t="n">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Dev'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt'</t>
         </is>
       </c>
       <c r="E345" t="b">
@@ -8286,19 +8286,19 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="B346" t="n">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_HHeel_Slide_Gen_Stop'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy'</t>
         </is>
       </c>
       <c r="E346" t="b">
@@ -8307,19 +8307,19 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="B347" t="n">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Squat_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit'</t>
         </is>
       </c>
       <c r="E347" t="b">
@@ -8328,19 +8328,19 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="B348" t="n">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen.AKE_Play_Char_Mov_Gen_HHeel_Climb_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt.AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt'</t>
         </is>
       </c>
       <c r="E348" t="b">
@@ -8349,19 +8349,19 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="B349" t="n">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Rock</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt.AKE_Play_Char_Mov_Gen_HHeel_Jump_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Rock.AKE_Play_Char_Mov_Gen_Boot_Walk_Rock'</t>
         </is>
       </c>
       <c r="E349" t="b">
@@ -8370,19 +8370,19 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="B350" t="n">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Wood</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Wood.AKE_Play_Char_Mov_Gen_Boot_Walk_Wood'</t>
         </is>
       </c>
       <c r="E350" t="b">
@@ -8391,19 +8391,19 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="B351" t="n">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Run_Dirt</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_HHeel_Fall_Dirt_Lit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Run_Dirt.AKE_Play_Char_Mov_Gen_Boot_Run_Dirt'</t>
         </is>
       </c>
       <c r="E351" t="b">
@@ -8412,19 +8412,19 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="B352" t="n">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt.AKE_Play_Char_Mov_Gen_Boot_Walk_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt.AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt'</t>
         </is>
       </c>
       <c r="E352" t="b">
@@ -8433,19 +8433,19 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="B353" t="n">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Rock</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_End_Dirt</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Rock.AKE_Play_Char_Mov_Gen_Boot_Walk_Rock'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_End_Dirt.AKE_Play_Char_Mov_Gen_Boot_End_Dirt'</t>
         </is>
       </c>
       <c r="E353" t="b">
@@ -8454,19 +8454,19 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="B354" t="n">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Walk_Wood</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Walk_Wood.AKE_Play_Char_Mov_Gen_Boot_Walk_Wood'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen'</t>
         </is>
       </c>
       <c r="E354" t="b">
@@ -8475,19 +8475,19 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="B355" t="n">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Run_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Run_Dirt.AKE_Play_Char_Mov_Gen_Boot_Run_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev'</t>
         </is>
       </c>
       <c r="E355" t="b">
@@ -8496,19 +8496,19 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="B356" t="n">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt.AKE_Play_Char_Mov_Gen_Boot_Sprint_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop'</t>
         </is>
       </c>
       <c r="E356" t="b">
@@ -8517,19 +8517,19 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B357" t="n">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_End_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_End_Dirt.AKE_Play_Char_Mov_Gen_Boot_End_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt.AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt'</t>
         </is>
       </c>
       <c r="E357" t="b">
@@ -8538,19 +8538,19 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="B358" t="n">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Climb_Gen</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Climb_Gen.AKE_Play_Char_Mov_Gen_Boot_Climb_Gen'</t>
         </is>
       </c>
       <c r="E358" t="b">
@@ -8559,19 +8559,19 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B359" t="n">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Dev'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt.AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt'</t>
         </is>
       </c>
       <c r="E359" t="b">
@@ -8580,19 +8580,19 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="B360" t="n">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_Boot_Slide_Gen_Stop'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy'</t>
         </is>
       </c>
       <c r="E360" t="b">
@@ -8601,19 +8601,19 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B361" t="n">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt.AKE_Play_Char_Mov_Gen_Boot_Squat_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit'</t>
         </is>
       </c>
       <c r="E361" t="b">
@@ -8622,19 +8622,19 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="B362" t="n">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Climb_Gen</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Walk_Dirt</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Climb_Gen.AKE_Play_Char_Mov_Gen_Boot_Climb_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Walk_Dirt.AKE_Play_Char_Mov_Gen_MJ_Walk_Dirt'</t>
         </is>
       </c>
       <c r="E362" t="b">
@@ -8643,19 +8643,19 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="B363" t="n">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Walk_Rock</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt.AKE_Play_Char_Mov_Gen_Boot_Jump_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Walk_Rock.AKE_Play_Char_Mov_Gen_MJ_Walk_Rock'</t>
         </is>
       </c>
       <c r="E363" t="b">
@@ -8664,19 +8664,19 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="B364" t="n">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Run_Dirt</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Run_Dirt.AKE_Play_Char_Mov_Gen_MJ_Run_Dirt'</t>
         </is>
       </c>
       <c r="E364" t="b">
@@ -8685,19 +8685,19 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="B365" t="n">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Sprint_Dirt</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_Boot_Fall_Dirt_Lit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Sprint_Dirt.AKE_Play_Char_Mov_Gen_MJ_Sprint_Dirt'</t>
         </is>
       </c>
       <c r="E365" t="b">
@@ -8706,19 +8706,19 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="B366" t="n">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Walk_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_End_Dirt</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Walk_Dirt.AKE_Play_Char_Mov_Gen_MJ_Walk_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_End_Dirt.AKE_Play_Char_Mov_Gen_MJ_End_Dirt'</t>
         </is>
       </c>
       <c r="E366" t="b">
@@ -8727,19 +8727,19 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="B367" t="n">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Walk_Rock</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Slide_Gen</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Walk_Rock.AKE_Play_Char_Mov_Gen_MJ_Walk_Rock'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Slide_Gen.AKE_Play_Char_Mov_Gen_MJ_Slide_Gen'</t>
         </is>
       </c>
       <c r="E367" t="b">
@@ -8748,19 +8748,19 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="B368" t="n">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Run_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Dev</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Run_Dirt.AKE_Play_Char_Mov_Gen_MJ_Run_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Dev'</t>
         </is>
       </c>
       <c r="E368" t="b">
@@ -8769,19 +8769,19 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="B369" t="n">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Sprint_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Stop</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Sprint_Dirt.AKE_Play_Char_Mov_Gen_MJ_Sprint_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Stop'</t>
         </is>
       </c>
       <c r="E369" t="b">
@@ -8790,19 +8790,19 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="B370" t="n">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_End_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Squat_Dirt</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_End_Dirt.AKE_Play_Char_Mov_Gen_MJ_End_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Squat_Dirt.AKE_Play_Char_Mov_Gen_MJ_Squat_Dirt'</t>
         </is>
       </c>
       <c r="E370" t="b">
@@ -8811,19 +8811,19 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="B371" t="n">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Slide_Gen</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Climb_Gen</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Slide_Gen.AKE_Play_Char_Mov_Gen_MJ_Slide_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Climb_Gen.AKE_Play_Char_Mov_Gen_MJ_Climb_Gen'</t>
         </is>
       </c>
       <c r="E371" t="b">
@@ -8832,19 +8832,19 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="B372" t="n">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Dev</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Jump_Dirt</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Dev'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Jump_Dirt.AKE_Play_Char_Mov_Gen_MJ_Jump_Dirt'</t>
         </is>
       </c>
       <c r="E372" t="b">
@@ -8853,19 +8853,19 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="B373" t="n">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Stop</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Hvy</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_MJ_Slide_Gen_Stop'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Hvy'</t>
         </is>
       </c>
       <c r="E373" t="b">
@@ -8874,19 +8874,19 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="B374" t="n">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Squat_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Lit</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Squat_Dirt.AKE_Play_Char_Mov_Gen_MJ_Squat_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Lit'</t>
         </is>
       </c>
       <c r="E374" t="b">
@@ -8895,19 +8895,19 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="B375" t="n">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Climb_Gen</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Climb_Gen.AKE_Play_Char_Mov_Gen_MJ_Climb_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt'</t>
         </is>
       </c>
       <c r="E375" t="b">
@@ -8916,19 +8916,19 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="B376" t="n">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Jump_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Jump_Dirt.AKE_Play_Char_Mov_Gen_MJ_Jump_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock.AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock'</t>
         </is>
       </c>
       <c r="E376" t="b">
@@ -8937,19 +8937,19 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="B377" t="n">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Hvy</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood.AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood'</t>
         </is>
       </c>
       <c r="E377" t="b">
@@ -8958,19 +8958,19 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="B378" t="n">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Lit</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_MJ_Fall_Dirt_Lit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt'</t>
         </is>
       </c>
       <c r="E378" t="b">
@@ -8979,19 +8979,19 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="B379" t="n">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Walk_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt'</t>
         </is>
       </c>
       <c r="E379" t="b">
@@ -9000,19 +9000,19 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="B380" t="n">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_End_Dirt</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock.AKE_Play_Char_Mov_Gen_SHeel_Walk_Rock'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_End_Dirt.AKE_Play_Char_Mov_Gen_SHeel_End_Dirt'</t>
         </is>
       </c>
       <c r="E380" t="b">
@@ -9021,19 +9021,19 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="B381" t="n">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood.AKE_Play_Char_Mov_Gen_SHeel_Walk_Wood'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen'</t>
         </is>
       </c>
       <c r="E381" t="b">
@@ -9042,19 +9042,19 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="B382" t="n">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Run_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev'</t>
         </is>
       </c>
       <c r="E382" t="b">
@@ -9063,19 +9063,19 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="B383" t="n">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Sprint_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop'</t>
         </is>
       </c>
       <c r="E383" t="b">
@@ -9084,19 +9084,19 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="B384" t="n">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_End_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_End_Dirt.AKE_Play_Char_Mov_Gen_SHeel_End_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt'</t>
         </is>
       </c>
       <c r="E384" t="b">
@@ -9105,19 +9105,19 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="B385" t="n">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen.AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen'</t>
         </is>
       </c>
       <c r="E385" t="b">
@@ -9126,19 +9126,19 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="B386" t="n">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Dev'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt'</t>
         </is>
       </c>
       <c r="E386" t="b">
@@ -9147,19 +9147,19 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="B387" t="n">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop.AKE_Play_Char_Mov_Gen_SHeel_Slide_Gen_Stop'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy'</t>
         </is>
       </c>
       <c r="E387" t="b">
@@ -9168,19 +9168,19 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="B388" t="n">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt</t>
+          <t>AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Squat_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit'</t>
         </is>
       </c>
       <c r="E388" t="b">
@@ -9189,19 +9189,19 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>3206</v>
+        <v>14001</v>
       </c>
       <c r="B389" t="n">
-        <v>3206</v>
+        <v>14001</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose01</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen.AKE_Play_Char_Mov_Gen_SHeel_Climb_Gen'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose01.AKE_Play_Sys_Show_C03_Def_Enter_Pose01'</t>
         </is>
       </c>
       <c r="E389" t="b">
@@ -9210,19 +9210,19 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>3207</v>
+        <v>14002</v>
       </c>
       <c r="B390" t="n">
-        <v>3207</v>
+        <v>14002</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose02</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt.AKE_Play_Char_Mov_Gen_SHeel_Jump_Dirt'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose02.AKE_Play_Sys_Show_C03_Def_Enter_Pose02'</t>
         </is>
       </c>
       <c r="E390" t="b">
@@ -9231,19 +9231,19 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>3208</v>
+        <v>14003</v>
       </c>
       <c r="B391" t="n">
-        <v>3208</v>
+        <v>14003</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy.AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01'</t>
         </is>
       </c>
       <c r="E391" t="b">
@@ -9252,19 +9252,19 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>3209</v>
+        <v>14004</v>
       </c>
       <c r="B392" t="n">
-        <v>3209</v>
+        <v>14004</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_Gen/Char_Mov_Gen/AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit.AKE_Play_Char_Mov_Gen_SHeel_Fall_Dirt_Lit'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02'</t>
         </is>
       </c>
       <c r="E392" t="b">
@@ -9273,19 +9273,19 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>14001</v>
+        <v>14005</v>
       </c>
       <c r="B393" t="n">
-        <v>14001</v>
+        <v>14005</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose01</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose01.AKE_Play_Sys_Show_C03_Def_Enter_Pose01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03'</t>
         </is>
       </c>
       <c r="E393" t="b">
@@ -9294,19 +9294,19 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>14002</v>
+        <v>14006</v>
       </c>
       <c r="B394" t="n">
-        <v>14002</v>
+        <v>14006</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose02</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose02.AKE_Play_Sys_Show_C03_Def_Enter_Pose02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04'</t>
         </is>
       </c>
       <c r="E394" t="b">
@@ -9315,19 +9315,19 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>14003</v>
+        <v>14007</v>
       </c>
       <c r="B395" t="n">
-        <v>14003</v>
+        <v>14007</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05'</t>
         </is>
       </c>
       <c r="E395" t="b">
@@ -9336,19 +9336,19 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>14004</v>
+        <v>14008</v>
       </c>
       <c r="B396" t="n">
-        <v>14004</v>
+        <v>14008</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose04</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose04.AKE_Play_Sys_Show_C03_Def_Enter_Pose04'</t>
         </is>
       </c>
       <c r="E396" t="b">
@@ -9357,19 +9357,19 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>14005</v>
+        <v>14009</v>
       </c>
       <c r="B397" t="n">
-        <v>14005</v>
+        <v>14009</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01'</t>
         </is>
       </c>
       <c r="E397" t="b">
@@ -9378,19 +9378,19 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>14006</v>
+        <v>14010</v>
       </c>
       <c r="B398" t="n">
-        <v>14006</v>
+        <v>14010</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose06</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose06.AKE_Play_Sys_Show_C03_Def_Enter_Pose06'</t>
         </is>
       </c>
       <c r="E398" t="b">
@@ -9399,19 +9399,19 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>14007</v>
+        <v>14011</v>
       </c>
       <c r="B399" t="n">
-        <v>14007</v>
+        <v>14011</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose04</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C03_Def_Enter_Pose03_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose04.AKE_Play_Sys_Show_C03_Def_Exit_Pose04'</t>
         </is>
       </c>
       <c r="E399" t="b">
@@ -9420,19 +9420,19 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>14008</v>
+        <v>14012</v>
       </c>
       <c r="B400" t="n">
-        <v>14008</v>
+        <v>14012</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose04</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose04.AKE_Play_Sys_Show_C03_Def_Enter_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01'</t>
         </is>
       </c>
       <c r="E400" t="b">
@@ -9441,19 +9441,19 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>14009</v>
+        <v>14013</v>
       </c>
       <c r="B401" t="n">
-        <v>14009</v>
+        <v>14013</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C03_Def_Enter_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1'</t>
         </is>
       </c>
       <c r="E401" t="b">
@@ -9462,19 +9462,19 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>14010</v>
+        <v>14014</v>
       </c>
       <c r="B402" t="n">
-        <v>14010</v>
+        <v>14014</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Enter_Pose06</t>
+          <t>AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Enter_Pose06.AKE_Play_Sys_Show_C03_Def_Enter_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01'</t>
         </is>
       </c>
       <c r="E402" t="b">
@@ -9483,19 +9483,19 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>14011</v>
+        <v>14015</v>
       </c>
       <c r="B403" t="n">
-        <v>14011</v>
+        <v>14015</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose04</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose01</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose04.AKE_Play_Sys_Show_C03_Def_Exit_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose01.AKE_Play_Sys_Show_C02_Def_Enter_Pose01'</t>
         </is>
       </c>
       <c r="E403" t="b">
@@ -9504,19 +9504,19 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>14012</v>
+        <v>14016</v>
       </c>
       <c r="B404" t="n">
-        <v>14012</v>
+        <v>14016</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose02</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose02.AKE_Play_Sys_Show_C02_Def_Enter_Pose02'</t>
         </is>
       </c>
       <c r="E404" t="b">
@@ -9525,19 +9525,19 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>14013</v>
+        <v>14017</v>
       </c>
       <c r="B405" t="n">
-        <v>14013</v>
+        <v>14017</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1.AKE_Play_Sys_Show_C03_Def_Exit_Pose05_01_1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01'</t>
         </is>
       </c>
       <c r="E405" t="b">
@@ -9546,19 +9546,19 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>14014</v>
+        <v>14018</v>
       </c>
       <c r="B406" t="n">
-        <v>14014</v>
+        <v>14018</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C03/Sys_Show_C03/AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C03_Def_Idle_Pose02_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02'</t>
         </is>
       </c>
       <c r="E406" t="b">
@@ -9567,19 +9567,19 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>14015</v>
+        <v>14019</v>
       </c>
       <c r="B407" t="n">
-        <v>14015</v>
+        <v>14019</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose01</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose01.AKE_Play_Sys_Show_C02_Def_Enter_Pose01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03'</t>
         </is>
       </c>
       <c r="E407" t="b">
@@ -9588,19 +9588,19 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>14016</v>
+        <v>14020</v>
       </c>
       <c r="B408" t="n">
-        <v>14016</v>
+        <v>14020</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose02</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose02.AKE_Play_Sys_Show_C02_Def_Enter_Pose02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04'</t>
         </is>
       </c>
       <c r="E408" t="b">
@@ -9609,19 +9609,19 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>14017</v>
+        <v>14021</v>
       </c>
       <c r="B409" t="n">
-        <v>14017</v>
+        <v>14021</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05'</t>
         </is>
       </c>
       <c r="E409" t="b">
@@ -9630,19 +9630,19 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>14018</v>
+        <v>14022</v>
       </c>
       <c r="B410" t="n">
-        <v>14018</v>
+        <v>14022</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose04</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose04.AKE_Play_Sys_Show_C02_Def_Enter_Pose04'</t>
         </is>
       </c>
       <c r="E410" t="b">
@@ -9651,19 +9651,19 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>14019</v>
+        <v>14023</v>
       </c>
       <c r="B411" t="n">
-        <v>14019</v>
+        <v>14023</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose05</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose05.AKE_Play_Sys_Show_C02_Def_Enter_Pose05'</t>
         </is>
       </c>
       <c r="E411" t="b">
@@ -9672,19 +9672,19 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>14020</v>
+        <v>14024</v>
       </c>
       <c r="B412" t="n">
-        <v>14020</v>
+        <v>14024</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose06</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06.AKE_Play_Sys_Show_C02_Def_Enter_Pose06'</t>
         </is>
       </c>
       <c r="E412" t="b">
@@ -9693,19 +9693,19 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>14021</v>
+        <v>14025</v>
       </c>
       <c r="B413" t="n">
-        <v>14021</v>
+        <v>14025</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C02_Def_Enter_Pose03_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim.AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim'</t>
         </is>
       </c>
       <c r="E413" t="b">
@@ -9714,19 +9714,19 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>14022</v>
+        <v>14026</v>
       </c>
       <c r="B414" t="n">
-        <v>14022</v>
+        <v>14026</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose04</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose04.AKE_Play_Sys_Show_C02_Def_Enter_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01'</t>
         </is>
       </c>
       <c r="E414" t="b">
@@ -9735,19 +9735,19 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>14023</v>
+        <v>14027</v>
       </c>
       <c r="B415" t="n">
-        <v>14023</v>
+        <v>14027</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose05</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose05.AKE_Play_Sys_Show_C02_Def_Enter_Pose05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02'</t>
         </is>
       </c>
       <c r="E415" t="b">
@@ -9756,19 +9756,19 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>14024</v>
+        <v>14028</v>
       </c>
       <c r="B416" t="n">
-        <v>14024</v>
+        <v>14028</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose06</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06.AKE_Play_Sys_Show_C02_Def_Enter_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B'</t>
         </is>
       </c>
       <c r="E416" t="b">
@@ -9777,19 +9777,19 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>14025</v>
+        <v>14029</v>
       </c>
       <c r="B417" t="n">
-        <v>14025</v>
+        <v>14029</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim.AKE_Play_Sys_Show_C02_Def_Enter_Pose06_Anim'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03'</t>
         </is>
       </c>
       <c r="E417" t="b">
@@ -9798,19 +9798,19 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>14026</v>
+        <v>14030</v>
       </c>
       <c r="B418" t="n">
-        <v>14026</v>
+        <v>14030</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04'</t>
         </is>
       </c>
       <c r="E418" t="b">
@@ -9819,19 +9819,19 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>14027</v>
+        <v>14031</v>
       </c>
       <c r="B419" t="n">
-        <v>14027</v>
+        <v>14031</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05'</t>
         </is>
       </c>
       <c r="E419" t="b">
@@ -9840,19 +9840,19 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>14028</v>
+        <v>14032</v>
       </c>
       <c r="B420" t="n">
-        <v>14028</v>
+        <v>14032</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose04</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_02_B'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose04.AKE_Play_Sys_Show_C02_Def_Exit_Pose04'</t>
         </is>
       </c>
       <c r="E420" t="b">
@@ -9861,19 +9861,19 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>14029</v>
+        <v>14033</v>
       </c>
       <c r="B421" t="n">
-        <v>14029</v>
+        <v>14033</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose05</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose05.AKE_Play_Sys_Show_C02_Def_Exit_Pose05'</t>
         </is>
       </c>
       <c r="E421" t="b">
@@ -9882,19 +9882,19 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>14030</v>
+        <v>14034</v>
       </c>
       <c r="B422" t="n">
-        <v>14030</v>
+        <v>14034</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose06</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose06.AKE_Play_Sys_Show_C02_Def_Exit_Pose06'</t>
         </is>
       </c>
       <c r="E422" t="b">
@@ -9903,19 +9903,19 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>14031</v>
+        <v>14035</v>
       </c>
       <c r="B423" t="n">
-        <v>14031</v>
+        <v>14035</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05</t>
+          <t>AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05.AKE_Play_Sys_Show_C02_Def_Exit_Pose03_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01'</t>
         </is>
       </c>
       <c r="E423" t="b">
@@ -9924,19 +9924,19 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>14032</v>
+        <v>14036</v>
       </c>
       <c r="B424" t="n">
-        <v>14032</v>
+        <v>14036</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose04</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose01</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose04.AKE_Play_Sys_Show_C02_Def_Exit_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose01.AKE_Play_Sys_Show_C04_Def_Enter_Pose01'</t>
         </is>
       </c>
       <c r="E424" t="b">
@@ -9945,19 +9945,19 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>14033</v>
+        <v>14037</v>
       </c>
       <c r="B425" t="n">
-        <v>14033</v>
+        <v>14037</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose05</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose02</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose05.AKE_Play_Sys_Show_C02_Def_Exit_Pose05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose02.AKE_Play_Sys_Show_C04_Def_Enter_Pose02'</t>
         </is>
       </c>
       <c r="E425" t="b">
@@ -9966,19 +9966,19 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>14034</v>
+        <v>14038</v>
       </c>
       <c r="B426" t="n">
-        <v>14034</v>
+        <v>14038</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Exit_Pose06</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Exit_Pose06.AKE_Play_Sys_Show_C02_Def_Exit_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01'</t>
         </is>
       </c>
       <c r="E426" t="b">
@@ -9987,19 +9987,19 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>14035</v>
+        <v>14039</v>
       </c>
       <c r="B427" t="n">
-        <v>14035</v>
+        <v>14039</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C02/Sys_Show_C02/AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C02_Def_Idle_Pose02_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03'</t>
         </is>
       </c>
       <c r="E427" t="b">
@@ -10008,19 +10008,19 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>14036</v>
+        <v>14040</v>
       </c>
       <c r="B428" t="n">
-        <v>14036</v>
+        <v>14040</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose01</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose01.AKE_Play_Sys_Show_C04_Def_Enter_Pose01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04'</t>
         </is>
       </c>
       <c r="E428" t="b">
@@ -10029,19 +10029,19 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>14037</v>
+        <v>14041</v>
       </c>
       <c r="B429" t="n">
-        <v>14037</v>
+        <v>14041</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose02</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose02.AKE_Play_Sys_Show_C04_Def_Enter_Pose02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05'</t>
         </is>
       </c>
       <c r="E429" t="b">
@@ -10050,19 +10050,19 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>14038</v>
+        <v>14042</v>
       </c>
       <c r="B430" t="n">
-        <v>14038</v>
+        <v>14042</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06'</t>
         </is>
       </c>
       <c r="E430" t="b">
@@ -10071,19 +10071,19 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>14039</v>
+        <v>14043</v>
       </c>
       <c r="B431" t="n">
-        <v>14039</v>
+        <v>14043</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose04</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose04.AKE_Play_Sys_Show_C04_Def_Enter_Pose04'</t>
         </is>
       </c>
       <c r="E431" t="b">
@@ -10092,19 +10092,19 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>14040</v>
+        <v>14044</v>
       </c>
       <c r="B432" t="n">
-        <v>14040</v>
+        <v>14044</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose05</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05.AKE_Play_Sys_Show_C04_Def_Enter_Pose05'</t>
         </is>
       </c>
       <c r="E432" t="b">
@@ -10113,19 +10113,19 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>14041</v>
+        <v>14045</v>
       </c>
       <c r="B433" t="n">
-        <v>14041</v>
+        <v>14045</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01'</t>
         </is>
       </c>
       <c r="E433" t="b">
@@ -10134,19 +10134,19 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>14042</v>
+        <v>14046</v>
       </c>
       <c r="B434" t="n">
-        <v>14042</v>
+        <v>14046</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06.AKE_Play_Sys_Show_C04_Def_Enter_Pose03_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01'</t>
         </is>
       </c>
       <c r="E434" t="b">
@@ -10155,19 +10155,19 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>14043</v>
+        <v>14047</v>
       </c>
       <c r="B435" t="n">
-        <v>14043</v>
+        <v>14047</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose04</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose04.AKE_Play_Sys_Show_C04_Def_Enter_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02'</t>
         </is>
       </c>
       <c r="E435" t="b">
@@ -10176,19 +10176,19 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>14044</v>
+        <v>14048</v>
       </c>
       <c r="B436" t="n">
-        <v>14044</v>
+        <v>14048</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose05</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05.AKE_Play_Sys_Show_C04_Def_Enter_Pose05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03'</t>
         </is>
       </c>
       <c r="E436" t="b">
@@ -10197,19 +10197,19 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>14045</v>
+        <v>14049</v>
       </c>
       <c r="B437" t="n">
-        <v>14045</v>
+        <v>14049</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C04_Def_Enter_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04'</t>
         </is>
       </c>
       <c r="E437" t="b">
@@ -10218,19 +10218,19 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>14046</v>
+        <v>14050</v>
       </c>
       <c r="B438" t="n">
-        <v>14046</v>
+        <v>14050</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05'</t>
         </is>
       </c>
       <c r="E438" t="b">
@@ -10239,19 +10239,19 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>14047</v>
+        <v>14051</v>
       </c>
       <c r="B439" t="n">
-        <v>14047</v>
+        <v>14051</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose04</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose04.AKE_Play_Sys_Show_C04_Def_Exit_Pose04'</t>
         </is>
       </c>
       <c r="E439" t="b">
@@ -10260,19 +10260,19 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>14048</v>
+        <v>14052</v>
       </c>
       <c r="B440" t="n">
-        <v>14048</v>
+        <v>14052</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose05</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05.AKE_Play_Sys_Show_C04_Def_Exit_Pose05'</t>
         </is>
       </c>
       <c r="E440" t="b">
@@ -10281,19 +10281,19 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>14049</v>
+        <v>14053</v>
       </c>
       <c r="B441" t="n">
-        <v>14049</v>
+        <v>14053</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01'</t>
         </is>
       </c>
       <c r="E441" t="b">
@@ -10302,19 +10302,19 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>14050</v>
+        <v>14054</v>
       </c>
       <c r="B442" t="n">
-        <v>14050</v>
+        <v>14054</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05</t>
+          <t>AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05.AKE_Play_Sys_Show_C04_Def_Exit_Pose03_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv.AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv'</t>
         </is>
       </c>
       <c r="E442" t="b">
@@ -10323,19 +10323,19 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>14051</v>
+        <v>14055</v>
       </c>
       <c r="B443" t="n">
-        <v>14051</v>
+        <v>14055</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose04</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose01</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose04.AKE_Play_Sys_Show_C04_Def_Exit_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose01.AKE_Play_Sys_Show_C05_Def_Enter_Pose01'</t>
         </is>
       </c>
       <c r="E443" t="b">
@@ -10344,19 +10344,19 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>14052</v>
+        <v>14056</v>
       </c>
       <c r="B444" t="n">
-        <v>14052</v>
+        <v>14056</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose05</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose02</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05.AKE_Play_Sys_Show_C04_Def_Exit_Pose05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose02.AKE_Play_Sys_Show_C05_Def_Enter_Pose02'</t>
         </is>
       </c>
       <c r="E444" t="b">
@@ -10365,19 +10365,19 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>14053</v>
+        <v>14057</v>
       </c>
       <c r="B445" t="n">
-        <v>14053</v>
+        <v>14057</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C04_Def_Exit_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01'</t>
         </is>
       </c>
       <c r="E445" t="b">
@@ -10386,19 +10386,19 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>14054</v>
+        <v>14058</v>
       </c>
       <c r="B446" t="n">
-        <v>14054</v>
+        <v>14058</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C04/Sys_Show_C04/AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv.AKE_Play_Sys_Show_C04_Def_Idle_Pose02_Intv'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02'</t>
         </is>
       </c>
       <c r="E446" t="b">
@@ -10407,19 +10407,19 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>14055</v>
+        <v>14059</v>
       </c>
       <c r="B447" t="n">
-        <v>14055</v>
+        <v>14059</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose01</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose04</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose01.AKE_Play_Sys_Show_C05_Def_Enter_Pose01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose04.AKE_Play_Sys_Show_C05_Def_Enter_Pose04'</t>
         </is>
       </c>
       <c r="E447" t="b">
@@ -10428,19 +10428,19 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>14056</v>
+        <v>14060</v>
       </c>
       <c r="B448" t="n">
-        <v>14056</v>
+        <v>14060</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose02</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose02.AKE_Play_Sys_Show_C05_Def_Enter_Pose02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01'</t>
         </is>
       </c>
       <c r="E448" t="b">
@@ -10449,19 +10449,19 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>14057</v>
+        <v>14061</v>
       </c>
       <c r="B449" t="n">
-        <v>14057</v>
+        <v>14061</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C05_Def_Enter_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02.AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02'</t>
         </is>
       </c>
       <c r="E449" t="b">
@@ -10470,19 +10470,19 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>14058</v>
+        <v>14062</v>
       </c>
       <c r="B450" t="n">
-        <v>14058</v>
+        <v>14062</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose06</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C05_Def_Enter_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose06.AKE_Play_Sys_Show_C05_Def_Enter_Pose06'</t>
         </is>
       </c>
       <c r="E450" t="b">
@@ -10491,19 +10491,19 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>14059</v>
+        <v>14063</v>
       </c>
       <c r="B451" t="n">
-        <v>14059</v>
+        <v>14063</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose04</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose04.AKE_Play_Sys_Show_C05_Def_Enter_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01'</t>
         </is>
       </c>
       <c r="E451" t="b">
@@ -10512,19 +10512,19 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>14060</v>
+        <v>14064</v>
       </c>
       <c r="B452" t="n">
-        <v>14060</v>
+        <v>14064</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C05_Def_Enter_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02'</t>
         </is>
       </c>
       <c r="E452" t="b">
@@ -10533,19 +10533,19 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>14061</v>
+        <v>14065</v>
       </c>
       <c r="B453" t="n">
-        <v>14061</v>
+        <v>14065</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose04</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02.AKE_Play_Sys_Show_C05_Def_Enter_Pose05_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose04.AKE_Play_Sys_Show_C05_Def_Exit_Pose04'</t>
         </is>
       </c>
       <c r="E453" t="b">
@@ -10554,19 +10554,19 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>14062</v>
+        <v>14066</v>
       </c>
       <c r="B454" t="n">
-        <v>14062</v>
+        <v>14066</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Enter_Pose06</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Enter_Pose06.AKE_Play_Sys_Show_C05_Def_Enter_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01'</t>
         </is>
       </c>
       <c r="E454" t="b">
@@ -10575,19 +10575,19 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>14063</v>
+        <v>14067</v>
       </c>
       <c r="B455" t="n">
-        <v>14063</v>
+        <v>14067</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C05_Def_Exit_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02.AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02'</t>
         </is>
       </c>
       <c r="E455" t="b">
@@ -10596,19 +10596,19 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>14064</v>
+        <v>14068</v>
       </c>
       <c r="B456" t="n">
-        <v>14064</v>
+        <v>14068</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose06</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C05_Def_Exit_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose06.AKE_Play_Sys_Show_C05_Def_Exit_Pose06'</t>
         </is>
       </c>
       <c r="E456" t="b">
@@ -10617,19 +10617,19 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>14065</v>
+        <v>14069</v>
       </c>
       <c r="B457" t="n">
-        <v>14065</v>
+        <v>14069</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose04</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose04.AKE_Play_Sys_Show_C05_Def_Exit_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01'</t>
         </is>
       </c>
       <c r="E457" t="b">
@@ -10638,19 +10638,19 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>14066</v>
+        <v>14070</v>
       </c>
       <c r="B458" t="n">
-        <v>14066</v>
+        <v>14070</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01</t>
+          <t>AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C05_Def_Exit_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02.AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02'</t>
         </is>
       </c>
       <c r="E458" t="b">
@@ -10659,19 +10659,19 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>14067</v>
+        <v>14071</v>
       </c>
       <c r="B459" t="n">
-        <v>14067</v>
+        <v>14071</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose01</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02.AKE_Play_Sys_Show_C05_Def_Exit_Pose05_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose01.AKE_Play_Sys_Show_C01_Def_Enter_Pose01'</t>
         </is>
       </c>
       <c r="E459" t="b">
@@ -10680,19 +10680,19 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>14068</v>
+        <v>14072</v>
       </c>
       <c r="B460" t="n">
-        <v>14068</v>
+        <v>14072</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Exit_Pose06</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose02</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Exit_Pose06.AKE_Play_Sys_Show_C05_Def_Exit_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose02.AKE_Play_Sys_Show_C01_Def_Enter_Pose02'</t>
         </is>
       </c>
       <c r="E460" t="b">
@@ -10701,19 +10701,19 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>14069</v>
+        <v>14073</v>
       </c>
       <c r="B461" t="n">
-        <v>14069</v>
+        <v>14073</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C05_Def_Idle_Pose02_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01'</t>
         </is>
       </c>
       <c r="E461" t="b">
@@ -10722,19 +10722,19 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>14070</v>
+        <v>14074</v>
       </c>
       <c r="B462" t="n">
-        <v>14070</v>
+        <v>14074</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C05/Sys_Show_C05/AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02.AKE_Play_Sys_Show_C05_Def_Idle_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02'</t>
         </is>
       </c>
       <c r="E462" t="b">
@@ -10743,19 +10743,19 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>14071</v>
+        <v>14075</v>
       </c>
       <c r="B463" t="n">
-        <v>14071</v>
+        <v>14075</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose01</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose01.AKE_Play_Sys_Show_C01_Def_Enter_Pose01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03'</t>
         </is>
       </c>
       <c r="E463" t="b">
@@ -10764,19 +10764,19 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>14072</v>
+        <v>14076</v>
       </c>
       <c r="B464" t="n">
-        <v>14072</v>
+        <v>14076</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose02</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose02.AKE_Play_Sys_Show_C01_Def_Enter_Pose02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04'</t>
         </is>
       </c>
       <c r="E464" t="b">
@@ -10785,19 +10785,19 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>14073</v>
+        <v>14077</v>
       </c>
       <c r="B465" t="n">
-        <v>14073</v>
+        <v>14077</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose04</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose04.AKE_Play_Sys_Show_C01_Def_Enter_Pose04'</t>
         </is>
       </c>
       <c r="E465" t="b">
@@ -10806,19 +10806,19 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>14074</v>
+        <v>14078</v>
       </c>
       <c r="B466" t="n">
-        <v>14074</v>
+        <v>14078</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01'</t>
         </is>
       </c>
       <c r="E466" t="b">
@@ -10827,19 +10827,19 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>14075</v>
+        <v>14079</v>
       </c>
       <c r="B467" t="n">
-        <v>14075</v>
+        <v>14079</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02.AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02'</t>
         </is>
       </c>
       <c r="E467" t="b">
@@ -10848,19 +10848,19 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>14076</v>
+        <v>14080</v>
       </c>
       <c r="B468" t="n">
-        <v>14076</v>
+        <v>14080</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose06</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04.AKE_Play_Sys_Show_C01_Def_Enter_Pose03_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose06.AKE_Play_Sys_Show_C01_Def_Enter_Pose06'</t>
         </is>
       </c>
       <c r="E468" t="b">
@@ -10869,19 +10869,19 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>14077</v>
+        <v>14081</v>
       </c>
       <c r="B469" t="n">
-        <v>14077</v>
+        <v>14081</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose04</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose04.AKE_Play_Sys_Show_C01_Def_Enter_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01'</t>
         </is>
       </c>
       <c r="E469" t="b">
@@ -10890,19 +10890,19 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>14078</v>
+        <v>14082</v>
       </c>
       <c r="B470" t="n">
-        <v>14078</v>
+        <v>14082</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01.AKE_Play_Sys_Show_C01_Def_Enter_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02'</t>
         </is>
       </c>
       <c r="E470" t="b">
@@ -10911,19 +10911,19 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>14079</v>
+        <v>14083</v>
       </c>
       <c r="B471" t="n">
-        <v>14079</v>
+        <v>14083</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02.AKE_Play_Sys_Show_C01_Def_Enter_Pose05_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03'</t>
         </is>
       </c>
       <c r="E471" t="b">
@@ -10932,19 +10932,19 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>14080</v>
+        <v>14084</v>
       </c>
       <c r="B472" t="n">
-        <v>14080</v>
+        <v>14084</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Enter_Pose06</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Enter_Pose06.AKE_Play_Sys_Show_C01_Def_Enter_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04'</t>
         </is>
       </c>
       <c r="E472" t="b">
@@ -10953,19 +10953,19 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>14081</v>
+        <v>14085</v>
       </c>
       <c r="B473" t="n">
-        <v>14081</v>
+        <v>14085</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose04</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose04.AKE_Play_Sys_Show_C01_Def_Exit_Pose04'</t>
         </is>
       </c>
       <c r="E473" t="b">
@@ -10974,19 +10974,19 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>14082</v>
+        <v>14086</v>
       </c>
       <c r="B474" t="n">
-        <v>14082</v>
+        <v>14086</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01'</t>
         </is>
       </c>
       <c r="E474" t="b">
@@ -10995,19 +10995,19 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>14083</v>
+        <v>14087</v>
       </c>
       <c r="B475" t="n">
-        <v>14083</v>
+        <v>14087</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02.AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02'</t>
         </is>
       </c>
       <c r="E475" t="b">
@@ -11016,19 +11016,19 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>14084</v>
+        <v>14088</v>
       </c>
       <c r="B476" t="n">
-        <v>14084</v>
+        <v>14088</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose06</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04.AKE_Play_Sys_Show_C01_Def_Exit_Pose03_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose06.AKE_Play_Sys_Show_C01_Def_Exit_Pose06'</t>
         </is>
       </c>
       <c r="E476" t="b">
@@ -11037,19 +11037,19 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>14085</v>
+        <v>14089</v>
       </c>
       <c r="B477" t="n">
-        <v>14085</v>
+        <v>14089</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose04</t>
+          <t>AKE_Play_Sys_Show_C01_Def_Idle_Pose02_01</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose04.AKE_Play_Sys_Show_C01_Def_Exit_Pose04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C01_Def_Idle_Pose02_01'</t>
         </is>
       </c>
       <c r="E477" t="b">
@@ -11058,19 +11058,19 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>14086</v>
+        <v>15001</v>
       </c>
       <c r="B478" t="n">
-        <v>14086</v>
+        <v>15001</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01</t>
+          <t>AKE_Play_VO_External_1P_2D</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01.AKE_Play_Sys_Show_C01_Def_Exit_Pose05_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_External/AKE_Play_VO_External_1P_2D.AKE_Play_VO_External_1P_2D'</t>
         </is>
       </c>
       <c r="E478" t="b">
@@ -11079,19 +11079,19 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>14087</v>
+        <v>15002</v>
       </c>
       <c r="B479" t="n">
-        <v>14087</v>
+        <v>15002</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02</t>
+          <t>AKE_Play_VO_Game_Battle_C01_01</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02.AKE_Play_Sys_Show_C01_Def_Exit_Pose05_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_01.AKE_Play_VO_Game_Battle_C01_01'</t>
         </is>
       </c>
       <c r="E479" t="b">
@@ -11100,19 +11100,19 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>14088</v>
+        <v>15003</v>
       </c>
       <c r="B480" t="n">
-        <v>14088</v>
+        <v>15003</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Exit_Pose06</t>
+          <t>AKE_Play_VO_Game_Battle_C01_03</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Exit_Pose06.AKE_Play_Sys_Show_C01_Def_Exit_Pose06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_03.AKE_Play_VO_Game_Battle_C01_03'</t>
         </is>
       </c>
       <c r="E480" t="b">
@@ -11121,19 +11121,19 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>14089</v>
+        <v>15004</v>
       </c>
       <c r="B481" t="n">
-        <v>14089</v>
+        <v>15004</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>AKE_Play_Sys_Show_C01_Def_Idle_Pose02_01</t>
+          <t>AKE_Play_VO_Game_Battle_C01_05</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_C01/Sys_Show_C01/AKE_Play_Sys_Show_C01_Def_Idle_Pose02_01.AKE_Play_Sys_Show_C01_Def_Idle_Pose02_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_05.AKE_Play_VO_Game_Battle_C01_05'</t>
         </is>
       </c>
       <c r="E481" t="b">
@@ -11142,19 +11142,19 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>15001</v>
+        <v>15005</v>
       </c>
       <c r="B482" t="n">
-        <v>15001</v>
+        <v>15005</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_External_1P_2D</t>
+          <t>AKE_Play_VO_Game_Battle_C01_06</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_External/AKE_Play_VO_External_1P_2D.AKE_Play_VO_External_1P_2D'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_06.AKE_Play_VO_Game_Battle_C01_06'</t>
         </is>
       </c>
       <c r="E482" t="b">
@@ -11163,19 +11163,19 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>15002</v>
+        <v>15006</v>
       </c>
       <c r="B483" t="n">
-        <v>15002</v>
+        <v>15006</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_01</t>
+          <t>AKE_Play_VO_Game_Battle_C01_07</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_01.AKE_Play_VO_Game_Battle_C01_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_07.AKE_Play_VO_Game_Battle_C01_07'</t>
         </is>
       </c>
       <c r="E483" t="b">
@@ -11184,19 +11184,19 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>15003</v>
+        <v>15007</v>
       </c>
       <c r="B484" t="n">
-        <v>15003</v>
+        <v>15007</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_03</t>
+          <t>AKE_Play_VO_Game_Battle_C01_08</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_03.AKE_Play_VO_Game_Battle_C01_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_08.AKE_Play_VO_Game_Battle_C01_08'</t>
         </is>
       </c>
       <c r="E484" t="b">
@@ -11205,19 +11205,19 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>15004</v>
+        <v>15008</v>
       </c>
       <c r="B485" t="n">
-        <v>15004</v>
+        <v>15008</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_05</t>
+          <t>AKE_Play_VO_Game_Battle_C01_09</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_05.AKE_Play_VO_Game_Battle_C01_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_09.AKE_Play_VO_Game_Battle_C01_09'</t>
         </is>
       </c>
       <c r="E485" t="b">
@@ -11226,19 +11226,19 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>15005</v>
+        <v>15009</v>
       </c>
       <c r="B486" t="n">
-        <v>15005</v>
+        <v>15009</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_06</t>
+          <t>AKE_Play_VO_Game_Battle_C01_10</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_06.AKE_Play_VO_Game_Battle_C01_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_10.AKE_Play_VO_Game_Battle_C01_10'</t>
         </is>
       </c>
       <c r="E486" t="b">
@@ -11247,19 +11247,19 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>15006</v>
+        <v>15010</v>
       </c>
       <c r="B487" t="n">
-        <v>15006</v>
+        <v>15010</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_07</t>
+          <t>AKE_Play_VO_Game_Battle_C01_11</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_07.AKE_Play_VO_Game_Battle_C01_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_11.AKE_Play_VO_Game_Battle_C01_11'</t>
         </is>
       </c>
       <c r="E487" t="b">
@@ -11268,19 +11268,19 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>15007</v>
+        <v>15011</v>
       </c>
       <c r="B488" t="n">
-        <v>15007</v>
+        <v>15011</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_08</t>
+          <t>AKE_Play_VO_Game_Battle_C01_12</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_08.AKE_Play_VO_Game_Battle_C01_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_12.AKE_Play_VO_Game_Battle_C01_12'</t>
         </is>
       </c>
       <c r="E488" t="b">
@@ -11289,19 +11289,19 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>15008</v>
+        <v>15012</v>
       </c>
       <c r="B489" t="n">
-        <v>15008</v>
+        <v>15012</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_09</t>
+          <t>AKE_Play_VO_Game_Battle_C01_13</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_09.AKE_Play_VO_Game_Battle_C01_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_13.AKE_Play_VO_Game_Battle_C01_13'</t>
         </is>
       </c>
       <c r="E489" t="b">
@@ -11310,19 +11310,19 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>15009</v>
+        <v>15013</v>
       </c>
       <c r="B490" t="n">
-        <v>15009</v>
+        <v>15013</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_10</t>
+          <t>AKE_Play_VO_Game_Battle_C01_14</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_10.AKE_Play_VO_Game_Battle_C01_10'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_14.AKE_Play_VO_Game_Battle_C01_14'</t>
         </is>
       </c>
       <c r="E490" t="b">
@@ -11331,19 +11331,19 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>15010</v>
+        <v>15014</v>
       </c>
       <c r="B491" t="n">
-        <v>15010</v>
+        <v>15014</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_11</t>
+          <t>AKE_Play_VO_Game_Battle_C01_15</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_11.AKE_Play_VO_Game_Battle_C01_11'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_15.AKE_Play_VO_Game_Battle_C01_15'</t>
         </is>
       </c>
       <c r="E491" t="b">
@@ -11352,19 +11352,19 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>15011</v>
+        <v>15015</v>
       </c>
       <c r="B492" t="n">
-        <v>15011</v>
+        <v>15015</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_12</t>
+          <t>AKE_Play_VO_Game_Battle_C01_16</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_12.AKE_Play_VO_Game_Battle_C01_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_16.AKE_Play_VO_Game_Battle_C01_16'</t>
         </is>
       </c>
       <c r="E492" t="b">
@@ -11373,19 +11373,19 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>15012</v>
+        <v>15016</v>
       </c>
       <c r="B493" t="n">
-        <v>15012</v>
+        <v>15016</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_13</t>
+          <t>AKE_Play_VO_Game_Battle_C01_18</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_13.AKE_Play_VO_Game_Battle_C01_13'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_18.AKE_Play_VO_Game_Battle_C01_18'</t>
         </is>
       </c>
       <c r="E493" t="b">
@@ -11394,19 +11394,19 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>15013</v>
+        <v>15017</v>
       </c>
       <c r="B494" t="n">
-        <v>15013</v>
+        <v>15017</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_14</t>
+          <t>AKE_Play_VO_Game_Battle_C01_19</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_14.AKE_Play_VO_Game_Battle_C01_14'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_19.AKE_Play_VO_Game_Battle_C01_19'</t>
         </is>
       </c>
       <c r="E494" t="b">
@@ -11415,19 +11415,19 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>15014</v>
+        <v>15018</v>
       </c>
       <c r="B495" t="n">
-        <v>15014</v>
+        <v>15018</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_15</t>
+          <t>AKE_Play_VO_Game_Battle_C01_20</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_15.AKE_Play_VO_Game_Battle_C01_15'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_20.AKE_Play_VO_Game_Battle_C01_20'</t>
         </is>
       </c>
       <c r="E495" t="b">
@@ -11436,19 +11436,19 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>15015</v>
+        <v>15019</v>
       </c>
       <c r="B496" t="n">
-        <v>15015</v>
+        <v>15019</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_16</t>
+          <t>AKE_Play_VO_Game_Battle_C01_22</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_16.AKE_Play_VO_Game_Battle_C01_16'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_22.AKE_Play_VO_Game_Battle_C01_22'</t>
         </is>
       </c>
       <c r="E496" t="b">
@@ -11457,19 +11457,19 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>15016</v>
+        <v>15020</v>
       </c>
       <c r="B497" t="n">
-        <v>15016</v>
+        <v>15020</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_18</t>
+          <t>AKE_Play_VO_Game_Battle_C01_24</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_18.AKE_Play_VO_Game_Battle_C01_18'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_24.AKE_Play_VO_Game_Battle_C01_24'</t>
         </is>
       </c>
       <c r="E497" t="b">
@@ -11478,19 +11478,19 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>15017</v>
+        <v>15021</v>
       </c>
       <c r="B498" t="n">
-        <v>15017</v>
+        <v>15021</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_19</t>
+          <t>AKE_Play_VO_Game_Battle_C01_25</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_19.AKE_Play_VO_Game_Battle_C01_19'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_25.AKE_Play_VO_Game_Battle_C01_25'</t>
         </is>
       </c>
       <c r="E498" t="b">
@@ -11499,19 +11499,19 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>15018</v>
+        <v>15022</v>
       </c>
       <c r="B499" t="n">
-        <v>15018</v>
+        <v>15022</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_20</t>
+          <t>AKE_Play_VO_Game_Battle_C01_26</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_20.AKE_Play_VO_Game_Battle_C01_20'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_26.AKE_Play_VO_Game_Battle_C01_26'</t>
         </is>
       </c>
       <c r="E499" t="b">
@@ -11520,19 +11520,19 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>15019</v>
+        <v>15023</v>
       </c>
       <c r="B500" t="n">
-        <v>15019</v>
+        <v>15023</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_22</t>
+          <t>AKE_Play_VO_Game_Battle_C01_27</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_22.AKE_Play_VO_Game_Battle_C01_22'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_27.AKE_Play_VO_Game_Battle_C01_27'</t>
         </is>
       </c>
       <c r="E500" t="b">
@@ -11541,19 +11541,19 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>15020</v>
+        <v>15024</v>
       </c>
       <c r="B501" t="n">
-        <v>15020</v>
+        <v>15024</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_24</t>
+          <t>AKE_Play_VO_Game_Battle_C01_28</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_24.AKE_Play_VO_Game_Battle_C01_24'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_28.AKE_Play_VO_Game_Battle_C01_28'</t>
         </is>
       </c>
       <c r="E501" t="b">
@@ -11562,19 +11562,19 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>15021</v>
+        <v>15025</v>
       </c>
       <c r="B502" t="n">
-        <v>15021</v>
+        <v>15025</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_25</t>
+          <t>AKE_Play_VO_Game_Menu_C01_01</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_25.AKE_Play_VO_Game_Battle_C01_25'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_01.AKE_Play_VO_Game_Menu_C01_01'</t>
         </is>
       </c>
       <c r="E502" t="b">
@@ -11583,19 +11583,19 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>15022</v>
+        <v>15026</v>
       </c>
       <c r="B503" t="n">
-        <v>15022</v>
+        <v>15026</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_26</t>
+          <t>AKE_Play_VO_Game_Menu_C01_02</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_26.AKE_Play_VO_Game_Battle_C01_26'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_02.AKE_Play_VO_Game_Menu_C01_02'</t>
         </is>
       </c>
       <c r="E503" t="b">
@@ -11604,19 +11604,19 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>15023</v>
+        <v>15027</v>
       </c>
       <c r="B504" t="n">
-        <v>15023</v>
+        <v>15027</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_27</t>
+          <t>AKE_Play_VO_Game_Menu_C01_03</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_27.AKE_Play_VO_Game_Battle_C01_27'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_03.AKE_Play_VO_Game_Menu_C01_03'</t>
         </is>
       </c>
       <c r="E504" t="b">
@@ -11625,19 +11625,19 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>15024</v>
+        <v>15028</v>
       </c>
       <c r="B505" t="n">
-        <v>15024</v>
+        <v>15028</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C01_28</t>
+          <t>AKE_Play_VO_Game_Menu_C01_04</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Battle_C01/AKE_Play_VO_Game_Battle_C01_28.AKE_Play_VO_Game_Battle_C01_28'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_04.AKE_Play_VO_Game_Menu_C01_04'</t>
         </is>
       </c>
       <c r="E505" t="b">
@@ -11646,19 +11646,19 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>15025</v>
+        <v>15029</v>
       </c>
       <c r="B506" t="n">
-        <v>15025</v>
+        <v>15029</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_01</t>
+          <t>AKE_Play_VO_Game_Menu_C01_06</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_01.AKE_Play_VO_Game_Menu_C01_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_06.AKE_Play_VO_Game_Menu_C01_06'</t>
         </is>
       </c>
       <c r="E506" t="b">
@@ -11667,19 +11667,19 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>15026</v>
+        <v>15030</v>
       </c>
       <c r="B507" t="n">
-        <v>15026</v>
+        <v>15030</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_02</t>
+          <t>AKE_Play_VO_Game_Menu_C01_07</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_02.AKE_Play_VO_Game_Menu_C01_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_07.AKE_Play_VO_Game_Menu_C01_07'</t>
         </is>
       </c>
       <c r="E507" t="b">
@@ -11688,19 +11688,19 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>15027</v>
+        <v>15031</v>
       </c>
       <c r="B508" t="n">
-        <v>15027</v>
+        <v>15031</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_03</t>
+          <t>AKE_Play_VO_Game_Menu_C01_08</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_03.AKE_Play_VO_Game_Menu_C01_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_08.AKE_Play_VO_Game_Menu_C01_08'</t>
         </is>
       </c>
       <c r="E508" t="b">
@@ -11709,19 +11709,19 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>15028</v>
+        <v>15032</v>
       </c>
       <c r="B509" t="n">
-        <v>15028</v>
+        <v>15032</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_04</t>
+          <t>AKE_Play_VO_Game_Menu_C01_09</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_04.AKE_Play_VO_Game_Menu_C01_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_09.AKE_Play_VO_Game_Menu_C01_09'</t>
         </is>
       </c>
       <c r="E509" t="b">
@@ -11730,19 +11730,19 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>15029</v>
+        <v>15033</v>
       </c>
       <c r="B510" t="n">
-        <v>15029</v>
+        <v>15033</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_06</t>
+          <t>AKE_Play_VO_Game_World_C01_01</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_06.AKE_Play_VO_Game_Menu_C01_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_01.AKE_Play_VO_Game_World_C01_01'</t>
         </is>
       </c>
       <c r="E510" t="b">
@@ -11751,19 +11751,19 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>15030</v>
+        <v>15034</v>
       </c>
       <c r="B511" t="n">
-        <v>15030</v>
+        <v>15034</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_07</t>
+          <t>AKE_Play_VO_Game_World_C01_02</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_07.AKE_Play_VO_Game_Menu_C01_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_02.AKE_Play_VO_Game_World_C01_02'</t>
         </is>
       </c>
       <c r="E511" t="b">
@@ -11772,19 +11772,19 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>15031</v>
+        <v>15035</v>
       </c>
       <c r="B512" t="n">
-        <v>15031</v>
+        <v>15035</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_08</t>
+          <t>AKE_Play_VO_Game_World_C01_03</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_08.AKE_Play_VO_Game_Menu_C01_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_03.AKE_Play_VO_Game_World_C01_03'</t>
         </is>
       </c>
       <c r="E512" t="b">
@@ -11793,19 +11793,19 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>15032</v>
+        <v>15036</v>
       </c>
       <c r="B513" t="n">
-        <v>15032</v>
+        <v>15036</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C01_09</t>
+          <t>AKE_Play_VO_Game_World_C01_04</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_Menu_C01/AKE_Play_VO_Game_Menu_C01_09.AKE_Play_VO_Game_Menu_C01_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_04.AKE_Play_VO_Game_World_C01_04'</t>
         </is>
       </c>
       <c r="E513" t="b">
@@ -11814,19 +11814,19 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>15033</v>
+        <v>15037</v>
       </c>
       <c r="B514" t="n">
-        <v>15033</v>
+        <v>15037</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_01</t>
+          <t>AKE_Play_VO_Game_World_C01_05</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_01.AKE_Play_VO_Game_World_C01_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_05.AKE_Play_VO_Game_World_C01_05'</t>
         </is>
       </c>
       <c r="E514" t="b">
@@ -11835,19 +11835,19 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>15034</v>
+        <v>15038</v>
       </c>
       <c r="B515" t="n">
-        <v>15034</v>
+        <v>15038</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_02</t>
+          <t>AKE_Play_VO_Game_World_C01_06</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_02.AKE_Play_VO_Game_World_C01_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_06.AKE_Play_VO_Game_World_C01_06'</t>
         </is>
       </c>
       <c r="E515" t="b">
@@ -11856,19 +11856,19 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>15035</v>
+        <v>15039</v>
       </c>
       <c r="B516" t="n">
-        <v>15035</v>
+        <v>15039</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_03</t>
+          <t>AKE_Play_VO_Game_World_C01_07</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_03.AKE_Play_VO_Game_World_C01_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_07.AKE_Play_VO_Game_World_C01_07'</t>
         </is>
       </c>
       <c r="E516" t="b">
@@ -11877,19 +11877,19 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>15036</v>
+        <v>15040</v>
       </c>
       <c r="B517" t="n">
-        <v>15036</v>
+        <v>15040</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_04</t>
+          <t>AKE_Play_VO_Game_World_C01_08</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_04.AKE_Play_VO_Game_World_C01_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_08.AKE_Play_VO_Game_World_C01_08'</t>
         </is>
       </c>
       <c r="E517" t="b">
@@ -11898,19 +11898,19 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>15037</v>
+        <v>15041</v>
       </c>
       <c r="B518" t="n">
-        <v>15037</v>
+        <v>15041</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_05</t>
+          <t>AKE_Play_VO_Game_World_C01_09</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_05.AKE_Play_VO_Game_World_C01_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_09.AKE_Play_VO_Game_World_C01_09'</t>
         </is>
       </c>
       <c r="E518" t="b">
@@ -11919,19 +11919,19 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>15038</v>
+        <v>15042</v>
       </c>
       <c r="B519" t="n">
-        <v>15038</v>
+        <v>15042</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_06</t>
+          <t>AKE_Play_VO_Game_World_C01_10</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_06.AKE_Play_VO_Game_World_C01_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_10.AKE_Play_VO_Game_World_C01_10'</t>
         </is>
       </c>
       <c r="E519" t="b">
@@ -11940,19 +11940,19 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>15039</v>
+        <v>15043</v>
       </c>
       <c r="B520" t="n">
-        <v>15039</v>
+        <v>15043</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_07</t>
+          <t>AKE_Play_VO_Game_World_C01_11</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_07.AKE_Play_VO_Game_World_C01_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_11.AKE_Play_VO_Game_World_C01_11'</t>
         </is>
       </c>
       <c r="E520" t="b">
@@ -11961,19 +11961,19 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>15040</v>
+        <v>15044</v>
       </c>
       <c r="B521" t="n">
-        <v>15040</v>
+        <v>15044</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_08</t>
+          <t>AKE_Play_VO_Game_World_C01_12</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_08.AKE_Play_VO_Game_World_C01_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_12.AKE_Play_VO_Game_World_C01_12'</t>
         </is>
       </c>
       <c r="E521" t="b">
@@ -11982,19 +11982,19 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>15041</v>
+        <v>15045</v>
       </c>
       <c r="B522" t="n">
-        <v>15041</v>
+        <v>15045</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_09</t>
+          <t>AKE_Play_VO_Game_World_C01_13</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_09.AKE_Play_VO_Game_World_C01_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_13.AKE_Play_VO_Game_World_C01_13'</t>
         </is>
       </c>
       <c r="E522" t="b">
@@ -12003,19 +12003,19 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>15042</v>
+        <v>15046</v>
       </c>
       <c r="B523" t="n">
-        <v>15042</v>
+        <v>15046</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_10</t>
+          <t>AKE_Play_VO_Game_World_C01_14</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_10.AKE_Play_VO_Game_World_C01_10'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_14.AKE_Play_VO_Game_World_C01_14'</t>
         </is>
       </c>
       <c r="E523" t="b">
@@ -12024,19 +12024,19 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>15043</v>
+        <v>15047</v>
       </c>
       <c r="B524" t="n">
-        <v>15043</v>
+        <v>15047</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_11</t>
+          <t>AKE_Play_VO_Game_World_C01_15</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_11.AKE_Play_VO_Game_World_C01_11'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_15.AKE_Play_VO_Game_World_C01_15'</t>
         </is>
       </c>
       <c r="E524" t="b">
@@ -12045,19 +12045,19 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>15044</v>
+        <v>15048</v>
       </c>
       <c r="B525" t="n">
-        <v>15044</v>
+        <v>15048</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_12</t>
+          <t>AKE_Play_VO_Game_World_C01_16</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_12.AKE_Play_VO_Game_World_C01_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_16.AKE_Play_VO_Game_World_C01_16'</t>
         </is>
       </c>
       <c r="E525" t="b">
@@ -12066,19 +12066,19 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>15045</v>
+        <v>15049</v>
       </c>
       <c r="B526" t="n">
-        <v>15045</v>
+        <v>15049</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_13</t>
+          <t>AKE_Play_VO_Game_World_C01_17</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_13.AKE_Play_VO_Game_World_C01_13'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_17.AKE_Play_VO_Game_World_C01_17'</t>
         </is>
       </c>
       <c r="E526" t="b">
@@ -12087,19 +12087,19 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>15046</v>
+        <v>15050</v>
       </c>
       <c r="B527" t="n">
-        <v>15046</v>
+        <v>15050</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_14</t>
+          <t>AKE_Play_VO_Game_World_C01_18</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_14.AKE_Play_VO_Game_World_C01_14'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_18.AKE_Play_VO_Game_World_C01_18'</t>
         </is>
       </c>
       <c r="E527" t="b">
@@ -12108,19 +12108,19 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>15047</v>
+        <v>15051</v>
       </c>
       <c r="B528" t="n">
-        <v>15047</v>
+        <v>15051</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_15</t>
+          <t>AKE_Play_VO_Game_World_C01_20</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_15.AKE_Play_VO_Game_World_C01_15'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_20.AKE_Play_VO_Game_World_C01_20'</t>
         </is>
       </c>
       <c r="E528" t="b">
@@ -12129,19 +12129,19 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>15048</v>
+        <v>15052</v>
       </c>
       <c r="B529" t="n">
-        <v>15048</v>
+        <v>15052</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_16</t>
+          <t>AKE_Play_VO_Game_World_C01_21</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_16.AKE_Play_VO_Game_World_C01_16'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_21.AKE_Play_VO_Game_World_C01_21'</t>
         </is>
       </c>
       <c r="E529" t="b">
@@ -12150,19 +12150,19 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>15049</v>
+        <v>15053</v>
       </c>
       <c r="B530" t="n">
-        <v>15049</v>
+        <v>15053</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_17</t>
+          <t>AKE_Play_VO_Game_Battle_C02_01</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_17.AKE_Play_VO_Game_World_C01_17'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_01.AKE_Play_VO_Game_Battle_C02_01'</t>
         </is>
       </c>
       <c r="E530" t="b">
@@ -12171,19 +12171,19 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>15050</v>
+        <v>15054</v>
       </c>
       <c r="B531" t="n">
-        <v>15050</v>
+        <v>15054</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_18</t>
+          <t>AKE_Play_VO_Game_Battle_C02_03</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_18.AKE_Play_VO_Game_World_C01_18'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_03.AKE_Play_VO_Game_Battle_C02_03'</t>
         </is>
       </c>
       <c r="E531" t="b">
@@ -12192,19 +12192,19 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>15051</v>
+        <v>15055</v>
       </c>
       <c r="B532" t="n">
-        <v>15051</v>
+        <v>15055</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_20</t>
+          <t>AKE_Play_VO_Game_Battle_C02_05</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_20.AKE_Play_VO_Game_World_C01_20'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_05.AKE_Play_VO_Game_Battle_C02_05'</t>
         </is>
       </c>
       <c r="E532" t="b">
@@ -12213,19 +12213,19 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>15052</v>
+        <v>15056</v>
       </c>
       <c r="B533" t="n">
-        <v>15052</v>
+        <v>15056</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C01_21</t>
+          <t>AKE_Play_VO_Game_Battle_C02_06</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C01/VO_Game_World_C01/AKE_Play_VO_Game_World_C01_21.AKE_Play_VO_Game_World_C01_21'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_06.AKE_Play_VO_Game_Battle_C02_06'</t>
         </is>
       </c>
       <c r="E533" t="b">
@@ -12234,19 +12234,19 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>15053</v>
+        <v>15057</v>
       </c>
       <c r="B534" t="n">
-        <v>15053</v>
+        <v>15057</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_01</t>
+          <t>AKE_Play_VO_Game_Battle_C02_07</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_01.AKE_Play_VO_Game_Battle_C02_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_07.AKE_Play_VO_Game_Battle_C02_07'</t>
         </is>
       </c>
       <c r="E534" t="b">
@@ -12255,19 +12255,19 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>15054</v>
+        <v>15058</v>
       </c>
       <c r="B535" t="n">
-        <v>15054</v>
+        <v>15058</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_03</t>
+          <t>AKE_Play_VO_Game_Battle_C02_08</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_03.AKE_Play_VO_Game_Battle_C02_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_08.AKE_Play_VO_Game_Battle_C02_08'</t>
         </is>
       </c>
       <c r="E535" t="b">
@@ -12276,19 +12276,19 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>15055</v>
+        <v>15059</v>
       </c>
       <c r="B536" t="n">
-        <v>15055</v>
+        <v>15059</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_05</t>
+          <t>AKE_Play_VO_Game_Battle_C02_09</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_05.AKE_Play_VO_Game_Battle_C02_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_09.AKE_Play_VO_Game_Battle_C02_09'</t>
         </is>
       </c>
       <c r="E536" t="b">
@@ -12297,19 +12297,19 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>15056</v>
+        <v>15060</v>
       </c>
       <c r="B537" t="n">
-        <v>15056</v>
+        <v>15060</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_06</t>
+          <t>AKE_Play_VO_Game_Battle_C02_10</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_06.AKE_Play_VO_Game_Battle_C02_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_10.AKE_Play_VO_Game_Battle_C02_10'</t>
         </is>
       </c>
       <c r="E537" t="b">
@@ -12318,19 +12318,19 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>15057</v>
+        <v>15061</v>
       </c>
       <c r="B538" t="n">
-        <v>15057</v>
+        <v>15061</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_07</t>
+          <t>AKE_Play_VO_Game_Battle_C02_11</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_07.AKE_Play_VO_Game_Battle_C02_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_11.AKE_Play_VO_Game_Battle_C02_11'</t>
         </is>
       </c>
       <c r="E538" t="b">
@@ -12339,19 +12339,19 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>15058</v>
+        <v>15062</v>
       </c>
       <c r="B539" t="n">
-        <v>15058</v>
+        <v>15062</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_08</t>
+          <t>AKE_Play_VO_Game_Battle_C02_12</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_08.AKE_Play_VO_Game_Battle_C02_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_12.AKE_Play_VO_Game_Battle_C02_12'</t>
         </is>
       </c>
       <c r="E539" t="b">
@@ -12360,19 +12360,19 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>15059</v>
+        <v>15063</v>
       </c>
       <c r="B540" t="n">
-        <v>15059</v>
+        <v>15063</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_09</t>
+          <t>AKE_Play_VO_Game_Battle_C02_13</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_09.AKE_Play_VO_Game_Battle_C02_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_13.AKE_Play_VO_Game_Battle_C02_13'</t>
         </is>
       </c>
       <c r="E540" t="b">
@@ -12381,19 +12381,19 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>15060</v>
+        <v>15064</v>
       </c>
       <c r="B541" t="n">
-        <v>15060</v>
+        <v>15064</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_10</t>
+          <t>AKE_Play_VO_Game_Battle_C02_14</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_10.AKE_Play_VO_Game_Battle_C02_10'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_14.AKE_Play_VO_Game_Battle_C02_14'</t>
         </is>
       </c>
       <c r="E541" t="b">
@@ -12402,19 +12402,19 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>15061</v>
+        <v>15065</v>
       </c>
       <c r="B542" t="n">
-        <v>15061</v>
+        <v>15065</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_11</t>
+          <t>AKE_Play_VO_Game_Battle_C02_15</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_11.AKE_Play_VO_Game_Battle_C02_11'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_15.AKE_Play_VO_Game_Battle_C02_15'</t>
         </is>
       </c>
       <c r="E542" t="b">
@@ -12423,19 +12423,19 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>15062</v>
+        <v>15066</v>
       </c>
       <c r="B543" t="n">
-        <v>15062</v>
+        <v>15066</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_12</t>
+          <t>AKE_Play_VO_Game_Battle_C02_16</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_12.AKE_Play_VO_Game_Battle_C02_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_16.AKE_Play_VO_Game_Battle_C02_16'</t>
         </is>
       </c>
       <c r="E543" t="b">
@@ -12444,19 +12444,19 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>15063</v>
+        <v>15067</v>
       </c>
       <c r="B544" t="n">
-        <v>15063</v>
+        <v>15067</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_13</t>
+          <t>AKE_Play_VO_Game_Battle_C02_17</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_13.AKE_Play_VO_Game_Battle_C02_13'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_17.AKE_Play_VO_Game_Battle_C02_17'</t>
         </is>
       </c>
       <c r="E544" t="b">
@@ -12465,19 +12465,19 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>15064</v>
+        <v>15068</v>
       </c>
       <c r="B545" t="n">
-        <v>15064</v>
+        <v>15068</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_14</t>
+          <t>AKE_Play_VO_Game_Battle_C02_18</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_14.AKE_Play_VO_Game_Battle_C02_14'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_18.AKE_Play_VO_Game_Battle_C02_18'</t>
         </is>
       </c>
       <c r="E545" t="b">
@@ -12486,19 +12486,19 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>15065</v>
+        <v>15069</v>
       </c>
       <c r="B546" t="n">
-        <v>15065</v>
+        <v>15069</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_15</t>
+          <t>AKE_Play_VO_Game_Battle_C02_20</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_15.AKE_Play_VO_Game_Battle_C02_15'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_20.AKE_Play_VO_Game_Battle_C02_20'</t>
         </is>
       </c>
       <c r="E546" t="b">
@@ -12507,19 +12507,19 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>15066</v>
+        <v>15070</v>
       </c>
       <c r="B547" t="n">
-        <v>15066</v>
+        <v>15070</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_16</t>
+          <t>AKE_Play_VO_Game_Battle_C02_21</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_16.AKE_Play_VO_Game_Battle_C02_16'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_21.AKE_Play_VO_Game_Battle_C02_21'</t>
         </is>
       </c>
       <c r="E547" t="b">
@@ -12528,19 +12528,19 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>15067</v>
+        <v>15071</v>
       </c>
       <c r="B548" t="n">
-        <v>15067</v>
+        <v>15071</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_17</t>
+          <t>AKE_Play_VO_Game_Battle_C02_22</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_17.AKE_Play_VO_Game_Battle_C02_17'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_22.AKE_Play_VO_Game_Battle_C02_22'</t>
         </is>
       </c>
       <c r="E548" t="b">
@@ -12549,19 +12549,19 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>15068</v>
+        <v>15072</v>
       </c>
       <c r="B549" t="n">
-        <v>15068</v>
+        <v>15072</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_18</t>
+          <t>AKE_Play_VO_Game_Battle_C02_24</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_18.AKE_Play_VO_Game_Battle_C02_18'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_24.AKE_Play_VO_Game_Battle_C02_24'</t>
         </is>
       </c>
       <c r="E549" t="b">
@@ -12570,19 +12570,19 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>15069</v>
+        <v>15073</v>
       </c>
       <c r="B550" t="n">
-        <v>15069</v>
+        <v>15073</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_20</t>
+          <t>AKE_Play_VO_Game_Battle_C02_26</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_20.AKE_Play_VO_Game_Battle_C02_20'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_26.AKE_Play_VO_Game_Battle_C02_26'</t>
         </is>
       </c>
       <c r="E550" t="b">
@@ -12591,19 +12591,19 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>15070</v>
+        <v>15074</v>
       </c>
       <c r="B551" t="n">
-        <v>15070</v>
+        <v>15074</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_21</t>
+          <t>AKE_Play_VO_Game_Battle_C02_27</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_21.AKE_Play_VO_Game_Battle_C02_21'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_27.AKE_Play_VO_Game_Battle_C02_27'</t>
         </is>
       </c>
       <c r="E551" t="b">
@@ -12612,19 +12612,19 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>15071</v>
+        <v>15075</v>
       </c>
       <c r="B552" t="n">
-        <v>15071</v>
+        <v>15075</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_22</t>
+          <t>AKE_Play_VO_Game_Battle_C02_28</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_22.AKE_Play_VO_Game_Battle_C02_22'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_28.AKE_Play_VO_Game_Battle_C02_28'</t>
         </is>
       </c>
       <c r="E552" t="b">
@@ -12633,19 +12633,19 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>15072</v>
+        <v>15076</v>
       </c>
       <c r="B553" t="n">
-        <v>15072</v>
+        <v>15076</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_24</t>
+          <t>AKE_Play_VO_Game_Battle_C02_29</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_24.AKE_Play_VO_Game_Battle_C02_24'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_29.AKE_Play_VO_Game_Battle_C02_29'</t>
         </is>
       </c>
       <c r="E553" t="b">
@@ -12654,19 +12654,19 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>15073</v>
+        <v>15077</v>
       </c>
       <c r="B554" t="n">
-        <v>15073</v>
+        <v>15077</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_26</t>
+          <t>AKE_Play_VO_Game_Battle_C02_30</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_26.AKE_Play_VO_Game_Battle_C02_26'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_30.AKE_Play_VO_Game_Battle_C02_30'</t>
         </is>
       </c>
       <c r="E554" t="b">
@@ -12675,19 +12675,19 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>15074</v>
+        <v>15078</v>
       </c>
       <c r="B555" t="n">
-        <v>15074</v>
+        <v>15078</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_27</t>
+          <t>AKE_Play_VO_Game_Menu_C02_01</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_27.AKE_Play_VO_Game_Battle_C02_27'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_01.AKE_Play_VO_Game_Menu_C02_01'</t>
         </is>
       </c>
       <c r="E555" t="b">
@@ -12696,19 +12696,19 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>15075</v>
+        <v>15079</v>
       </c>
       <c r="B556" t="n">
-        <v>15075</v>
+        <v>15079</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_28</t>
+          <t>AKE_Play_VO_Game_Menu_C02_02</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_28.AKE_Play_VO_Game_Battle_C02_28'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_02.AKE_Play_VO_Game_Menu_C02_02'</t>
         </is>
       </c>
       <c r="E556" t="b">
@@ -12717,19 +12717,19 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>15076</v>
+        <v>15080</v>
       </c>
       <c r="B557" t="n">
-        <v>15076</v>
+        <v>15080</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_29</t>
+          <t>AKE_Play_VO_Game_Menu_C02_03</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_29.AKE_Play_VO_Game_Battle_C02_29'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_03.AKE_Play_VO_Game_Menu_C02_03'</t>
         </is>
       </c>
       <c r="E557" t="b">
@@ -12738,19 +12738,19 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>15077</v>
+        <v>15081</v>
       </c>
       <c r="B558" t="n">
-        <v>15077</v>
+        <v>15081</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C02_30</t>
+          <t>AKE_Play_VO_Game_Menu_C02_04</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_30.AKE_Play_VO_Game_Battle_C02_30'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_04.AKE_Play_VO_Game_Menu_C02_04'</t>
         </is>
       </c>
       <c r="E558" t="b">
@@ -12759,19 +12759,19 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>15078</v>
+        <v>15082</v>
       </c>
       <c r="B559" t="n">
-        <v>15078</v>
+        <v>15082</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_01</t>
+          <t>AKE_Play_VO_Game_Menu_C02_06</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_01.AKE_Play_VO_Game_Menu_C02_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_06.AKE_Play_VO_Game_Menu_C02_06'</t>
         </is>
       </c>
       <c r="E559" t="b">
@@ -12780,19 +12780,19 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>15079</v>
+        <v>15083</v>
       </c>
       <c r="B560" t="n">
-        <v>15079</v>
+        <v>15083</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_02</t>
+          <t>AKE_Play_VO_Game_Menu_C02_07</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_02.AKE_Play_VO_Game_Menu_C02_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_07.AKE_Play_VO_Game_Menu_C02_07'</t>
         </is>
       </c>
       <c r="E560" t="b">
@@ -12801,19 +12801,19 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>15080</v>
+        <v>15084</v>
       </c>
       <c r="B561" t="n">
-        <v>15080</v>
+        <v>15084</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_03</t>
+          <t>AKE_Play_VO_Game_Menu_C02_08</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_03.AKE_Play_VO_Game_Menu_C02_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_08.AKE_Play_VO_Game_Menu_C02_08'</t>
         </is>
       </c>
       <c r="E561" t="b">
@@ -12822,19 +12822,19 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>15081</v>
+        <v>15085</v>
       </c>
       <c r="B562" t="n">
-        <v>15081</v>
+        <v>15085</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_04</t>
+          <t>AKE_Play_VO_Game_Menu_C02_09</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_04.AKE_Play_VO_Game_Menu_C02_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_09.AKE_Play_VO_Game_Menu_C02_09'</t>
         </is>
       </c>
       <c r="E562" t="b">
@@ -12843,19 +12843,19 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>15082</v>
+        <v>15086</v>
       </c>
       <c r="B563" t="n">
-        <v>15082</v>
+        <v>15086</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_06</t>
+          <t>AKE_Play_VO_Game_World_C02_01</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_06.AKE_Play_VO_Game_Menu_C02_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_01.AKE_Play_VO_Game_World_C02_01'</t>
         </is>
       </c>
       <c r="E563" t="b">
@@ -12864,19 +12864,19 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>15083</v>
+        <v>15087</v>
       </c>
       <c r="B564" t="n">
-        <v>15083</v>
+        <v>15087</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_07</t>
+          <t>AKE_Play_VO_Game_World_C02_02</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_07.AKE_Play_VO_Game_Menu_C02_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_02.AKE_Play_VO_Game_World_C02_02'</t>
         </is>
       </c>
       <c r="E564" t="b">
@@ -12885,19 +12885,19 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>15084</v>
+        <v>15088</v>
       </c>
       <c r="B565" t="n">
-        <v>15084</v>
+        <v>15088</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_08</t>
+          <t>AKE_Play_VO_Game_World_C02_03</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_08.AKE_Play_VO_Game_Menu_C02_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_03.AKE_Play_VO_Game_World_C02_03'</t>
         </is>
       </c>
       <c r="E565" t="b">
@@ -12906,19 +12906,19 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>15085</v>
+        <v>15089</v>
       </c>
       <c r="B566" t="n">
-        <v>15085</v>
+        <v>15089</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Menu_C02_09</t>
+          <t>AKE_Play_VO_Game_World_C02_04</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Menu_C02/AKE_Play_VO_Game_Menu_C02_09.AKE_Play_VO_Game_Menu_C02_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_04.AKE_Play_VO_Game_World_C02_04'</t>
         </is>
       </c>
       <c r="E566" t="b">
@@ -12927,19 +12927,19 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>15086</v>
+        <v>15090</v>
       </c>
       <c r="B567" t="n">
-        <v>15086</v>
+        <v>15090</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_01</t>
+          <t>AKE_Play_VO_Game_World_C02_05</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_01.AKE_Play_VO_Game_World_C02_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_05.AKE_Play_VO_Game_World_C02_05'</t>
         </is>
       </c>
       <c r="E567" t="b">
@@ -12948,19 +12948,19 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>15087</v>
+        <v>15091</v>
       </c>
       <c r="B568" t="n">
-        <v>15087</v>
+        <v>15091</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_02</t>
+          <t>AKE_Play_VO_Game_World_C02_06</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_02.AKE_Play_VO_Game_World_C02_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_06.AKE_Play_VO_Game_World_C02_06'</t>
         </is>
       </c>
       <c r="E568" t="b">
@@ -12969,19 +12969,19 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>15088</v>
+        <v>15092</v>
       </c>
       <c r="B569" t="n">
-        <v>15088</v>
+        <v>15092</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_03</t>
+          <t>AKE_Play_VO_Game_World_C02_07</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_03.AKE_Play_VO_Game_World_C02_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_07.AKE_Play_VO_Game_World_C02_07'</t>
         </is>
       </c>
       <c r="E569" t="b">
@@ -12990,19 +12990,19 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>15089</v>
+        <v>15093</v>
       </c>
       <c r="B570" t="n">
-        <v>15089</v>
+        <v>15093</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_04</t>
+          <t>AKE_Play_VO_Game_World_C02_08</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_04.AKE_Play_VO_Game_World_C02_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_08.AKE_Play_VO_Game_World_C02_08'</t>
         </is>
       </c>
       <c r="E570" t="b">
@@ -13011,19 +13011,19 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>15090</v>
+        <v>15094</v>
       </c>
       <c r="B571" t="n">
-        <v>15090</v>
+        <v>15094</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_05</t>
+          <t>AKE_Play_VO_Game_World_C02_09</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_05.AKE_Play_VO_Game_World_C02_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_09.AKE_Play_VO_Game_World_C02_09'</t>
         </is>
       </c>
       <c r="E571" t="b">
@@ -13032,19 +13032,19 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>15091</v>
+        <v>15095</v>
       </c>
       <c r="B572" t="n">
-        <v>15091</v>
+        <v>15095</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_06</t>
+          <t>AKE_Play_VO_Game_World_C02_10</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_06.AKE_Play_VO_Game_World_C02_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_10.AKE_Play_VO_Game_World_C02_10'</t>
         </is>
       </c>
       <c r="E572" t="b">
@@ -13053,19 +13053,19 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>15092</v>
+        <v>15096</v>
       </c>
       <c r="B573" t="n">
-        <v>15092</v>
+        <v>15096</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_07</t>
+          <t>AKE_Play_VO_Game_World_C02_11</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_07.AKE_Play_VO_Game_World_C02_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_11.AKE_Play_VO_Game_World_C02_11'</t>
         </is>
       </c>
       <c r="E573" t="b">
@@ -13074,19 +13074,19 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>15093</v>
+        <v>15097</v>
       </c>
       <c r="B574" t="n">
-        <v>15093</v>
+        <v>15097</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_08</t>
+          <t>AKE_Play_VO_Game_World_C02_12</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_08.AKE_Play_VO_Game_World_C02_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_12.AKE_Play_VO_Game_World_C02_12'</t>
         </is>
       </c>
       <c r="E574" t="b">
@@ -13095,19 +13095,19 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>15094</v>
+        <v>15098</v>
       </c>
       <c r="B575" t="n">
-        <v>15094</v>
+        <v>15098</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_09</t>
+          <t>AKE_Play_VO_Game_World_C02_13</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_09.AKE_Play_VO_Game_World_C02_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_13.AKE_Play_VO_Game_World_C02_13'</t>
         </is>
       </c>
       <c r="E575" t="b">
@@ -13116,19 +13116,19 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>15095</v>
+        <v>15099</v>
       </c>
       <c r="B576" t="n">
-        <v>15095</v>
+        <v>15099</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_10</t>
+          <t>AKE_Play_VO_Game_World_C02_14</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_10.AKE_Play_VO_Game_World_C02_10'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_14.AKE_Play_VO_Game_World_C02_14'</t>
         </is>
       </c>
       <c r="E576" t="b">
@@ -13137,19 +13137,19 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>15096</v>
+        <v>15100</v>
       </c>
       <c r="B577" t="n">
-        <v>15096</v>
+        <v>15100</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_11</t>
+          <t>AKE_Play_VO_Game_World_C02_15</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_11.AKE_Play_VO_Game_World_C02_11'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_15.AKE_Play_VO_Game_World_C02_15'</t>
         </is>
       </c>
       <c r="E577" t="b">
@@ -13158,19 +13158,19 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>15097</v>
+        <v>15101</v>
       </c>
       <c r="B578" t="n">
-        <v>15097</v>
+        <v>15101</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_12</t>
+          <t>AKE_Play_VO_Game_World_C02_16</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_12.AKE_Play_VO_Game_World_C02_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_16.AKE_Play_VO_Game_World_C02_16'</t>
         </is>
       </c>
       <c r="E578" t="b">
@@ -13179,19 +13179,19 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>15098</v>
+        <v>15102</v>
       </c>
       <c r="B579" t="n">
-        <v>15098</v>
+        <v>15102</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_13</t>
+          <t>AKE_Play_VO_Game_World_C02_17</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_13.AKE_Play_VO_Game_World_C02_13'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_17.AKE_Play_VO_Game_World_C02_17'</t>
         </is>
       </c>
       <c r="E579" t="b">
@@ -13200,19 +13200,19 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>15099</v>
+        <v>15103</v>
       </c>
       <c r="B580" t="n">
-        <v>15099</v>
+        <v>15103</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_14</t>
+          <t>AKE_Play_VO_Game_World_C02_18</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_14.AKE_Play_VO_Game_World_C02_14'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_18.AKE_Play_VO_Game_World_C02_18'</t>
         </is>
       </c>
       <c r="E580" t="b">
@@ -13221,19 +13221,19 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>15100</v>
+        <v>15104</v>
       </c>
       <c r="B581" t="n">
-        <v>15100</v>
+        <v>15104</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_15</t>
+          <t>AKE_Play_VO_Game_World_C02_19</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_15.AKE_Play_VO_Game_World_C02_15'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_19.AKE_Play_VO_Game_World_C02_19'</t>
         </is>
       </c>
       <c r="E581" t="b">
@@ -13242,19 +13242,19 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>15101</v>
+        <v>15105</v>
       </c>
       <c r="B582" t="n">
-        <v>15101</v>
+        <v>15105</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_16</t>
+          <t>AKE_Play_VO_Game_Battle_B01_01</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_16.AKE_Play_VO_Game_World_C02_16'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_01.AKE_Play_VO_Game_Battle_B01_01'</t>
         </is>
       </c>
       <c r="E582" t="b">
@@ -13263,19 +13263,19 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>15102</v>
+        <v>15106</v>
       </c>
       <c r="B583" t="n">
-        <v>15102</v>
+        <v>15106</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_17</t>
+          <t>AKE_Play_VO_Game_Battle_B01_02</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_17.AKE_Play_VO_Game_World_C02_17'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_02.AKE_Play_VO_Game_Battle_B01_02'</t>
         </is>
       </c>
       <c r="E583" t="b">
@@ -13284,19 +13284,19 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>15103</v>
+        <v>15107</v>
       </c>
       <c r="B584" t="n">
-        <v>15103</v>
+        <v>15107</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_18</t>
+          <t>AKE_Play_VO_Game_Battle_B01_03</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_18.AKE_Play_VO_Game_World_C02_18'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_03.AKE_Play_VO_Game_Battle_B01_03'</t>
         </is>
       </c>
       <c r="E584" t="b">
@@ -13305,19 +13305,19 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>15104</v>
+        <v>15108</v>
       </c>
       <c r="B585" t="n">
-        <v>15104</v>
+        <v>15108</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_World_C02_19</t>
+          <t>AKE_Play_VO_Game_Battle_B01_04</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_World_C02/AKE_Play_VO_Game_World_C02_19.AKE_Play_VO_Game_World_C02_19'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_04.AKE_Play_VO_Game_Battle_B01_04'</t>
         </is>
       </c>
       <c r="E585" t="b">
@@ -13326,19 +13326,19 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>15105</v>
+        <v>15109</v>
       </c>
       <c r="B586" t="n">
-        <v>15105</v>
+        <v>15109</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_01</t>
+          <t>AKE_Play_VO_Game_Battle_B01_05</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_01.AKE_Play_VO_Game_Battle_B01_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_05.AKE_Play_VO_Game_Battle_B01_05'</t>
         </is>
       </c>
       <c r="E586" t="b">
@@ -13347,19 +13347,19 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>15106</v>
+        <v>15110</v>
       </c>
       <c r="B587" t="n">
-        <v>15106</v>
+        <v>15110</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_02</t>
+          <t>AKE_Play_VO_Game_Battle_B01_06</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_02.AKE_Play_VO_Game_Battle_B01_02'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_06.AKE_Play_VO_Game_Battle_B01_06'</t>
         </is>
       </c>
       <c r="E587" t="b">
@@ -13368,19 +13368,19 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>15107</v>
+        <v>15111</v>
       </c>
       <c r="B588" t="n">
-        <v>15107</v>
+        <v>15111</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_03</t>
+          <t>AKE_Play_VO_Game_Battle_B01_07</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_03.AKE_Play_VO_Game_Battle_B01_03'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_07.AKE_Play_VO_Game_Battle_B01_07'</t>
         </is>
       </c>
       <c r="E588" t="b">
@@ -13389,19 +13389,19 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>15108</v>
+        <v>15112</v>
       </c>
       <c r="B589" t="n">
-        <v>15108</v>
+        <v>15112</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_04</t>
+          <t>AKE_Play_VO_Game_Battle_B01_08</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_04.AKE_Play_VO_Game_Battle_B01_04'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_08.AKE_Play_VO_Game_Battle_B01_08'</t>
         </is>
       </c>
       <c r="E589" t="b">
@@ -13410,19 +13410,19 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>15109</v>
+        <v>15113</v>
       </c>
       <c r="B590" t="n">
-        <v>15109</v>
+        <v>15113</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_05</t>
+          <t>AKE_Play_VO_Game_Battle_B01_09</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_05.AKE_Play_VO_Game_Battle_B01_05'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_09.AKE_Play_VO_Game_Battle_B01_09'</t>
         </is>
       </c>
       <c r="E590" t="b">
@@ -13431,19 +13431,19 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>15110</v>
+        <v>15114</v>
       </c>
       <c r="B591" t="n">
-        <v>15110</v>
+        <v>15114</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_06</t>
+          <t>AKE_Play_VO_Game_Battle_B01_10</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_06.AKE_Play_VO_Game_Battle_B01_06'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_10.AKE_Play_VO_Game_Battle_B01_10'</t>
         </is>
       </c>
       <c r="E591" t="b">
@@ -13452,19 +13452,19 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>15111</v>
+        <v>15115</v>
       </c>
       <c r="B592" t="n">
-        <v>15111</v>
+        <v>15115</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_07</t>
+          <t>AKE_Play_VO_Game_Battle_B01_11</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_07.AKE_Play_VO_Game_Battle_B01_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_11.AKE_Play_VO_Game_Battle_B01_11'</t>
         </is>
       </c>
       <c r="E592" t="b">
@@ -13473,19 +13473,19 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>15112</v>
+        <v>15116</v>
       </c>
       <c r="B593" t="n">
-        <v>15112</v>
+        <v>15116</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_08</t>
+          <t>AKE_Play_VO_Game_Battle_B01_12</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_08.AKE_Play_VO_Game_Battle_B01_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_12.AKE_Play_VO_Game_Battle_B01_12'</t>
         </is>
       </c>
       <c r="E593" t="b">
@@ -13494,19 +13494,19 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>15113</v>
+        <v>15117</v>
       </c>
       <c r="B594" t="n">
-        <v>15113</v>
+        <v>15117</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_09</t>
+          <t>AKE_Play_VO_Game_Battle_B01_13</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_09.AKE_Play_VO_Game_Battle_B01_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_13.AKE_Play_VO_Game_Battle_B01_13'</t>
         </is>
       </c>
       <c r="E594" t="b">
@@ -13515,40 +13515,40 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>15114</v>
+        <v>13001</v>
       </c>
       <c r="B595" t="n">
-        <v>15114</v>
+        <v>13001</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_10</t>
+          <t>AKE_Play_Mus_Global</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_10.AKE_Play_VO_Game_Battle_B01_10'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mus/AKE_Play_Mus_Global.AKE_Play_Mus_Global'</t>
         </is>
       </c>
       <c r="E595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>15115</v>
+        <v>13002</v>
       </c>
       <c r="B596" t="n">
-        <v>15115</v>
+        <v>13002</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_11</t>
+          <t>AKE_Stop_Mus_Global</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_11.AKE_Play_VO_Game_Battle_B01_11'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mus/AKE_Stop_Mus_Global.AKE_Stop_Mus_Global'</t>
         </is>
       </c>
       <c r="E596" t="b">
@@ -13557,19 +13557,19 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>15116</v>
+        <v>3210</v>
       </c>
       <c r="B597" t="n">
-        <v>15116</v>
+        <v>3210</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_12</t>
+          <t>AKE_Play_Char_Skill_C02_Atk4</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_12.AKE_Play_VO_Game_Battle_B01_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk4.AKE_Play_Char_Skill_C02_Atk4'</t>
         </is>
       </c>
       <c r="E597" t="b">
@@ -13578,19 +13578,19 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>15117</v>
+        <v>3211</v>
       </c>
       <c r="B598" t="n">
-        <v>15117</v>
+        <v>3211</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_B01_13</t>
+          <t>AKE_Play_Char_Skill_C02_Atk5</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_13.AKE_Play_VO_Game_Battle_B01_13'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5.AKE_Play_Char_Skill_C02_Atk5'</t>
         </is>
       </c>
       <c r="E598" t="b">
@@ -13599,40 +13599,40 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>13001</v>
+        <v>3212</v>
       </c>
       <c r="B599" t="n">
-        <v>13001</v>
+        <v>3212</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>AKE_Play_Mus_Global</t>
+          <t>AKE_Play_Char_Skill_C02_Atk4_End</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mus/AKE_Play_Mus_Global.AKE_Play_Mus_Global'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk4_End.AKE_Play_Char_Skill_C02_Atk4_End'</t>
         </is>
       </c>
       <c r="E599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>13002</v>
+        <v>3213</v>
       </c>
       <c r="B600" t="n">
-        <v>13002</v>
+        <v>3213</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>AKE_Stop_Mus_Global</t>
+          <t>AKE_Play_Char_Skill_C02_Atk5_End</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mus/AKE_Stop_Mus_Global.AKE_Stop_Mus_Global'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5_End.AKE_Play_Char_Skill_C02_Atk5_End'</t>
         </is>
       </c>
       <c r="E600" t="b">

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1019,7 +1019,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1525,12 +1525,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Foley_M02_Run_01</t>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Run</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Foley_M03/AKE_Play_Mon_Mob_Foley_M02_Run_01.AKE_Play_Mon_Mob_Foley_M02_Run_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Run.AKE_Play_Mon_Mob_Foley_M02_Run'</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Foley_M02_Death_01</t>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Death</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Foley_M03/AKE_Play_Mon_Mob_Foley_M02_Death_01.AKE_Play_Mon_Mob_Foley_M02_Death_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Death.AKE_Play_Mon_Mob_Foley_M02_Death'</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Foley_M02_Getup_01</t>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Getup</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Foley_M03/AKE_Play_Mon_Mob_Foley_M02_Getup_01.AKE_Play_Mon_Mob_Foley_M02_Getup_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Getup.AKE_Play_Mon_Mob_Foley_M02_Getup'</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Foley_M02_Fall_Down_01</t>
+          <t>AKE_Play_Mon_Mob_Foley_M02_Fall_Down</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Foley_M03/AKE_Play_Mon_Mob_Foley_M02_Fall_Down_01.AKE_Play_Mon_Mob_Foley_M02_Fall_Down_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Foley_M02/AKE_Play_Mon_Mob_Foley_M02_Fall_Down.AKE_Play_Mon_Mob_Foley_M02_Fall_Down'</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Shout_M02_Atk_01</t>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Atk</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Shout_M03/AKE_Play_Mon_Mob_Shout_M02_Atk_01.AKE_Play_Mon_Mob_Shout_M02_Atk_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Atk.AKE_Play_Mon_Mob_Shout_M02_Atk'</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy_01</t>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Shout_M03/AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy_01.AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy.AKE_Play_Mon_Mob_Shout_M02_Atk_Hvy'</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy_01</t>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Shout_M03/AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy_01.AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy.AKE_Play_Mon_Mob_Shout_M02_Hit_Hvy'</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Shout_M02_Death_01</t>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Death</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Shout_M03/AKE_Play_Mon_Mob_Shout_M02_Death_01.AKE_Play_Mon_Mob_Shout_M02_Death_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Death.AKE_Play_Mon_Mob_Shout_M02_Death'</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Shout_M02_Struggle_01</t>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Struggle</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Shout_M03/AKE_Play_Mon_Mob_Shout_M02_Struggle_01.AKE_Play_Mon_Mob_Shout_M02_Struggle_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Struggle.AKE_Play_Mon_Mob_Shout_M02_Struggle'</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M02_Born_01</t>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Born</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M02_Born_01.AKE_Play_Mon_Mob_Skill_M02_Born_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Born.AKE_Play_Mon_Mob_Skill_M02_Born'</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M02_Atk1_01</t>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M02_Atk1_01.AKE_Play_Mon_Mob_Skill_M02_Atk1_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk1.AKE_Play_Mon_Mob_Skill_M02_Atk1'</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M02_Atk2_01</t>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M02_Atk2_01.AKE_Play_Mon_Mob_Skill_M02_Atk2_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk2.AKE_Play_Mon_Mob_Skill_M02_Atk2'</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M02_Atk3_01</t>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M02_Atk3_01.AKE_Play_Mon_Mob_Skill_M02_Atk3_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk3.AKE_Play_Mon_Mob_Skill_M02_Atk3'</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M02_Atk4_01</t>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M02_Atk4_01.AKE_Play_Mon_Mob_Skill_M02_Atk4_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk4.AKE_Play_Mon_Mob_Skill_M02_Atk4'</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M02_Death_01</t>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Death</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M02_Death_01.AKE_Play_Mon_Mob_Skill_M02_Death_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Death.AKE_Play_Mon_Mob_Skill_M02_Death'</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -12783,12 +12783,12 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Shout_M02_Idle_01</t>
+          <t>AKE_Play_Mon_Mob_Shout_M02_Idle</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Shout_M03/AKE_Play_Mon_Mob_Shout_M02_Idle_01.AKE_Play_Mon_Mob_Shout_M02_Idle_01'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Shout_M02/AKE_Play_Mon_Mob_Shout_M02_Idle.AKE_Play_Mon_Mob_Shout_M02_Idle'</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,12 +1014,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H536"/>
+  <dimension ref="A1:H542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
+      <selection pane="bottomLeft" activeCell="H536" sqref="H536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1099,6 +1099,9 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1119,11 +1122,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M01狼人_起身</t>
+          <t>M01狼人（有挂Shout）_起身</t>
         </is>
       </c>
       <c r="F3" t="b">
         <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1145,11 +1151,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>M01狼人_通用Foley_跑</t>
+          <t>M01狼人（有挂Shout）_通用Foley_跑</t>
         </is>
       </c>
       <c r="F4" t="b">
         <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1171,11 +1180,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_变身入战</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_变身入战</t>
         </is>
       </c>
       <c r="F5" t="b">
         <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1197,11 +1209,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_威胁grunt</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_威胁grunt</t>
         </is>
       </c>
       <c r="F6" t="b">
         <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1223,11 +1238,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_重受击</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_重受击</t>
         </is>
       </c>
       <c r="F7" t="b">
         <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1249,11 +1267,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_轻死亡</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_轻死亡</t>
         </is>
       </c>
       <c r="F8" t="b">
         <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1275,11 +1296,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_倒地后起身</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_倒地后起身</t>
         </is>
       </c>
       <c r="F9" t="b">
         <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1301,11 +1325,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_冲刺</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_冲刺</t>
         </is>
       </c>
       <c r="F10" t="b">
         <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1327,11 +1354,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_轻攻击</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_轻攻击</t>
         </is>
       </c>
       <c r="F11" t="b">
         <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -1353,11 +1383,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_重攻击</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_重攻击</t>
         </is>
       </c>
       <c r="F12" t="b">
         <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -1379,11 +1412,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_下攻击</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_下攻击</t>
         </is>
       </c>
       <c r="F13" t="b">
         <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -1405,11 +1441,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_位移（垫步）</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_位移（垫步）</t>
         </is>
       </c>
       <c r="F14" t="b">
         <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -1431,11 +1470,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>M01狼人_技能1</t>
+          <t>M01狼人（有挂Shout）_技能1</t>
         </is>
       </c>
       <c r="F15" t="b">
         <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -1457,11 +1499,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>M01狼人_技能2</t>
+          <t>M01狼人（有挂Shout）_技能2</t>
         </is>
       </c>
       <c r="F16" t="b">
         <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -1483,11 +1528,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>M01狼人_垫步</t>
+          <t>M01狼人（有挂Shout）_垫步</t>
         </is>
       </c>
       <c r="F17" t="b">
         <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -1509,11 +1557,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>M01狼人_死亡_原地死亡</t>
+          <t>M01狼人（有挂Shout）_死亡_原地死亡</t>
         </is>
       </c>
       <c r="F18" t="b">
         <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -1535,11 +1586,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_action_跑</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_action_跑</t>
         </is>
       </c>
       <c r="F19" t="b">
         <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -1561,11 +1615,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_action_死亡倒地</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_action_死亡倒地</t>
         </is>
       </c>
       <c r="F20" t="b">
         <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -1587,11 +1644,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_action_起身</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_action_起身</t>
         </is>
       </c>
       <c r="F21" t="b">
         <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -1613,11 +1673,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_action_通用倒地非死亡</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_action_通用倒地非死亡</t>
         </is>
       </c>
       <c r="F22" t="b">
         <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -1639,11 +1702,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_shout_轻攻击</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_shout_轻攻击</t>
         </is>
       </c>
       <c r="F23" t="b">
         <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -1665,11 +1731,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_shout_重攻击</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_shout_重攻击</t>
         </is>
       </c>
       <c r="F24" t="b">
         <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -1691,11 +1760,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_shout_重受击</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_shout_重受击</t>
         </is>
       </c>
       <c r="F25" t="b">
         <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -1717,11 +1789,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_shout_轻死亡</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_shout_轻死亡</t>
         </is>
       </c>
       <c r="F26" t="b">
         <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -1743,11 +1818,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_shout_Struggle，用于SK11</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_shout_Struggle，用于SK11</t>
         </is>
       </c>
       <c r="F27" t="b">
         <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -1769,11 +1847,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_入战表现</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_入战表现</t>
         </is>
       </c>
       <c r="F28" t="b">
         <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -1795,11 +1876,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_技能1</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_技能1</t>
         </is>
       </c>
       <c r="F29" t="b">
         <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -1821,11 +1905,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_技能2</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_技能2</t>
         </is>
       </c>
       <c r="F30" t="b">
         <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -1847,11 +1934,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_技能3</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_技能3</t>
         </is>
       </c>
       <c r="F31" t="b">
         <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -1873,11 +1963,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_技能4</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_技能4</t>
         </is>
       </c>
       <c r="F32" t="b">
         <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -1899,11 +1992,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_Die_死亡倒地</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_Die_死亡倒地</t>
         </is>
       </c>
       <c r="F33" t="b">
         <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -1931,6 +2027,9 @@
       <c r="F34" t="b">
         <v>0</v>
       </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1957,6 +2056,9 @@
       <c r="F35" t="b">
         <v>0</v>
       </c>
+      <c r="G35" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1983,6 +2085,9 @@
       <c r="F36" t="b">
         <v>0</v>
       </c>
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2009,6 +2114,9 @@
       <c r="F37" t="b">
         <v>0</v>
       </c>
+      <c r="G37" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2035,6 +2143,9 @@
       <c r="F38" t="b">
         <v>0</v>
       </c>
+      <c r="G38" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2061,6 +2172,9 @@
       <c r="F39" t="b">
         <v>0</v>
       </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2087,6 +2201,9 @@
       <c r="F40" t="b">
         <v>0</v>
       </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2230,9 @@
       <c r="F41" t="b">
         <v>0</v>
       </c>
+      <c r="G41" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2139,6 +2259,9 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2165,6 +2288,9 @@
       <c r="F43" t="b">
         <v>0</v>
       </c>
+      <c r="G43" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2191,6 +2317,9 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
+      <c r="G44" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2217,6 +2346,9 @@
       <c r="F45" t="b">
         <v>0</v>
       </c>
+      <c r="G45" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2243,6 +2375,9 @@
       <c r="F46" t="b">
         <v>0</v>
       </c>
+      <c r="G46" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2269,6 +2404,9 @@
       <c r="F47" t="b">
         <v>0</v>
       </c>
+      <c r="G47" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2295,6 +2433,9 @@
       <c r="F48" t="b">
         <v>0</v>
       </c>
+      <c r="G48" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2321,6 +2462,9 @@
       <c r="F49" t="b">
         <v>0</v>
       </c>
+      <c r="G49" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2347,6 +2491,9 @@
       <c r="F50" t="b">
         <v>0</v>
       </c>
+      <c r="G50" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2373,6 +2520,9 @@
       <c r="F51" t="b">
         <v>0</v>
       </c>
+      <c r="G51" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2399,6 +2549,9 @@
       <c r="F52" t="b">
         <v>0</v>
       </c>
+      <c r="G52" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2425,6 +2578,9 @@
       <c r="F53" t="b">
         <v>0</v>
       </c>
+      <c r="G53" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2451,6 +2607,9 @@
       <c r="F54" t="b">
         <v>0</v>
       </c>
+      <c r="G54" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2477,6 +2636,9 @@
       <c r="F55" t="b">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2503,6 +2665,9 @@
       <c r="F56" t="b">
         <v>0</v>
       </c>
+      <c r="G56" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2529,6 +2694,9 @@
       <c r="F57" t="b">
         <v>0</v>
       </c>
+      <c r="G57" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2555,6 +2723,9 @@
       <c r="F58" t="b">
         <v>0</v>
       </c>
+      <c r="G58" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2581,6 +2752,9 @@
       <c r="F59" t="b">
         <v>0</v>
       </c>
+      <c r="G59" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2607,6 +2781,9 @@
       <c r="F60" t="b">
         <v>0</v>
       </c>
+      <c r="G60" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2633,6 +2810,9 @@
       <c r="F61" t="b">
         <v>0</v>
       </c>
+      <c r="G61" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2659,6 +2839,9 @@
       <c r="F62" t="b">
         <v>0</v>
       </c>
+      <c r="G62" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2685,6 +2868,9 @@
       <c r="F63" t="b">
         <v>0</v>
       </c>
+      <c r="G63" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2711,6 +2897,9 @@
       <c r="F64" t="b">
         <v>0</v>
       </c>
+      <c r="G64" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2737,6 +2926,9 @@
       <c r="F65" t="b">
         <v>0</v>
       </c>
+      <c r="G65" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2763,6 +2955,9 @@
       <c r="F66" t="b">
         <v>0</v>
       </c>
+      <c r="G66" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2789,6 +2984,9 @@
       <c r="F67" t="b">
         <v>0</v>
       </c>
+      <c r="G67" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2815,6 +3013,9 @@
       <c r="F68" t="b">
         <v>0</v>
       </c>
+      <c r="G68" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2841,6 +3042,9 @@
       <c r="F69" t="b">
         <v>0</v>
       </c>
+      <c r="G69" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2867,6 +3071,9 @@
       <c r="F70" t="b">
         <v>0</v>
       </c>
+      <c r="G70" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2893,6 +3100,9 @@
       <c r="F71" t="b">
         <v>0</v>
       </c>
+      <c r="G71" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2919,6 +3129,9 @@
       <c r="F72" t="b">
         <v>0</v>
       </c>
+      <c r="G72" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2945,6 +3158,9 @@
       <c r="F73" t="b">
         <v>0</v>
       </c>
+      <c r="G73" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2971,6 +3187,9 @@
       <c r="F74" t="b">
         <v>0</v>
       </c>
+      <c r="G74" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2997,6 +3216,9 @@
       <c r="F75" t="b">
         <v>0</v>
       </c>
+      <c r="G75" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3023,6 +3245,9 @@
       <c r="F76" t="b">
         <v>0</v>
       </c>
+      <c r="G76" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3049,6 +3274,9 @@
       <c r="F77" t="b">
         <v>0</v>
       </c>
+      <c r="G77" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3075,6 +3303,9 @@
       <c r="F78" t="b">
         <v>0</v>
       </c>
+      <c r="G78" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3101,6 +3332,9 @@
       <c r="F79" t="b">
         <v>0</v>
       </c>
+      <c r="G79" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3127,6 +3361,9 @@
       <c r="F80" t="b">
         <v>0</v>
       </c>
+      <c r="G80" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3153,6 +3390,9 @@
       <c r="F81" t="b">
         <v>0</v>
       </c>
+      <c r="G81" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3179,6 +3419,9 @@
       <c r="F82" t="b">
         <v>0</v>
       </c>
+      <c r="G82" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3205,6 +3448,9 @@
       <c r="F83" t="b">
         <v>0</v>
       </c>
+      <c r="G83" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3231,6 +3477,9 @@
       <c r="F84" t="b">
         <v>0</v>
       </c>
+      <c r="G84" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3257,6 +3506,9 @@
       <c r="F85" t="b">
         <v>0</v>
       </c>
+      <c r="G85" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3283,6 +3535,9 @@
       <c r="F86" t="b">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3309,6 +3564,9 @@
       <c r="F87" t="b">
         <v>0</v>
       </c>
+      <c r="G87" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3335,6 +3593,9 @@
       <c r="F88" t="b">
         <v>0</v>
       </c>
+      <c r="G88" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3361,6 +3622,9 @@
       <c r="F89" t="b">
         <v>0</v>
       </c>
+      <c r="G89" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3387,6 +3651,9 @@
       <c r="F90" t="b">
         <v>0</v>
       </c>
+      <c r="G90" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3413,6 +3680,9 @@
       <c r="F91" t="b">
         <v>0</v>
       </c>
+      <c r="G91" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3439,6 +3709,9 @@
       <c r="F92" t="b">
         <v>0</v>
       </c>
+      <c r="G92" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3465,6 +3738,9 @@
       <c r="F93" t="b">
         <v>0</v>
       </c>
+      <c r="G93" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3491,6 +3767,9 @@
       <c r="F94" t="b">
         <v>0</v>
       </c>
+      <c r="G94" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3517,6 +3796,9 @@
       <c r="F95" t="b">
         <v>0</v>
       </c>
+      <c r="G95" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3543,6 +3825,9 @@
       <c r="F96" t="b">
         <v>0</v>
       </c>
+      <c r="G96" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3569,6 +3854,9 @@
       <c r="F97" t="b">
         <v>0</v>
       </c>
+      <c r="G97" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3595,6 +3883,9 @@
       <c r="F98" t="b">
         <v>0</v>
       </c>
+      <c r="G98" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3621,6 +3912,9 @@
       <c r="F99" t="b">
         <v>0</v>
       </c>
+      <c r="G99" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3647,6 +3941,9 @@
       <c r="F100" t="b">
         <v>0</v>
       </c>
+      <c r="G100" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3673,6 +3970,9 @@
       <c r="F101" t="b">
         <v>0</v>
       </c>
+      <c r="G101" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3699,6 +3999,9 @@
       <c r="F102" t="b">
         <v>0</v>
       </c>
+      <c r="G102" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3725,6 +4028,9 @@
       <c r="F103" t="b">
         <v>0</v>
       </c>
+      <c r="G103" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3751,6 +4057,9 @@
       <c r="F104" t="b">
         <v>0</v>
       </c>
+      <c r="G104" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3777,6 +4086,9 @@
       <c r="F105" t="b">
         <v>0</v>
       </c>
+      <c r="G105" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3803,6 +4115,9 @@
       <c r="F106" t="b">
         <v>0</v>
       </c>
+      <c r="G106" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3829,6 +4144,9 @@
       <c r="F107" t="b">
         <v>0</v>
       </c>
+      <c r="G107" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3855,6 +4173,9 @@
       <c r="F108" t="b">
         <v>0</v>
       </c>
+      <c r="G108" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3881,6 +4202,9 @@
       <c r="F109" t="b">
         <v>0</v>
       </c>
+      <c r="G109" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3907,6 +4231,9 @@
       <c r="F110" t="b">
         <v>0</v>
       </c>
+      <c r="G110" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3933,6 +4260,9 @@
       <c r="F111" t="b">
         <v>0</v>
       </c>
+      <c r="G111" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3959,6 +4289,9 @@
       <c r="F112" t="b">
         <v>0</v>
       </c>
+      <c r="G112" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3985,6 +4318,9 @@
       <c r="F113" t="b">
         <v>0</v>
       </c>
+      <c r="G113" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4011,6 +4347,9 @@
       <c r="F114" t="b">
         <v>0</v>
       </c>
+      <c r="G114" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4037,6 +4376,9 @@
       <c r="F115" t="b">
         <v>0</v>
       </c>
+      <c r="G115" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4063,6 +4405,9 @@
       <c r="F116" t="b">
         <v>0</v>
       </c>
+      <c r="G116" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4089,6 +4434,9 @@
       <c r="F117" t="b">
         <v>0</v>
       </c>
+      <c r="G117" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4115,6 +4463,9 @@
       <c r="F118" t="b">
         <v>0</v>
       </c>
+      <c r="G118" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4141,6 +4492,9 @@
       <c r="F119" t="b">
         <v>0</v>
       </c>
+      <c r="G119" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4167,6 +4521,9 @@
       <c r="F120" t="b">
         <v>0</v>
       </c>
+      <c r="G120" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4193,6 +4550,9 @@
       <c r="F121" t="b">
         <v>0</v>
       </c>
+      <c r="G121" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4219,6 +4579,9 @@
       <c r="F122" t="b">
         <v>0</v>
       </c>
+      <c r="G122" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4245,6 +4608,9 @@
       <c r="F123" t="b">
         <v>0</v>
       </c>
+      <c r="G123" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4271,6 +4637,9 @@
       <c r="F124" t="b">
         <v>0</v>
       </c>
+      <c r="G124" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4297,6 +4666,9 @@
       <c r="F125" t="b">
         <v>0</v>
       </c>
+      <c r="G125" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4323,6 +4695,9 @@
       <c r="F126" t="b">
         <v>0</v>
       </c>
+      <c r="G126" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4349,6 +4724,9 @@
       <c r="F127" t="b">
         <v>0</v>
       </c>
+      <c r="G127" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4375,6 +4753,9 @@
       <c r="F128" t="b">
         <v>0</v>
       </c>
+      <c r="G128" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4401,6 +4782,9 @@
       <c r="F129" t="b">
         <v>0</v>
       </c>
+      <c r="G129" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4427,6 +4811,9 @@
       <c r="F130" t="b">
         <v>0</v>
       </c>
+      <c r="G130" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4453,6 +4840,9 @@
       <c r="F131" t="b">
         <v>0</v>
       </c>
+      <c r="G131" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4479,6 +4869,9 @@
       <c r="F132" t="b">
         <v>0</v>
       </c>
+      <c r="G132" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4505,6 +4898,9 @@
       <c r="F133" t="b">
         <v>0</v>
       </c>
+      <c r="G133" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4531,6 +4927,9 @@
       <c r="F134" t="b">
         <v>0</v>
       </c>
+      <c r="G134" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4557,6 +4956,9 @@
       <c r="F135" t="b">
         <v>0</v>
       </c>
+      <c r="G135" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4583,6 +4985,9 @@
       <c r="F136" t="b">
         <v>0</v>
       </c>
+      <c r="G136" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4609,6 +5014,9 @@
       <c r="F137" t="b">
         <v>0</v>
       </c>
+      <c r="G137" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4635,6 +5043,9 @@
       <c r="F138" t="b">
         <v>0</v>
       </c>
+      <c r="G138" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4661,6 +5072,9 @@
       <c r="F139" t="b">
         <v>0</v>
       </c>
+      <c r="G139" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4687,6 +5101,9 @@
       <c r="F140" t="b">
         <v>0</v>
       </c>
+      <c r="G140" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4713,6 +5130,9 @@
       <c r="F141" t="b">
         <v>0</v>
       </c>
+      <c r="G141" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4739,6 +5159,9 @@
       <c r="F142" t="b">
         <v>0</v>
       </c>
+      <c r="G142" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4765,6 +5188,9 @@
       <c r="F143" t="b">
         <v>0</v>
       </c>
+      <c r="G143" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4791,6 +5217,9 @@
       <c r="F144" t="b">
         <v>0</v>
       </c>
+      <c r="G144" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4817,6 +5246,9 @@
       <c r="F145" t="b">
         <v>0</v>
       </c>
+      <c r="G145" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4843,6 +5275,9 @@
       <c r="F146" t="b">
         <v>0</v>
       </c>
+      <c r="G146" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4869,6 +5304,9 @@
       <c r="F147" t="b">
         <v>0</v>
       </c>
+      <c r="G147" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4895,6 +5333,9 @@
       <c r="F148" t="b">
         <v>0</v>
       </c>
+      <c r="G148" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4921,6 +5362,9 @@
       <c r="F149" t="b">
         <v>0</v>
       </c>
+      <c r="G149" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4947,6 +5391,9 @@
       <c r="F150" t="b">
         <v>0</v>
       </c>
+      <c r="G150" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4973,6 +5420,9 @@
       <c r="F151" t="b">
         <v>0</v>
       </c>
+      <c r="G151" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4999,6 +5449,9 @@
       <c r="F152" t="b">
         <v>0</v>
       </c>
+      <c r="G152" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5025,6 +5478,9 @@
       <c r="F153" t="b">
         <v>0</v>
       </c>
+      <c r="G153" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5051,6 +5507,9 @@
       <c r="F154" t="b">
         <v>0</v>
       </c>
+      <c r="G154" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5077,6 +5536,9 @@
       <c r="F155" t="b">
         <v>0</v>
       </c>
+      <c r="G155" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5103,6 +5565,9 @@
       <c r="F156" t="b">
         <v>0</v>
       </c>
+      <c r="G156" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5129,6 +5594,9 @@
       <c r="F157" t="b">
         <v>0</v>
       </c>
+      <c r="G157" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5155,6 +5623,9 @@
       <c r="F158" t="b">
         <v>0</v>
       </c>
+      <c r="G158" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5181,6 +5652,9 @@
       <c r="F159" t="b">
         <v>0</v>
       </c>
+      <c r="G159" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5207,6 +5681,9 @@
       <c r="F160" t="b">
         <v>0</v>
       </c>
+      <c r="G160" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5233,6 +5710,9 @@
       <c r="F161" t="b">
         <v>0</v>
       </c>
+      <c r="G161" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5259,6 +5739,9 @@
       <c r="F162" t="b">
         <v>0</v>
       </c>
+      <c r="G162" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5285,6 +5768,9 @@
       <c r="F163" t="b">
         <v>0</v>
       </c>
+      <c r="G163" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5311,6 +5797,9 @@
       <c r="F164" t="b">
         <v>0</v>
       </c>
+      <c r="G164" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5337,6 +5826,9 @@
       <c r="F165" t="b">
         <v>0</v>
       </c>
+      <c r="G165" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5363,6 +5855,9 @@
       <c r="F166" t="b">
         <v>0</v>
       </c>
+      <c r="G166" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5389,6 +5884,9 @@
       <c r="F167" t="b">
         <v>0</v>
       </c>
+      <c r="G167" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5415,6 +5913,9 @@
       <c r="F168" t="b">
         <v>0</v>
       </c>
+      <c r="G168" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5441,6 +5942,9 @@
       <c r="F169" t="b">
         <v>0</v>
       </c>
+      <c r="G169" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5467,6 +5971,9 @@
       <c r="F170" t="b">
         <v>0</v>
       </c>
+      <c r="G170" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5493,6 +6000,9 @@
       <c r="F171" t="b">
         <v>0</v>
       </c>
+      <c r="G171" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5519,6 +6029,9 @@
       <c r="F172" t="b">
         <v>0</v>
       </c>
+      <c r="G172" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5545,6 +6058,9 @@
       <c r="F173" t="b">
         <v>0</v>
       </c>
+      <c r="G173" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5571,6 +6087,9 @@
       <c r="F174" t="b">
         <v>0</v>
       </c>
+      <c r="G174" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5597,6 +6116,9 @@
       <c r="F175" t="b">
         <v>0</v>
       </c>
+      <c r="G175" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5623,6 +6145,9 @@
       <c r="F176" t="b">
         <v>0</v>
       </c>
+      <c r="G176" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5649,6 +6174,9 @@
       <c r="F177" t="b">
         <v>0</v>
       </c>
+      <c r="G177" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5675,6 +6203,9 @@
       <c r="F178" t="b">
         <v>0</v>
       </c>
+      <c r="G178" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5701,6 +6232,9 @@
       <c r="F179" t="b">
         <v>0</v>
       </c>
+      <c r="G179" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5727,6 +6261,9 @@
       <c r="F180" t="b">
         <v>0</v>
       </c>
+      <c r="G180" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5753,6 +6290,9 @@
       <c r="F181" t="b">
         <v>0</v>
       </c>
+      <c r="G181" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5779,6 +6319,9 @@
       <c r="F182" t="b">
         <v>0</v>
       </c>
+      <c r="G182" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5805,6 +6348,9 @@
       <c r="F183" t="b">
         <v>0</v>
       </c>
+      <c r="G183" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5831,6 +6377,9 @@
       <c r="F184" t="b">
         <v>0</v>
       </c>
+      <c r="G184" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5857,6 +6406,9 @@
       <c r="F185" t="b">
         <v>0</v>
       </c>
+      <c r="G185" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5883,6 +6435,9 @@
       <c r="F186" t="b">
         <v>0</v>
       </c>
+      <c r="G186" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5909,6 +6464,9 @@
       <c r="F187" t="b">
         <v>0</v>
       </c>
+      <c r="G187" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5935,6 +6493,9 @@
       <c r="F188" t="b">
         <v>0</v>
       </c>
+      <c r="G188" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5961,6 +6522,9 @@
       <c r="F189" t="b">
         <v>0</v>
       </c>
+      <c r="G189" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5987,6 +6551,9 @@
       <c r="F190" t="b">
         <v>0</v>
       </c>
+      <c r="G190" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6013,6 +6580,9 @@
       <c r="F191" t="b">
         <v>0</v>
       </c>
+      <c r="G191" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6039,6 +6609,9 @@
       <c r="F192" t="b">
         <v>0</v>
       </c>
+      <c r="G192" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6065,6 +6638,9 @@
       <c r="F193" t="b">
         <v>0</v>
       </c>
+      <c r="G193" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6091,6 +6667,9 @@
       <c r="F194" t="b">
         <v>0</v>
       </c>
+      <c r="G194" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6117,6 +6696,9 @@
       <c r="F195" t="b">
         <v>0</v>
       </c>
+      <c r="G195" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6143,6 +6725,9 @@
       <c r="F196" t="b">
         <v>0</v>
       </c>
+      <c r="G196" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6169,6 +6754,9 @@
       <c r="F197" t="b">
         <v>0</v>
       </c>
+      <c r="G197" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6195,6 +6783,9 @@
       <c r="F198" t="b">
         <v>0</v>
       </c>
+      <c r="G198" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6221,6 +6812,9 @@
       <c r="F199" t="b">
         <v>0</v>
       </c>
+      <c r="G199" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6247,6 +6841,9 @@
       <c r="F200" t="b">
         <v>0</v>
       </c>
+      <c r="G200" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6273,6 +6870,9 @@
       <c r="F201" t="b">
         <v>0</v>
       </c>
+      <c r="G201" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6299,6 +6899,9 @@
       <c r="F202" t="b">
         <v>0</v>
       </c>
+      <c r="G202" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6325,6 +6928,9 @@
       <c r="F203" t="b">
         <v>0</v>
       </c>
+      <c r="G203" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6351,6 +6957,9 @@
       <c r="F204" t="b">
         <v>0</v>
       </c>
+      <c r="G204" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6377,6 +6986,9 @@
       <c r="F205" t="b">
         <v>0</v>
       </c>
+      <c r="G205" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6403,6 +7015,9 @@
       <c r="F206" t="b">
         <v>0</v>
       </c>
+      <c r="G206" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6429,6 +7044,9 @@
       <c r="F207" t="b">
         <v>0</v>
       </c>
+      <c r="G207" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6455,6 +7073,9 @@
       <c r="F208" t="b">
         <v>0</v>
       </c>
+      <c r="G208" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6481,6 +7102,9 @@
       <c r="F209" t="b">
         <v>0</v>
       </c>
+      <c r="G209" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6507,6 +7131,9 @@
       <c r="F210" t="b">
         <v>0</v>
       </c>
+      <c r="G210" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6533,6 +7160,9 @@
       <c r="F211" t="b">
         <v>0</v>
       </c>
+      <c r="G211" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6559,6 +7189,9 @@
       <c r="F212" t="b">
         <v>0</v>
       </c>
+      <c r="G212" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6585,6 +7218,9 @@
       <c r="F213" t="b">
         <v>0</v>
       </c>
+      <c r="G213" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6611,6 +7247,9 @@
       <c r="F214" t="b">
         <v>0</v>
       </c>
+      <c r="G214" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6637,6 +7276,9 @@
       <c r="F215" t="b">
         <v>0</v>
       </c>
+      <c r="G215" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6663,6 +7305,9 @@
       <c r="F216" t="b">
         <v>0</v>
       </c>
+      <c r="G216" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6689,6 +7334,9 @@
       <c r="F217" t="b">
         <v>0</v>
       </c>
+      <c r="G217" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6715,6 +7363,9 @@
       <c r="F218" t="b">
         <v>0</v>
       </c>
+      <c r="G218" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6741,6 +7392,9 @@
       <c r="F219" t="b">
         <v>0</v>
       </c>
+      <c r="G219" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6767,6 +7421,9 @@
       <c r="F220" t="b">
         <v>0</v>
       </c>
+      <c r="G220" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6793,6 +7450,9 @@
       <c r="F221" t="b">
         <v>0</v>
       </c>
+      <c r="G221" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6819,6 +7479,9 @@
       <c r="F222" t="b">
         <v>0</v>
       </c>
+      <c r="G222" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6845,6 +7508,9 @@
       <c r="F223" t="b">
         <v>0</v>
       </c>
+      <c r="G223" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6871,6 +7537,9 @@
       <c r="F224" t="b">
         <v>0</v>
       </c>
+      <c r="G224" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6897,6 +7566,9 @@
       <c r="F225" t="b">
         <v>0</v>
       </c>
+      <c r="G225" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -6923,6 +7595,9 @@
       <c r="F226" t="b">
         <v>0</v>
       </c>
+      <c r="G226" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -6949,6 +7624,9 @@
       <c r="F227" t="b">
         <v>0</v>
       </c>
+      <c r="G227" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -6975,6 +7653,9 @@
       <c r="F228" t="b">
         <v>0</v>
       </c>
+      <c r="G228" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7001,6 +7682,9 @@
       <c r="F229" t="b">
         <v>0</v>
       </c>
+      <c r="G229" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7027,6 +7711,9 @@
       <c r="F230" t="b">
         <v>0</v>
       </c>
+      <c r="G230" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7053,6 +7740,9 @@
       <c r="F231" t="b">
         <v>0</v>
       </c>
+      <c r="G231" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7079,6 +7769,9 @@
       <c r="F232" t="b">
         <v>0</v>
       </c>
+      <c r="G232" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7105,6 +7798,9 @@
       <c r="F233" t="b">
         <v>0</v>
       </c>
+      <c r="G233" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7131,6 +7827,9 @@
       <c r="F234" t="b">
         <v>0</v>
       </c>
+      <c r="G234" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7157,6 +7856,9 @@
       <c r="F235" t="b">
         <v>0</v>
       </c>
+      <c r="G235" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7183,6 +7885,9 @@
       <c r="F236" t="b">
         <v>0</v>
       </c>
+      <c r="G236" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7209,6 +7914,9 @@
       <c r="F237" t="b">
         <v>0</v>
       </c>
+      <c r="G237" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7235,6 +7943,9 @@
       <c r="F238" t="b">
         <v>0</v>
       </c>
+      <c r="G238" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7261,6 +7972,9 @@
       <c r="F239" t="b">
         <v>0</v>
       </c>
+      <c r="G239" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7287,6 +8001,9 @@
       <c r="F240" t="b">
         <v>0</v>
       </c>
+      <c r="G240" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7313,6 +8030,9 @@
       <c r="F241" t="b">
         <v>0</v>
       </c>
+      <c r="G241" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7339,6 +8059,9 @@
       <c r="F242" t="b">
         <v>0</v>
       </c>
+      <c r="G242" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7365,6 +8088,9 @@
       <c r="F243" t="b">
         <v>0</v>
       </c>
+      <c r="G243" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7391,6 +8117,9 @@
       <c r="F244" t="b">
         <v>0</v>
       </c>
+      <c r="G244" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7417,6 +8146,9 @@
       <c r="F245" t="b">
         <v>0</v>
       </c>
+      <c r="G245" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7443,6 +8175,9 @@
       <c r="F246" t="b">
         <v>0</v>
       </c>
+      <c r="G246" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7469,6 +8204,9 @@
       <c r="F247" t="b">
         <v>0</v>
       </c>
+      <c r="G247" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7495,6 +8233,9 @@
       <c r="F248" t="b">
         <v>0</v>
       </c>
+      <c r="G248" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7521,6 +8262,9 @@
       <c r="F249" t="b">
         <v>0</v>
       </c>
+      <c r="G249" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -7547,6 +8291,9 @@
       <c r="F250" t="b">
         <v>0</v>
       </c>
+      <c r="G250" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -7573,6 +8320,9 @@
       <c r="F251" t="b">
         <v>0</v>
       </c>
+      <c r="G251" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -7599,6 +8349,9 @@
       <c r="F252" t="b">
         <v>0</v>
       </c>
+      <c r="G252" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7625,6 +8378,9 @@
       <c r="F253" t="b">
         <v>0</v>
       </c>
+      <c r="G253" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -7651,6 +8407,9 @@
       <c r="F254" t="b">
         <v>0</v>
       </c>
+      <c r="G254" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7677,6 +8436,9 @@
       <c r="F255" t="b">
         <v>0</v>
       </c>
+      <c r="G255" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7703,6 +8465,9 @@
       <c r="F256" t="b">
         <v>0</v>
       </c>
+      <c r="G256" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7729,6 +8494,9 @@
       <c r="F257" t="b">
         <v>0</v>
       </c>
+      <c r="G257" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -7755,6 +8523,9 @@
       <c r="F258" t="b">
         <v>0</v>
       </c>
+      <c r="G258" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7781,6 +8552,9 @@
       <c r="F259" t="b">
         <v>0</v>
       </c>
+      <c r="G259" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7807,6 +8581,9 @@
       <c r="F260" t="b">
         <v>0</v>
       </c>
+      <c r="G260" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -7833,6 +8610,9 @@
       <c r="F261" t="b">
         <v>0</v>
       </c>
+      <c r="G261" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -7859,6 +8639,9 @@
       <c r="F262" t="b">
         <v>0</v>
       </c>
+      <c r="G262" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -7885,6 +8668,9 @@
       <c r="F263" t="b">
         <v>0</v>
       </c>
+      <c r="G263" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -7911,6 +8697,9 @@
       <c r="F264" t="b">
         <v>0</v>
       </c>
+      <c r="G264" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -7937,6 +8726,9 @@
       <c r="F265" t="b">
         <v>0</v>
       </c>
+      <c r="G265" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -7963,6 +8755,9 @@
       <c r="F266" t="b">
         <v>0</v>
       </c>
+      <c r="G266" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -7989,6 +8784,9 @@
       <c r="F267" t="b">
         <v>0</v>
       </c>
+      <c r="G267" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8015,6 +8813,9 @@
       <c r="F268" t="b">
         <v>0</v>
       </c>
+      <c r="G268" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8041,6 +8842,9 @@
       <c r="F269" t="b">
         <v>0</v>
       </c>
+      <c r="G269" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8067,6 +8871,9 @@
       <c r="F270" t="b">
         <v>0</v>
       </c>
+      <c r="G270" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8093,6 +8900,9 @@
       <c r="F271" t="b">
         <v>0</v>
       </c>
+      <c r="G271" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8119,6 +8929,9 @@
       <c r="F272" t="b">
         <v>0</v>
       </c>
+      <c r="G272" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8145,6 +8958,9 @@
       <c r="F273" t="b">
         <v>0</v>
       </c>
+      <c r="G273" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8171,6 +8987,9 @@
       <c r="F274" t="b">
         <v>0</v>
       </c>
+      <c r="G274" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -8197,6 +9016,9 @@
       <c r="F275" t="b">
         <v>0</v>
       </c>
+      <c r="G275" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -8223,6 +9045,9 @@
       <c r="F276" t="b">
         <v>0</v>
       </c>
+      <c r="G276" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -8249,6 +9074,9 @@
       <c r="F277" t="b">
         <v>0</v>
       </c>
+      <c r="G277" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -8275,6 +9103,9 @@
       <c r="F278" t="b">
         <v>0</v>
       </c>
+      <c r="G278" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -8301,6 +9132,9 @@
       <c r="F279" t="b">
         <v>0</v>
       </c>
+      <c r="G279" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -8327,6 +9161,9 @@
       <c r="F280" t="b">
         <v>0</v>
       </c>
+      <c r="G280" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -8353,6 +9190,9 @@
       <c r="F281" t="b">
         <v>0</v>
       </c>
+      <c r="G281" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -8379,6 +9219,9 @@
       <c r="F282" t="b">
         <v>0</v>
       </c>
+      <c r="G282" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -8405,6 +9248,9 @@
       <c r="F283" t="b">
         <v>0</v>
       </c>
+      <c r="G283" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -8431,6 +9277,9 @@
       <c r="F284" t="b">
         <v>0</v>
       </c>
+      <c r="G284" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -8457,6 +9306,9 @@
       <c r="F285" t="b">
         <v>0</v>
       </c>
+      <c r="G285" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -8483,6 +9335,9 @@
       <c r="F286" t="b">
         <v>0</v>
       </c>
+      <c r="G286" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -8509,6 +9364,9 @@
       <c r="F287" t="b">
         <v>0</v>
       </c>
+      <c r="G287" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -8535,6 +9393,9 @@
       <c r="F288" t="b">
         <v>0</v>
       </c>
+      <c r="G288" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -8561,6 +9422,9 @@
       <c r="F289" t="b">
         <v>0</v>
       </c>
+      <c r="G289" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -8587,6 +9451,9 @@
       <c r="F290" t="b">
         <v>0</v>
       </c>
+      <c r="G290" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8613,6 +9480,9 @@
       <c r="F291" t="b">
         <v>0</v>
       </c>
+      <c r="G291" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -8639,6 +9509,9 @@
       <c r="F292" t="b">
         <v>0</v>
       </c>
+      <c r="G292" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -8665,6 +9538,9 @@
       <c r="F293" t="b">
         <v>0</v>
       </c>
+      <c r="G293" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -8691,6 +9567,9 @@
       <c r="F294" t="b">
         <v>0</v>
       </c>
+      <c r="G294" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -8717,6 +9596,9 @@
       <c r="F295" t="b">
         <v>0</v>
       </c>
+      <c r="G295" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -8743,6 +9625,9 @@
       <c r="F296" t="b">
         <v>0</v>
       </c>
+      <c r="G296" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -8769,6 +9654,9 @@
       <c r="F297" t="b">
         <v>0</v>
       </c>
+      <c r="G297" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -8795,6 +9683,9 @@
       <c r="F298" t="b">
         <v>0</v>
       </c>
+      <c r="G298" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -8821,6 +9712,9 @@
       <c r="F299" t="b">
         <v>0</v>
       </c>
+      <c r="G299" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -8847,6 +9741,9 @@
       <c r="F300" t="b">
         <v>0</v>
       </c>
+      <c r="G300" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -8873,6 +9770,9 @@
       <c r="F301" t="b">
         <v>0</v>
       </c>
+      <c r="G301" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -8899,6 +9799,9 @@
       <c r="F302" t="b">
         <v>0</v>
       </c>
+      <c r="G302" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -8925,6 +9828,9 @@
       <c r="F303" t="b">
         <v>0</v>
       </c>
+      <c r="G303" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -8951,6 +9857,9 @@
       <c r="F304" t="b">
         <v>0</v>
       </c>
+      <c r="G304" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -8977,6 +9886,9 @@
       <c r="F305" t="b">
         <v>0</v>
       </c>
+      <c r="G305" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -9003,6 +9915,9 @@
       <c r="F306" t="b">
         <v>0</v>
       </c>
+      <c r="G306" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -9029,6 +9944,9 @@
       <c r="F307" t="b">
         <v>0</v>
       </c>
+      <c r="G307" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -9055,6 +9973,9 @@
       <c r="F308" t="b">
         <v>0</v>
       </c>
+      <c r="G308" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -9081,6 +10002,9 @@
       <c r="F309" t="b">
         <v>0</v>
       </c>
+      <c r="G309" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -9107,6 +10031,9 @@
       <c r="F310" t="b">
         <v>0</v>
       </c>
+      <c r="G310" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -9133,6 +10060,9 @@
       <c r="F311" t="b">
         <v>0</v>
       </c>
+      <c r="G311" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -9159,6 +10089,9 @@
       <c r="F312" t="b">
         <v>0</v>
       </c>
+      <c r="G312" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -9185,6 +10118,9 @@
       <c r="F313" t="b">
         <v>0</v>
       </c>
+      <c r="G313" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -9211,6 +10147,9 @@
       <c r="F314" t="b">
         <v>0</v>
       </c>
+      <c r="G314" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -9237,6 +10176,9 @@
       <c r="F315" t="b">
         <v>0</v>
       </c>
+      <c r="G315" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -9263,6 +10205,9 @@
       <c r="F316" t="b">
         <v>0</v>
       </c>
+      <c r="G316" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -9289,6 +10234,9 @@
       <c r="F317" t="b">
         <v>0</v>
       </c>
+      <c r="G317" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -9315,6 +10263,9 @@
       <c r="F318" t="b">
         <v>0</v>
       </c>
+      <c r="G318" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -9341,6 +10292,9 @@
       <c r="F319" t="b">
         <v>0</v>
       </c>
+      <c r="G319" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -9367,6 +10321,9 @@
       <c r="F320" t="b">
         <v>0</v>
       </c>
+      <c r="G320" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -9393,6 +10350,9 @@
       <c r="F321" t="b">
         <v>0</v>
       </c>
+      <c r="G321" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -9419,6 +10379,9 @@
       <c r="F322" t="b">
         <v>0</v>
       </c>
+      <c r="G322" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -9445,6 +10408,9 @@
       <c r="F323" t="b">
         <v>0</v>
       </c>
+      <c r="G323" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -9471,6 +10437,9 @@
       <c r="F324" t="b">
         <v>0</v>
       </c>
+      <c r="G324" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -9497,6 +10466,9 @@
       <c r="F325" t="b">
         <v>0</v>
       </c>
+      <c r="G325" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -9523,6 +10495,9 @@
       <c r="F326" t="b">
         <v>0</v>
       </c>
+      <c r="G326" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -9549,6 +10524,9 @@
       <c r="F327" t="b">
         <v>0</v>
       </c>
+      <c r="G327" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -9575,6 +10553,9 @@
       <c r="F328" t="b">
         <v>0</v>
       </c>
+      <c r="G328" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -9601,6 +10582,9 @@
       <c r="F329" t="b">
         <v>0</v>
       </c>
+      <c r="G329" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -9627,6 +10611,9 @@
       <c r="F330" t="b">
         <v>0</v>
       </c>
+      <c r="G330" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -9653,6 +10640,9 @@
       <c r="F331" t="b">
         <v>0</v>
       </c>
+      <c r="G331" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -9679,6 +10669,9 @@
       <c r="F332" t="b">
         <v>0</v>
       </c>
+      <c r="G332" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -9705,6 +10698,9 @@
       <c r="F333" t="b">
         <v>0</v>
       </c>
+      <c r="G333" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -9731,6 +10727,9 @@
       <c r="F334" t="b">
         <v>0</v>
       </c>
+      <c r="G334" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -9757,6 +10756,9 @@
       <c r="F335" t="b">
         <v>0</v>
       </c>
+      <c r="G335" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -9783,6 +10785,9 @@
       <c r="F336" t="b">
         <v>0</v>
       </c>
+      <c r="G336" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -9809,6 +10814,9 @@
       <c r="F337" t="b">
         <v>0</v>
       </c>
+      <c r="G337" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -9835,6 +10843,9 @@
       <c r="F338" t="b">
         <v>0</v>
       </c>
+      <c r="G338" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -9861,6 +10872,9 @@
       <c r="F339" t="b">
         <v>0</v>
       </c>
+      <c r="G339" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -9887,6 +10901,9 @@
       <c r="F340" t="b">
         <v>0</v>
       </c>
+      <c r="G340" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -9913,6 +10930,9 @@
       <c r="F341" t="b">
         <v>0</v>
       </c>
+      <c r="G341" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -9939,6 +10959,9 @@
       <c r="F342" t="b">
         <v>0</v>
       </c>
+      <c r="G342" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -9965,6 +10988,9 @@
       <c r="F343" t="b">
         <v>0</v>
       </c>
+      <c r="G343" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -9991,6 +11017,9 @@
       <c r="F344" t="b">
         <v>0</v>
       </c>
+      <c r="G344" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -10017,6 +11046,9 @@
       <c r="F345" t="b">
         <v>1</v>
       </c>
+      <c r="G345" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -10043,6 +11075,9 @@
       <c r="F346" t="b">
         <v>0</v>
       </c>
+      <c r="G346" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -10069,6 +11104,9 @@
       <c r="F347" t="b">
         <v>0</v>
       </c>
+      <c r="G347" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -10095,6 +11133,9 @@
       <c r="F348" t="b">
         <v>0</v>
       </c>
+      <c r="G348" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -10121,6 +11162,9 @@
       <c r="F349" t="b">
         <v>0</v>
       </c>
+      <c r="G349" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -10147,6 +11191,9 @@
       <c r="F350" t="b">
         <v>0</v>
       </c>
+      <c r="G350" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -10173,6 +11220,9 @@
       <c r="F351" t="b">
         <v>0</v>
       </c>
+      <c r="G351" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -10199,6 +11249,9 @@
       <c r="F352" t="b">
         <v>0</v>
       </c>
+      <c r="G352" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -10225,6 +11278,9 @@
       <c r="F353" t="b">
         <v>0</v>
       </c>
+      <c r="G353" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -10251,6 +11307,9 @@
       <c r="F354" t="b">
         <v>0</v>
       </c>
+      <c r="G354" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -10277,6 +11336,9 @@
       <c r="F355" t="b">
         <v>0</v>
       </c>
+      <c r="G355" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -10303,6 +11365,9 @@
       <c r="F356" t="b">
         <v>0</v>
       </c>
+      <c r="G356" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -10329,6 +11394,9 @@
       <c r="F357" t="b">
         <v>0</v>
       </c>
+      <c r="G357" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -10355,6 +11423,9 @@
       <c r="F358" t="b">
         <v>0</v>
       </c>
+      <c r="G358" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -10381,6 +11452,9 @@
       <c r="F359" t="b">
         <v>0</v>
       </c>
+      <c r="G359" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -10407,6 +11481,9 @@
       <c r="F360" t="b">
         <v>0</v>
       </c>
+      <c r="G360" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -10433,6 +11510,9 @@
       <c r="F361" t="b">
         <v>0</v>
       </c>
+      <c r="G361" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -10459,6 +11539,9 @@
       <c r="F362" t="b">
         <v>0</v>
       </c>
+      <c r="G362" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -10485,6 +11568,9 @@
       <c r="F363" t="b">
         <v>0</v>
       </c>
+      <c r="G363" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -10511,6 +11597,9 @@
       <c r="F364" t="b">
         <v>0</v>
       </c>
+      <c r="G364" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -10537,6 +11626,9 @@
       <c r="F365" t="b">
         <v>0</v>
       </c>
+      <c r="G365" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -10563,6 +11655,9 @@
       <c r="F366" t="b">
         <v>0</v>
       </c>
+      <c r="G366" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -10589,6 +11684,9 @@
       <c r="F367" t="b">
         <v>0</v>
       </c>
+      <c r="G367" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -10615,6 +11713,9 @@
       <c r="F368" t="b">
         <v>0</v>
       </c>
+      <c r="G368" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -10641,6 +11742,9 @@
       <c r="F369" t="b">
         <v>0</v>
       </c>
+      <c r="G369" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -10667,6 +11771,9 @@
       <c r="F370" t="b">
         <v>0</v>
       </c>
+      <c r="G370" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -10693,6 +11800,9 @@
       <c r="F371" t="b">
         <v>0</v>
       </c>
+      <c r="G371" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -10719,6 +11829,9 @@
       <c r="F372" t="b">
         <v>0</v>
       </c>
+      <c r="G372" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -10745,6 +11858,9 @@
       <c r="F373" t="b">
         <v>0</v>
       </c>
+      <c r="G373" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -10771,6 +11887,9 @@
       <c r="F374" t="b">
         <v>0</v>
       </c>
+      <c r="G374" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -10797,6 +11916,9 @@
       <c r="F375" t="b">
         <v>0</v>
       </c>
+      <c r="G375" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -10823,6 +11945,9 @@
       <c r="F376" t="b">
         <v>0</v>
       </c>
+      <c r="G376" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -10849,6 +11974,9 @@
       <c r="F377" t="b">
         <v>0</v>
       </c>
+      <c r="G377" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -10875,6 +12003,9 @@
       <c r="F378" t="b">
         <v>0</v>
       </c>
+      <c r="G378" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -10901,6 +12032,9 @@
       <c r="F379" t="b">
         <v>0</v>
       </c>
+      <c r="G379" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -10927,6 +12061,9 @@
       <c r="F380" t="b">
         <v>0</v>
       </c>
+      <c r="G380" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -10953,6 +12090,9 @@
       <c r="F381" t="b">
         <v>0</v>
       </c>
+      <c r="G381" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -10979,6 +12119,9 @@
       <c r="F382" t="b">
         <v>0</v>
       </c>
+      <c r="G382" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -11005,6 +12148,9 @@
       <c r="F383" t="b">
         <v>0</v>
       </c>
+      <c r="G383" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -11031,6 +12177,9 @@
       <c r="F384" t="b">
         <v>0</v>
       </c>
+      <c r="G384" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -11057,6 +12206,9 @@
       <c r="F385" t="b">
         <v>0</v>
       </c>
+      <c r="G385" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -11083,6 +12235,9 @@
       <c r="F386" t="b">
         <v>0</v>
       </c>
+      <c r="G386" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -11109,6 +12264,9 @@
       <c r="F387" t="b">
         <v>0</v>
       </c>
+      <c r="G387" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -11135,6 +12293,9 @@
       <c r="F388" t="b">
         <v>0</v>
       </c>
+      <c r="G388" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -11161,6 +12322,9 @@
       <c r="F389" t="b">
         <v>0</v>
       </c>
+      <c r="G389" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -11187,6 +12351,9 @@
       <c r="F390" t="b">
         <v>0</v>
       </c>
+      <c r="G390" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -11213,6 +12380,9 @@
       <c r="F391" t="b">
         <v>0</v>
       </c>
+      <c r="G391" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -11239,6 +12409,9 @@
       <c r="F392" t="b">
         <v>0</v>
       </c>
+      <c r="G392" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -11265,6 +12438,9 @@
       <c r="F393" t="b">
         <v>0</v>
       </c>
+      <c r="G393" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -11291,6 +12467,9 @@
       <c r="F394" t="b">
         <v>0</v>
       </c>
+      <c r="G394" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -11317,6 +12496,9 @@
       <c r="F395" t="b">
         <v>0</v>
       </c>
+      <c r="G395" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -11343,6 +12525,9 @@
       <c r="F396" t="b">
         <v>0</v>
       </c>
+      <c r="G396" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -11369,6 +12554,9 @@
       <c r="F397" t="b">
         <v>0</v>
       </c>
+      <c r="G397" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -11395,6 +12583,9 @@
       <c r="F398" t="b">
         <v>0</v>
       </c>
+      <c r="G398" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -11421,6 +12612,9 @@
       <c r="F399" t="b">
         <v>0</v>
       </c>
+      <c r="G399" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -11447,6 +12641,9 @@
       <c r="F400" t="b">
         <v>0</v>
       </c>
+      <c r="G400" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -11473,6 +12670,9 @@
       <c r="F401" t="b">
         <v>0</v>
       </c>
+      <c r="G401" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -11499,6 +12699,9 @@
       <c r="F402" t="b">
         <v>0</v>
       </c>
+      <c r="G402" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -11525,6 +12728,9 @@
       <c r="F403" t="b">
         <v>0</v>
       </c>
+      <c r="G403" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -11551,6 +12757,9 @@
       <c r="F404" t="b">
         <v>0</v>
       </c>
+      <c r="G404" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -11577,6 +12786,9 @@
       <c r="F405" t="b">
         <v>0</v>
       </c>
+      <c r="G405" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -11603,6 +12815,9 @@
       <c r="F406" t="b">
         <v>0</v>
       </c>
+      <c r="G406" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -11629,6 +12844,9 @@
       <c r="F407" t="b">
         <v>0</v>
       </c>
+      <c r="G407" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -11655,6 +12873,9 @@
       <c r="F408" t="b">
         <v>0</v>
       </c>
+      <c r="G408" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -11681,6 +12902,9 @@
       <c r="F409" t="b">
         <v>0</v>
       </c>
+      <c r="G409" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -11707,6 +12931,9 @@
       <c r="F410" t="b">
         <v>0</v>
       </c>
+      <c r="G410" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -11733,6 +12960,9 @@
       <c r="F411" t="b">
         <v>0</v>
       </c>
+      <c r="G411" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -11759,6 +12989,9 @@
       <c r="F412" t="b">
         <v>0</v>
       </c>
+      <c r="G412" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -11785,6 +13018,9 @@
       <c r="F413" t="b">
         <v>0</v>
       </c>
+      <c r="G413" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -11811,6 +13047,9 @@
       <c r="F414" t="b">
         <v>0</v>
       </c>
+      <c r="G414" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -11837,6 +13076,9 @@
       <c r="F415" t="b">
         <v>0</v>
       </c>
+      <c r="G415" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -11863,6 +13105,9 @@
       <c r="F416" t="b">
         <v>0</v>
       </c>
+      <c r="G416" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -11889,6 +13134,9 @@
       <c r="F417" t="b">
         <v>0</v>
       </c>
+      <c r="G417" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -11915,6 +13163,9 @@
       <c r="F418" t="b">
         <v>0</v>
       </c>
+      <c r="G418" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -11941,6 +13192,9 @@
       <c r="F419" t="b">
         <v>0</v>
       </c>
+      <c r="G419" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -11967,6 +13221,9 @@
       <c r="F420" t="b">
         <v>0</v>
       </c>
+      <c r="G420" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -11993,6 +13250,9 @@
       <c r="F421" t="b">
         <v>0</v>
       </c>
+      <c r="G421" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -12019,6 +13279,9 @@
       <c r="F422" t="b">
         <v>0</v>
       </c>
+      <c r="G422" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -12045,6 +13308,9 @@
       <c r="F423" t="b">
         <v>0</v>
       </c>
+      <c r="G423" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -12071,6 +13337,9 @@
       <c r="F424" t="b">
         <v>0</v>
       </c>
+      <c r="G424" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -12097,6 +13366,9 @@
       <c r="F425" t="b">
         <v>0</v>
       </c>
+      <c r="G425" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -12123,6 +13395,9 @@
       <c r="F426" t="b">
         <v>0</v>
       </c>
+      <c r="G426" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -12149,6 +13424,9 @@
       <c r="F427" t="b">
         <v>0</v>
       </c>
+      <c r="G427" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -12175,6 +13453,9 @@
       <c r="F428" t="b">
         <v>0</v>
       </c>
+      <c r="G428" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -12201,6 +13482,9 @@
       <c r="F429" t="b">
         <v>0</v>
       </c>
+      <c r="G429" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -12227,6 +13511,9 @@
       <c r="F430" t="b">
         <v>0</v>
       </c>
+      <c r="G430" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -12253,6 +13540,9 @@
       <c r="F431" t="b">
         <v>0</v>
       </c>
+      <c r="G431" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -12279,6 +13569,9 @@
       <c r="F432" t="b">
         <v>0</v>
       </c>
+      <c r="G432" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -12305,6 +13598,9 @@
       <c r="F433" t="b">
         <v>0</v>
       </c>
+      <c r="G433" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -12331,6 +13627,9 @@
       <c r="F434" t="b">
         <v>0</v>
       </c>
+      <c r="G434" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -12357,6 +13656,9 @@
       <c r="F435" t="b">
         <v>0</v>
       </c>
+      <c r="G435" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -12383,6 +13685,9 @@
       <c r="F436" t="b">
         <v>0</v>
       </c>
+      <c r="G436" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -12409,6 +13714,9 @@
       <c r="F437" t="b">
         <v>0</v>
       </c>
+      <c r="G437" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -12435,6 +13743,9 @@
       <c r="F438" t="b">
         <v>0</v>
       </c>
+      <c r="G438" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -12461,6 +13772,9 @@
       <c r="F439" t="b">
         <v>0</v>
       </c>
+      <c r="G439" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -12487,6 +13801,9 @@
       <c r="F440" t="b">
         <v>0</v>
       </c>
+      <c r="G440" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -12513,6 +13830,9 @@
       <c r="F441" t="b">
         <v>0</v>
       </c>
+      <c r="G441" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -12539,6 +13859,9 @@
       <c r="F442" t="b">
         <v>0</v>
       </c>
+      <c r="G442" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -12565,6 +13888,9 @@
       <c r="F443" t="b">
         <v>0</v>
       </c>
+      <c r="G443" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -12591,6 +13917,9 @@
       <c r="F444" t="b">
         <v>0</v>
       </c>
+      <c r="G444" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -12617,6 +13946,9 @@
       <c r="F445" t="b">
         <v>0</v>
       </c>
+      <c r="G445" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -12643,6 +13975,9 @@
       <c r="F446" t="b">
         <v>0</v>
       </c>
+      <c r="G446" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -12669,6 +14004,9 @@
       <c r="F447" t="b">
         <v>0</v>
       </c>
+      <c r="G447" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -12695,6 +14033,9 @@
       <c r="F448" t="b">
         <v>0</v>
       </c>
+      <c r="G448" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -12721,6 +14062,9 @@
       <c r="F449" t="b">
         <v>0</v>
       </c>
+      <c r="G449" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -12747,6 +14091,9 @@
       <c r="F450" t="b">
         <v>0</v>
       </c>
+      <c r="G450" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -12767,11 +14114,14 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>M01狼人_shoutvoice_喘气/低鸣</t>
+          <t>M01狼人（有挂Shout）_shoutvoice_喘气/低鸣</t>
         </is>
       </c>
       <c r="F451" t="b">
         <v>0</v>
+      </c>
+      <c r="G451" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="452">
@@ -12793,11 +14143,14 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_shout_Idle</t>
+          <t>M02僵尸蜡烛人（有挂Shout）_shout_Idle</t>
         </is>
       </c>
       <c r="F452" t="b">
         <v>0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="453">
@@ -12825,6 +14178,9 @@
       <c r="F453" t="b">
         <v>0</v>
       </c>
+      <c r="G453" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -12851,6 +14207,9 @@
       <c r="F454" t="b">
         <v>0</v>
       </c>
+      <c r="G454" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -12877,6 +14236,9 @@
       <c r="F455" t="b">
         <v>0</v>
       </c>
+      <c r="G455" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -12903,6 +14265,9 @@
       <c r="F456" t="b">
         <v>0</v>
       </c>
+      <c r="G456" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -12929,6 +14294,9 @@
       <c r="F457" t="b">
         <v>0</v>
       </c>
+      <c r="G457" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -12955,6 +14323,9 @@
       <c r="F458" t="b">
         <v>0</v>
       </c>
+      <c r="G458" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -12981,6 +14352,9 @@
       <c r="F459" t="b">
         <v>0</v>
       </c>
+      <c r="G459" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -13007,6 +14381,9 @@
       <c r="F460" t="b">
         <v>0</v>
       </c>
+      <c r="G460" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -13033,6 +14410,9 @@
       <c r="F461" t="b">
         <v>0</v>
       </c>
+      <c r="G461" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -13059,6 +14439,9 @@
       <c r="F462" t="b">
         <v>0</v>
       </c>
+      <c r="G462" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -13085,6 +14468,9 @@
       <c r="F463" t="b">
         <v>0</v>
       </c>
+      <c r="G463" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -13111,6 +14497,9 @@
       <c r="F464" t="b">
         <v>0</v>
       </c>
+      <c r="G464" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -13137,6 +14526,9 @@
       <c r="F465" t="b">
         <v>0</v>
       </c>
+      <c r="G465" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -13163,6 +14555,9 @@
       <c r="F466" t="b">
         <v>0</v>
       </c>
+      <c r="G466" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -13189,6 +14584,9 @@
       <c r="F467" t="b">
         <v>0</v>
       </c>
+      <c r="G467" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -13215,6 +14613,9 @@
       <c r="F468" t="b">
         <v>0</v>
       </c>
+      <c r="G468" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -13241,6 +14642,9 @@
       <c r="F469" t="b">
         <v>0</v>
       </c>
+      <c r="G469" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -13267,6 +14671,9 @@
       <c r="F470" t="b">
         <v>0</v>
       </c>
+      <c r="G470" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -13293,6 +14700,9 @@
       <c r="F471" t="b">
         <v>0</v>
       </c>
+      <c r="G471" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -13319,6 +14729,9 @@
       <c r="F472" t="b">
         <v>0</v>
       </c>
+      <c r="G472" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -13345,6 +14758,9 @@
       <c r="F473" t="b">
         <v>0</v>
       </c>
+      <c r="G473" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -13371,6 +14787,9 @@
       <c r="F474" t="b">
         <v>0</v>
       </c>
+      <c r="G474" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -13397,6 +14816,9 @@
       <c r="F475" t="b">
         <v>0</v>
       </c>
+      <c r="G475" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -13423,6 +14845,9 @@
       <c r="F476" t="b">
         <v>0</v>
       </c>
+      <c r="G476" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -13449,6 +14874,9 @@
       <c r="F477" t="b">
         <v>0</v>
       </c>
+      <c r="G477" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -13475,6 +14903,9 @@
       <c r="F478" t="b">
         <v>0</v>
       </c>
+      <c r="G478" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -13501,6 +14932,9 @@
       <c r="F479" t="b">
         <v>0</v>
       </c>
+      <c r="G479" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -13521,11 +14955,14 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>M01狼人_技能3</t>
+          <t>M01狼人（有挂Shout）_技能3</t>
         </is>
       </c>
       <c r="F480" t="b">
         <v>0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="481">
@@ -13547,11 +14984,14 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>M01狼人_技能4</t>
+          <t>M01狼人（有挂Shout）_技能4</t>
         </is>
       </c>
       <c r="F481" t="b">
         <v>0</v>
+      </c>
+      <c r="G481" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="482">
@@ -13573,11 +15013,14 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>M01狼人_技能5</t>
+          <t>M01狼人（有挂Shout）_技能5</t>
         </is>
       </c>
       <c r="F482" t="b">
         <v>0</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="483">
@@ -13599,11 +15042,14 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>M01狼人_技能10</t>
+          <t>M01狼人（有挂Shout）_技能10</t>
         </is>
       </c>
       <c r="F483" t="b">
         <v>0</v>
+      </c>
+      <c r="G483" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="484">
@@ -13625,11 +15071,14 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>M01狼人_技能11</t>
+          <t>M01狼人（有挂Shout）_技能11</t>
         </is>
       </c>
       <c r="F484" t="b">
         <v>0</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="485">
@@ -13657,6 +15106,9 @@
       <c r="F485" t="b">
         <v>0</v>
       </c>
+      <c r="G485" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -13683,6 +15135,9 @@
       <c r="F486" t="b">
         <v>0</v>
       </c>
+      <c r="G486" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -13709,6 +15164,9 @@
       <c r="F487" t="b">
         <v>0</v>
       </c>
+      <c r="G487" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -13735,6 +15193,9 @@
       <c r="F488" t="b">
         <v>0</v>
       </c>
+      <c r="G488" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -13761,6 +15222,9 @@
       <c r="F489" t="b">
         <v>0</v>
       </c>
+      <c r="G489" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -13787,6 +15251,9 @@
       <c r="F490" t="b">
         <v>0</v>
       </c>
+      <c r="G490" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -13813,6 +15280,9 @@
       <c r="F491" t="b">
         <v>0</v>
       </c>
+      <c r="G491" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -13839,6 +15309,9 @@
       <c r="F492" t="b">
         <v>0</v>
       </c>
+      <c r="G492" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -13865,6 +15338,9 @@
       <c r="F493" t="b">
         <v>0</v>
       </c>
+      <c r="G493" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -13891,6 +15367,9 @@
       <c r="F494" t="b">
         <v>0</v>
       </c>
+      <c r="G494" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -13917,6 +15396,9 @@
       <c r="F495" t="b">
         <v>0</v>
       </c>
+      <c r="G495" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -13943,6 +15425,9 @@
       <c r="F496" t="b">
         <v>0</v>
       </c>
+      <c r="G496" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -13969,6 +15454,9 @@
       <c r="F497" t="b">
         <v>0</v>
       </c>
+      <c r="G497" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -13995,6 +15483,9 @@
       <c r="F498" t="b">
         <v>0</v>
       </c>
+      <c r="G498" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -14021,6 +15512,9 @@
       <c r="F499" t="b">
         <v>0</v>
       </c>
+      <c r="G499" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -14047,6 +15541,9 @@
       <c r="F500" t="b">
         <v>0</v>
       </c>
+      <c r="G500" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -14073,6 +15570,9 @@
       <c r="F501" t="b">
         <v>0</v>
       </c>
+      <c r="G501" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -14099,6 +15599,9 @@
       <c r="F502" t="b">
         <v>0</v>
       </c>
+      <c r="G502" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -14125,6 +15628,9 @@
       <c r="F503" t="b">
         <v>0</v>
       </c>
+      <c r="G503" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -14151,6 +15657,9 @@
       <c r="F504" t="b">
         <v>0</v>
       </c>
+      <c r="G504" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -14177,6 +15686,9 @@
       <c r="F505" t="b">
         <v>0</v>
       </c>
+      <c r="G505" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -14203,6 +15715,9 @@
       <c r="F506" t="b">
         <v>0</v>
       </c>
+      <c r="G506" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -14229,6 +15744,9 @@
       <c r="F507" t="b">
         <v>0</v>
       </c>
+      <c r="G507" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -14255,6 +15773,9 @@
       <c r="F508" t="b">
         <v>0</v>
       </c>
+      <c r="G508" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -14281,6 +15802,9 @@
       <c r="F509" t="b">
         <v>0</v>
       </c>
+      <c r="G509" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -14307,6 +15831,9 @@
       <c r="F510" t="b">
         <v>0</v>
       </c>
+      <c r="G510" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -14333,6 +15860,9 @@
       <c r="F511" t="b">
         <v>0</v>
       </c>
+      <c r="G511" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -14359,6 +15889,9 @@
       <c r="F512" t="b">
         <v>0</v>
       </c>
+      <c r="G512" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -14385,6 +15918,9 @@
       <c r="F513" t="b">
         <v>0</v>
       </c>
+      <c r="G513" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -14411,6 +15947,9 @@
       <c r="F514" t="b">
         <v>0</v>
       </c>
+      <c r="G514" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -14437,6 +15976,9 @@
       <c r="F515" t="b">
         <v>0</v>
       </c>
+      <c r="G515" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -14463,6 +16005,9 @@
       <c r="F516" t="b">
         <v>0</v>
       </c>
+      <c r="G516" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -14489,6 +16034,9 @@
       <c r="F517" t="b">
         <v>0</v>
       </c>
+      <c r="G517" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -14515,6 +16063,9 @@
       <c r="F518" t="b">
         <v>0</v>
       </c>
+      <c r="G518" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -14541,6 +16092,9 @@
       <c r="F519" t="b">
         <v>0</v>
       </c>
+      <c r="G519" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -14567,6 +16121,9 @@
       <c r="F520" t="b">
         <v>0</v>
       </c>
+      <c r="G520" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -14593,6 +16150,9 @@
       <c r="F521" t="b">
         <v>0</v>
       </c>
+      <c r="G521" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -14619,6 +16179,9 @@
       <c r="F522" t="b">
         <v>0</v>
       </c>
+      <c r="G522" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -14645,6 +16208,9 @@
       <c r="F523" t="b">
         <v>0</v>
       </c>
+      <c r="G523" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -14671,6 +16237,9 @@
       <c r="F524" t="b">
         <v>0</v>
       </c>
+      <c r="G524" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -14697,6 +16266,9 @@
       <c r="F525" t="b">
         <v>0</v>
       </c>
+      <c r="G525" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -14723,6 +16295,9 @@
       <c r="F526" t="b">
         <v>0</v>
       </c>
+      <c r="G526" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -14749,6 +16324,9 @@
       <c r="F527" t="b">
         <v>0</v>
       </c>
+      <c r="G527" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -14775,6 +16353,9 @@
       <c r="F528" t="b">
         <v>0</v>
       </c>
+      <c r="G528" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -14801,6 +16382,9 @@
       <c r="F529" t="b">
         <v>0</v>
       </c>
+      <c r="G529" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -14827,6 +16411,9 @@
       <c r="F530" t="b">
         <v>0</v>
       </c>
+      <c r="G530" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -14853,6 +16440,9 @@
       <c r="F531" t="b">
         <v>0</v>
       </c>
+      <c r="G531" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -14879,6 +16469,9 @@
       <c r="F532" t="b">
         <v>0</v>
       </c>
+      <c r="G532" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -14905,6 +16498,9 @@
       <c r="F533" t="b">
         <v>0</v>
       </c>
+      <c r="G533" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -14931,6 +16527,9 @@
       <c r="F534" t="b">
         <v>0</v>
       </c>
+      <c r="G534" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -14957,6 +16556,9 @@
       <c r="F535" t="b">
         <v>0</v>
       </c>
+      <c r="G535" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -14982,6 +16584,183 @@
       </c>
       <c r="F536" t="b">
         <v>0</v>
+      </c>
+      <c r="G536" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>8263</v>
+      </c>
+      <c r="B537" t="n">
+        <v>8263</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run.AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run'</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_一阶段蜘蛛雷_蜘蛛雷移动</t>
+        </is>
+      </c>
+      <c r="F537" t="b">
+        <v>0</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>8264</v>
+      </c>
+      <c r="B538" t="n">
+        <v>8264</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death.AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death'</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_一阶段蜘蛛雷_蜘蛛雷死亡</t>
+        </is>
+      </c>
+      <c r="F538" t="b">
+        <v>0</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>8265</v>
+      </c>
+      <c r="B539" t="n">
+        <v>8265</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Death_Skill</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Death_Skill.AKE_Play_Mon_Mob_Skill_M02_Death_Skill'</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>M02僵尸蜡烛人（有挂Shout）_自爆技能</t>
+        </is>
+      </c>
+      <c r="F539" t="b">
+        <v>0</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>8266</v>
+      </c>
+      <c r="B540" t="n">
+        <v>8266</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5.AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5'</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>M03铁甲面_技能5（电棍）</t>
+        </is>
+      </c>
+      <c r="F540" t="b">
+        <v>0</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>7023</v>
+      </c>
+      <c r="B541" t="n">
+        <v>7023</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>AKE_Play_Imp_Knife_Chop_Flesh_Hvy</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Knife/AKE_Play_Imp_Knife_Chop_Flesh_Hvy.AKE_Play_Imp_Knife_Chop_Flesh_Hvy'</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>刀_斩击_重</t>
+        </is>
+      </c>
+      <c r="F541" t="b">
+        <v>0</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>7024</v>
+      </c>
+      <c r="B542" t="n">
+        <v>7024</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>AKE_Play_Imp_Knife_Chop_Flesh_Cri</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Knife/AKE_Play_Imp_Knife_Chop_Flesh_Cri.AKE_Play_Imp_Knife_Chop_Flesh_Cri'</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>刀_斩击_特殊暴击</t>
+        </is>
+      </c>
+      <c r="F542" t="b">
+        <v>0</v>
+      </c>
+      <c r="G542" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,12 +1014,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H542"/>
+  <dimension ref="A1:I583"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H536" sqref="H536"/>
+      <selection pane="bottomLeft" activeCell="H570" sqref="H570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1073,6 +1073,11 @@
           <t>FadeCurveNum</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ObjectType</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -11221,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352">
@@ -11250,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353">
@@ -11279,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354">
@@ -11308,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355">
@@ -11395,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358">
@@ -11453,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="360">
@@ -11540,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363">
@@ -12236,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387">
@@ -12294,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389">
@@ -16429,7 +16434,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_08.AKE_Play_VO_Game_Battle_C08_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_08.AKE_Play_VO_Game_Battle_C08_08'</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -16458,7 +16463,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_07.AKE_Play_VO_Game_Battle_C08_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_07.AKE_Play_VO_Game_Battle_C08_07'</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -16487,7 +16492,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_12.AKE_Play_VO_Game_Battle_C08_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_12.AKE_Play_VO_Game_Battle_C08_12'</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -16516,7 +16521,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_13.AKE_Play_VO_Game_Battle_C08_13'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_13.AKE_Play_VO_Game_Battle_C08_13'</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -16545,7 +16550,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_20.AKE_Play_VO_Game_Battle_C08_20'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_20.AKE_Play_VO_Game_Battle_C08_20'</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -16574,7 +16579,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_14.AKE_Play_VO_Game_Battle_C08_14'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_14.AKE_Play_VO_Game_Battle_C08_14'</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -16760,6 +16765,1195 @@
         <v>0</v>
       </c>
       <c r="G542" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B543" t="n">
+        <v>3290</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk1</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk1.AKE_Play_Char_Skill_C07_Atk1'</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_1段</t>
+        </is>
+      </c>
+      <c r="F543" t="b">
+        <v>0</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>3291</v>
+      </c>
+      <c r="B544" t="n">
+        <v>3291</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk1_End</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk1_End.AKE_Play_Char_Skill_C07_Atk1_End'</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_1段收招</t>
+        </is>
+      </c>
+      <c r="F544" t="b">
+        <v>0</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>3292</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3292</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk2</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2.AKE_Play_Char_Skill_C07_Atk2'</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_2段挥砍1</t>
+        </is>
+      </c>
+      <c r="F545" t="b">
+        <v>0</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>3293</v>
+      </c>
+      <c r="B546" t="n">
+        <v>3293</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2_2nd.AKE_Play_Char_Skill_C07_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_2段挥砍2</t>
+        </is>
+      </c>
+      <c r="F546" t="b">
+        <v>0</v>
+      </c>
+      <c r="G546" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>3294</v>
+      </c>
+      <c r="B547" t="n">
+        <v>3294</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk2_End</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2_End.AKE_Play_Char_Skill_C07_Atk2_End'</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_2段收招</t>
+        </is>
+      </c>
+      <c r="F547" t="b">
+        <v>0</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>3295</v>
+      </c>
+      <c r="B548" t="n">
+        <v>3295</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk3</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk3.AKE_Play_Char_Skill_C07_Atk3'</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_3段</t>
+        </is>
+      </c>
+      <c r="F548" t="b">
+        <v>0</v>
+      </c>
+      <c r="G548" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>3296</v>
+      </c>
+      <c r="B549" t="n">
+        <v>3296</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk3_End</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk3_End.AKE_Play_Char_Skill_C07_Atk3_End'</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_3段收招</t>
+        </is>
+      </c>
+      <c r="F549" t="b">
+        <v>0</v>
+      </c>
+      <c r="G549" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>3297</v>
+      </c>
+      <c r="B550" t="n">
+        <v>3297</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk4</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4.AKE_Play_Char_Skill_C07_Atk4'</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_4段起手</t>
+        </is>
+      </c>
+      <c r="F550" t="b">
+        <v>0</v>
+      </c>
+      <c r="G550" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>3298</v>
+      </c>
+      <c r="B551" t="n">
+        <v>3298</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk4_2nd</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_2nd.AKE_Play_Char_Skill_C07_Atk4_2nd'</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_4段跳起</t>
+        </is>
+      </c>
+      <c r="F551" t="b">
+        <v>0</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>3299</v>
+      </c>
+      <c r="B552" t="n">
+        <v>3299</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk4_3rd</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_3rd.AKE_Play_Char_Skill_C07_Atk4_3rd'</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_4段砸地</t>
+        </is>
+      </c>
+      <c r="F552" t="b">
+        <v>0</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>3300</v>
+      </c>
+      <c r="B553" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk4_End</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_End.AKE_Play_Char_Skill_C07_Atk4_End'</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>法医法索_普攻连段_4段收招</t>
+        </is>
+      </c>
+      <c r="F553" t="b">
+        <v>0</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>3301</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3301</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk_Rush</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk_Rush.AKE_Play_Char_Skill_C07_Atk_Rush'</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>法医法索_特殊普攻_冲刺普攻</t>
+        </is>
+      </c>
+      <c r="F554" t="b">
+        <v>0</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>3302</v>
+      </c>
+      <c r="B555" t="n">
+        <v>3302</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Atk_Rush_End</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk_Rush_End.AKE_Play_Char_Skill_C07_Atk_Rush_End'</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>法医法索_特殊普攻_冲刺普攻收招</t>
+        </is>
+      </c>
+      <c r="F555" t="b">
+        <v>0</v>
+      </c>
+      <c r="G555" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>3303</v>
+      </c>
+      <c r="B556" t="n">
+        <v>3303</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Strafe_Start</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Start.AKE_Play_Char_Skill_C07_Strafe_Start'</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>法医法索_副攻击_起手</t>
+        </is>
+      </c>
+      <c r="F556" t="b">
+        <v>0</v>
+      </c>
+      <c r="G556" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>3304</v>
+      </c>
+      <c r="B557" t="n">
+        <v>3304</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Strafe_Hack1</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Hack1.AKE_Play_Char_Skill_C07_Strafe_Hack1'</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>法医法索_副攻击_1级挥砍</t>
+        </is>
+      </c>
+      <c r="F557" t="b">
+        <v>0</v>
+      </c>
+      <c r="G557" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>3305</v>
+      </c>
+      <c r="B558" t="n">
+        <v>3305</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Strafe_End1</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_End1.AKE_Play_Char_Skill_C07_Strafe_End1'</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>法医法索_副攻击_1级挥砍收招</t>
+        </is>
+      </c>
+      <c r="F558" t="b">
+        <v>0</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>3306</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3306</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Strafe_Hack2</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Hack2.AKE_Play_Char_Skill_C07_Strafe_Hack2'</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>法医法索_副攻击_2级挥砍</t>
+        </is>
+      </c>
+      <c r="F559" t="b">
+        <v>0</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B560" t="n">
+        <v>3307</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Strafe_End2</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_End2.AKE_Play_Char_Skill_C07_Strafe_End2'</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>法医法索_副攻击_2级挥砍收招</t>
+        </is>
+      </c>
+      <c r="F560" t="b">
+        <v>0</v>
+      </c>
+      <c r="G560" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>3308</v>
+      </c>
+      <c r="B561" t="n">
+        <v>3308</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Focus_Ready</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus_Ready.AKE_Play_Char_Skill_C07_Focus_Ready'</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>法医法索_蓄力攻击_前摇</t>
+        </is>
+      </c>
+      <c r="F561" t="b">
+        <v>0</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>3309</v>
+      </c>
+      <c r="B562" t="n">
+        <v>3309</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Focus1</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus1.AKE_Play_Char_Skill_C07_Focus1'</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>法医法索_蓄力攻击_蓄力1级</t>
+        </is>
+      </c>
+      <c r="F562" t="b">
+        <v>0</v>
+      </c>
+      <c r="G562" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>3310</v>
+      </c>
+      <c r="B563" t="n">
+        <v>3310</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Focus2</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus2.AKE_Play_Char_Skill_C07_Focus2'</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>法医法索_蓄力攻击_蓄力2级</t>
+        </is>
+      </c>
+      <c r="F563" t="b">
+        <v>0</v>
+      </c>
+      <c r="G563" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>3311</v>
+      </c>
+      <c r="B564" t="n">
+        <v>3311</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Dodge_Step</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Dodge_Step.AKE_Play_Char_Skill_C07_Dodge_Step'</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>法医法索_闪避_一段闪避</t>
+        </is>
+      </c>
+      <c r="F564" t="b">
+        <v>0</v>
+      </c>
+      <c r="G564" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>3312</v>
+      </c>
+      <c r="B565" t="n">
+        <v>3312</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Dodge</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Dodge.AKE_Play_Char_Skill_C07_Dodge'</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>法医法索_闪避_二段闪避</t>
+        </is>
+      </c>
+      <c r="F565" t="b">
+        <v>0</v>
+      </c>
+      <c r="G565" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>3313</v>
+      </c>
+      <c r="B566" t="n">
+        <v>3313</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Counter</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Counter.AKE_Play_Char_Skill_C07_Counter'</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>法医法索_化解_轻化解</t>
+        </is>
+      </c>
+      <c r="F566" t="b">
+        <v>0</v>
+      </c>
+      <c r="G566" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>3314</v>
+      </c>
+      <c r="B567" t="n">
+        <v>3314</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Counter_Sp</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Counter_Sp.AKE_Play_Char_Skill_C07_Counter_Sp'</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>法医法索_化解_重化解</t>
+        </is>
+      </c>
+      <c r="F567" t="b">
+        <v>0</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>3315</v>
+      </c>
+      <c r="B568" t="n">
+        <v>3315</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Execu1_Air</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1_Air.AKE_Play_Char_Skill_C07_Execu1_Air'</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>法医法索_处决_处决-空中</t>
+        </is>
+      </c>
+      <c r="F568" t="b">
+        <v>0</v>
+      </c>
+      <c r="G568" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>3316</v>
+      </c>
+      <c r="B569" t="n">
+        <v>3316</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Execu1</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1.AKE_Play_Char_Skill_C07_Execu1'</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>法医法索_处决_通用处决释放</t>
+        </is>
+      </c>
+      <c r="F569" t="b">
+        <v>0</v>
+      </c>
+      <c r="G569" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>3317</v>
+      </c>
+      <c r="B570" t="n">
+        <v>3317</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Execu1_End</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1_End.AKE_Play_Char_Skill_C07_Execu1_End'</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>法医法索_处决_通用处决收招</t>
+        </is>
+      </c>
+      <c r="F570" t="b">
+        <v>0</v>
+      </c>
+      <c r="G570" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>3318</v>
+      </c>
+      <c r="B571" t="n">
+        <v>3318</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Execu2</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu2.AKE_Play_Char_Skill_C07_Execu2'</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>法医法索_处决_特殊处决释放</t>
+        </is>
+      </c>
+      <c r="F571" t="b">
+        <v>0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>3319</v>
+      </c>
+      <c r="B572" t="n">
+        <v>3319</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Execu2_End</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu2_End.AKE_Play_Char_Skill_C07_Execu2_End'</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>法医法索_处决_特殊处决收招</t>
+        </is>
+      </c>
+      <c r="F572" t="b">
+        <v>0</v>
+      </c>
+      <c r="G572" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>3320</v>
+      </c>
+      <c r="B573" t="n">
+        <v>3320</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Ult</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult.AKE_Play_Char_Skill_C07_Ult'</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>法医法索_大招_表演Sequence</t>
+        </is>
+      </c>
+      <c r="F573" t="b">
+        <v>0</v>
+      </c>
+      <c r="G573" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>3321</v>
+      </c>
+      <c r="B574" t="n">
+        <v>3321</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Ult_Smash</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult_Smash.AKE_Play_Char_Skill_C07_Ult_Smash'</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>法医法索_大招_释放砸地</t>
+        </is>
+      </c>
+      <c r="F574" t="b">
+        <v>0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>3322</v>
+      </c>
+      <c r="B575" t="n">
+        <v>3322</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C07_Ult_End</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult_End.AKE_Play_Char_Skill_C07_Ult_End'</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>法医法索_大招_收招</t>
+        </is>
+      </c>
+      <c r="F575" t="b">
+        <v>0</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>15125</v>
+      </c>
+      <c r="B576" t="n">
+        <v>15125</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_07</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_07.AKE_Play_VO_Game_Battle_C07_07'</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>法索语音_普攻_1段+2段</t>
+        </is>
+      </c>
+      <c r="F576" t="b">
+        <v>0</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>15126</v>
+      </c>
+      <c r="B577" t="n">
+        <v>15126</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_08</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_08.AKE_Play_VO_Game_Battle_C07_08'</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>法索语音_普攻_3段</t>
+        </is>
+      </c>
+      <c r="F577" t="b">
+        <v>0</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>15127</v>
+      </c>
+      <c r="B578" t="n">
+        <v>15127</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_09</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_09.AKE_Play_VO_Game_Battle_C07_09'</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>法索语音_普攻_4段</t>
+        </is>
+      </c>
+      <c r="F578" t="b">
+        <v>0</v>
+      </c>
+      <c r="G578" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>15128</v>
+      </c>
+      <c r="B579" t="n">
+        <v>15128</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_12</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_12.AKE_Play_VO_Game_Battle_C07_12'</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>法索语音_蓄力_蓄力前摇</t>
+        </is>
+      </c>
+      <c r="F579" t="b">
+        <v>0</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>15129</v>
+      </c>
+      <c r="B580" t="n">
+        <v>15129</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_16</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_16.AKE_Play_VO_Game_Battle_C07_16'</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>法索语音_Action_跳跃与闪避</t>
+        </is>
+      </c>
+      <c r="F580" t="b">
+        <v>0</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>15130</v>
+      </c>
+      <c r="B581" t="n">
+        <v>15130</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_18</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_18.AKE_Play_VO_Game_Battle_C07_18'</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>法索语音_处决1_不听话的患者，我见得多了</t>
+        </is>
+      </c>
+      <c r="F581" t="b">
+        <v>0</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>15131</v>
+      </c>
+      <c r="B582" t="n">
+        <v>15131</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_19</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_19.AKE_Play_VO_Game_Battle_C07_19'</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>法索语音_处决2_采取强制措施</t>
+        </is>
+      </c>
+      <c r="F582" t="b">
+        <v>0</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>15132</v>
+      </c>
+      <c r="B583" t="n">
+        <v>15132</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C07_20</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_20.AKE_Play_VO_Game_Battle_C07_20'</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>法索语音_大招_交给我</t>
+        </is>
+      </c>
+      <c r="F583" t="b">
+        <v>0</v>
+      </c>
+      <c r="G583" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I583"/>
+  <dimension ref="A1:I584"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>女主雾宁_通用处决中距离_钩锁</t>
+          <t>女主雾宁_中距离处决_钩锁释放Air</t>
         </is>
       </c>
       <c r="F361" t="b">
@@ -17955,6 +17955,32 @@
       </c>
       <c r="G583" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>7025</v>
+      </c>
+      <c r="B584" t="n">
+        <v>7025</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>AKE_Play_Imp_Sword_Chop_Metal_Mid</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Sword/AKE_Play_Imp_Sword_Chop_Metal_Mid.AKE_Play_Imp_Sword_Chop_Metal_Mid'</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>剑_斩击_中-金属</t>
+        </is>
+      </c>
+      <c r="F584" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1016,13 +1016,13 @@
   </sheetPr>
   <dimension ref="A1:I584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H570" sqref="H570"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="8.375" customWidth="1" min="1" max="1"/>
     <col width="9.375" customWidth="1" min="2" max="2"/>
@@ -1035,7 +1035,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>RowName</t>
+          <t>Row</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1107,6 +1107,12 @@
       <c r="G2" t="n">
         <v>1000</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1136,6 +1142,12 @@
       <c r="G3" t="n">
         <v>1000</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1165,6 +1177,12 @@
       <c r="G4" t="n">
         <v>1000</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1194,6 +1212,12 @@
       <c r="G5" t="n">
         <v>1000</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1223,6 +1247,12 @@
       <c r="G6" t="n">
         <v>1000</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1252,6 +1282,12 @@
       <c r="G7" t="n">
         <v>1000</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1281,6 +1317,12 @@
       <c r="G8" t="n">
         <v>1000</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1310,6 +1352,12 @@
       <c r="G9" t="n">
         <v>1000</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1339,6 +1387,12 @@
       <c r="G10" t="n">
         <v>1000</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1368,6 +1422,12 @@
       <c r="G11" t="n">
         <v>1000</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1397,6 +1457,12 @@
       <c r="G12" t="n">
         <v>1000</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1426,6 +1492,12 @@
       <c r="G13" t="n">
         <v>1000</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1455,6 +1527,12 @@
       <c r="G14" t="n">
         <v>1000</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1484,6 +1562,12 @@
       <c r="G15" t="n">
         <v>1000</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1513,6 +1597,12 @@
       <c r="G16" t="n">
         <v>1000</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1542,6 +1632,12 @@
       <c r="G17" t="n">
         <v>1000</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1571,6 +1667,12 @@
       <c r="G18" t="n">
         <v>1000</v>
       </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1600,6 +1702,12 @@
       <c r="G19" t="n">
         <v>1000</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1629,6 +1737,12 @@
       <c r="G20" t="n">
         <v>1000</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1658,6 +1772,12 @@
       <c r="G21" t="n">
         <v>1000</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1687,6 +1807,12 @@
       <c r="G22" t="n">
         <v>1000</v>
       </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1716,6 +1842,12 @@
       <c r="G23" t="n">
         <v>1000</v>
       </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1745,6 +1877,12 @@
       <c r="G24" t="n">
         <v>1000</v>
       </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1774,6 +1912,12 @@
       <c r="G25" t="n">
         <v>1000</v>
       </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1803,6 +1947,12 @@
       <c r="G26" t="n">
         <v>1000</v>
       </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1832,6 +1982,12 @@
       <c r="G27" t="n">
         <v>1000</v>
       </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1861,6 +2017,12 @@
       <c r="G28" t="n">
         <v>1000</v>
       </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1890,6 +2052,12 @@
       <c r="G29" t="n">
         <v>1000</v>
       </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1919,6 +2087,12 @@
       <c r="G30" t="n">
         <v>1000</v>
       </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1948,6 +2122,12 @@
       <c r="G31" t="n">
         <v>1000</v>
       </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1977,6 +2157,12 @@
       <c r="G32" t="n">
         <v>1000</v>
       </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2006,6 +2192,12 @@
       <c r="G33" t="n">
         <v>1000</v>
       </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2035,6 +2227,12 @@
       <c r="G34" t="n">
         <v>1000</v>
       </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2064,6 +2262,12 @@
       <c r="G35" t="n">
         <v>1000</v>
       </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2093,6 +2297,12 @@
       <c r="G36" t="n">
         <v>1000</v>
       </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2122,6 +2332,12 @@
       <c r="G37" t="n">
         <v>1000</v>
       </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2151,6 +2367,12 @@
       <c r="G38" t="n">
         <v>1000</v>
       </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2180,6 +2402,12 @@
       <c r="G39" t="n">
         <v>1000</v>
       </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2209,6 +2437,12 @@
       <c r="G40" t="n">
         <v>1000</v>
       </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2238,6 +2472,12 @@
       <c r="G41" t="n">
         <v>1000</v>
       </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2267,6 +2507,12 @@
       <c r="G42" t="n">
         <v>1000</v>
       </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2296,6 +2542,12 @@
       <c r="G43" t="n">
         <v>1000</v>
       </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2325,6 +2577,12 @@
       <c r="G44" t="n">
         <v>1000</v>
       </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2354,6 +2612,12 @@
       <c r="G45" t="n">
         <v>1000</v>
       </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2383,6 +2647,12 @@
       <c r="G46" t="n">
         <v>1000</v>
       </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2412,6 +2682,12 @@
       <c r="G47" t="n">
         <v>1000</v>
       </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2441,6 +2717,12 @@
       <c r="G48" t="n">
         <v>1000</v>
       </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2470,6 +2752,12 @@
       <c r="G49" t="n">
         <v>1000</v>
       </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2499,6 +2787,12 @@
       <c r="G50" t="n">
         <v>1000</v>
       </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2528,6 +2822,12 @@
       <c r="G51" t="n">
         <v>1000</v>
       </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2557,6 +2857,12 @@
       <c r="G52" t="n">
         <v>1000</v>
       </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2586,6 +2892,12 @@
       <c r="G53" t="n">
         <v>1000</v>
       </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2615,6 +2927,12 @@
       <c r="G54" t="n">
         <v>1000</v>
       </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2644,6 +2962,12 @@
       <c r="G55" t="n">
         <v>1000</v>
       </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2673,6 +2997,12 @@
       <c r="G56" t="n">
         <v>1000</v>
       </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2702,6 +3032,12 @@
       <c r="G57" t="n">
         <v>1000</v>
       </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2731,6 +3067,12 @@
       <c r="G58" t="n">
         <v>1000</v>
       </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2760,6 +3102,12 @@
       <c r="G59" t="n">
         <v>1000</v>
       </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2789,6 +3137,12 @@
       <c r="G60" t="n">
         <v>1000</v>
       </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2818,6 +3172,12 @@
       <c r="G61" t="n">
         <v>1000</v>
       </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2847,6 +3207,12 @@
       <c r="G62" t="n">
         <v>1000</v>
       </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2876,6 +3242,12 @@
       <c r="G63" t="n">
         <v>1000</v>
       </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2905,6 +3277,12 @@
       <c r="G64" t="n">
         <v>1000</v>
       </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2934,6 +3312,12 @@
       <c r="G65" t="n">
         <v>1000</v>
       </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2963,6 +3347,12 @@
       <c r="G66" t="n">
         <v>1000</v>
       </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2992,6 +3382,12 @@
       <c r="G67" t="n">
         <v>1000</v>
       </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3021,6 +3417,12 @@
       <c r="G68" t="n">
         <v>1000</v>
       </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3050,6 +3452,12 @@
       <c r="G69" t="n">
         <v>1000</v>
       </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3079,6 +3487,12 @@
       <c r="G70" t="n">
         <v>1000</v>
       </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3108,6 +3522,12 @@
       <c r="G71" t="n">
         <v>1000</v>
       </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3137,6 +3557,12 @@
       <c r="G72" t="n">
         <v>1000</v>
       </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3166,6 +3592,12 @@
       <c r="G73" t="n">
         <v>1000</v>
       </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3195,6 +3627,12 @@
       <c r="G74" t="n">
         <v>1000</v>
       </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3224,6 +3662,12 @@
       <c r="G75" t="n">
         <v>1000</v>
       </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3253,6 +3697,12 @@
       <c r="G76" t="n">
         <v>1000</v>
       </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3282,6 +3732,12 @@
       <c r="G77" t="n">
         <v>1000</v>
       </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3311,6 +3767,12 @@
       <c r="G78" t="n">
         <v>1000</v>
       </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3340,6 +3802,12 @@
       <c r="G79" t="n">
         <v>1000</v>
       </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3369,6 +3837,12 @@
       <c r="G80" t="n">
         <v>1000</v>
       </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3398,6 +3872,12 @@
       <c r="G81" t="n">
         <v>1000</v>
       </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3427,6 +3907,12 @@
       <c r="G82" t="n">
         <v>1000</v>
       </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3456,6 +3942,12 @@
       <c r="G83" t="n">
         <v>1000</v>
       </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3485,6 +3977,12 @@
       <c r="G84" t="n">
         <v>1000</v>
       </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3514,6 +4012,12 @@
       <c r="G85" t="n">
         <v>1000</v>
       </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3543,6 +4047,12 @@
       <c r="G86" t="n">
         <v>1000</v>
       </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3572,6 +4082,12 @@
       <c r="G87" t="n">
         <v>1000</v>
       </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3601,6 +4117,12 @@
       <c r="G88" t="n">
         <v>1000</v>
       </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3630,6 +4152,12 @@
       <c r="G89" t="n">
         <v>1000</v>
       </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3659,6 +4187,12 @@
       <c r="G90" t="n">
         <v>1000</v>
       </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3688,6 +4222,12 @@
       <c r="G91" t="n">
         <v>1000</v>
       </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3717,6 +4257,12 @@
       <c r="G92" t="n">
         <v>1000</v>
       </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3746,6 +4292,12 @@
       <c r="G93" t="n">
         <v>1000</v>
       </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3775,6 +4327,12 @@
       <c r="G94" t="n">
         <v>1000</v>
       </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3804,6 +4362,12 @@
       <c r="G95" t="n">
         <v>1000</v>
       </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3833,6 +4397,12 @@
       <c r="G96" t="n">
         <v>1000</v>
       </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3862,6 +4432,12 @@
       <c r="G97" t="n">
         <v>1000</v>
       </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3891,6 +4467,12 @@
       <c r="G98" t="n">
         <v>1000</v>
       </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3920,6 +4502,12 @@
       <c r="G99" t="n">
         <v>1000</v>
       </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3949,6 +4537,12 @@
       <c r="G100" t="n">
         <v>1000</v>
       </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3978,6 +4572,12 @@
       <c r="G101" t="n">
         <v>1000</v>
       </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4007,6 +4607,12 @@
       <c r="G102" t="n">
         <v>1000</v>
       </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4036,6 +4642,12 @@
       <c r="G103" t="n">
         <v>1000</v>
       </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4065,6 +4677,12 @@
       <c r="G104" t="n">
         <v>1000</v>
       </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4094,6 +4712,12 @@
       <c r="G105" t="n">
         <v>1000</v>
       </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4123,6 +4747,12 @@
       <c r="G106" t="n">
         <v>1000</v>
       </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4152,6 +4782,12 @@
       <c r="G107" t="n">
         <v>1000</v>
       </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4181,6 +4817,12 @@
       <c r="G108" t="n">
         <v>1000</v>
       </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4210,6 +4852,12 @@
       <c r="G109" t="n">
         <v>1000</v>
       </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4239,6 +4887,12 @@
       <c r="G110" t="n">
         <v>1000</v>
       </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4268,6 +4922,12 @@
       <c r="G111" t="n">
         <v>1000</v>
       </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4297,6 +4957,12 @@
       <c r="G112" t="n">
         <v>1000</v>
       </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4326,6 +4992,12 @@
       <c r="G113" t="n">
         <v>1000</v>
       </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4355,6 +5027,12 @@
       <c r="G114" t="n">
         <v>1000</v>
       </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4384,6 +5062,12 @@
       <c r="G115" t="n">
         <v>1000</v>
       </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4413,6 +5097,12 @@
       <c r="G116" t="n">
         <v>1000</v>
       </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4442,6 +5132,12 @@
       <c r="G117" t="n">
         <v>1000</v>
       </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4471,6 +5167,12 @@
       <c r="G118" t="n">
         <v>1000</v>
       </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4500,6 +5202,12 @@
       <c r="G119" t="n">
         <v>1000</v>
       </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4529,6 +5237,12 @@
       <c r="G120" t="n">
         <v>1000</v>
       </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4558,6 +5272,12 @@
       <c r="G121" t="n">
         <v>1000</v>
       </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4587,6 +5307,12 @@
       <c r="G122" t="n">
         <v>1000</v>
       </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4616,6 +5342,12 @@
       <c r="G123" t="n">
         <v>1000</v>
       </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4645,6 +5377,12 @@
       <c r="G124" t="n">
         <v>1000</v>
       </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4674,6 +5412,12 @@
       <c r="G125" t="n">
         <v>1000</v>
       </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4703,6 +5447,12 @@
       <c r="G126" t="n">
         <v>1000</v>
       </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4732,6 +5482,12 @@
       <c r="G127" t="n">
         <v>1000</v>
       </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4761,6 +5517,12 @@
       <c r="G128" t="n">
         <v>1000</v>
       </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4790,6 +5552,12 @@
       <c r="G129" t="n">
         <v>1000</v>
       </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4819,6 +5587,12 @@
       <c r="G130" t="n">
         <v>1000</v>
       </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4848,6 +5622,12 @@
       <c r="G131" t="n">
         <v>1000</v>
       </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4877,6 +5657,12 @@
       <c r="G132" t="n">
         <v>1000</v>
       </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4906,6 +5692,12 @@
       <c r="G133" t="n">
         <v>1000</v>
       </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4935,6 +5727,12 @@
       <c r="G134" t="n">
         <v>1000</v>
       </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4964,6 +5762,12 @@
       <c r="G135" t="n">
         <v>1000</v>
       </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4993,6 +5797,12 @@
       <c r="G136" t="n">
         <v>1000</v>
       </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5022,6 +5832,12 @@
       <c r="G137" t="n">
         <v>1000</v>
       </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5051,6 +5867,12 @@
       <c r="G138" t="n">
         <v>1000</v>
       </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5080,6 +5902,12 @@
       <c r="G139" t="n">
         <v>1000</v>
       </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5109,6 +5937,12 @@
       <c r="G140" t="n">
         <v>1000</v>
       </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5138,6 +5972,12 @@
       <c r="G141" t="n">
         <v>1000</v>
       </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5167,6 +6007,12 @@
       <c r="G142" t="n">
         <v>1000</v>
       </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5196,6 +6042,12 @@
       <c r="G143" t="n">
         <v>1000</v>
       </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5225,6 +6077,12 @@
       <c r="G144" t="n">
         <v>1000</v>
       </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5254,6 +6112,12 @@
       <c r="G145" t="n">
         <v>1000</v>
       </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5283,6 +6147,12 @@
       <c r="G146" t="n">
         <v>1000</v>
       </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5312,6 +6182,12 @@
       <c r="G147" t="n">
         <v>1000</v>
       </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5341,6 +6217,12 @@
       <c r="G148" t="n">
         <v>1000</v>
       </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5370,6 +6252,12 @@
       <c r="G149" t="n">
         <v>1000</v>
       </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5399,6 +6287,12 @@
       <c r="G150" t="n">
         <v>1000</v>
       </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5428,6 +6322,12 @@
       <c r="G151" t="n">
         <v>1000</v>
       </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5457,6 +6357,12 @@
       <c r="G152" t="n">
         <v>1000</v>
       </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5486,6 +6392,12 @@
       <c r="G153" t="n">
         <v>1000</v>
       </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5515,6 +6427,12 @@
       <c r="G154" t="n">
         <v>1000</v>
       </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5544,6 +6462,12 @@
       <c r="G155" t="n">
         <v>1000</v>
       </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5573,6 +6497,12 @@
       <c r="G156" t="n">
         <v>1000</v>
       </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5602,6 +6532,12 @@
       <c r="G157" t="n">
         <v>1000</v>
       </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5631,6 +6567,12 @@
       <c r="G158" t="n">
         <v>1000</v>
       </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5660,6 +6602,12 @@
       <c r="G159" t="n">
         <v>1000</v>
       </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5689,6 +6637,12 @@
       <c r="G160" t="n">
         <v>1000</v>
       </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5718,6 +6672,12 @@
       <c r="G161" t="n">
         <v>1000</v>
       </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5747,6 +6707,12 @@
       <c r="G162" t="n">
         <v>1000</v>
       </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5776,6 +6742,12 @@
       <c r="G163" t="n">
         <v>1000</v>
       </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5805,6 +6777,12 @@
       <c r="G164" t="n">
         <v>1000</v>
       </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5834,6 +6812,12 @@
       <c r="G165" t="n">
         <v>1000</v>
       </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5863,6 +6847,12 @@
       <c r="G166" t="n">
         <v>1000</v>
       </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5892,6 +6882,12 @@
       <c r="G167" t="n">
         <v>1000</v>
       </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5921,6 +6917,12 @@
       <c r="G168" t="n">
         <v>1000</v>
       </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5950,6 +6952,12 @@
       <c r="G169" t="n">
         <v>1000</v>
       </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5979,6 +6987,12 @@
       <c r="G170" t="n">
         <v>1000</v>
       </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6008,6 +7022,12 @@
       <c r="G171" t="n">
         <v>1000</v>
       </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6037,6 +7057,12 @@
       <c r="G172" t="n">
         <v>1000</v>
       </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6066,6 +7092,12 @@
       <c r="G173" t="n">
         <v>1000</v>
       </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6095,6 +7127,12 @@
       <c r="G174" t="n">
         <v>1000</v>
       </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6124,6 +7162,12 @@
       <c r="G175" t="n">
         <v>1000</v>
       </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6153,6 +7197,12 @@
       <c r="G176" t="n">
         <v>1000</v>
       </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6182,6 +7232,12 @@
       <c r="G177" t="n">
         <v>1000</v>
       </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6211,6 +7267,12 @@
       <c r="G178" t="n">
         <v>1000</v>
       </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6240,6 +7302,12 @@
       <c r="G179" t="n">
         <v>1000</v>
       </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6269,6 +7337,12 @@
       <c r="G180" t="n">
         <v>1000</v>
       </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6298,6 +7372,12 @@
       <c r="G181" t="n">
         <v>1000</v>
       </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6327,6 +7407,12 @@
       <c r="G182" t="n">
         <v>1000</v>
       </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6356,6 +7442,12 @@
       <c r="G183" t="n">
         <v>1000</v>
       </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6385,6 +7477,12 @@
       <c r="G184" t="n">
         <v>1000</v>
       </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6414,6 +7512,12 @@
       <c r="G185" t="n">
         <v>1000</v>
       </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6443,6 +7547,12 @@
       <c r="G186" t="n">
         <v>1000</v>
       </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6472,6 +7582,12 @@
       <c r="G187" t="n">
         <v>1000</v>
       </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6501,6 +7617,12 @@
       <c r="G188" t="n">
         <v>1000</v>
       </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6530,6 +7652,12 @@
       <c r="G189" t="n">
         <v>1000</v>
       </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6559,6 +7687,12 @@
       <c r="G190" t="n">
         <v>1000</v>
       </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6588,6 +7722,12 @@
       <c r="G191" t="n">
         <v>1000</v>
       </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6617,6 +7757,12 @@
       <c r="G192" t="n">
         <v>1000</v>
       </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6646,6 +7792,12 @@
       <c r="G193" t="n">
         <v>1000</v>
       </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6675,6 +7827,12 @@
       <c r="G194" t="n">
         <v>1000</v>
       </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6704,6 +7862,12 @@
       <c r="G195" t="n">
         <v>1000</v>
       </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6733,6 +7897,12 @@
       <c r="G196" t="n">
         <v>1000</v>
       </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6762,6 +7932,12 @@
       <c r="G197" t="n">
         <v>1000</v>
       </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6791,6 +7967,12 @@
       <c r="G198" t="n">
         <v>1000</v>
       </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6820,6 +8002,12 @@
       <c r="G199" t="n">
         <v>1000</v>
       </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6849,6 +8037,12 @@
       <c r="G200" t="n">
         <v>1000</v>
       </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6878,6 +8072,12 @@
       <c r="G201" t="n">
         <v>1000</v>
       </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6907,6 +8107,12 @@
       <c r="G202" t="n">
         <v>1000</v>
       </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6936,6 +8142,12 @@
       <c r="G203" t="n">
         <v>1000</v>
       </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6965,6 +8177,12 @@
       <c r="G204" t="n">
         <v>1000</v>
       </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6994,6 +8212,12 @@
       <c r="G205" t="n">
         <v>1000</v>
       </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7023,6 +8247,12 @@
       <c r="G206" t="n">
         <v>1000</v>
       </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7052,6 +8282,12 @@
       <c r="G207" t="n">
         <v>1000</v>
       </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7081,6 +8317,12 @@
       <c r="G208" t="n">
         <v>1000</v>
       </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7110,6 +8352,12 @@
       <c r="G209" t="n">
         <v>1000</v>
       </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7139,6 +8387,12 @@
       <c r="G210" t="n">
         <v>1000</v>
       </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7168,6 +8422,12 @@
       <c r="G211" t="n">
         <v>1000</v>
       </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7197,6 +8457,12 @@
       <c r="G212" t="n">
         <v>1000</v>
       </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7226,6 +8492,12 @@
       <c r="G213" t="n">
         <v>1000</v>
       </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7255,6 +8527,12 @@
       <c r="G214" t="n">
         <v>1000</v>
       </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7284,6 +8562,12 @@
       <c r="G215" t="n">
         <v>1000</v>
       </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7313,6 +8597,12 @@
       <c r="G216" t="n">
         <v>1000</v>
       </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7342,6 +8632,12 @@
       <c r="G217" t="n">
         <v>1000</v>
       </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7371,6 +8667,12 @@
       <c r="G218" t="n">
         <v>1000</v>
       </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7400,6 +8702,12 @@
       <c r="G219" t="n">
         <v>1000</v>
       </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7429,6 +8737,12 @@
       <c r="G220" t="n">
         <v>1000</v>
       </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7458,6 +8772,12 @@
       <c r="G221" t="n">
         <v>1000</v>
       </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7487,6 +8807,12 @@
       <c r="G222" t="n">
         <v>1000</v>
       </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7516,6 +8842,12 @@
       <c r="G223" t="n">
         <v>1000</v>
       </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7545,6 +8877,12 @@
       <c r="G224" t="n">
         <v>1000</v>
       </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7574,6 +8912,12 @@
       <c r="G225" t="n">
         <v>1000</v>
       </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7603,6 +8947,12 @@
       <c r="G226" t="n">
         <v>1000</v>
       </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7632,6 +8982,12 @@
       <c r="G227" t="n">
         <v>1000</v>
       </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7661,6 +9017,12 @@
       <c r="G228" t="n">
         <v>1000</v>
       </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7690,6 +9052,12 @@
       <c r="G229" t="n">
         <v>1000</v>
       </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7719,6 +9087,12 @@
       <c r="G230" t="n">
         <v>1000</v>
       </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7748,6 +9122,12 @@
       <c r="G231" t="n">
         <v>1000</v>
       </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7777,6 +9157,12 @@
       <c r="G232" t="n">
         <v>1000</v>
       </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7806,6 +9192,12 @@
       <c r="G233" t="n">
         <v>1000</v>
       </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7835,6 +9227,12 @@
       <c r="G234" t="n">
         <v>1000</v>
       </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7864,6 +9262,12 @@
       <c r="G235" t="n">
         <v>1000</v>
       </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7893,6 +9297,12 @@
       <c r="G236" t="n">
         <v>1000</v>
       </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7922,6 +9332,12 @@
       <c r="G237" t="n">
         <v>1000</v>
       </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7951,6 +9367,12 @@
       <c r="G238" t="n">
         <v>1000</v>
       </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7980,6 +9402,12 @@
       <c r="G239" t="n">
         <v>1000</v>
       </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8009,6 +9437,12 @@
       <c r="G240" t="n">
         <v>1000</v>
       </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8038,6 +9472,12 @@
       <c r="G241" t="n">
         <v>1000</v>
       </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8067,6 +9507,12 @@
       <c r="G242" t="n">
         <v>1000</v>
       </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8096,6 +9542,12 @@
       <c r="G243" t="n">
         <v>1000</v>
       </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8125,6 +9577,12 @@
       <c r="G244" t="n">
         <v>1000</v>
       </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8154,6 +9612,12 @@
       <c r="G245" t="n">
         <v>1000</v>
       </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8183,6 +9647,12 @@
       <c r="G246" t="n">
         <v>1000</v>
       </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -8212,6 +9682,12 @@
       <c r="G247" t="n">
         <v>1000</v>
       </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8241,6 +9717,12 @@
       <c r="G248" t="n">
         <v>1000</v>
       </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8270,6 +9752,12 @@
       <c r="G249" t="n">
         <v>1000</v>
       </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8299,6 +9787,12 @@
       <c r="G250" t="n">
         <v>1000</v>
       </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8328,6 +9822,12 @@
       <c r="G251" t="n">
         <v>1000</v>
       </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8357,6 +9857,12 @@
       <c r="G252" t="n">
         <v>1000</v>
       </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8386,6 +9892,12 @@
       <c r="G253" t="n">
         <v>1000</v>
       </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8415,6 +9927,12 @@
       <c r="G254" t="n">
         <v>1000</v>
       </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8444,6 +9962,12 @@
       <c r="G255" t="n">
         <v>1000</v>
       </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8473,6 +9997,12 @@
       <c r="G256" t="n">
         <v>1000</v>
       </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8502,6 +10032,12 @@
       <c r="G257" t="n">
         <v>1000</v>
       </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8531,6 +10067,12 @@
       <c r="G258" t="n">
         <v>1000</v>
       </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8560,6 +10102,12 @@
       <c r="G259" t="n">
         <v>1000</v>
       </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8589,6 +10137,12 @@
       <c r="G260" t="n">
         <v>1000</v>
       </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8618,6 +10172,12 @@
       <c r="G261" t="n">
         <v>1000</v>
       </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8647,6 +10207,12 @@
       <c r="G262" t="n">
         <v>1000</v>
       </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8676,6 +10242,12 @@
       <c r="G263" t="n">
         <v>1000</v>
       </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8705,6 +10277,12 @@
       <c r="G264" t="n">
         <v>1000</v>
       </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8734,6 +10312,12 @@
       <c r="G265" t="n">
         <v>1000</v>
       </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8763,6 +10347,12 @@
       <c r="G266" t="n">
         <v>1000</v>
       </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8792,6 +10382,12 @@
       <c r="G267" t="n">
         <v>1000</v>
       </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8821,6 +10417,12 @@
       <c r="G268" t="n">
         <v>1000</v>
       </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8850,6 +10452,12 @@
       <c r="G269" t="n">
         <v>1000</v>
       </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8879,6 +10487,12 @@
       <c r="G270" t="n">
         <v>1000</v>
       </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8908,6 +10522,12 @@
       <c r="G271" t="n">
         <v>1000</v>
       </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8937,6 +10557,12 @@
       <c r="G272" t="n">
         <v>1000</v>
       </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8966,6 +10592,12 @@
       <c r="G273" t="n">
         <v>1000</v>
       </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8995,6 +10627,12 @@
       <c r="G274" t="n">
         <v>1000</v>
       </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9024,6 +10662,12 @@
       <c r="G275" t="n">
         <v>1000</v>
       </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9053,6 +10697,12 @@
       <c r="G276" t="n">
         <v>1000</v>
       </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9082,6 +10732,12 @@
       <c r="G277" t="n">
         <v>1000</v>
       </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -9111,6 +10767,12 @@
       <c r="G278" t="n">
         <v>1000</v>
       </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -9140,6 +10802,12 @@
       <c r="G279" t="n">
         <v>1000</v>
       </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -9169,6 +10837,12 @@
       <c r="G280" t="n">
         <v>1000</v>
       </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9198,6 +10872,12 @@
       <c r="G281" t="n">
         <v>1000</v>
       </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -9227,6 +10907,12 @@
       <c r="G282" t="n">
         <v>1000</v>
       </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -9256,6 +10942,12 @@
       <c r="G283" t="n">
         <v>1000</v>
       </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -9285,6 +10977,12 @@
       <c r="G284" t="n">
         <v>1000</v>
       </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -9314,6 +11012,12 @@
       <c r="G285" t="n">
         <v>1000</v>
       </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -9343,6 +11047,12 @@
       <c r="G286" t="n">
         <v>1000</v>
       </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -9372,6 +11082,12 @@
       <c r="G287" t="n">
         <v>1000</v>
       </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -9401,6 +11117,12 @@
       <c r="G288" t="n">
         <v>1000</v>
       </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -9430,6 +11152,12 @@
       <c r="G289" t="n">
         <v>1000</v>
       </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -9459,6 +11187,12 @@
       <c r="G290" t="n">
         <v>1000</v>
       </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -9488,6 +11222,12 @@
       <c r="G291" t="n">
         <v>1000</v>
       </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -9517,6 +11257,12 @@
       <c r="G292" t="n">
         <v>1000</v>
       </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -9546,6 +11292,12 @@
       <c r="G293" t="n">
         <v>1000</v>
       </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -9575,6 +11327,12 @@
       <c r="G294" t="n">
         <v>1000</v>
       </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -9604,6 +11362,12 @@
       <c r="G295" t="n">
         <v>1000</v>
       </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -9633,6 +11397,12 @@
       <c r="G296" t="n">
         <v>1000</v>
       </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -9662,6 +11432,12 @@
       <c r="G297" t="n">
         <v>1000</v>
       </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -9691,6 +11467,12 @@
       <c r="G298" t="n">
         <v>1000</v>
       </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -9720,6 +11502,12 @@
       <c r="G299" t="n">
         <v>1000</v>
       </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -9749,6 +11537,12 @@
       <c r="G300" t="n">
         <v>1000</v>
       </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -9778,6 +11572,12 @@
       <c r="G301" t="n">
         <v>1000</v>
       </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -9807,6 +11607,12 @@
       <c r="G302" t="n">
         <v>1000</v>
       </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -9836,6 +11642,12 @@
       <c r="G303" t="n">
         <v>1000</v>
       </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -9865,6 +11677,12 @@
       <c r="G304" t="n">
         <v>1000</v>
       </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -9894,6 +11712,12 @@
       <c r="G305" t="n">
         <v>1000</v>
       </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -9923,6 +11747,12 @@
       <c r="G306" t="n">
         <v>1000</v>
       </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -9952,6 +11782,12 @@
       <c r="G307" t="n">
         <v>1000</v>
       </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -9981,6 +11817,12 @@
       <c r="G308" t="n">
         <v>1000</v>
       </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -10010,6 +11852,12 @@
       <c r="G309" t="n">
         <v>1000</v>
       </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -10039,6 +11887,12 @@
       <c r="G310" t="n">
         <v>1000</v>
       </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -10068,6 +11922,12 @@
       <c r="G311" t="n">
         <v>1000</v>
       </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -10097,6 +11957,12 @@
       <c r="G312" t="n">
         <v>1000</v>
       </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -10126,6 +11992,12 @@
       <c r="G313" t="n">
         <v>1000</v>
       </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -10155,6 +12027,12 @@
       <c r="G314" t="n">
         <v>1000</v>
       </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -10184,6 +12062,12 @@
       <c r="G315" t="n">
         <v>1000</v>
       </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -10213,6 +12097,12 @@
       <c r="G316" t="n">
         <v>1000</v>
       </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -10242,6 +12132,12 @@
       <c r="G317" t="n">
         <v>1000</v>
       </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -10271,6 +12167,12 @@
       <c r="G318" t="n">
         <v>1000</v>
       </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -10300,6 +12202,12 @@
       <c r="G319" t="n">
         <v>1000</v>
       </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -10329,6 +12237,12 @@
       <c r="G320" t="n">
         <v>1000</v>
       </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -10358,6 +12272,12 @@
       <c r="G321" t="n">
         <v>1000</v>
       </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -10387,6 +12307,12 @@
       <c r="G322" t="n">
         <v>1000</v>
       </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -10416,6 +12342,12 @@
       <c r="G323" t="n">
         <v>1000</v>
       </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -10445,6 +12377,12 @@
       <c r="G324" t="n">
         <v>1000</v>
       </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -10474,6 +12412,12 @@
       <c r="G325" t="n">
         <v>1000</v>
       </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -10503,6 +12447,12 @@
       <c r="G326" t="n">
         <v>1000</v>
       </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -10532,6 +12482,12 @@
       <c r="G327" t="n">
         <v>1000</v>
       </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -10561,6 +12517,12 @@
       <c r="G328" t="n">
         <v>1000</v>
       </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -10590,6 +12552,12 @@
       <c r="G329" t="n">
         <v>1000</v>
       </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -10619,6 +12587,12 @@
       <c r="G330" t="n">
         <v>1000</v>
       </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -10648,6 +12622,12 @@
       <c r="G331" t="n">
         <v>1000</v>
       </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -10677,6 +12657,12 @@
       <c r="G332" t="n">
         <v>1000</v>
       </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -10706,6 +12692,12 @@
       <c r="G333" t="n">
         <v>1000</v>
       </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -10735,6 +12727,12 @@
       <c r="G334" t="n">
         <v>1000</v>
       </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -10764,6 +12762,12 @@
       <c r="G335" t="n">
         <v>1000</v>
       </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -10793,6 +12797,12 @@
       <c r="G336" t="n">
         <v>1000</v>
       </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -10822,6 +12832,12 @@
       <c r="G337" t="n">
         <v>1000</v>
       </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -10851,6 +12867,12 @@
       <c r="G338" t="n">
         <v>1000</v>
       </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -10880,6 +12902,12 @@
       <c r="G339" t="n">
         <v>1000</v>
       </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -10909,6 +12937,12 @@
       <c r="G340" t="n">
         <v>1000</v>
       </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -10938,6 +12972,12 @@
       <c r="G341" t="n">
         <v>1000</v>
       </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -10967,6 +13007,12 @@
       <c r="G342" t="n">
         <v>1000</v>
       </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -10996,6 +13042,12 @@
       <c r="G343" t="n">
         <v>1000</v>
       </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -11025,6 +13077,12 @@
       <c r="G344" t="n">
         <v>1000</v>
       </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -11054,6 +13112,12 @@
       <c r="G345" t="n">
         <v>1000</v>
       </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -11083,6 +13147,12 @@
       <c r="G346" t="n">
         <v>1000</v>
       </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -11112,6 +13182,12 @@
       <c r="G347" t="n">
         <v>1000</v>
       </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -11141,6 +13217,12 @@
       <c r="G348" t="n">
         <v>1000</v>
       </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -11170,6 +13252,12 @@
       <c r="G349" t="n">
         <v>1000</v>
       </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -11199,6 +13287,12 @@
       <c r="G350" t="n">
         <v>1000</v>
       </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -11228,6 +13322,12 @@
       <c r="G351" t="n">
         <v>100</v>
       </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -11257,6 +13357,12 @@
       <c r="G352" t="n">
         <v>100</v>
       </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -11286,6 +13392,12 @@
       <c r="G353" t="n">
         <v>100</v>
       </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -11315,6 +13427,12 @@
       <c r="G354" t="n">
         <v>100</v>
       </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -11344,6 +13462,12 @@
       <c r="G355" t="n">
         <v>1000</v>
       </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -11373,6 +13497,12 @@
       <c r="G356" t="n">
         <v>1000</v>
       </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -11402,6 +13532,12 @@
       <c r="G357" t="n">
         <v>100</v>
       </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -11431,6 +13567,12 @@
       <c r="G358" t="n">
         <v>1000</v>
       </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -11460,6 +13602,12 @@
       <c r="G359" t="n">
         <v>100</v>
       </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -11489,6 +13637,12 @@
       <c r="G360" t="n">
         <v>1000</v>
       </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -11518,6 +13672,12 @@
       <c r="G361" t="n">
         <v>1000</v>
       </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -11547,6 +13707,12 @@
       <c r="G362" t="n">
         <v>100</v>
       </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -11576,6 +13742,12 @@
       <c r="G363" t="n">
         <v>1000</v>
       </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -11605,6 +13777,12 @@
       <c r="G364" t="n">
         <v>1000</v>
       </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -11634,6 +13812,12 @@
       <c r="G365" t="n">
         <v>1000</v>
       </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -11663,6 +13847,12 @@
       <c r="G366" t="n">
         <v>1000</v>
       </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -11692,6 +13882,12 @@
       <c r="G367" t="n">
         <v>1000</v>
       </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -11721,6 +13917,12 @@
       <c r="G368" t="n">
         <v>1000</v>
       </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -11750,6 +13952,12 @@
       <c r="G369" t="n">
         <v>1000</v>
       </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -11779,6 +13987,12 @@
       <c r="G370" t="n">
         <v>1000</v>
       </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -11808,6 +14022,12 @@
       <c r="G371" t="n">
         <v>1000</v>
       </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -11837,6 +14057,12 @@
       <c r="G372" t="n">
         <v>1000</v>
       </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -11866,6 +14092,12 @@
       <c r="G373" t="n">
         <v>1000</v>
       </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -11895,6 +14127,12 @@
       <c r="G374" t="n">
         <v>1000</v>
       </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -11924,6 +14162,12 @@
       <c r="G375" t="n">
         <v>1000</v>
       </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -11953,6 +14197,12 @@
       <c r="G376" t="n">
         <v>1000</v>
       </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -11982,6 +14232,12 @@
       <c r="G377" t="n">
         <v>1000</v>
       </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -12011,6 +14267,12 @@
       <c r="G378" t="n">
         <v>1000</v>
       </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -12040,6 +14302,12 @@
       <c r="G379" t="n">
         <v>1000</v>
       </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -12069,6 +14337,12 @@
       <c r="G380" t="n">
         <v>1000</v>
       </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -12098,6 +14372,12 @@
       <c r="G381" t="n">
         <v>1000</v>
       </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -12127,6 +14407,12 @@
       <c r="G382" t="n">
         <v>1000</v>
       </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -12156,6 +14442,12 @@
       <c r="G383" t="n">
         <v>1000</v>
       </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -12185,6 +14477,12 @@
       <c r="G384" t="n">
         <v>1000</v>
       </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -12214,6 +14512,12 @@
       <c r="G385" t="n">
         <v>1000</v>
       </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -12243,6 +14547,12 @@
       <c r="G386" t="n">
         <v>100</v>
       </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -12272,6 +14582,12 @@
       <c r="G387" t="n">
         <v>1000</v>
       </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -12301,6 +14617,12 @@
       <c r="G388" t="n">
         <v>100</v>
       </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -12330,6 +14652,12 @@
       <c r="G389" t="n">
         <v>1000</v>
       </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -12359,6 +14687,12 @@
       <c r="G390" t="n">
         <v>1000</v>
       </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -12388,6 +14722,12 @@
       <c r="G391" t="n">
         <v>1000</v>
       </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -12417,6 +14757,12 @@
       <c r="G392" t="n">
         <v>1000</v>
       </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -12446,6 +14792,12 @@
       <c r="G393" t="n">
         <v>1000</v>
       </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -12475,6 +14827,12 @@
       <c r="G394" t="n">
         <v>1000</v>
       </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -12504,6 +14862,12 @@
       <c r="G395" t="n">
         <v>1000</v>
       </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -12533,6 +14897,12 @@
       <c r="G396" t="n">
         <v>1000</v>
       </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -12562,6 +14932,12 @@
       <c r="G397" t="n">
         <v>1000</v>
       </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -12591,6 +14967,12 @@
       <c r="G398" t="n">
         <v>1000</v>
       </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -12620,6 +15002,12 @@
       <c r="G399" t="n">
         <v>1000</v>
       </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -12649,6 +15037,12 @@
       <c r="G400" t="n">
         <v>1000</v>
       </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -12678,6 +15072,12 @@
       <c r="G401" t="n">
         <v>1000</v>
       </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -12707,6 +15107,12 @@
       <c r="G402" t="n">
         <v>1000</v>
       </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -12736,6 +15142,12 @@
       <c r="G403" t="n">
         <v>1000</v>
       </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -12765,6 +15177,12 @@
       <c r="G404" t="n">
         <v>1000</v>
       </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -12794,6 +15212,12 @@
       <c r="G405" t="n">
         <v>1000</v>
       </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -12823,6 +15247,12 @@
       <c r="G406" t="n">
         <v>1000</v>
       </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -12852,6 +15282,12 @@
       <c r="G407" t="n">
         <v>1000</v>
       </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -12881,6 +15317,12 @@
       <c r="G408" t="n">
         <v>1000</v>
       </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -12910,6 +15352,12 @@
       <c r="G409" t="n">
         <v>1000</v>
       </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -12939,6 +15387,12 @@
       <c r="G410" t="n">
         <v>1000</v>
       </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -12968,6 +15422,12 @@
       <c r="G411" t="n">
         <v>1000</v>
       </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -12997,6 +15457,12 @@
       <c r="G412" t="n">
         <v>1000</v>
       </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -13026,6 +15492,12 @@
       <c r="G413" t="n">
         <v>1000</v>
       </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -13055,6 +15527,12 @@
       <c r="G414" t="n">
         <v>1000</v>
       </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -13084,6 +15562,12 @@
       <c r="G415" t="n">
         <v>1000</v>
       </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -13113,6 +15597,12 @@
       <c r="G416" t="n">
         <v>1000</v>
       </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -13142,6 +15632,12 @@
       <c r="G417" t="n">
         <v>1000</v>
       </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -13171,6 +15667,12 @@
       <c r="G418" t="n">
         <v>1000</v>
       </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -13200,6 +15702,12 @@
       <c r="G419" t="n">
         <v>1000</v>
       </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -13229,6 +15737,12 @@
       <c r="G420" t="n">
         <v>1000</v>
       </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -13258,6 +15772,12 @@
       <c r="G421" t="n">
         <v>1000</v>
       </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -13287,6 +15807,12 @@
       <c r="G422" t="n">
         <v>1000</v>
       </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -13316,6 +15842,12 @@
       <c r="G423" t="n">
         <v>1000</v>
       </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -13345,6 +15877,12 @@
       <c r="G424" t="n">
         <v>1000</v>
       </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -13374,6 +15912,12 @@
       <c r="G425" t="n">
         <v>1000</v>
       </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -13403,6 +15947,12 @@
       <c r="G426" t="n">
         <v>1000</v>
       </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -13432,6 +15982,12 @@
       <c r="G427" t="n">
         <v>1000</v>
       </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -13461,6 +16017,12 @@
       <c r="G428" t="n">
         <v>1000</v>
       </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -13490,6 +16052,12 @@
       <c r="G429" t="n">
         <v>1000</v>
       </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -13519,6 +16087,12 @@
       <c r="G430" t="n">
         <v>1000</v>
       </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -13548,6 +16122,12 @@
       <c r="G431" t="n">
         <v>1000</v>
       </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -13577,6 +16157,12 @@
       <c r="G432" t="n">
         <v>1000</v>
       </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -13606,6 +16192,12 @@
       <c r="G433" t="n">
         <v>1000</v>
       </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -13635,6 +16227,12 @@
       <c r="G434" t="n">
         <v>1000</v>
       </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -13664,6 +16262,12 @@
       <c r="G435" t="n">
         <v>1000</v>
       </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -13693,6 +16297,12 @@
       <c r="G436" t="n">
         <v>1000</v>
       </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -13722,6 +16332,12 @@
       <c r="G437" t="n">
         <v>1000</v>
       </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -13751,6 +16367,12 @@
       <c r="G438" t="n">
         <v>1000</v>
       </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -13780,6 +16402,12 @@
       <c r="G439" t="n">
         <v>1000</v>
       </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -13809,6 +16437,12 @@
       <c r="G440" t="n">
         <v>1000</v>
       </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -13838,6 +16472,12 @@
       <c r="G441" t="n">
         <v>1000</v>
       </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -13867,6 +16507,12 @@
       <c r="G442" t="n">
         <v>1000</v>
       </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -13896,6 +16542,12 @@
       <c r="G443" t="n">
         <v>1000</v>
       </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -13925,6 +16577,12 @@
       <c r="G444" t="n">
         <v>1000</v>
       </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -13954,6 +16612,12 @@
       <c r="G445" t="n">
         <v>1000</v>
       </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -13983,6 +16647,12 @@
       <c r="G446" t="n">
         <v>1000</v>
       </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -14012,6 +16682,12 @@
       <c r="G447" t="n">
         <v>1000</v>
       </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -14041,6 +16717,12 @@
       <c r="G448" t="n">
         <v>1000</v>
       </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -14070,6 +16752,12 @@
       <c r="G449" t="n">
         <v>1000</v>
       </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -14099,6 +16787,12 @@
       <c r="G450" t="n">
         <v>1000</v>
       </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -14128,6 +16822,12 @@
       <c r="G451" t="n">
         <v>1000</v>
       </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -14157,6 +16857,12 @@
       <c r="G452" t="n">
         <v>1000</v>
       </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -14186,6 +16892,12 @@
       <c r="G453" t="n">
         <v>1000</v>
       </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -14215,6 +16927,12 @@
       <c r="G454" t="n">
         <v>1000</v>
       </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -14244,6 +16962,12 @@
       <c r="G455" t="n">
         <v>1000</v>
       </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -14273,6 +16997,12 @@
       <c r="G456" t="n">
         <v>1000</v>
       </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -14302,6 +17032,12 @@
       <c r="G457" t="n">
         <v>1000</v>
       </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -14331,6 +17067,12 @@
       <c r="G458" t="n">
         <v>1000</v>
       </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -14360,6 +17102,12 @@
       <c r="G459" t="n">
         <v>1000</v>
       </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -14389,6 +17137,12 @@
       <c r="G460" t="n">
         <v>1000</v>
       </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -14418,6 +17172,12 @@
       <c r="G461" t="n">
         <v>1000</v>
       </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -14447,6 +17207,12 @@
       <c r="G462" t="n">
         <v>1000</v>
       </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -14476,6 +17242,12 @@
       <c r="G463" t="n">
         <v>1000</v>
       </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -14505,6 +17277,12 @@
       <c r="G464" t="n">
         <v>1000</v>
       </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -14534,6 +17312,12 @@
       <c r="G465" t="n">
         <v>1000</v>
       </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -14563,6 +17347,12 @@
       <c r="G466" t="n">
         <v>1000</v>
       </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -14592,6 +17382,12 @@
       <c r="G467" t="n">
         <v>1000</v>
       </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -14621,6 +17417,12 @@
       <c r="G468" t="n">
         <v>1000</v>
       </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -14650,6 +17452,12 @@
       <c r="G469" t="n">
         <v>1000</v>
       </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -14679,6 +17487,12 @@
       <c r="G470" t="n">
         <v>1000</v>
       </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -14708,6 +17522,12 @@
       <c r="G471" t="n">
         <v>1000</v>
       </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -14737,6 +17557,12 @@
       <c r="G472" t="n">
         <v>1000</v>
       </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -14766,6 +17592,12 @@
       <c r="G473" t="n">
         <v>1000</v>
       </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -14795,6 +17627,12 @@
       <c r="G474" t="n">
         <v>1000</v>
       </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -14824,6 +17662,12 @@
       <c r="G475" t="n">
         <v>1000</v>
       </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -14853,6 +17697,12 @@
       <c r="G476" t="n">
         <v>1000</v>
       </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -14882,6 +17732,12 @@
       <c r="G477" t="n">
         <v>1000</v>
       </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -14911,6 +17767,12 @@
       <c r="G478" t="n">
         <v>1000</v>
       </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -14940,6 +17802,12 @@
       <c r="G479" t="n">
         <v>1000</v>
       </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -14969,6 +17837,12 @@
       <c r="G480" t="n">
         <v>1000</v>
       </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -14998,6 +17872,12 @@
       <c r="G481" t="n">
         <v>1000</v>
       </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -15027,6 +17907,12 @@
       <c r="G482" t="n">
         <v>1000</v>
       </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -15056,6 +17942,12 @@
       <c r="G483" t="n">
         <v>1000</v>
       </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -15085,6 +17977,12 @@
       <c r="G484" t="n">
         <v>1000</v>
       </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -15114,6 +18012,12 @@
       <c r="G485" t="n">
         <v>1000</v>
       </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -15143,6 +18047,12 @@
       <c r="G486" t="n">
         <v>1000</v>
       </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -15172,6 +18082,12 @@
       <c r="G487" t="n">
         <v>1000</v>
       </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -15201,6 +18117,12 @@
       <c r="G488" t="n">
         <v>1000</v>
       </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -15230,6 +18152,12 @@
       <c r="G489" t="n">
         <v>1000</v>
       </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -15259,6 +18187,12 @@
       <c r="G490" t="n">
         <v>1000</v>
       </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -15288,6 +18222,12 @@
       <c r="G491" t="n">
         <v>1000</v>
       </c>
+      <c r="H491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -15317,6 +18257,12 @@
       <c r="G492" t="n">
         <v>1000</v>
       </c>
+      <c r="H492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -15346,6 +18292,12 @@
       <c r="G493" t="n">
         <v>1000</v>
       </c>
+      <c r="H493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -15375,6 +18327,12 @@
       <c r="G494" t="n">
         <v>1000</v>
       </c>
+      <c r="H494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -15404,6 +18362,12 @@
       <c r="G495" t="n">
         <v>1000</v>
       </c>
+      <c r="H495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -15433,6 +18397,12 @@
       <c r="G496" t="n">
         <v>1000</v>
       </c>
+      <c r="H496" t="n">
+        <v>0</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -15462,6 +18432,12 @@
       <c r="G497" t="n">
         <v>1000</v>
       </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -15491,6 +18467,12 @@
       <c r="G498" t="n">
         <v>1000</v>
       </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -15520,6 +18502,12 @@
       <c r="G499" t="n">
         <v>1000</v>
       </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -15549,6 +18537,12 @@
       <c r="G500" t="n">
         <v>1000</v>
       </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -15578,6 +18572,12 @@
       <c r="G501" t="n">
         <v>1000</v>
       </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -15607,6 +18607,12 @@
       <c r="G502" t="n">
         <v>1000</v>
       </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -15636,6 +18642,12 @@
       <c r="G503" t="n">
         <v>1000</v>
       </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -15665,6 +18677,12 @@
       <c r="G504" t="n">
         <v>1000</v>
       </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -15694,6 +18712,12 @@
       <c r="G505" t="n">
         <v>1000</v>
       </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -15723,6 +18747,12 @@
       <c r="G506" t="n">
         <v>1000</v>
       </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -15752,6 +18782,12 @@
       <c r="G507" t="n">
         <v>1000</v>
       </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -15781,6 +18817,12 @@
       <c r="G508" t="n">
         <v>1000</v>
       </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -15810,6 +18852,12 @@
       <c r="G509" t="n">
         <v>1000</v>
       </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -15839,6 +18887,12 @@
       <c r="G510" t="n">
         <v>1000</v>
       </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -15868,6 +18922,12 @@
       <c r="G511" t="n">
         <v>1000</v>
       </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -15897,6 +18957,12 @@
       <c r="G512" t="n">
         <v>1000</v>
       </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -15926,6 +18992,12 @@
       <c r="G513" t="n">
         <v>1000</v>
       </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -15955,6 +19027,12 @@
       <c r="G514" t="n">
         <v>1000</v>
       </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -15984,6 +19062,12 @@
       <c r="G515" t="n">
         <v>1000</v>
       </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -16013,6 +19097,12 @@
       <c r="G516" t="n">
         <v>1000</v>
       </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -16042,6 +19132,12 @@
       <c r="G517" t="n">
         <v>1000</v>
       </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -16071,6 +19167,12 @@
       <c r="G518" t="n">
         <v>1000</v>
       </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -16100,6 +19202,12 @@
       <c r="G519" t="n">
         <v>1000</v>
       </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -16129,6 +19237,12 @@
       <c r="G520" t="n">
         <v>1000</v>
       </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -16158,6 +19272,12 @@
       <c r="G521" t="n">
         <v>1000</v>
       </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -16187,6 +19307,12 @@
       <c r="G522" t="n">
         <v>1000</v>
       </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -16216,6 +19342,12 @@
       <c r="G523" t="n">
         <v>1000</v>
       </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -16245,6 +19377,12 @@
       <c r="G524" t="n">
         <v>1000</v>
       </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -16274,6 +19412,12 @@
       <c r="G525" t="n">
         <v>1000</v>
       </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -16303,6 +19447,12 @@
       <c r="G526" t="n">
         <v>1000</v>
       </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -16332,6 +19482,12 @@
       <c r="G527" t="n">
         <v>1000</v>
       </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -16361,6 +19517,12 @@
       <c r="G528" t="n">
         <v>1000</v>
       </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -16390,6 +19552,12 @@
       <c r="G529" t="n">
         <v>1000</v>
       </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -16419,6 +19587,12 @@
       <c r="G530" t="n">
         <v>1000</v>
       </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -16448,6 +19622,12 @@
       <c r="G531" t="n">
         <v>1000</v>
       </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -16477,6 +19657,12 @@
       <c r="G532" t="n">
         <v>1000</v>
       </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -16506,6 +19692,12 @@
       <c r="G533" t="n">
         <v>1000</v>
       </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -16535,6 +19727,12 @@
       <c r="G534" t="n">
         <v>1000</v>
       </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -16564,6 +19762,12 @@
       <c r="G535" t="n">
         <v>1000</v>
       </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -16593,6 +19797,12 @@
       <c r="G536" t="n">
         <v>1000</v>
       </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -16622,6 +19832,12 @@
       <c r="G537" t="n">
         <v>1000</v>
       </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -16651,6 +19867,12 @@
       <c r="G538" t="n">
         <v>1000</v>
       </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -16680,6 +19902,12 @@
       <c r="G539" t="n">
         <v>1000</v>
       </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -16709,6 +19937,12 @@
       <c r="G540" t="n">
         <v>1000</v>
       </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -16738,6 +19972,12 @@
       <c r="G541" t="n">
         <v>1000</v>
       </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -16767,6 +20007,12 @@
       <c r="G542" t="n">
         <v>1000</v>
       </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -16796,6 +20042,12 @@
       <c r="G543" t="n">
         <v>1000</v>
       </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -16825,6 +20077,12 @@
       <c r="G544" t="n">
         <v>1000</v>
       </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -16854,6 +20112,12 @@
       <c r="G545" t="n">
         <v>1000</v>
       </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -16883,6 +20147,12 @@
       <c r="G546" t="n">
         <v>1000</v>
       </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -16912,6 +20182,12 @@
       <c r="G547" t="n">
         <v>1000</v>
       </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -16941,6 +20217,12 @@
       <c r="G548" t="n">
         <v>1000</v>
       </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -16970,6 +20252,12 @@
       <c r="G549" t="n">
         <v>1000</v>
       </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -16999,6 +20287,12 @@
       <c r="G550" t="n">
         <v>1000</v>
       </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -17028,6 +20322,12 @@
       <c r="G551" t="n">
         <v>1000</v>
       </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -17057,6 +20357,12 @@
       <c r="G552" t="n">
         <v>1000</v>
       </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -17086,6 +20392,12 @@
       <c r="G553" t="n">
         <v>1000</v>
       </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -17115,6 +20427,12 @@
       <c r="G554" t="n">
         <v>1000</v>
       </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -17144,6 +20462,12 @@
       <c r="G555" t="n">
         <v>1000</v>
       </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -17173,6 +20497,12 @@
       <c r="G556" t="n">
         <v>1000</v>
       </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -17202,6 +20532,12 @@
       <c r="G557" t="n">
         <v>1000</v>
       </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -17231,6 +20567,12 @@
       <c r="G558" t="n">
         <v>1000</v>
       </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -17260,6 +20602,12 @@
       <c r="G559" t="n">
         <v>1000</v>
       </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -17289,6 +20637,12 @@
       <c r="G560" t="n">
         <v>1000</v>
       </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -17318,6 +20672,12 @@
       <c r="G561" t="n">
         <v>1000</v>
       </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -17347,6 +20707,12 @@
       <c r="G562" t="n">
         <v>1000</v>
       </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -17376,6 +20742,12 @@
       <c r="G563" t="n">
         <v>1000</v>
       </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -17405,6 +20777,12 @@
       <c r="G564" t="n">
         <v>1000</v>
       </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -17434,6 +20812,12 @@
       <c r="G565" t="n">
         <v>1000</v>
       </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -17463,6 +20847,12 @@
       <c r="G566" t="n">
         <v>1000</v>
       </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -17492,6 +20882,12 @@
       <c r="G567" t="n">
         <v>1000</v>
       </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -17521,6 +20917,12 @@
       <c r="G568" t="n">
         <v>1000</v>
       </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -17550,6 +20952,12 @@
       <c r="G569" t="n">
         <v>1000</v>
       </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -17579,6 +20987,12 @@
       <c r="G570" t="n">
         <v>1000</v>
       </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -17608,6 +21022,12 @@
       <c r="G571" t="n">
         <v>1000</v>
       </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -17637,6 +21057,12 @@
       <c r="G572" t="n">
         <v>1000</v>
       </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -17666,6 +21092,12 @@
       <c r="G573" t="n">
         <v>1000</v>
       </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -17695,6 +21127,12 @@
       <c r="G574" t="n">
         <v>1000</v>
       </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -17724,6 +21162,12 @@
       <c r="G575" t="n">
         <v>1000</v>
       </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -17753,6 +21197,12 @@
       <c r="G576" t="n">
         <v>1000</v>
       </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -17782,6 +21232,12 @@
       <c r="G577" t="n">
         <v>1000</v>
       </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -17811,6 +21267,12 @@
       <c r="G578" t="n">
         <v>1000</v>
       </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -17840,6 +21302,12 @@
       <c r="G579" t="n">
         <v>1000</v>
       </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -17869,6 +21337,12 @@
       <c r="G580" t="n">
         <v>1000</v>
       </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -17898,6 +21372,12 @@
       <c r="G581" t="n">
         <v>1000</v>
       </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -17927,6 +21407,12 @@
       <c r="G582" t="n">
         <v>1000</v>
       </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -17956,6 +21442,12 @@
       <c r="G583" t="n">
         <v>1000</v>
       </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -17980,6 +21472,15 @@
         </is>
       </c>
       <c r="F584" t="b">
+        <v>0</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I584"/>
+  <dimension ref="A1:I633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_起身</t>
+          <t>M01狼人_起身</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_通用Foley_跑</t>
+          <t>M01狼人_通用Foley_跑</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_变身入战</t>
+          <t>M01狼人_shoutvoice_变身入战</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_威胁grunt</t>
+          <t>M01狼人_shoutvoice_威胁grunt</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_重受击</t>
+          <t>M01狼人_shoutvoice_重受击</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_轻死亡</t>
+          <t>M01狼人_shoutvoice_轻死亡</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_倒地后起身</t>
+          <t>M01狼人_shoutvoice_倒地后起身</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_冲刺</t>
+          <t>M01狼人_shoutvoice_冲刺</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_轻攻击</t>
+          <t>M01狼人_shoutvoice_轻攻击</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_重攻击</t>
+          <t>M01狼人_shoutvoice_重攻击</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_下攻击</t>
+          <t>M01狼人_shoutvoice_下攻击</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_位移（垫步）</t>
+          <t>M01狼人_shoutvoice_位移（垫步）</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_技能1</t>
+          <t>M01狼人_技能1_起手</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_技能2</t>
+          <t>M01狼人_技能2_起手</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_垫步</t>
+          <t>M01狼人_垫步</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_死亡_原地死亡</t>
+          <t>M01狼人_死亡_原地死亡</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_action_跑</t>
+          <t>M02僵尸蜡烛人_action_跑</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_action_死亡倒地</t>
+          <t>M02僵尸蜡烛人_action_死亡倒地</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_action_起身</t>
+          <t>M02僵尸蜡烛人_action_起身</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_action_通用倒地非死亡</t>
+          <t>M02僵尸蜡烛人_action_通用倒地非死亡</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_shout_轻攻击</t>
+          <t>M02僵尸蜡烛人_shout_轻攻击</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_shout_重攻击</t>
+          <t>M02僵尸蜡烛人_shout_重攻击</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_shout_重受击</t>
+          <t>M02僵尸蜡烛人_shout_重受击</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_shout_轻死亡</t>
+          <t>M02僵尸蜡烛人_shout_轻死亡</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_shout_Struggle，用于SK11</t>
+          <t>M02僵尸蜡烛人_shout_Struggle，用于SK11</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_入战表现</t>
+          <t>M02僵尸蜡烛人_入战表现</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_技能1</t>
+          <t>M02僵尸蜡烛人_技能1</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_技能2</t>
+          <t>M02僵尸蜡烛人_技能2</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_技能3</t>
+          <t>M02僵尸蜡烛人_技能3</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_技能4</t>
+          <t>M02僵尸蜡烛人_技能4</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_Die_死亡倒地</t>
+          <t>M02僵尸蜡烛人_Die_死亡倒地</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_shoutvoice_喘气/低鸣</t>
+          <t>M01狼人_shoutvoice_喘气/低鸣</t>
         </is>
       </c>
       <c r="F451" t="b">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_shout_Idle</t>
+          <t>M02僵尸蜡烛人_shout_Idle</t>
         </is>
       </c>
       <c r="F452" t="b">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能1_出招</t>
+          <t>M04无头骑士_技能1_起手</t>
         </is>
       </c>
       <c r="F461" t="b">
@@ -17233,7 +17233,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能2_出招</t>
+          <t>M04无头骑士_技能2_起手</t>
         </is>
       </c>
       <c r="F463" t="b">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能3_出招</t>
+          <t>M04无头骑士_技能3_起手</t>
         </is>
       </c>
       <c r="F465" t="b">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能4</t>
+          <t>M04无头骑士_技能4_后撤</t>
         </is>
       </c>
       <c r="F467" t="b">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5</t>
+          <t>M04无头骑士_技能5_起手</t>
         </is>
       </c>
       <c r="F468" t="b">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能6_出招</t>
+          <t>M04无头骑士_技能6_起手</t>
         </is>
       </c>
       <c r="F469" t="b">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_技能3</t>
+          <t>M01狼人_技能3_起手</t>
         </is>
       </c>
       <c r="F480" t="b">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_技能4</t>
+          <t>M01狼人_技能4</t>
         </is>
       </c>
       <c r="F481" t="b">
@@ -17898,7 +17898,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_技能5</t>
+          <t>M01狼人_技能5_起手</t>
         </is>
       </c>
       <c r="F482" t="b">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_技能10</t>
+          <t>M01狼人_技能10</t>
         </is>
       </c>
       <c r="F483" t="b">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>M01狼人（有挂Shout）_技能11</t>
+          <t>M01狼人_技能11_起手</t>
         </is>
       </c>
       <c r="F484" t="b">
@@ -19893,7 +19893,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人（有挂Shout）_自爆技能</t>
+          <t>M02僵尸蜡烛人_自爆技能</t>
         </is>
       </c>
       <c r="F539" t="b">
@@ -21481,6 +21481,1721 @@
         <v>0</v>
       </c>
       <c r="I584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>8267</v>
+      </c>
+      <c r="B585" t="n">
+        <v>8267</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd'</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能1_巨斧挥起</t>
+        </is>
+      </c>
+      <c r="F585" t="b">
+        <v>0</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>8268</v>
+      </c>
+      <c r="B586" t="n">
+        <v>8268</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd'</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能1_巨斧砸地</t>
+        </is>
+      </c>
+      <c r="F586" t="b">
+        <v>0</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>8269</v>
+      </c>
+      <c r="B587" t="n">
+        <v>8269</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能2_巨斧挥砍</t>
+        </is>
+      </c>
+      <c r="F587" t="b">
+        <v>0</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>8270</v>
+      </c>
+      <c r="B588" t="n">
+        <v>8270</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd'</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能3_跳起</t>
+        </is>
+      </c>
+      <c r="F588" t="b">
+        <v>0</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>8271</v>
+      </c>
+      <c r="B589" t="n">
+        <v>8271</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd'</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能3_砸地</t>
+        </is>
+      </c>
+      <c r="F589" t="b">
+        <v>0</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>8272</v>
+      </c>
+      <c r="B590" t="n">
+        <v>8272</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd'</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_单脚踏地</t>
+        </is>
+      </c>
+      <c r="F590" t="b">
+        <v>0</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>8273</v>
+      </c>
+      <c r="B591" t="n">
+        <v>8273</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd'</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_1段攻击</t>
+        </is>
+      </c>
+      <c r="F591" t="b">
+        <v>0</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>8274</v>
+      </c>
+      <c r="B592" t="n">
+        <v>8274</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_4th</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_4th.AKE_Play_Mon_Mob_Skill_M04_Atk5_4th'</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_2段攻击</t>
+        </is>
+      </c>
+      <c r="F592" t="b">
+        <v>0</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>8275</v>
+      </c>
+      <c r="B593" t="n">
+        <v>8275</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_5th</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_5th.AKE_Play_Mon_Mob_Skill_M04_Atk5_5th'</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_3段砸地</t>
+        </is>
+      </c>
+      <c r="F593" t="b">
+        <v>0</v>
+      </c>
+      <c r="G593" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>8276</v>
+      </c>
+      <c r="B594" t="n">
+        <v>8276</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_6th</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_6th.AKE_Play_Mon_Mob_Skill_M04_Atk5_6th'</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_3段攻击</t>
+        </is>
+      </c>
+      <c r="F594" t="b">
+        <v>0</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>8277</v>
+      </c>
+      <c r="B595" t="n">
+        <v>8277</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_7th</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_7th.AKE_Play_Mon_Mob_Skill_M04_Atk5_7th'</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_4段攻击</t>
+        </is>
+      </c>
+      <c r="F595" t="b">
+        <v>0</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>8278</v>
+      </c>
+      <c r="B596" t="n">
+        <v>8278</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_8th</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_8th.AKE_Play_Mon_Mob_Skill_M04_Atk5_8th'</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_5段举斧</t>
+        </is>
+      </c>
+      <c r="F596" t="b">
+        <v>0</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>8279</v>
+      </c>
+      <c r="B597" t="n">
+        <v>8279</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_9th</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_9th.AKE_Play_Mon_Mob_Skill_M04_Atk5_9th'</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能5_5段砸地</t>
+        </is>
+      </c>
+      <c r="F597" t="b">
+        <v>0</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>8280</v>
+      </c>
+      <c r="B598" t="n">
+        <v>8280</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd'</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能6_挥砍1段</t>
+        </is>
+      </c>
+      <c r="F598" t="b">
+        <v>0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>8281</v>
+      </c>
+      <c r="B599" t="n">
+        <v>8281</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd'</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能6_挥砍2段</t>
+        </is>
+      </c>
+      <c r="F599" t="b">
+        <v>0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>8282</v>
+      </c>
+      <c r="B600" t="n">
+        <v>8282</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd'</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能7_挥砍1段</t>
+        </is>
+      </c>
+      <c r="F600" t="b">
+        <v>0</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>8283</v>
+      </c>
+      <c r="B601" t="n">
+        <v>8283</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd'</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能7_挥砍2段</t>
+        </is>
+      </c>
+      <c r="F601" t="b">
+        <v>0</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>8284</v>
+      </c>
+      <c r="B602" t="n">
+        <v>8284</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_4th</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_4th.AKE_Play_Mon_Mob_Skill_M04_Atk7_4th'</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能7_挥砍3段</t>
+        </is>
+      </c>
+      <c r="F602" t="b">
+        <v>0</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>8285</v>
+      </c>
+      <c r="B603" t="n">
+        <v>8285</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_5th</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_5th.AKE_Play_Mon_Mob_Skill_M04_Atk7_5th'</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能7_挥砍4段</t>
+        </is>
+      </c>
+      <c r="F603" t="b">
+        <v>0</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>8286</v>
+      </c>
+      <c r="B604" t="n">
+        <v>8286</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_6th</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_6th.AKE_Play_Mon_Mob_Skill_M04_Atk7_6th'</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>M04无头骑士_技能7_挥砍5段</t>
+        </is>
+      </c>
+      <c r="F604" t="b">
+        <v>0</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>8287</v>
+      </c>
+      <c r="B605" t="n">
+        <v>8287</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd'</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>M01狼人_技能1_2段</t>
+        </is>
+      </c>
+      <c r="F605" t="b">
+        <v>0</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>8288</v>
+      </c>
+      <c r="B606" t="n">
+        <v>8288</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd'</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>M01狼人_技能1_3段</t>
+        </is>
+      </c>
+      <c r="F606" t="b">
+        <v>0</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>8289</v>
+      </c>
+      <c r="B607" t="n">
+        <v>8289</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_4th</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_4th.AKE_Play_Mon_Mob_Skill_M01_Atk1_4th'</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>M01狼人_技能1_4段</t>
+        </is>
+      </c>
+      <c r="F607" t="b">
+        <v>0</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>8290</v>
+      </c>
+      <c r="B608" t="n">
+        <v>8290</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_5th</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_5th.AKE_Play_Mon_Mob_Skill_M01_Atk1_5th'</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>M01狼人_技能1_5段</t>
+        </is>
+      </c>
+      <c r="F608" t="b">
+        <v>0</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>8291</v>
+      </c>
+      <c r="B609" t="n">
+        <v>8291</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_6th</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_6th.AKE_Play_Mon_Mob_Skill_M01_Atk1_6th'</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>M01狼人_技能1_6段</t>
+        </is>
+      </c>
+      <c r="F609" t="b">
+        <v>0</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>8292</v>
+      </c>
+      <c r="B610" t="n">
+        <v>8292</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>M01狼人_技能2_2段</t>
+        </is>
+      </c>
+      <c r="F610" t="b">
+        <v>0</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>8293</v>
+      </c>
+      <c r="B611" t="n">
+        <v>8293</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd'</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>M01狼人_技能2_3段</t>
+        </is>
+      </c>
+      <c r="F611" t="b">
+        <v>0</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>8294</v>
+      </c>
+      <c r="B612" t="n">
+        <v>8294</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_4th</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_4th.AKE_Play_Mon_Mob_Skill_M01_Atk2_4th'</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>M01狼人_技能2_4段</t>
+        </is>
+      </c>
+      <c r="F612" t="b">
+        <v>0</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>8295</v>
+      </c>
+      <c r="B613" t="n">
+        <v>8295</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd'</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>M01狼人_技能3_2段</t>
+        </is>
+      </c>
+      <c r="F613" t="b">
+        <v>0</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>8296</v>
+      </c>
+      <c r="B614" t="n">
+        <v>8296</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd'</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>M01狼人_技能3_3段</t>
+        </is>
+      </c>
+      <c r="F614" t="b">
+        <v>0</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>8297</v>
+      </c>
+      <c r="B615" t="n">
+        <v>8297</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_4th</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_4th.AKE_Play_Mon_Mob_Skill_M01_Atk3_4th'</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>M01狼人_技能3_4段</t>
+        </is>
+      </c>
+      <c r="F615" t="b">
+        <v>0</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>8298</v>
+      </c>
+      <c r="B616" t="n">
+        <v>8298</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_5th</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_5th.AKE_Play_Mon_Mob_Skill_M01_Atk3_5th'</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>M01狼人_技能3_5段</t>
+        </is>
+      </c>
+      <c r="F616" t="b">
+        <v>0</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>8299</v>
+      </c>
+      <c r="B617" t="n">
+        <v>8299</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_End</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_End.AKE_Play_Mon_Mob_Skill_M01_Atk3_End'</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>M01狼人_技能3_收招</t>
+        </is>
+      </c>
+      <c r="F617" t="b">
+        <v>0</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>8300</v>
+      </c>
+      <c r="B618" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd'</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_2段</t>
+        </is>
+      </c>
+      <c r="F618" t="b">
+        <v>0</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>8301</v>
+      </c>
+      <c r="B619" t="n">
+        <v>8301</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd'</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_3段</t>
+        </is>
+      </c>
+      <c r="F619" t="b">
+        <v>0</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>8302</v>
+      </c>
+      <c r="B620" t="n">
+        <v>8302</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_4th</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_4th.AKE_Play_Mon_Mob_Skill_M01_Atk5_4th'</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_4段</t>
+        </is>
+      </c>
+      <c r="F620" t="b">
+        <v>0</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>8303</v>
+      </c>
+      <c r="B621" t="n">
+        <v>8303</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_5th</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_5th.AKE_Play_Mon_Mob_Skill_M01_Atk5_5th'</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_5段</t>
+        </is>
+      </c>
+      <c r="F621" t="b">
+        <v>0</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>8304</v>
+      </c>
+      <c r="B622" t="n">
+        <v>8304</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_6th</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_6th.AKE_Play_Mon_Mob_Skill_M01_Atk5_6th'</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_6段</t>
+        </is>
+      </c>
+      <c r="F622" t="b">
+        <v>0</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>8305</v>
+      </c>
+      <c r="B623" t="n">
+        <v>8305</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_7th</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_7th.AKE_Play_Mon_Mob_Skill_M01_Atk5_7th'</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_7段</t>
+        </is>
+      </c>
+      <c r="F623" t="b">
+        <v>0</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>8306</v>
+      </c>
+      <c r="B624" t="n">
+        <v>8306</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_8th</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_8th.AKE_Play_Mon_Mob_Skill_M01_Atk5_8th'</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_8段</t>
+        </is>
+      </c>
+      <c r="F624" t="b">
+        <v>0</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>8307</v>
+      </c>
+      <c r="B625" t="n">
+        <v>8307</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_End</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_End.AKE_Play_Mon_Mob_Skill_M01_Atk5_End'</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>M01狼人_技能5_收招</t>
+        </is>
+      </c>
+      <c r="F625" t="b">
+        <v>0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>8308</v>
+      </c>
+      <c r="B626" t="n">
+        <v>8308</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd'</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>M01狼人_技能11_2段</t>
+        </is>
+      </c>
+      <c r="F626" t="b">
+        <v>0</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>8309</v>
+      </c>
+      <c r="B627" t="n">
+        <v>8309</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd'</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>M01狼人_技能11_3段</t>
+        </is>
+      </c>
+      <c r="F627" t="b">
+        <v>0</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>8310</v>
+      </c>
+      <c r="B628" t="n">
+        <v>8310</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_4th</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_4th.AKE_Play_Mon_Mob_Skill_M01_Atk11_4th'</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>M01狼人_技能11_4段</t>
+        </is>
+      </c>
+      <c r="F628" t="b">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>8311</v>
+      </c>
+      <c r="B629" t="n">
+        <v>8311</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_5th</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_5th.AKE_Play_Mon_Mob_Skill_M01_Atk11_5th'</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>M01狼人_技能11_5段</t>
+        </is>
+      </c>
+      <c r="F629" t="b">
+        <v>0</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>8312</v>
+      </c>
+      <c r="B630" t="n">
+        <v>8312</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_6th</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_6th.AKE_Play_Mon_Mob_Skill_M01_Atk11_6th'</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>M01狼人_技能11_6段</t>
+        </is>
+      </c>
+      <c r="F630" t="b">
+        <v>0</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>8313</v>
+      </c>
+      <c r="B631" t="n">
+        <v>8313</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_7th</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_7th.AKE_Play_Mon_Mob_Skill_M01_Atk11_7th'</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>M01狼人_技能11_7段</t>
+        </is>
+      </c>
+      <c r="F631" t="b">
+        <v>0</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>8314</v>
+      </c>
+      <c r="B632" t="n">
+        <v>8314</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_End</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_End.AKE_Play_Mon_Mob_Skill_M01_Atk11_End'</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>M01狼人_技能11_收招</t>
+        </is>
+      </c>
+      <c r="F632" t="b">
+        <v>0</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>8315</v>
+      </c>
+      <c r="B633" t="n">
+        <v>8315</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>M03铁甲面_技能2（电棍）爆破</t>
+        </is>
+      </c>
+      <c r="F633" t="b">
+        <v>0</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -19561,24 +19561,24 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>36002</v>
+        <v>15119</v>
       </c>
       <c r="B530" t="n">
-        <v>36002</v>
+        <v>15119</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>AKE_Play_CG_External</t>
+          <t>AKE_Play_VO_Game_Battle_C08_08</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/CG/CG_External/AKE_Play_CG_External.AKE_Play_CG_External'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_08.AKE_Play_VO_Game_Battle_C08_08'</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>CG_External（通用事件模板）</t>
+          <t>厄什栗语音_普攻_3段+4段+5段</t>
         </is>
       </c>
       <c r="F530" t="b">
@@ -19596,24 +19596,24 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>15119</v>
+        <v>15120</v>
       </c>
       <c r="B531" t="n">
-        <v>15119</v>
+        <v>15120</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C08_08</t>
+          <t>AKE_Play_VO_Game_Battle_C08_07</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_08.AKE_Play_VO_Game_Battle_C08_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_07.AKE_Play_VO_Game_Battle_C08_07'</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>厄什栗语音_普攻_3段+4段+5段</t>
+          <t>厄什栗语音_普攻_1段+2段</t>
         </is>
       </c>
       <c r="F531" t="b">
@@ -19631,24 +19631,24 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>15120</v>
+        <v>15121</v>
       </c>
       <c r="B532" t="n">
-        <v>15120</v>
+        <v>15121</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C08_07</t>
+          <t>AKE_Play_VO_Game_Battle_C08_12</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_07.AKE_Play_VO_Game_Battle_C08_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_12.AKE_Play_VO_Game_Battle_C08_12'</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>厄什栗语音_普攻_1段+2段</t>
+          <t>厄什栗语音_蓄力_蓄力前摇</t>
         </is>
       </c>
       <c r="F532" t="b">
@@ -19666,24 +19666,24 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>15121</v>
+        <v>15122</v>
       </c>
       <c r="B533" t="n">
-        <v>15121</v>
+        <v>15122</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C08_12</t>
+          <t>AKE_Play_VO_Game_Battle_C08_13</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_12.AKE_Play_VO_Game_Battle_C08_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_13.AKE_Play_VO_Game_Battle_C08_13'</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>厄什栗语音_蓄力_蓄力前摇</t>
+          <t>厄什栗语音_蓄力_派生-蓄力攻击1</t>
         </is>
       </c>
       <c r="F533" t="b">
@@ -19701,24 +19701,24 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>15122</v>
+        <v>15123</v>
       </c>
       <c r="B534" t="n">
-        <v>15122</v>
+        <v>15123</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C08_13</t>
+          <t>AKE_Play_VO_Game_Battle_C08_20</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_13.AKE_Play_VO_Game_Battle_C08_13'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_20.AKE_Play_VO_Game_Battle_C08_20'</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>厄什栗语音_蓄力_派生-蓄力攻击1</t>
+          <t>厄什栗语音_大招</t>
         </is>
       </c>
       <c r="F534" t="b">
@@ -19736,24 +19736,24 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>15123</v>
+        <v>15124</v>
       </c>
       <c r="B535" t="n">
-        <v>15123</v>
+        <v>15124</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C08_20</t>
+          <t>AKE_Play_VO_Game_Battle_C08_14</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_20.AKE_Play_VO_Game_Battle_C08_20'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_14.AKE_Play_VO_Game_Battle_C08_14'</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>厄什栗语音_大招</t>
+          <t>厄什栗语音_爆发普攻_爆发普攻3</t>
         </is>
       </c>
       <c r="F535" t="b">
@@ -19771,24 +19771,24 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>15124</v>
+        <v>8263</v>
       </c>
       <c r="B536" t="n">
-        <v>15124</v>
+        <v>8263</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C08_14</t>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_14.AKE_Play_VO_Game_Battle_C08_14'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run.AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run'</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>厄什栗语音_爆发普攻_爆发普攻3</t>
+          <t>灰姑娘Boss_一阶段蜘蛛雷_蜘蛛雷移动</t>
         </is>
       </c>
       <c r="F536" t="b">
@@ -19806,24 +19806,24 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>8263</v>
+        <v>8264</v>
       </c>
       <c r="B537" t="n">
-        <v>8263</v>
+        <v>8264</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run</t>
+          <t>AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run.AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Run'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death.AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death'</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_一阶段蜘蛛雷_蜘蛛雷移动</t>
+          <t>灰姑娘Boss_一阶段蜘蛛雷_蜘蛛雷死亡</t>
         </is>
       </c>
       <c r="F537" t="b">
@@ -19841,24 +19841,24 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>8264</v>
+        <v>8265</v>
       </c>
       <c r="B538" t="n">
-        <v>8264</v>
+        <v>8265</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death</t>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Death_Skill</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death.AKE_Play_Mon_Boss_Part_B01_Spider_Mine_Death'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Death_Skill.AKE_Play_Mon_Mob_Skill_M02_Death_Skill'</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_一阶段蜘蛛雷_蜘蛛雷死亡</t>
+          <t>M02僵尸蜡烛人_自爆技能</t>
         </is>
       </c>
       <c r="F538" t="b">
@@ -19876,24 +19876,24 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>8265</v>
+        <v>8266</v>
       </c>
       <c r="B539" t="n">
-        <v>8265</v>
+        <v>8266</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M02_Death_Skill</t>
+          <t>AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Death_Skill.AKE_Play_Mon_Mob_Skill_M02_Death_Skill'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5.AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5'</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_自爆技能</t>
+          <t>M03铁甲面_技能5（电棍）</t>
         </is>
       </c>
       <c r="F539" t="b">
@@ -19911,24 +19911,24 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>8266</v>
+        <v>7023</v>
       </c>
       <c r="B540" t="n">
-        <v>8266</v>
+        <v>7023</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5</t>
+          <t>AKE_Play_Imp_Knife_Chop_Flesh_Hvy</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5.AKE_Play_Mon_Mob_Skill_M03_Eb_Atk5'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Knife/AKE_Play_Imp_Knife_Chop_Flesh_Hvy.AKE_Play_Imp_Knife_Chop_Flesh_Hvy'</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>M03铁甲面_技能5（电棍）</t>
+          <t>刀_斩击_重</t>
         </is>
       </c>
       <c r="F540" t="b">
@@ -19946,24 +19946,24 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>7023</v>
+        <v>7024</v>
       </c>
       <c r="B541" t="n">
-        <v>7023</v>
+        <v>7024</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>AKE_Play_Imp_Knife_Chop_Flesh_Hvy</t>
+          <t>AKE_Play_Imp_Knife_Chop_Flesh_Cri</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Knife/AKE_Play_Imp_Knife_Chop_Flesh_Hvy.AKE_Play_Imp_Knife_Chop_Flesh_Hvy'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Knife/AKE_Play_Imp_Knife_Chop_Flesh_Cri.AKE_Play_Imp_Knife_Chop_Flesh_Cri'</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>刀_斩击_重</t>
+          <t>刀_斩击_特殊暴击</t>
         </is>
       </c>
       <c r="F541" t="b">
@@ -19981,24 +19981,24 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>7024</v>
+        <v>3290</v>
       </c>
       <c r="B542" t="n">
-        <v>7024</v>
+        <v>3290</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>AKE_Play_Imp_Knife_Chop_Flesh_Cri</t>
+          <t>AKE_Play_Char_Skill_C07_Atk1</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Knife/AKE_Play_Imp_Knife_Chop_Flesh_Cri.AKE_Play_Imp_Knife_Chop_Flesh_Cri'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk1.AKE_Play_Char_Skill_C07_Atk1'</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>刀_斩击_特殊暴击</t>
+          <t>法医法索_普攻连段_1段</t>
         </is>
       </c>
       <c r="F542" t="b">
@@ -20016,24 +20016,24 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="B543" t="n">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk1</t>
+          <t>AKE_Play_Char_Skill_C07_Atk1_End</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk1.AKE_Play_Char_Skill_C07_Atk1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk1_End.AKE_Play_Char_Skill_C07_Atk1_End'</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_1段</t>
+          <t>法医法索_普攻连段_1段收招</t>
         </is>
       </c>
       <c r="F543" t="b">
@@ -20051,24 +20051,24 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="B544" t="n">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk1_End</t>
+          <t>AKE_Play_Char_Skill_C07_Atk2</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk1_End.AKE_Play_Char_Skill_C07_Atk1_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2.AKE_Play_Char_Skill_C07_Atk2'</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_1段收招</t>
+          <t>法医法索_普攻连段_2段挥砍1</t>
         </is>
       </c>
       <c r="F544" t="b">
@@ -20086,24 +20086,24 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="B545" t="n">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk2</t>
+          <t>AKE_Play_Char_Skill_C07_Atk2_2nd</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2.AKE_Play_Char_Skill_C07_Atk2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2_2nd.AKE_Play_Char_Skill_C07_Atk2_2nd'</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_2段挥砍1</t>
+          <t>法医法索_普攻连段_2段挥砍2</t>
         </is>
       </c>
       <c r="F545" t="b">
@@ -20121,24 +20121,24 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="B546" t="n">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk2_2nd</t>
+          <t>AKE_Play_Char_Skill_C07_Atk2_End</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2_2nd.AKE_Play_Char_Skill_C07_Atk2_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2_End.AKE_Play_Char_Skill_C07_Atk2_End'</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_2段挥砍2</t>
+          <t>法医法索_普攻连段_2段收招</t>
         </is>
       </c>
       <c r="F546" t="b">
@@ -20156,24 +20156,24 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="B547" t="n">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk2_End</t>
+          <t>AKE_Play_Char_Skill_C07_Atk3</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk2_End.AKE_Play_Char_Skill_C07_Atk2_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk3.AKE_Play_Char_Skill_C07_Atk3'</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_2段收招</t>
+          <t>法医法索_普攻连段_3段</t>
         </is>
       </c>
       <c r="F547" t="b">
@@ -20191,24 +20191,24 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="B548" t="n">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk3</t>
+          <t>AKE_Play_Char_Skill_C07_Atk3_End</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk3.AKE_Play_Char_Skill_C07_Atk3'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk3_End.AKE_Play_Char_Skill_C07_Atk3_End'</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_3段</t>
+          <t>法医法索_普攻连段_3段收招</t>
         </is>
       </c>
       <c r="F548" t="b">
@@ -20226,24 +20226,24 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B549" t="n">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk3_End</t>
+          <t>AKE_Play_Char_Skill_C07_Atk4</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk3_End.AKE_Play_Char_Skill_C07_Atk3_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4.AKE_Play_Char_Skill_C07_Atk4'</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_3段收招</t>
+          <t>法医法索_普攻连段_4段起手</t>
         </is>
       </c>
       <c r="F549" t="b">
@@ -20261,24 +20261,24 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="B550" t="n">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk4</t>
+          <t>AKE_Play_Char_Skill_C07_Atk4_2nd</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4.AKE_Play_Char_Skill_C07_Atk4'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_2nd.AKE_Play_Char_Skill_C07_Atk4_2nd'</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_4段起手</t>
+          <t>法医法索_普攻连段_4段跳起</t>
         </is>
       </c>
       <c r="F550" t="b">
@@ -20296,24 +20296,24 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="B551" t="n">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk4_2nd</t>
+          <t>AKE_Play_Char_Skill_C07_Atk4_3rd</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_2nd.AKE_Play_Char_Skill_C07_Atk4_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_3rd.AKE_Play_Char_Skill_C07_Atk4_3rd'</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_4段跳起</t>
+          <t>法医法索_普攻连段_4段砸地</t>
         </is>
       </c>
       <c r="F551" t="b">
@@ -20331,24 +20331,24 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="B552" t="n">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk4_3rd</t>
+          <t>AKE_Play_Char_Skill_C07_Atk4_End</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_3rd.AKE_Play_Char_Skill_C07_Atk4_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_End.AKE_Play_Char_Skill_C07_Atk4_End'</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_4段砸地</t>
+          <t>法医法索_普攻连段_4段收招</t>
         </is>
       </c>
       <c r="F552" t="b">
@@ -20366,24 +20366,24 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="B553" t="n">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk4_End</t>
+          <t>AKE_Play_Char_Skill_C07_Atk_Rush</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk4_End.AKE_Play_Char_Skill_C07_Atk4_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk_Rush.AKE_Play_Char_Skill_C07_Atk_Rush'</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>法医法索_普攻连段_4段收招</t>
+          <t>法医法索_特殊普攻_冲刺普攻</t>
         </is>
       </c>
       <c r="F553" t="b">
@@ -20401,24 +20401,24 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="B554" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk_Rush</t>
+          <t>AKE_Play_Char_Skill_C07_Atk_Rush_End</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk_Rush.AKE_Play_Char_Skill_C07_Atk_Rush'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk_Rush_End.AKE_Play_Char_Skill_C07_Atk_Rush_End'</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>法医法索_特殊普攻_冲刺普攻</t>
+          <t>法医法索_特殊普攻_冲刺普攻收招</t>
         </is>
       </c>
       <c r="F554" t="b">
@@ -20436,24 +20436,24 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="B555" t="n">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Atk_Rush_End</t>
+          <t>AKE_Play_Char_Skill_C07_Strafe_Start</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Atk_Rush_End.AKE_Play_Char_Skill_C07_Atk_Rush_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Start.AKE_Play_Char_Skill_C07_Strafe_Start'</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>法医法索_特殊普攻_冲刺普攻收招</t>
+          <t>法医法索_副攻击_起手</t>
         </is>
       </c>
       <c r="F555" t="b">
@@ -20471,24 +20471,24 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B556" t="n">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Strafe_Start</t>
+          <t>AKE_Play_Char_Skill_C07_Strafe_Hack1</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Start.AKE_Play_Char_Skill_C07_Strafe_Start'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Hack1.AKE_Play_Char_Skill_C07_Strafe_Hack1'</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>法医法索_副攻击_起手</t>
+          <t>法医法索_副攻击_1级挥砍</t>
         </is>
       </c>
       <c r="F556" t="b">
@@ -20506,24 +20506,24 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="B557" t="n">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Strafe_Hack1</t>
+          <t>AKE_Play_Char_Skill_C07_Strafe_End1</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Hack1.AKE_Play_Char_Skill_C07_Strafe_Hack1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_End1.AKE_Play_Char_Skill_C07_Strafe_End1'</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>法医法索_副攻击_1级挥砍</t>
+          <t>法医法索_副攻击_1级挥砍收招</t>
         </is>
       </c>
       <c r="F557" t="b">
@@ -20541,24 +20541,24 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="B558" t="n">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Strafe_End1</t>
+          <t>AKE_Play_Char_Skill_C07_Strafe_Hack2</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_End1.AKE_Play_Char_Skill_C07_Strafe_End1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Hack2.AKE_Play_Char_Skill_C07_Strafe_Hack2'</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>法医法索_副攻击_1级挥砍收招</t>
+          <t>法医法索_副攻击_2级挥砍</t>
         </is>
       </c>
       <c r="F558" t="b">
@@ -20576,24 +20576,24 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="B559" t="n">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Strafe_Hack2</t>
+          <t>AKE_Play_Char_Skill_C07_Strafe_End2</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_Hack2.AKE_Play_Char_Skill_C07_Strafe_Hack2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_End2.AKE_Play_Char_Skill_C07_Strafe_End2'</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>法医法索_副攻击_2级挥砍</t>
+          <t>法医法索_副攻击_2级挥砍收招</t>
         </is>
       </c>
       <c r="F559" t="b">
@@ -20611,24 +20611,24 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="B560" t="n">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Strafe_End2</t>
+          <t>AKE_Play_Char_Skill_C07_Focus_Ready</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Strafe_End2.AKE_Play_Char_Skill_C07_Strafe_End2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus_Ready.AKE_Play_Char_Skill_C07_Focus_Ready'</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>法医法索_副攻击_2级挥砍收招</t>
+          <t>法医法索_蓄力攻击_前摇</t>
         </is>
       </c>
       <c r="F560" t="b">
@@ -20646,24 +20646,24 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="B561" t="n">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Focus_Ready</t>
+          <t>AKE_Play_Char_Skill_C07_Focus1</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus_Ready.AKE_Play_Char_Skill_C07_Focus_Ready'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus1.AKE_Play_Char_Skill_C07_Focus1'</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>法医法索_蓄力攻击_前摇</t>
+          <t>法医法索_蓄力攻击_蓄力1级</t>
         </is>
       </c>
       <c r="F561" t="b">
@@ -20681,24 +20681,24 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="B562" t="n">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Focus1</t>
+          <t>AKE_Play_Char_Skill_C07_Focus2</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus1.AKE_Play_Char_Skill_C07_Focus1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus2.AKE_Play_Char_Skill_C07_Focus2'</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>法医法索_蓄力攻击_蓄力1级</t>
+          <t>法医法索_蓄力攻击_蓄力2级</t>
         </is>
       </c>
       <c r="F562" t="b">
@@ -20716,24 +20716,24 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="B563" t="n">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Focus2</t>
+          <t>AKE_Play_Char_Skill_C07_Dodge_Step</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Focus2.AKE_Play_Char_Skill_C07_Focus2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Dodge_Step.AKE_Play_Char_Skill_C07_Dodge_Step'</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>法医法索_蓄力攻击_蓄力2级</t>
+          <t>法医法索_闪避_一段闪避</t>
         </is>
       </c>
       <c r="F563" t="b">
@@ -20751,24 +20751,24 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="B564" t="n">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Dodge_Step</t>
+          <t>AKE_Play_Char_Skill_C07_Dodge</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Dodge_Step.AKE_Play_Char_Skill_C07_Dodge_Step'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Dodge.AKE_Play_Char_Skill_C07_Dodge'</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>法医法索_闪避_一段闪避</t>
+          <t>法医法索_闪避_二段闪避</t>
         </is>
       </c>
       <c r="F564" t="b">
@@ -20786,24 +20786,24 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="B565" t="n">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Dodge</t>
+          <t>AKE_Play_Char_Skill_C07_Counter</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Dodge.AKE_Play_Char_Skill_C07_Dodge'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Counter.AKE_Play_Char_Skill_C07_Counter'</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>法医法索_闪避_二段闪避</t>
+          <t>法医法索_化解_轻化解</t>
         </is>
       </c>
       <c r="F565" t="b">
@@ -20821,24 +20821,24 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="B566" t="n">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Counter</t>
+          <t>AKE_Play_Char_Skill_C07_Counter_Sp</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Counter.AKE_Play_Char_Skill_C07_Counter'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Counter_Sp.AKE_Play_Char_Skill_C07_Counter_Sp'</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>法医法索_化解_轻化解</t>
+          <t>法医法索_化解_重化解</t>
         </is>
       </c>
       <c r="F566" t="b">
@@ -20856,24 +20856,24 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="B567" t="n">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Counter_Sp</t>
+          <t>AKE_Play_Char_Skill_C07_Execu1_Air</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Counter_Sp.AKE_Play_Char_Skill_C07_Counter_Sp'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1_Air.AKE_Play_Char_Skill_C07_Execu1_Air'</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>法医法索_化解_重化解</t>
+          <t>法医法索_处决_处决-空中</t>
         </is>
       </c>
       <c r="F567" t="b">
@@ -20891,24 +20891,24 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="B568" t="n">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Execu1_Air</t>
+          <t>AKE_Play_Char_Skill_C07_Execu1</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1_Air.AKE_Play_Char_Skill_C07_Execu1_Air'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1.AKE_Play_Char_Skill_C07_Execu1'</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>法医法索_处决_处决-空中</t>
+          <t>法医法索_处决_通用处决释放</t>
         </is>
       </c>
       <c r="F568" t="b">
@@ -20926,24 +20926,24 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="B569" t="n">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Execu1</t>
+          <t>AKE_Play_Char_Skill_C07_Execu1_End</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1.AKE_Play_Char_Skill_C07_Execu1'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1_End.AKE_Play_Char_Skill_C07_Execu1_End'</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>法医法索_处决_通用处决释放</t>
+          <t>法医法索_处决_通用处决收招</t>
         </is>
       </c>
       <c r="F569" t="b">
@@ -20961,24 +20961,24 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="B570" t="n">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Execu1_End</t>
+          <t>AKE_Play_Char_Skill_C07_Execu2</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu1_End.AKE_Play_Char_Skill_C07_Execu1_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu2.AKE_Play_Char_Skill_C07_Execu2'</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>法医法索_处决_通用处决收招</t>
+          <t>法医法索_处决_特殊处决释放</t>
         </is>
       </c>
       <c r="F570" t="b">
@@ -20996,24 +20996,24 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="B571" t="n">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Execu2</t>
+          <t>AKE_Play_Char_Skill_C07_Execu2_End</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu2.AKE_Play_Char_Skill_C07_Execu2'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu2_End.AKE_Play_Char_Skill_C07_Execu2_End'</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>法医法索_处决_特殊处决释放</t>
+          <t>法医法索_处决_特殊处决收招</t>
         </is>
       </c>
       <c r="F571" t="b">
@@ -21031,24 +21031,24 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="B572" t="n">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Execu2_End</t>
+          <t>AKE_Play_Char_Skill_C07_Ult</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Execu2_End.AKE_Play_Char_Skill_C07_Execu2_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult.AKE_Play_Char_Skill_C07_Ult'</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>法医法索_处决_特殊处决收招</t>
+          <t>法医法索_大招_表演Sequence</t>
         </is>
       </c>
       <c r="F572" t="b">
@@ -21066,24 +21066,24 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="B573" t="n">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Ult</t>
+          <t>AKE_Play_Char_Skill_C07_Ult_Smash</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult.AKE_Play_Char_Skill_C07_Ult'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult_Smash.AKE_Play_Char_Skill_C07_Ult_Smash'</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>法医法索_大招_表演Sequence</t>
+          <t>法医法索_大招_释放砸地</t>
         </is>
       </c>
       <c r="F573" t="b">
@@ -21101,24 +21101,24 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="B574" t="n">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Ult_Smash</t>
+          <t>AKE_Play_Char_Skill_C07_Ult_End</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult_Smash.AKE_Play_Char_Skill_C07_Ult_Smash'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult_End.AKE_Play_Char_Skill_C07_Ult_End'</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>法医法索_大招_释放砸地</t>
+          <t>法医法索_大招_收招</t>
         </is>
       </c>
       <c r="F574" t="b">
@@ -21136,24 +21136,24 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>3322</v>
+        <v>15125</v>
       </c>
       <c r="B575" t="n">
-        <v>3322</v>
+        <v>15125</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>AKE_Play_Char_Skill_C07_Ult_End</t>
+          <t>AKE_Play_VO_Game_Battle_C07_07</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C07/Char_Skill_C07/AKE_Play_Char_Skill_C07_Ult_End.AKE_Play_Char_Skill_C07_Ult_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_07.AKE_Play_VO_Game_Battle_C07_07'</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>法医法索_大招_收招</t>
+          <t>法索语音_普攻_1段+2段</t>
         </is>
       </c>
       <c r="F575" t="b">
@@ -21171,24 +21171,24 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>15125</v>
+        <v>15126</v>
       </c>
       <c r="B576" t="n">
-        <v>15125</v>
+        <v>15126</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_07</t>
+          <t>AKE_Play_VO_Game_Battle_C07_08</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_07.AKE_Play_VO_Game_Battle_C07_07'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_08.AKE_Play_VO_Game_Battle_C07_08'</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>法索语音_普攻_1段+2段</t>
+          <t>法索语音_普攻_3段</t>
         </is>
       </c>
       <c r="F576" t="b">
@@ -21206,24 +21206,24 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>15126</v>
+        <v>15127</v>
       </c>
       <c r="B577" t="n">
-        <v>15126</v>
+        <v>15127</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_08</t>
+          <t>AKE_Play_VO_Game_Battle_C07_09</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_08.AKE_Play_VO_Game_Battle_C07_08'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_09.AKE_Play_VO_Game_Battle_C07_09'</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>法索语音_普攻_3段</t>
+          <t>法索语音_普攻_4段</t>
         </is>
       </c>
       <c r="F577" t="b">
@@ -21241,24 +21241,24 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>15127</v>
+        <v>15128</v>
       </c>
       <c r="B578" t="n">
-        <v>15127</v>
+        <v>15128</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_09</t>
+          <t>AKE_Play_VO_Game_Battle_C07_12</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_09.AKE_Play_VO_Game_Battle_C07_09'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_12.AKE_Play_VO_Game_Battle_C07_12'</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>法索语音_普攻_4段</t>
+          <t>法索语音_蓄力_蓄力前摇</t>
         </is>
       </c>
       <c r="F578" t="b">
@@ -21276,24 +21276,24 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>15128</v>
+        <v>15129</v>
       </c>
       <c r="B579" t="n">
-        <v>15128</v>
+        <v>15129</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_12</t>
+          <t>AKE_Play_VO_Game_Battle_C07_16</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_12.AKE_Play_VO_Game_Battle_C07_12'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_16.AKE_Play_VO_Game_Battle_C07_16'</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>法索语音_蓄力_蓄力前摇</t>
+          <t>法索语音_Action_跳跃与闪避</t>
         </is>
       </c>
       <c r="F579" t="b">
@@ -21311,24 +21311,24 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>15129</v>
+        <v>15130</v>
       </c>
       <c r="B580" t="n">
-        <v>15129</v>
+        <v>15130</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_16</t>
+          <t>AKE_Play_VO_Game_Battle_C07_18</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_16.AKE_Play_VO_Game_Battle_C07_16'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_18.AKE_Play_VO_Game_Battle_C07_18'</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>法索语音_Action_跳跃与闪避</t>
+          <t>法索语音_处决1_不听话的患者，我见得多了</t>
         </is>
       </c>
       <c r="F580" t="b">
@@ -21346,24 +21346,24 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>15130</v>
+        <v>15131</v>
       </c>
       <c r="B581" t="n">
-        <v>15130</v>
+        <v>15131</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_18</t>
+          <t>AKE_Play_VO_Game_Battle_C07_19</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_18.AKE_Play_VO_Game_Battle_C07_18'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_19.AKE_Play_VO_Game_Battle_C07_19'</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>法索语音_处决1_不听话的患者，我见得多了</t>
+          <t>法索语音_处决2_采取强制措施</t>
         </is>
       </c>
       <c r="F581" t="b">
@@ -21381,24 +21381,24 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>15131</v>
+        <v>15132</v>
       </c>
       <c r="B582" t="n">
-        <v>15131</v>
+        <v>15132</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_19</t>
+          <t>AKE_Play_VO_Game_Battle_C07_20</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_19.AKE_Play_VO_Game_Battle_C07_19'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_20.AKE_Play_VO_Game_Battle_C07_20'</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>法索语音_处决2_采取强制措施</t>
+          <t>法索语音_大招_交给我</t>
         </is>
       </c>
       <c r="F582" t="b">
@@ -21416,24 +21416,24 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>15132</v>
+        <v>7025</v>
       </c>
       <c r="B583" t="n">
-        <v>15132</v>
+        <v>7025</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>AKE_Play_VO_Game_Battle_C07_20</t>
+          <t>AKE_Play_Imp_Sword_Chop_Metal_Mid</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C07/VO_Game_Battle_C07/AKE_Play_VO_Game_Battle_C07_20.AKE_Play_VO_Game_Battle_C07_20'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Sword/AKE_Play_Imp_Sword_Chop_Metal_Mid.AKE_Play_Imp_Sword_Chop_Metal_Mid'</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>法索语音_大招_交给我</t>
+          <t>剑_斩击_中-金属</t>
         </is>
       </c>
       <c r="F583" t="b">
@@ -21451,24 +21451,24 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>7025</v>
+        <v>8267</v>
       </c>
       <c r="B584" t="n">
-        <v>7025</v>
+        <v>8267</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>AKE_Play_Imp_Sword_Chop_Metal_Mid</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Imp/Imp_Sword/AKE_Play_Imp_Sword_Chop_Metal_Mid.AKE_Play_Imp_Sword_Chop_Metal_Mid'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd'</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>剑_斩击_中-金属</t>
+          <t>M04无头骑士_技能1_巨斧挥起</t>
         </is>
       </c>
       <c r="F584" t="b">
@@ -21486,24 +21486,24 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>8267</v>
+        <v>8268</v>
       </c>
       <c r="B585" t="n">
-        <v>8267</v>
+        <v>8268</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk1_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd'</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能1_巨斧挥起</t>
+          <t>M04无头骑士_技能1_巨斧砸地</t>
         </is>
       </c>
       <c r="F585" t="b">
@@ -21521,24 +21521,24 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>8268</v>
+        <v>8269</v>
       </c>
       <c r="B586" t="n">
-        <v>8268</v>
+        <v>8269</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk1_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd'</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能1_巨斧砸地</t>
+          <t>M04无头骑士_技能2_巨斧挥砍</t>
         </is>
       </c>
       <c r="F586" t="b">
@@ -21556,24 +21556,24 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>8269</v>
+        <v>8270</v>
       </c>
       <c r="B587" t="n">
-        <v>8269</v>
+        <v>8270</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk2_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd'</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能2_巨斧挥砍</t>
+          <t>M04无头骑士_技能3_跳起</t>
         </is>
       </c>
       <c r="F587" t="b">
@@ -21591,24 +21591,24 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>8270</v>
+        <v>8271</v>
       </c>
       <c r="B588" t="n">
-        <v>8270</v>
+        <v>8271</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk3_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd'</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能3_跳起</t>
+          <t>M04无头骑士_技能3_砸地</t>
         </is>
       </c>
       <c r="F588" t="b">
@@ -21626,24 +21626,24 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>8271</v>
+        <v>8272</v>
       </c>
       <c r="B589" t="n">
-        <v>8271</v>
+        <v>8272</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk3_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd'</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能3_砸地</t>
+          <t>M04无头骑士_技能5_单脚踏地</t>
         </is>
       </c>
       <c r="F589" t="b">
@@ -21661,24 +21661,24 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>8272</v>
+        <v>8273</v>
       </c>
       <c r="B590" t="n">
-        <v>8272</v>
+        <v>8273</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk5_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd'</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_单脚踏地</t>
+          <t>M04无头骑士_技能5_1段攻击</t>
         </is>
       </c>
       <c r="F590" t="b">
@@ -21696,24 +21696,24 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>8273</v>
+        <v>8274</v>
       </c>
       <c r="B591" t="n">
-        <v>8273</v>
+        <v>8274</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_4th</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk5_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_4th.AKE_Play_Mon_Mob_Skill_M04_Atk5_4th'</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_1段攻击</t>
+          <t>M04无头骑士_技能5_2段攻击</t>
         </is>
       </c>
       <c r="F591" t="b">
@@ -21731,24 +21731,24 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>8274</v>
+        <v>8275</v>
       </c>
       <c r="B592" t="n">
-        <v>8274</v>
+        <v>8275</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_4th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_5th</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_4th.AKE_Play_Mon_Mob_Skill_M04_Atk5_4th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_5th.AKE_Play_Mon_Mob_Skill_M04_Atk5_5th'</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_2段攻击</t>
+          <t>M04无头骑士_技能5_3段砸地</t>
         </is>
       </c>
       <c r="F592" t="b">
@@ -21766,24 +21766,24 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>8275</v>
+        <v>8276</v>
       </c>
       <c r="B593" t="n">
-        <v>8275</v>
+        <v>8276</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_5th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_6th</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_5th.AKE_Play_Mon_Mob_Skill_M04_Atk5_5th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_6th.AKE_Play_Mon_Mob_Skill_M04_Atk5_6th'</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_3段砸地</t>
+          <t>M04无头骑士_技能5_3段攻击</t>
         </is>
       </c>
       <c r="F593" t="b">
@@ -21801,24 +21801,24 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>8276</v>
+        <v>8277</v>
       </c>
       <c r="B594" t="n">
-        <v>8276</v>
+        <v>8277</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_6th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_7th</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_6th.AKE_Play_Mon_Mob_Skill_M04_Atk5_6th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_7th.AKE_Play_Mon_Mob_Skill_M04_Atk5_7th'</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_3段攻击</t>
+          <t>M04无头骑士_技能5_4段攻击</t>
         </is>
       </c>
       <c r="F594" t="b">
@@ -21836,24 +21836,24 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>8277</v>
+        <v>8278</v>
       </c>
       <c r="B595" t="n">
-        <v>8277</v>
+        <v>8278</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_7th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_8th</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_7th.AKE_Play_Mon_Mob_Skill_M04_Atk5_7th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_8th.AKE_Play_Mon_Mob_Skill_M04_Atk5_8th'</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_4段攻击</t>
+          <t>M04无头骑士_技能5_5段举斧</t>
         </is>
       </c>
       <c r="F595" t="b">
@@ -21871,24 +21871,24 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>8278</v>
+        <v>8279</v>
       </c>
       <c r="B596" t="n">
-        <v>8278</v>
+        <v>8279</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_8th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_9th</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_8th.AKE_Play_Mon_Mob_Skill_M04_Atk5_8th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_9th.AKE_Play_Mon_Mob_Skill_M04_Atk5_9th'</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_5段举斧</t>
+          <t>M04无头骑士_技能5_5段砸地</t>
         </is>
       </c>
       <c r="F596" t="b">
@@ -21906,24 +21906,24 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>8279</v>
+        <v>8280</v>
       </c>
       <c r="B597" t="n">
-        <v>8279</v>
+        <v>8280</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk5_9th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk5_9th.AKE_Play_Mon_Mob_Skill_M04_Atk5_9th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd'</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能5_5段砸地</t>
+          <t>M04无头骑士_技能6_挥砍1段</t>
         </is>
       </c>
       <c r="F597" t="b">
@@ -21941,24 +21941,24 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>8280</v>
+        <v>8281</v>
       </c>
       <c r="B598" t="n">
-        <v>8280</v>
+        <v>8281</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk6_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd'</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能6_挥砍1段</t>
+          <t>M04无头骑士_技能6_挥砍2段</t>
         </is>
       </c>
       <c r="F598" t="b">
@@ -21976,24 +21976,24 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>8281</v>
+        <v>8282</v>
       </c>
       <c r="B599" t="n">
-        <v>8281</v>
+        <v>8282</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk6_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd'</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能6_挥砍2段</t>
+          <t>M04无头骑士_技能7_挥砍1段</t>
         </is>
       </c>
       <c r="F599" t="b">
@@ -22011,24 +22011,24 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>8282</v>
+        <v>8283</v>
       </c>
       <c r="B600" t="n">
-        <v>8282</v>
+        <v>8283</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd.AKE_Play_Mon_Mob_Skill_M04_Atk7_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd'</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能7_挥砍1段</t>
+          <t>M04无头骑士_技能7_挥砍2段</t>
         </is>
       </c>
       <c r="F600" t="b">
@@ -22046,24 +22046,24 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>8283</v>
+        <v>8284</v>
       </c>
       <c r="B601" t="n">
-        <v>8283</v>
+        <v>8284</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_4th</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd.AKE_Play_Mon_Mob_Skill_M04_Atk7_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_4th.AKE_Play_Mon_Mob_Skill_M04_Atk7_4th'</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能7_挥砍2段</t>
+          <t>M04无头骑士_技能7_挥砍3段</t>
         </is>
       </c>
       <c r="F601" t="b">
@@ -22081,24 +22081,24 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>8284</v>
+        <v>8285</v>
       </c>
       <c r="B602" t="n">
-        <v>8284</v>
+        <v>8285</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_4th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_5th</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_4th.AKE_Play_Mon_Mob_Skill_M04_Atk7_4th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_5th.AKE_Play_Mon_Mob_Skill_M04_Atk7_5th'</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能7_挥砍3段</t>
+          <t>M04无头骑士_技能7_挥砍4段</t>
         </is>
       </c>
       <c r="F602" t="b">
@@ -22116,24 +22116,24 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>8285</v>
+        <v>8286</v>
       </c>
       <c r="B603" t="n">
-        <v>8285</v>
+        <v>8286</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_5th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_6th</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_5th.AKE_Play_Mon_Mob_Skill_M04_Atk7_5th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_6th.AKE_Play_Mon_Mob_Skill_M04_Atk7_6th'</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能7_挥砍4段</t>
+          <t>M04无头骑士_技能7_挥砍5段</t>
         </is>
       </c>
       <c r="F603" t="b">
@@ -22151,24 +22151,24 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>8286</v>
+        <v>8287</v>
       </c>
       <c r="B604" t="n">
-        <v>8286</v>
+        <v>8287</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M04_Atk7_6th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M04/Mon_Mob_Skill_M04/AKE_Play_Mon_Mob_Skill_M04_Atk7_6th.AKE_Play_Mon_Mob_Skill_M04_Atk7_6th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd'</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>M04无头骑士_技能7_挥砍5段</t>
+          <t>M01狼人_技能1_2段</t>
         </is>
       </c>
       <c r="F604" t="b">
@@ -22186,24 +22186,24 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>8287</v>
+        <v>8288</v>
       </c>
       <c r="B605" t="n">
-        <v>8287</v>
+        <v>8288</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk1_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd'</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>M01狼人_技能1_2段</t>
+          <t>M01狼人_技能1_3段</t>
         </is>
       </c>
       <c r="F605" t="b">
@@ -22221,24 +22221,24 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>8288</v>
+        <v>8289</v>
       </c>
       <c r="B606" t="n">
-        <v>8288</v>
+        <v>8289</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_4th</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk1_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_4th.AKE_Play_Mon_Mob_Skill_M01_Atk1_4th'</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>M01狼人_技能1_3段</t>
+          <t>M01狼人_技能1_4段</t>
         </is>
       </c>
       <c r="F606" t="b">
@@ -22256,24 +22256,24 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>8289</v>
+        <v>8290</v>
       </c>
       <c r="B607" t="n">
-        <v>8289</v>
+        <v>8290</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_4th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_5th</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_4th.AKE_Play_Mon_Mob_Skill_M01_Atk1_4th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_5th.AKE_Play_Mon_Mob_Skill_M01_Atk1_5th'</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>M01狼人_技能1_4段</t>
+          <t>M01狼人_技能1_5段</t>
         </is>
       </c>
       <c r="F607" t="b">
@@ -22291,24 +22291,24 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>8290</v>
+        <v>8291</v>
       </c>
       <c r="B608" t="n">
-        <v>8290</v>
+        <v>8291</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_5th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_6th</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_5th.AKE_Play_Mon_Mob_Skill_M01_Atk1_5th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_6th.AKE_Play_Mon_Mob_Skill_M01_Atk1_6th'</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>M01狼人_技能1_5段</t>
+          <t>M01狼人_技能1_6段</t>
         </is>
       </c>
       <c r="F608" t="b">
@@ -22326,24 +22326,24 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>8291</v>
+        <v>8292</v>
       </c>
       <c r="B609" t="n">
-        <v>8291</v>
+        <v>8292</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk1_6th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk1_6th.AKE_Play_Mon_Mob_Skill_M01_Atk1_6th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd'</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>M01狼人_技能1_6段</t>
+          <t>M01狼人_技能2_2段</t>
         </is>
       </c>
       <c r="F609" t="b">
@@ -22361,24 +22361,24 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>8292</v>
+        <v>8293</v>
       </c>
       <c r="B610" t="n">
-        <v>8292</v>
+        <v>8293</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk2_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd'</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>M01狼人_技能2_2段</t>
+          <t>M01狼人_技能2_3段</t>
         </is>
       </c>
       <c r="F610" t="b">
@@ -22396,24 +22396,24 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>8293</v>
+        <v>8294</v>
       </c>
       <c r="B611" t="n">
-        <v>8293</v>
+        <v>8294</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_4th</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk2_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_4th.AKE_Play_Mon_Mob_Skill_M01_Atk2_4th'</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>M01狼人_技能2_3段</t>
+          <t>M01狼人_技能2_4段</t>
         </is>
       </c>
       <c r="F611" t="b">
@@ -22431,24 +22431,24 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>8294</v>
+        <v>8295</v>
       </c>
       <c r="B612" t="n">
-        <v>8294</v>
+        <v>8295</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk2_4th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk2_4th.AKE_Play_Mon_Mob_Skill_M01_Atk2_4th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd'</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>M01狼人_技能2_4段</t>
+          <t>M01狼人_技能3_2段</t>
         </is>
       </c>
       <c r="F612" t="b">
@@ -22466,24 +22466,24 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>8295</v>
+        <v>8296</v>
       </c>
       <c r="B613" t="n">
-        <v>8295</v>
+        <v>8296</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk3_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd'</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>M01狼人_技能3_2段</t>
+          <t>M01狼人_技能3_3段</t>
         </is>
       </c>
       <c r="F613" t="b">
@@ -22501,24 +22501,24 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>8296</v>
+        <v>8297</v>
       </c>
       <c r="B614" t="n">
-        <v>8296</v>
+        <v>8297</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_4th</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk3_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_4th.AKE_Play_Mon_Mob_Skill_M01_Atk3_4th'</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>M01狼人_技能3_3段</t>
+          <t>M01狼人_技能3_4段</t>
         </is>
       </c>
       <c r="F614" t="b">
@@ -22536,24 +22536,24 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>8297</v>
+        <v>8298</v>
       </c>
       <c r="B615" t="n">
-        <v>8297</v>
+        <v>8298</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_4th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_5th</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_4th.AKE_Play_Mon_Mob_Skill_M01_Atk3_4th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_5th.AKE_Play_Mon_Mob_Skill_M01_Atk3_5th'</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>M01狼人_技能3_4段</t>
+          <t>M01狼人_技能3_5段</t>
         </is>
       </c>
       <c r="F615" t="b">
@@ -22571,24 +22571,24 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>8298</v>
+        <v>8299</v>
       </c>
       <c r="B616" t="n">
-        <v>8298</v>
+        <v>8299</v>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_5th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_End</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_5th.AKE_Play_Mon_Mob_Skill_M01_Atk3_5th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_End.AKE_Play_Mon_Mob_Skill_M01_Atk3_End'</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>M01狼人_技能3_5段</t>
+          <t>M01狼人_技能3_收招</t>
         </is>
       </c>
       <c r="F616" t="b">
@@ -22606,24 +22606,24 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>8299</v>
+        <v>8300</v>
       </c>
       <c r="B617" t="n">
-        <v>8299</v>
+        <v>8300</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk3_End</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk3_End.AKE_Play_Mon_Mob_Skill_M01_Atk3_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd'</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>M01狼人_技能3_收招</t>
+          <t>M01狼人_技能5_2段</t>
         </is>
       </c>
       <c r="F617" t="b">
@@ -22641,24 +22641,24 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>8300</v>
+        <v>8301</v>
       </c>
       <c r="B618" t="n">
-        <v>8300</v>
+        <v>8301</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk5_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd'</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_2段</t>
+          <t>M01狼人_技能5_3段</t>
         </is>
       </c>
       <c r="F618" t="b">
@@ -22676,24 +22676,24 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>8301</v>
+        <v>8302</v>
       </c>
       <c r="B619" t="n">
-        <v>8301</v>
+        <v>8302</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_4th</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk5_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_4th.AKE_Play_Mon_Mob_Skill_M01_Atk5_4th'</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_3段</t>
+          <t>M01狼人_技能5_4段</t>
         </is>
       </c>
       <c r="F619" t="b">
@@ -22711,24 +22711,24 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>8302</v>
+        <v>8303</v>
       </c>
       <c r="B620" t="n">
-        <v>8302</v>
+        <v>8303</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_4th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_5th</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_4th.AKE_Play_Mon_Mob_Skill_M01_Atk5_4th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_5th.AKE_Play_Mon_Mob_Skill_M01_Atk5_5th'</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_4段</t>
+          <t>M01狼人_技能5_5段</t>
         </is>
       </c>
       <c r="F620" t="b">
@@ -22746,24 +22746,24 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>8303</v>
+        <v>8304</v>
       </c>
       <c r="B621" t="n">
-        <v>8303</v>
+        <v>8304</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_5th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_6th</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_5th.AKE_Play_Mon_Mob_Skill_M01_Atk5_5th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_6th.AKE_Play_Mon_Mob_Skill_M01_Atk5_6th'</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_5段</t>
+          <t>M01狼人_技能5_6段</t>
         </is>
       </c>
       <c r="F621" t="b">
@@ -22781,24 +22781,24 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>8304</v>
+        <v>8305</v>
       </c>
       <c r="B622" t="n">
-        <v>8304</v>
+        <v>8305</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_6th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_7th</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_6th.AKE_Play_Mon_Mob_Skill_M01_Atk5_6th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_7th.AKE_Play_Mon_Mob_Skill_M01_Atk5_7th'</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_6段</t>
+          <t>M01狼人_技能5_7段</t>
         </is>
       </c>
       <c r="F622" t="b">
@@ -22816,24 +22816,24 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>8305</v>
+        <v>8306</v>
       </c>
       <c r="B623" t="n">
-        <v>8305</v>
+        <v>8306</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_7th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_8th</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_7th.AKE_Play_Mon_Mob_Skill_M01_Atk5_7th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_8th.AKE_Play_Mon_Mob_Skill_M01_Atk5_8th'</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_7段</t>
+          <t>M01狼人_技能5_8段</t>
         </is>
       </c>
       <c r="F623" t="b">
@@ -22851,24 +22851,24 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>8306</v>
+        <v>8307</v>
       </c>
       <c r="B624" t="n">
-        <v>8306</v>
+        <v>8307</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_8th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_End</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_8th.AKE_Play_Mon_Mob_Skill_M01_Atk5_8th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_End.AKE_Play_Mon_Mob_Skill_M01_Atk5_End'</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_8段</t>
+          <t>M01狼人_技能5_收招</t>
         </is>
       </c>
       <c r="F624" t="b">
@@ -22886,24 +22886,24 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>8307</v>
+        <v>8308</v>
       </c>
       <c r="B625" t="n">
-        <v>8307</v>
+        <v>8308</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk5_End</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk5_End.AKE_Play_Mon_Mob_Skill_M01_Atk5_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd'</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>M01狼人_技能5_收招</t>
+          <t>M01狼人_技能11_2段</t>
         </is>
       </c>
       <c r="F625" t="b">
@@ -22921,24 +22921,24 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>8308</v>
+        <v>8309</v>
       </c>
       <c r="B626" t="n">
-        <v>8308</v>
+        <v>8309</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd.AKE_Play_Mon_Mob_Skill_M01_Atk11_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd'</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>M01狼人_技能11_2段</t>
+          <t>M01狼人_技能11_3段</t>
         </is>
       </c>
       <c r="F626" t="b">
@@ -22956,24 +22956,24 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>8309</v>
+        <v>8310</v>
       </c>
       <c r="B627" t="n">
-        <v>8309</v>
+        <v>8310</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_4th</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd.AKE_Play_Mon_Mob_Skill_M01_Atk11_3rd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_4th.AKE_Play_Mon_Mob_Skill_M01_Atk11_4th'</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>M01狼人_技能11_3段</t>
+          <t>M01狼人_技能11_4段</t>
         </is>
       </c>
       <c r="F627" t="b">
@@ -22991,24 +22991,24 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>8310</v>
+        <v>8311</v>
       </c>
       <c r="B628" t="n">
-        <v>8310</v>
+        <v>8311</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_4th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_5th</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_4th.AKE_Play_Mon_Mob_Skill_M01_Atk11_4th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_5th.AKE_Play_Mon_Mob_Skill_M01_Atk11_5th'</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>M01狼人_技能11_4段</t>
+          <t>M01狼人_技能11_5段</t>
         </is>
       </c>
       <c r="F628" t="b">
@@ -23026,24 +23026,24 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>8311</v>
+        <v>8312</v>
       </c>
       <c r="B629" t="n">
-        <v>8311</v>
+        <v>8312</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_5th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_6th</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_5th.AKE_Play_Mon_Mob_Skill_M01_Atk11_5th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_6th.AKE_Play_Mon_Mob_Skill_M01_Atk11_6th'</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>M01狼人_技能11_5段</t>
+          <t>M01狼人_技能11_6段</t>
         </is>
       </c>
       <c r="F629" t="b">
@@ -23061,24 +23061,24 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>8312</v>
+        <v>8313</v>
       </c>
       <c r="B630" t="n">
-        <v>8312</v>
+        <v>8313</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_6th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_7th</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_6th.AKE_Play_Mon_Mob_Skill_M01_Atk11_6th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_7th.AKE_Play_Mon_Mob_Skill_M01_Atk11_7th'</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>M01狼人_技能11_6段</t>
+          <t>M01狼人_技能11_7段</t>
         </is>
       </c>
       <c r="F630" t="b">
@@ -23096,24 +23096,24 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B631" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_7th</t>
+          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_End</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_7th.AKE_Play_Mon_Mob_Skill_M01_Atk11_7th'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_End.AKE_Play_Mon_Mob_Skill_M01_Atk11_End'</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>M01狼人_技能11_7段</t>
+          <t>M01狼人_技能11_收招</t>
         </is>
       </c>
       <c r="F631" t="b">
@@ -23131,24 +23131,24 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B632" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M01_Atk11_End</t>
+          <t>AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M01/Mon_Mob_Skill_M01/AKE_Play_Mon_Mob_Skill_M01_Atk11_End.AKE_Play_Mon_Mob_Skill_M01_Atk11_End'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd'</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>M01狼人_技能11_收招</t>
+          <t>M03铁甲面_技能2（电棍）爆破</t>
         </is>
       </c>
       <c r="F632" t="b">
@@ -23166,24 +23166,24 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>8315</v>
+        <v>36003</v>
       </c>
       <c r="B633" t="n">
-        <v>8315</v>
+        <v>36003</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd</t>
+          <t>AKE_Play_CG_External_1P_2D</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd.AKE_Play_Mon_Mob_Skill_M03_Eb_Atk2_2nd'</t>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/CG/CG_External/AKE_Play_CG_External_1P_2D.AKE_Play_CG_External_1P_2D'</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>M03铁甲面_技能2（电棍）爆破</t>
+          <t>CG_External_1P_2D（通用事件模板）</t>
         </is>
       </c>
       <c r="F633" t="b">

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,12 +1014,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I633"/>
+  <dimension ref="A1:I644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G634" sqref="G634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -15028,7 +15028,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyCombo1_普攻1</t>
+          <t>灰姑娘Boss_AshleyCombo1_普攻1第一段</t>
         </is>
       </c>
       <c r="F400" t="b">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyCombo2_普攻2</t>
+          <t>灰姑娘Boss_AshleyCombo2_普攻2第一段</t>
         </is>
       </c>
       <c r="F401" t="b">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyCombo4_普攻4</t>
+          <t>灰姑娘Boss_AshleyCombo4_普攻4第一段</t>
         </is>
       </c>
       <c r="F403" t="b">
@@ -16428,7 +16428,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_火焰手风琴-积极等级1_火焰喷射，2段</t>
+          <t>灰姑娘Boss_火焰手风琴-积极等级1_火焰喷射第1段</t>
         </is>
       </c>
       <c r="F440" t="b">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_火焰手风琴-积极等级2_火焰喷射，3段</t>
+          <t>灰姑娘Boss_火焰手风琴-积极等级2_火焰喷射第1段</t>
         </is>
       </c>
       <c r="F441" t="b">
@@ -23190,12 +23190,397 @@
         <v>0</v>
       </c>
       <c r="G633" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H633" t="n">
         <v>0</v>
       </c>
       <c r="I633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>30022</v>
+      </c>
+      <c r="B634" t="n">
+        <v>30022</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Combat_Boss_Stage3</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Combat_Boss_State/AKE_Set_State_Combat_Boss_Stage3.AKE_Set_State_Combat_Boss_Stage3'</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Boss战_状态_阶段3</t>
+        </is>
+      </c>
+      <c r="F634" t="b">
+        <v>0</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>8316</v>
+      </c>
+      <c r="B635" t="n">
+        <v>8316</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Combo1_2nd</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Combo1_2nd.AKE_Play_Mon_Boss_Body_B01_Combo1_2nd'</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyCombo1_普攻1第二段</t>
+        </is>
+      </c>
+      <c r="F635" t="b">
+        <v>0</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>8317</v>
+      </c>
+      <c r="B636" t="n">
+        <v>8317</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Combo2_2nd</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Combo2_2nd.AKE_Play_Mon_Boss_Body_B01_Combo2_2nd'</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyCombo2_普攻2第二段</t>
+        </is>
+      </c>
+      <c r="F636" t="b">
+        <v>0</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>8318</v>
+      </c>
+      <c r="B637" t="n">
+        <v>8318</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Combo4_2nd</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Combo4_2nd.AKE_Play_Mon_Boss_Body_B01_Combo4_2nd'</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyCombo4_普攻4第二段</t>
+        </is>
+      </c>
+      <c r="F637" t="b">
+        <v>0</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>8319</v>
+      </c>
+      <c r="B638" t="n">
+        <v>8319</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Combo5_4th</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Combo5_4th.AKE_Play_Mon_Boss_Body_B01_Combo5_4th'</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyCombo5_普攻5四段</t>
+        </is>
+      </c>
+      <c r="F638" t="b">
+        <v>0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>8320</v>
+      </c>
+      <c r="B639" t="n">
+        <v>8320</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Combo5_5th</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Combo5_5th.AKE_Play_Mon_Boss_Body_B01_Combo5_5th'</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyCombo5_普攻5五段</t>
+        </is>
+      </c>
+      <c r="F639" t="b">
+        <v>0</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>8321</v>
+      </c>
+      <c r="B640" t="n">
+        <v>8321</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Combo5_6th</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Combo5_6th.AKE_Play_Mon_Boss_Body_B01_Combo5_6th'</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyCombo5_普攻5六段</t>
+        </is>
+      </c>
+      <c r="F640" t="b">
+        <v>0</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>8322</v>
+      </c>
+      <c r="B641" t="n">
+        <v>8322</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Combo5_7th</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Combo5_7th.AKE_Play_Mon_Boss_Body_B01_Combo5_7th'</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyCombo5_普攻5七段</t>
+        </is>
+      </c>
+      <c r="F641" t="b">
+        <v>0</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>8323</v>
+      </c>
+      <c r="B642" t="n">
+        <v>8323</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv1_2nd</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv1_2nd.AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv1_2nd'</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_火焰手风琴-积极等级1_火焰喷射第2段</t>
+        </is>
+      </c>
+      <c r="F642" t="b">
+        <v>0</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>8324</v>
+      </c>
+      <c r="B643" t="n">
+        <v>8324</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv2_2nd</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv2_2nd.AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv2_2nd'</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_火焰手风琴-积极等级2_火焰喷射第2段</t>
+        </is>
+      </c>
+      <c r="F643" t="b">
+        <v>0</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>8325</v>
+      </c>
+      <c r="B644" t="n">
+        <v>8325</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv2_3rd</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv2_3rd.AKE_Play_Mon_Boss_Part_B01_Flame_Accordion_Lv2_3rd'</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_火焰手风琴-积极等级2_火焰喷射第3段</t>
+        </is>
+      </c>
+      <c r="F644" t="b">
+        <v>0</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I644"/>
+  <dimension ref="A1:I645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>1000</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -16154,8 +16154,10 @@
       <c r="F432" t="b">
         <v>0</v>
       </c>
-      <c r="G432" t="n">
-        <v>1000</v>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -16260,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -16365,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="G438" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H438" t="n">
         <v>0</v>
@@ -16918,7 +16920,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>M03铁甲面_技能2（冲锋枪）</t>
+          <t>M03铁甲面_技能2（冲锋枪）_起手</t>
         </is>
       </c>
       <c r="F454" t="b">
@@ -19792,7 +19794,7 @@
         </is>
       </c>
       <c r="F536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G536" t="n">
         <v>1000</v>
@@ -23581,6 +23583,41 @@
         <v>0</v>
       </c>
       <c r="I644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>8326</v>
+      </c>
+      <c r="B645" t="n">
+        <v>8326</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M03_Smg_Atk2_Shoot</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Smg_Atk2_Shoot.AKE_Play_Mon_Mob_Skill_M03_Smg_Atk2_Shoot'</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>M03铁甲面_技能2（冲锋枪）_射击</t>
+        </is>
+      </c>
+      <c r="F645" t="b">
+        <v>0</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I645"/>
+  <dimension ref="A1:I659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>M02僵尸蜡烛人_技能4</t>
+          <t>M02僵尸蜡烛人_技能4_发射</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyExecute_state1</t>
+          <t>灰姑娘Boss_AshleyExecute_state1第一段</t>
         </is>
       </c>
       <c r="F412" t="b">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyExecute_state2</t>
+          <t>灰姑娘Boss_AshleyExecute_state2第一段</t>
         </is>
       </c>
       <c r="F413" t="b">
@@ -15518,7 +15518,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyExecute_state3</t>
+          <t>灰姑娘Boss_AshleyExecute_state3第一段</t>
         </is>
       </c>
       <c r="F414" t="b">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyExecute_state4</t>
+          <t>灰姑娘Boss_AshleyExecute_state4第一段</t>
         </is>
       </c>
       <c r="F415" t="b">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyExecute_state7</t>
+          <t>灰姑娘Boss_AshleyExecute_state7第一段</t>
         </is>
       </c>
       <c r="F417" t="b">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyExecute_state8</t>
+          <t>灰姑娘Boss_AshleyExecute_state8第一段</t>
         </is>
       </c>
       <c r="F418" t="b">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>灰姑娘Boss_AshleyExecute_state9</t>
+          <t>灰姑娘Boss_AshleyExecute_state9第一段</t>
         </is>
       </c>
       <c r="F419" t="b">
@@ -23618,6 +23618,496 @@
         <v>0</v>
       </c>
       <c r="I645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>8327</v>
+      </c>
+      <c r="B646" t="n">
+        <v>8327</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State1_2nd</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State1_2nd.AKE_Play_Mon_Boss_Body_B01_Execu_State1_2nd'</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state1第二段</t>
+        </is>
+      </c>
+      <c r="F646" t="b">
+        <v>0</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>8328</v>
+      </c>
+      <c r="B647" t="n">
+        <v>8328</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State1_3rd</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State1_3rd.AKE_Play_Mon_Boss_Body_B01_Execu_State1_3rd'</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state1第三段</t>
+        </is>
+      </c>
+      <c r="F647" t="b">
+        <v>0</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>8329</v>
+      </c>
+      <c r="B648" t="n">
+        <v>8329</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State1_4th</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State1_4th.AKE_Play_Mon_Boss_Body_B01_Execu_State1_4th'</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state1第四段</t>
+        </is>
+      </c>
+      <c r="F648" t="b">
+        <v>0</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>8330</v>
+      </c>
+      <c r="B649" t="n">
+        <v>8330</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State2_2nd</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State2_2nd.AKE_Play_Mon_Boss_Body_B01_Execu_State2_2nd'</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state2第二段</t>
+        </is>
+      </c>
+      <c r="F649" t="b">
+        <v>0</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>8331</v>
+      </c>
+      <c r="B650" t="n">
+        <v>8331</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State2_3rd</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State2_3rd.AKE_Play_Mon_Boss_Body_B01_Execu_State2_3rd'</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state2第三段</t>
+        </is>
+      </c>
+      <c r="F650" t="b">
+        <v>0</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>8332</v>
+      </c>
+      <c r="B651" t="n">
+        <v>8332</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State2_4th</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State2_4th.AKE_Play_Mon_Boss_Body_B01_Execu_State2_4th'</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state2第四段</t>
+        </is>
+      </c>
+      <c r="F651" t="b">
+        <v>0</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>8333</v>
+      </c>
+      <c r="B652" t="n">
+        <v>8333</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State2_5th</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State2_5th.AKE_Play_Mon_Boss_Body_B01_Execu_State2_5th'</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state2第五段</t>
+        </is>
+      </c>
+      <c r="F652" t="b">
+        <v>0</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>8334</v>
+      </c>
+      <c r="B653" t="n">
+        <v>8334</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State3_2nd</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State3_2nd.AKE_Play_Mon_Boss_Body_B01_Execu_State3_2nd'</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state3第二段</t>
+        </is>
+      </c>
+      <c r="F653" t="b">
+        <v>0</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>8335</v>
+      </c>
+      <c r="B654" t="n">
+        <v>8335</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State4_2nd</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State4_2nd.AKE_Play_Mon_Boss_Body_B01_Execu_State4_2nd'</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state4第二段</t>
+        </is>
+      </c>
+      <c r="F654" t="b">
+        <v>0</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>8336</v>
+      </c>
+      <c r="B655" t="n">
+        <v>8336</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State7_2nd</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State7_2nd.AKE_Play_Mon_Boss_Body_B01_Execu_State7_2nd'</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state7第二段</t>
+        </is>
+      </c>
+      <c r="F655" t="b">
+        <v>0</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>8337</v>
+      </c>
+      <c r="B656" t="n">
+        <v>8337</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State8_2nd</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State8_2nd.AKE_Play_Mon_Boss_Body_B01_Execu_State8_2nd'</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state8第二段</t>
+        </is>
+      </c>
+      <c r="F656" t="b">
+        <v>0</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>8338</v>
+      </c>
+      <c r="B657" t="n">
+        <v>8338</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State8_3rd</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State8_3rd.AKE_Play_Mon_Boss_Body_B01_Execu_State8_3rd'</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state8第三段</t>
+        </is>
+      </c>
+      <c r="F657" t="b">
+        <v>0</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>8339</v>
+      </c>
+      <c r="B658" t="n">
+        <v>8339</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Body_B01_Execu_State9_2nd</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Body_B01/AKE_Play_Mon_Boss_Body_B01_Execu_State9_2nd.AKE_Play_Mon_Boss_Body_B01_Execu_State9_2nd'</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>灰姑娘Boss_AshleyExecute_state9第二段</t>
+        </is>
+      </c>
+      <c r="F658" t="b">
+        <v>0</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>8340</v>
+      </c>
+      <c r="B659" t="n">
+        <v>8340</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Atk4_Pre</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Atk4_Pre.AKE_Play_Mon_Mob_Skill_M02_Atk4_Pre'</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>M02僵尸蜡烛人_技能4_蓄力</t>
+        </is>
+      </c>
+      <c r="F659" t="b">
+        <v>0</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I659"/>
+  <dimension ref="A1:I665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
@@ -24111,6 +24111,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>30023</v>
+      </c>
+      <c r="B660" t="n">
+        <v>30023</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Process_Tutorial</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Process_State/AKE_Set_State_Process_Tutorial.AKE_Set_State_Process_Tutorial'</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>流程_状态_新手关</t>
+        </is>
+      </c>
+      <c r="F660" t="b">
+        <v>0</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>30024</v>
+      </c>
+      <c r="B661" t="n">
+        <v>30024</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Process_System</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Process_State/AKE_Set_State_Process_System.AKE_Set_State_Process_System'</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>流程_状态_系统</t>
+        </is>
+      </c>
+      <c r="F661" t="b">
+        <v>0</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>30025</v>
+      </c>
+      <c r="B662" t="n">
+        <v>30025</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Process_Show</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Process_State/AKE_Set_State_Process_Show.AKE_Set_State_Process_Show'</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>流程_状态_角色展示</t>
+        </is>
+      </c>
+      <c r="F662" t="b">
+        <v>0</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>30026</v>
+      </c>
+      <c r="B663" t="n">
+        <v>30026</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Story_Story_01</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Story_Type/AKE_Set_State_Story_Story_01.AKE_Set_State_Story_Story_01'</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>剧情_类型_约见警长</t>
+        </is>
+      </c>
+      <c r="F663" t="b">
+        <v>0</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>30027</v>
+      </c>
+      <c r="B664" t="n">
+        <v>30027</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Story_Story_02</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Story_Type/AKE_Set_State_Story_Story_02.AKE_Set_State_Story_Story_02'</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>剧情_类型_狼人突袭</t>
+        </is>
+      </c>
+      <c r="F664" t="b">
+        <v>0</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>30028</v>
+      </c>
+      <c r="B665" t="n">
+        <v>30028</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Story_Story_03</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Story_Type/AKE_Set_State_Story_Story_03.AKE_Set_State_Story_Story_03'</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>剧情_类型_解决</t>
+        </is>
+      </c>
+      <c r="F665" t="b">
+        <v>0</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I622"/>
+  <dimension ref="A1:I624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -22814,6 +22814,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>2</v>
+      </c>
+      <c r="B623" t="n">
+        <v>2</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Crowd_Street_Day_LP</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Crowd_Street_Day_LP.AKE_Play_Amb_A01_MgSt_Crowd_Street_Day_LP'</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>爵区_莫戈街_bed-英伦街道人声-白天</t>
+        </is>
+      </c>
+      <c r="F623" t="b">
+        <v>1</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>3</v>
+      </c>
+      <c r="B624" t="n">
+        <v>3</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Amb_A01_MgSt_Crowd_Street_Day_LP</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Stop_Amb_A01_MgSt_Crowd_Street_Day_LP.AKE_Stop_Amb_A01_MgSt_Crowd_Street_Day_LP'</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>爵区_莫戈街_bed-英伦街道人声-白天停止</t>
+        </is>
+      </c>
+      <c r="F624" t="b">
+        <v>0</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I624"/>
+  <dimension ref="A1:I667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击1</t>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击1阶段1</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3阶段1</t>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3起手阶段1</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3阶段2</t>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3起手阶段2</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3阶段3</t>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3阶段3二段</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>女主雾宁_蓄力_派生-蓄力攻击1</t>
+          <t>女主雾宁_蓄力_派生-蓄力攻击1-起手</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>女主雾宁_蓄力_派生-蓄力攻击2</t>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-起手</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>女主雾宁_蓄力_派生-蓄力攻击3</t>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-起手</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>女主雾宁_蓄力_派生-蓄力攻击2结束</t>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-结束</t>
         </is>
       </c>
       <c r="F278" t="b">
@@ -22881,6 +22881,1511 @@
         <v>0</v>
       </c>
       <c r="I624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>3323</v>
+      </c>
+      <c r="B625" t="n">
+        <v>3323</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk2_2nd.AKE_Play_Char_Skill_C02_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_普攻连段_GratiaCombo2第二段</t>
+        </is>
+      </c>
+      <c r="F625" t="b">
+        <v>0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>3324</v>
+      </c>
+      <c r="B626" t="n">
+        <v>3324</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk5_2nd</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5_2nd.AKE_Play_Char_Skill_C02_Atk5_2nd'</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_普攻连段_GratiaCombo5第二段跳起</t>
+        </is>
+      </c>
+      <c r="F626" t="b">
+        <v>0</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>3325</v>
+      </c>
+      <c r="B627" t="n">
+        <v>3325</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Atk5_3rd</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Atk5_3rd.AKE_Play_Char_Skill_C02_Atk5_3rd'</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_普攻连段_GratiaCombo5第三段砸地</t>
+        </is>
+      </c>
+      <c r="F627" t="b">
+        <v>0</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>3326</v>
+      </c>
+      <c r="B628" t="n">
+        <v>3326</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2_2nd.AKE_Play_Char_Skill_C02_Strafe_Counter_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_盾牌派生攻击_盾击一派生攻击2二段</t>
+        </is>
+      </c>
+      <c r="F628" t="b">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>3327</v>
+      </c>
+      <c r="B629" t="n">
+        <v>3327</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk1_2nd</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk1_2nd.AKE_Play_Char_Skill_C02_Focus_Atk1_2nd'</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击1阶段2</t>
+        </is>
+      </c>
+      <c r="F629" t="b">
+        <v>0</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>3328</v>
+      </c>
+      <c r="B630" t="n">
+        <v>3328</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk2_3rd</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2_3rd.AKE_Play_Char_Skill_C02_Focus_Atk2_3rd'</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击2阶段3</t>
+        </is>
+      </c>
+      <c r="F630" t="b">
+        <v>0</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>3329</v>
+      </c>
+      <c r="B631" t="n">
+        <v>3329</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk2_4th</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2_4th.AKE_Play_Char_Skill_C02_Focus_Atk2_4th'</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击2阶段4</t>
+        </is>
+      </c>
+      <c r="F631" t="b">
+        <v>0</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>3330</v>
+      </c>
+      <c r="B632" t="n">
+        <v>3330</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk2_5th</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk2_5th.AKE_Play_Char_Skill_C02_Focus_Atk2_5th'</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击2阶段5</t>
+        </is>
+      </c>
+      <c r="F632" t="b">
+        <v>0</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>3331</v>
+      </c>
+      <c r="B633" t="n">
+        <v>3331</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3_Start_3rd</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3_Start_3rd.AKE_Play_Char_Skill_C02_Focus_Atk3_Start_3rd'</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3起手阶段3</t>
+        </is>
+      </c>
+      <c r="F633" t="b">
+        <v>0</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>3332</v>
+      </c>
+      <c r="B634" t="n">
+        <v>3332</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Focus_Atk3</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Focus_Atk3.AKE_Play_Char_Skill_C02_Focus_Atk3'</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>女骑库拉蒂_蓄力攻击_派生-蓄力攻击3阶段3跳起</t>
+        </is>
+      </c>
+      <c r="F634" t="b">
+        <v>0</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>3333</v>
+      </c>
+      <c r="B635" t="n">
+        <v>3333</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk1_2nd</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk1_2nd.AKE_Play_Char_Skill_C01_Atk1_2nd'</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>女主雾宁_普通攻击连击_1段劈砍</t>
+        </is>
+      </c>
+      <c r="F635" t="b">
+        <v>0</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>3334</v>
+      </c>
+      <c r="B636" t="n">
+        <v>3334</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk3_2nd</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk3_2nd.AKE_Play_Char_Skill_C01_Atk3_2nd'</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>女主雾宁_普通攻击连击_3段第二段劈砍</t>
+        </is>
+      </c>
+      <c r="F636" t="b">
+        <v>0</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>3335</v>
+      </c>
+      <c r="B637" t="n">
+        <v>3335</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk3_3rd</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk3_3rd.AKE_Play_Char_Skill_C01_Atk3_3rd'</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>女主雾宁_普通攻击连击_3段第三段劈砍</t>
+        </is>
+      </c>
+      <c r="F637" t="b">
+        <v>0</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>3336</v>
+      </c>
+      <c r="B638" t="n">
+        <v>3336</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk4_2nd</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk4_2nd.AKE_Play_Char_Skill_C01_Atk4_2nd'</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>女主雾宁_普通攻击连击_4段第二段劈砍</t>
+        </is>
+      </c>
+      <c r="F638" t="b">
+        <v>0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>3337</v>
+      </c>
+      <c r="B639" t="n">
+        <v>3337</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk4_3rd</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk4_3rd.AKE_Play_Char_Skill_C01_Atk4_3rd'</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>女主雾宁_普通攻击连击_4段第三段重击</t>
+        </is>
+      </c>
+      <c r="F639" t="b">
+        <v>0</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>3338</v>
+      </c>
+      <c r="B640" t="n">
+        <v>3338</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk_Rush_2nd</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk_Rush_2nd.AKE_Play_Char_Skill_C01_Atk_Rush_2nd'</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>女主雾宁_闪避/冲刺攻击_冲刺后第二段突刺</t>
+        </is>
+      </c>
+      <c r="F640" t="b">
+        <v>0</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>3339</v>
+      </c>
+      <c r="B641" t="n">
+        <v>3339</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk_Rush_Step_2nd</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk_Rush_Step_2nd.AKE_Play_Char_Skill_C01_Atk_Rush_Step_2nd'</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>女主雾宁_闪避/冲刺攻击_闪避后第二段突刺</t>
+        </is>
+      </c>
+      <c r="F641" t="b">
+        <v>0</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>3340</v>
+      </c>
+      <c r="B642" t="n">
+        <v>3340</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk1_2nd</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk1_2nd.AKE_Play_Char_Skill_C01_Focus_Atk1_2nd'</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击1-2段</t>
+        </is>
+      </c>
+      <c r="F642" t="b">
+        <v>0</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>3341</v>
+      </c>
+      <c r="B643" t="n">
+        <v>3341</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk1_3rd</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk1_3rd.AKE_Play_Char_Skill_C01_Focus_Atk1_3rd'</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击1-3段</t>
+        </is>
+      </c>
+      <c r="F643" t="b">
+        <v>0</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>3342</v>
+      </c>
+      <c r="B644" t="n">
+        <v>3342</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk1_4th</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk1_4th.AKE_Play_Char_Skill_C01_Focus_Atk1_4th'</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击1-4段</t>
+        </is>
+      </c>
+      <c r="F644" t="b">
+        <v>0</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>3343</v>
+      </c>
+      <c r="B645" t="n">
+        <v>3343</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk1_5th</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk1_5th.AKE_Play_Char_Skill_C01_Focus_Atk1_5th'</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击1-最后一段重击</t>
+        </is>
+      </c>
+      <c r="F645" t="b">
+        <v>0</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B646" t="n">
+        <v>3344</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2_2nd.AKE_Play_Char_Skill_C01_Focus_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-2段</t>
+        </is>
+      </c>
+      <c r="F646" t="b">
+        <v>0</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>3345</v>
+      </c>
+      <c r="B647" t="n">
+        <v>3345</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2_3rd</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2_3rd.AKE_Play_Char_Skill_C01_Focus_Atk2_3rd'</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-3段</t>
+        </is>
+      </c>
+      <c r="F647" t="b">
+        <v>0</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>3346</v>
+      </c>
+      <c r="B648" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2_4th</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2_4th.AKE_Play_Char_Skill_C01_Focus_Atk2_4th'</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-4段</t>
+        </is>
+      </c>
+      <c r="F648" t="b">
+        <v>0</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>3347</v>
+      </c>
+      <c r="B649" t="n">
+        <v>3347</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2_5th</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2_5th.AKE_Play_Char_Skill_C01_Focus_Atk2_5th'</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-5段</t>
+        </is>
+      </c>
+      <c r="F649" t="b">
+        <v>0</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>3348</v>
+      </c>
+      <c r="B650" t="n">
+        <v>3348</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2_6th</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2_6th.AKE_Play_Char_Skill_C01_Focus_Atk2_6th'</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-6段</t>
+        </is>
+      </c>
+      <c r="F650" t="b">
+        <v>0</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>3349</v>
+      </c>
+      <c r="B651" t="n">
+        <v>3349</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk2_7th</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk2_7th.AKE_Play_Char_Skill_C01_Focus_Atk2_7th'</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击2-最后一段重击</t>
+        </is>
+      </c>
+      <c r="F651" t="b">
+        <v>0</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>3350</v>
+      </c>
+      <c r="B652" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_2nd</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_2nd.AKE_Play_Char_Skill_C01_Focus_Atk3_2nd'</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-2段</t>
+        </is>
+      </c>
+      <c r="F652" t="b">
+        <v>0</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>3351</v>
+      </c>
+      <c r="B653" t="n">
+        <v>3351</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_3rd</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_3rd.AKE_Play_Char_Skill_C01_Focus_Atk3_3rd'</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-3段</t>
+        </is>
+      </c>
+      <c r="F653" t="b">
+        <v>0</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>3352</v>
+      </c>
+      <c r="B654" t="n">
+        <v>3352</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_4th</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_4th.AKE_Play_Char_Skill_C01_Focus_Atk3_4th'</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-4段</t>
+        </is>
+      </c>
+      <c r="F654" t="b">
+        <v>0</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B655" t="n">
+        <v>3353</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_5th</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_5th.AKE_Play_Char_Skill_C01_Focus_Atk3_5th'</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-5段</t>
+        </is>
+      </c>
+      <c r="F655" t="b">
+        <v>0</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>3354</v>
+      </c>
+      <c r="B656" t="n">
+        <v>3354</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_6th</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_6th.AKE_Play_Char_Skill_C01_Focus_Atk3_6th'</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-6段</t>
+        </is>
+      </c>
+      <c r="F656" t="b">
+        <v>0</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>3355</v>
+      </c>
+      <c r="B657" t="n">
+        <v>3355</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_7th</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_7th.AKE_Play_Char_Skill_C01_Focus_Atk3_7th'</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-7段</t>
+        </is>
+      </c>
+      <c r="F657" t="b">
+        <v>0</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>3356</v>
+      </c>
+      <c r="B658" t="n">
+        <v>3356</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_8th</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_8th.AKE_Play_Char_Skill_C01_Focus_Atk3_8th'</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-8段</t>
+        </is>
+      </c>
+      <c r="F658" t="b">
+        <v>0</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>3357</v>
+      </c>
+      <c r="B659" t="n">
+        <v>3357</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_9th</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_9th.AKE_Play_Char_Skill_C01_Focus_Atk3_9th'</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-9段</t>
+        </is>
+      </c>
+      <c r="F659" t="b">
+        <v>0</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>3358</v>
+      </c>
+      <c r="B660" t="n">
+        <v>3358</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_10th</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_10th.AKE_Play_Char_Skill_C01_Focus_Atk3_10th'</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-10段</t>
+        </is>
+      </c>
+      <c r="F660" t="b">
+        <v>0</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>3359</v>
+      </c>
+      <c r="B661" t="n">
+        <v>3359</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Focus_Atk3_11th</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Focus_Atk3_11th.AKE_Play_Char_Skill_C01_Focus_Atk3_11th'</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>女主雾宁_蓄力_派生-蓄力攻击3-最后一段重击</t>
+        </is>
+      </c>
+      <c r="F661" t="b">
+        <v>0</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>3360</v>
+      </c>
+      <c r="B662" t="n">
+        <v>3360</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Strafe_End</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Strafe_End.AKE_Play_Char_Skill_C01_Strafe_End'</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>女主雾宁_副攻击_收枪</t>
+        </is>
+      </c>
+      <c r="F662" t="b">
+        <v>0</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>3361</v>
+      </c>
+      <c r="B663" t="n">
+        <v>3361</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Atk2_2nd</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Atk2_2nd.AKE_Play_Char_Skill_C01_Atk2_2nd'</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>女主雾宁_普通攻击连击_2段第二段劈砍</t>
+        </is>
+      </c>
+      <c r="F663" t="b">
+        <v>0</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>3362</v>
+      </c>
+      <c r="B664" t="n">
+        <v>3362</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C08_Focus_N_Lv2_2nd</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C08/Char_Skill_C08/AKE_Play_Char_Skill_C08_Focus_N_Lv2_2nd.AKE_Play_Char_Skill_C08_Focus_N_Lv2_2nd'</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>灰姑娘厄什栗_普通蓄力攻击_蓄力释放等级2-第二段</t>
+        </is>
+      </c>
+      <c r="F664" t="b">
+        <v>0</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>3363</v>
+      </c>
+      <c r="B665" t="n">
+        <v>3363</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C08_Focus_N_Lv3_2nd</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C08/Char_Skill_C08/AKE_Play_Char_Skill_C08_Focus_N_Lv3_2nd.AKE_Play_Char_Skill_C08_Focus_N_Lv3_2nd'</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>灰姑娘厄什栗_普通蓄力攻击_蓄力释放等级3-第二段</t>
+        </is>
+      </c>
+      <c r="F665" t="b">
+        <v>0</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>3364</v>
+      </c>
+      <c r="B666" t="n">
+        <v>3364</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C08_Focus_F_Lv2_2nd</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C08/Char_Skill_C08/AKE_Play_Char_Skill_C08_Focus_F_Lv2_2nd.AKE_Play_Char_Skill_C08_Focus_F_Lv2_2nd'</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>灰姑娘厄什栗_燃烧模式蓄力攻击_蓄力释放等级2-第二段</t>
+        </is>
+      </c>
+      <c r="F666" t="b">
+        <v>0</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>3365</v>
+      </c>
+      <c r="B667" t="n">
+        <v>3365</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C08_Focus_F_Lv3_2nd</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C08/Char_Skill_C08/AKE_Play_Char_Skill_C08_Focus_F_Lv3_2nd.AKE_Play_Char_Skill_C08_Focus_F_Lv3_2nd'</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>灰姑娘厄什栗_燃烧模式蓄力攻击_蓄力释放等级3-第二段</t>
+        </is>
+      </c>
+      <c r="F667" t="b">
+        <v>0</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I667"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -24389,6 +24389,391 @@
         <v>0</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>30033</v>
+      </c>
+      <c r="B668" t="n">
+        <v>30033</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Weather_Sunny</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Weather_Type/AKE_Set_State_Weather_Sunny.AKE_Set_State_Weather_Sunny'</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>天气_状态_晴天</t>
+        </is>
+      </c>
+      <c r="F668" t="b">
+        <v>0</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>30034</v>
+      </c>
+      <c r="B669" t="n">
+        <v>30034</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Weather_Rain</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Weather_Type/AKE_Set_State_Weather_Rain.AKE_Set_State_Weather_Rain'</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>天气_状态_雨天</t>
+        </is>
+      </c>
+      <c r="F669" t="b">
+        <v>0</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>30035</v>
+      </c>
+      <c r="B670" t="n">
+        <v>30035</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Weather_AfterRain</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Weather_Type/AKE_Set_State_Weather_AfterRain.AKE_Set_State_Weather_AfterRain'</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>天气_状态_雨后</t>
+        </is>
+      </c>
+      <c r="F670" t="b">
+        <v>0</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>30036</v>
+      </c>
+      <c r="B671" t="n">
+        <v>30036</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Weather_Fog</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Weather_Type/AKE_Set_State_Weather_Fog.AKE_Set_State_Weather_Fog'</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>天气_状态_雾天</t>
+        </is>
+      </c>
+      <c r="F671" t="b">
+        <v>0</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>30037</v>
+      </c>
+      <c r="B672" t="n">
+        <v>30037</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Weather_None</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Weather_Type/AKE_Set_State_Weather_None.AKE_Set_State_Weather_None'</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>天气_状态_无</t>
+        </is>
+      </c>
+      <c r="F672" t="b">
+        <v>0</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>30038</v>
+      </c>
+      <c r="B673" t="n">
+        <v>30038</v>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Time_Dawn</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Time_Type/AKE_Set_State_Time_Dawn.AKE_Set_State_Time_Dawn'</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>时间_状态_清晨</t>
+        </is>
+      </c>
+      <c r="F673" t="b">
+        <v>0</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>30039</v>
+      </c>
+      <c r="B674" t="n">
+        <v>30039</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Time_Noon</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Time_Type/AKE_Set_State_Time_Noon.AKE_Set_State_Time_Noon'</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>时间_状态_正午</t>
+        </is>
+      </c>
+      <c r="F674" t="b">
+        <v>0</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>30040</v>
+      </c>
+      <c r="B675" t="n">
+        <v>30040</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Time_Dusk</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Time_Type/AKE_Set_State_Time_Dusk.AKE_Set_State_Time_Dusk'</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">时间_状态_黄昏 </t>
+        </is>
+      </c>
+      <c r="F675" t="b">
+        <v>0</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>30041</v>
+      </c>
+      <c r="B676" t="n">
+        <v>30041</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Time_Evening</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Time_Type/AKE_Set_State_Time_Evening.AKE_Set_State_Time_Evening'</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>时间_状态_傍晚/晚霞</t>
+        </is>
+      </c>
+      <c r="F676" t="b">
+        <v>0</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>30042</v>
+      </c>
+      <c r="B677" t="n">
+        <v>30042</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Time_Night</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Time_Type/AKE_Set_State_Time_Night.AKE_Set_State_Time_Night'</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>时间_状态_夜晚</t>
+        </is>
+      </c>
+      <c r="F677" t="b">
+        <v>0</v>
+      </c>
+      <c r="G677" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>30043</v>
+      </c>
+      <c r="B678" t="n">
+        <v>30043</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Time_MidNight</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Time_Type/AKE_Set_State_Time_MidNight.AKE_Set_State_Time_MidNight'</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>时间_状态_深夜</t>
+        </is>
+      </c>
+      <c r="F678" t="b">
+        <v>0</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I678"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>爵区_莫戈街_bed-英伦街道人声-白天</t>
+          <t>爵区（A01）_莫戈街_bed-英伦街道人声-白天</t>
         </is>
       </c>
       <c r="F623" t="b">
@@ -22868,7 +22868,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>爵区_莫戈街_bed-英伦街道人声-白天停止</t>
+          <t>爵区（A01）_莫戈街_bed-英伦街道人声-白天停止</t>
         </is>
       </c>
       <c r="F624" t="b">
@@ -24771,6 +24771,356 @@
         <v>0</v>
       </c>
       <c r="I678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>4</v>
+      </c>
+      <c r="B679" t="n">
+        <v>4</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Tree_Leaves01_LP</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Tree_Leaves01_LP.AKE_Play_Amb_A01_MgSt_Tree_Leaves01_LP'</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Tree_Leaves01</t>
+        </is>
+      </c>
+      <c r="F679" t="b">
+        <v>1</v>
+      </c>
+      <c r="G679" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>5</v>
+      </c>
+      <c r="B680" t="n">
+        <v>5</v>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Amb_A01_MgSt_Tree_Leaves01_LP</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Stop_Amb_A01_MgSt_Tree_Leaves01_LP.AKE_Stop_Amb_A01_MgSt_Tree_Leaves01_LP'</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Tree_Leaves01停止</t>
+        </is>
+      </c>
+      <c r="F680" t="b">
+        <v>0</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>6</v>
+      </c>
+      <c r="B681" t="n">
+        <v>6</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Bird01_LP</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Bird01_LP.AKE_Play_Amb_A01_MgSt_Bird01_LP'</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird01</t>
+        </is>
+      </c>
+      <c r="F681" t="b">
+        <v>1</v>
+      </c>
+      <c r="G681" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>7</v>
+      </c>
+      <c r="B682" t="n">
+        <v>7</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Amb_A01_MgSt_Bird01_LP</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Stop_Amb_A01_MgSt_Bird01_LP.AKE_Stop_Amb_A01_MgSt_Bird01_LP'</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird01停止</t>
+        </is>
+      </c>
+      <c r="F682" t="b">
+        <v>0</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>8</v>
+      </c>
+      <c r="B683" t="n">
+        <v>8</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Bird02_LP</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Bird02_LP.AKE_Play_Amb_A01_MgSt_Bird02_LP'</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird02</t>
+        </is>
+      </c>
+      <c r="F683" t="b">
+        <v>1</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>9</v>
+      </c>
+      <c r="B684" t="n">
+        <v>9</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Amb_A01_MgSt_Bird02_LP</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Stop_Amb_A01_MgSt_Bird02_LP.AKE_Stop_Amb_A01_MgSt_Bird02_LP'</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird02停止</t>
+        </is>
+      </c>
+      <c r="F684" t="b">
+        <v>0</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>10</v>
+      </c>
+      <c r="B685" t="n">
+        <v>10</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Bird03</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Bird03.AKE_Play_Amb_A01_MgSt_Bird03'</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird03</t>
+        </is>
+      </c>
+      <c r="F685" t="b">
+        <v>0</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>11</v>
+      </c>
+      <c r="B686" t="n">
+        <v>11</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Bird04</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Bird04.AKE_Play_Amb_A01_MgSt_Bird04'</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird04</t>
+        </is>
+      </c>
+      <c r="F686" t="b">
+        <v>0</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>12</v>
+      </c>
+      <c r="B687" t="n">
+        <v>12</v>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Bird05</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Bird05.AKE_Play_Amb_A01_MgSt_Bird05'</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird05</t>
+        </is>
+      </c>
+      <c r="F687" t="b">
+        <v>0</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>13</v>
+      </c>
+      <c r="B688" t="n">
+        <v>13</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>AKE_Play_Amb_A01_MgSt_Bird06</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Amb/Amb_A01/AKE_Play_Amb_A01_MgSt_Bird06.AKE_Play_Amb_A01_MgSt_Bird06'</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>爵区（A01）_莫戈街_Bird06</t>
+        </is>
+      </c>
+      <c r="F688" t="b">
+        <v>0</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -25124,6 +25124,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>14125</v>
+      </c>
+      <c r="B689" t="n">
+        <v>14125</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_UI_Gen_Click</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_UI/Sys_UI_Gen/AKE_Play_Sys_UI_Gen_Click.AKE_Play_Sys_UI_Gen_Click'</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>通用按键_通用点击</t>
+        </is>
+      </c>
+      <c r="F689" t="b">
+        <v>0</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>14126</v>
+      </c>
+      <c r="B690" t="n">
+        <v>14126</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>AKE_Play_Sys_UI_Gen_Exit</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Sys/Sys_UI/Sys_UI_Gen/AKE_Play_Sys_UI_Gen_Exit.AKE_Play_Sys_UI_Gen_Exit'</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>通用按键_通用退出</t>
+        </is>
+      </c>
+      <c r="F690" t="b">
+        <v>0</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_无前提条件喊话_知我罪我，唯有你，侦探……但你，为什么要背叛？！</t>
+          <t>厄什栗boss战语音_一阶段入战_知我罪我，唯有你，侦探……但你，为什么要背叛？！</t>
         </is>
       </c>
       <c r="F248" t="b">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_灰姑娘受击/硬直触发_不痛不痒！</t>
+          <t>厄什栗boss战语音_车形态绕场甩尾_我们曾经合作无间。一切都建立在谎言之上。</t>
         </is>
       </c>
       <c r="F249" t="b">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_玩家受击触发_别示弱啊！不是想逮捕我这个杀人犯吗？</t>
+          <t>厄什栗boss战语音_灰姑娘受击一阶段_哼，又被你看穿了……</t>
         </is>
       </c>
       <c r="F250" t="b">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_玩家死亡触发_早知道，就不把你卷入这件事了……</t>
+          <t>厄什栗boss战语音_血量触发_要是你真的能将我在此终结……</t>
         </is>
       </c>
       <c r="F251" t="b">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_马车冲锋_承认吧，你没有当恶人的天分！</t>
+          <t>厄什栗boss战语音_马车冲锋_不想被我波及，就赶紧躲到一边去！</t>
         </is>
       </c>
       <c r="F253" t="b">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_本体模式_灼烧之苦……相比那时，根本就不算什么！</t>
+          <t>厄什栗boss战语音_人形态普攻近距离一阶段_东看西看的，还有余力想别的事？专心接招！</t>
         </is>
       </c>
       <c r="F256" t="b">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_人形态近战攻击_东看西看的，还有余力想别的事？专心接招！</t>
+          <t>厄什栗boss战语音_人形态普攻近距离二阶段_我现在的样子让你感到恐惧吧……如此暴力，如此狂妄，但这就是我的本性！</t>
         </is>
       </c>
       <c r="F257" t="b">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_燃烧状态_怎么？不敢过来了？那那时你为什么能牵起我的手呢？</t>
+          <t>厄什栗boss战语音_人形态普攻远距离一阶段_多亏了你，现在我没有任何留恋</t>
         </is>
       </c>
       <c r="F258" t="b">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_踩踏QTE_给我求饶！</t>
+          <t>厄什栗boss战语音_人形态普攻远距离二阶段_承认吧，你没有当恶人的天分！</t>
         </is>
       </c>
       <c r="F259" t="b">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_踩踏QTE触发三次以上_又来？你难道是喜欢被我这么打？真变态……</t>
+          <t>厄什栗boss战语音_处决Pre_哈哈哈哈哈哈</t>
         </is>
       </c>
       <c r="F260" t="b">
@@ -25042,7 +25042,7 @@
         </is>
       </c>
       <c r="F686" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G686" t="n">
         <v>1000</v>
@@ -25191,6 +25191,251 @@
         <v>0</v>
       </c>
       <c r="I690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>15133</v>
+      </c>
+      <c r="B691" t="n">
+        <v>15133</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_20</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_20.AKE_Play_VO_Game_Battle_B01_20'</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_灰姑娘受击二阶段_不痛不痒！</t>
+        </is>
+      </c>
+      <c r="F691" t="b">
+        <v>0</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>15134</v>
+      </c>
+      <c r="B692" t="n">
+        <v>15134</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_14</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_14.AKE_Play_VO_Game_Battle_B01_14'</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_处决QTE_给我求饶！</t>
+        </is>
+      </c>
+      <c r="F692" t="b">
+        <v>0</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>15135</v>
+      </c>
+      <c r="B693" t="n">
+        <v>15135</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_15</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_15.AKE_Play_VO_Game_Battle_B01_15'</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_处决QTE触发三次以上_又来？你难道是喜欢被我这么打？真变态……</t>
+        </is>
+      </c>
+      <c r="F693" t="b">
+        <v>0</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>15136</v>
+      </c>
+      <c r="B694" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_16</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_16.AKE_Play_VO_Game_Battle_B01_16'</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_玩家轻受击_别示弱啊！不是想逮捕我这个杀人犯吗？</t>
+        </is>
+      </c>
+      <c r="F694" t="b">
+        <v>0</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>15137</v>
+      </c>
+      <c r="B695" t="n">
+        <v>15137</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_17</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_17.AKE_Play_VO_Game_Battle_B01_17'</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_玩家重受击_看来聪明的脑瓜不能帮你抗下这一击！</t>
+        </is>
+      </c>
+      <c r="F695" t="b">
+        <v>0</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>15138</v>
+      </c>
+      <c r="B696" t="n">
+        <v>15138</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_18</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_18.AKE_Play_VO_Game_Battle_B01_18'</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_玩家死亡一阶段_早知道，就不把你卷入这件事了……</t>
+        </is>
+      </c>
+      <c r="F696" t="b">
+        <v>0</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>15139</v>
+      </c>
+      <c r="B697" t="n">
+        <v>15139</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_19</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_19.AKE_Play_VO_Game_Battle_B01_19'</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_玩家死亡二阶段_弄巧成拙……这就是我的命运……</t>
+        </is>
+      </c>
+      <c r="F697" t="b">
+        <v>0</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I697"/>
+  <dimension ref="A1:I698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -24653,7 +24653,7 @@
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t xml:space="preserve">时间_状态_黄昏 </t>
+          <t>时间_状态_黄昏/傍晚</t>
         </is>
       </c>
       <c r="F675" t="b">
@@ -24688,7 +24688,7 @@
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>时间_状态_傍晚/晚霞</t>
+          <t>时间_状态_晚霞</t>
         </is>
       </c>
       <c r="F676" t="b">
@@ -25436,6 +25436,41 @@
         <v>0</v>
       </c>
       <c r="I697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>30044</v>
+      </c>
+      <c r="B698" t="n">
+        <v>30044</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Story_Story_04</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Story_Type/AKE_Set_State_Story_Story_04.AKE_Set_State_Story_Story_04'</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>剧情_类型_探索</t>
+        </is>
+      </c>
+      <c r="F698" t="b">
+        <v>0</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I704"/>
+  <dimension ref="A1:I707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -25684,6 +25684,111 @@
         <v>0</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>8349</v>
+      </c>
+      <c r="B705" t="n">
+        <v>8349</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Party_Voice</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Party_Voice.AKE_Play_Mon_Boss_Part_B01_Party_Voice'</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_南瓜派对-积极等级1_马匹受惊的嘶吼</t>
+        </is>
+      </c>
+      <c r="F705" t="b">
+        <v>0</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>8350</v>
+      </c>
+      <c r="B706" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Party_Land</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Party_Land.AKE_Play_Mon_Boss_Part_B01_Party_Land'</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_南瓜派对-积极等级1_马匹受惊的蹬地</t>
+        </is>
+      </c>
+      <c r="F706" t="b">
+        <v>0</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>8351</v>
+      </c>
+      <c r="B707" t="n">
+        <v>8351</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Walk</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Walk.AKE_Play_Mon_Boss_Part_B01_Walk'</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_战争践踏-积极等级2_马慢速移动的脚步声</t>
+        </is>
+      </c>
+      <c r="F707" t="b">
+        <v>0</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I709"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_车形态绕场甩尾_我们曾经合作无间。一切都建立在谎言之上。</t>
+          <t>厄什栗boss战语音_马车大回环左_我们曾经合作无间。一切都建立在谎言之上。</t>
         </is>
       </c>
       <c r="F249" t="b">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_战争践踏_我受够背叛了！</t>
+          <t>厄什栗boss战语音_战争践踏-等级1_我受够背叛了！</t>
         </is>
       </c>
       <c r="F252" t="b">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_南瓜派对_书里说，骗子将经受火刑之罚……这点你与我同罪，侦探！</t>
+          <t>厄什栗boss战语音_南瓜派对_侦探，你知道工厂里存储了多少冗余的武器配件吗？竟然没有一个人拿起它们反抗……真是讽刺！</t>
         </is>
       </c>
       <c r="F254" t="b">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_射击/扫射_子弹可是不会讲理的，侦探！不如过来和我硬碰硬！</t>
+          <t>厄什栗boss战语音_射击/扫射（车上）_子弹可是不会讲理的，侦探！不如过来和我硬碰硬！</t>
         </is>
       </c>
       <c r="F255" t="b">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_人形态普攻近距离一阶段_东看西看的，还有余力想别的事？专心接招！</t>
+          <t>厄什栗boss战语音_人形态普攻近距离一阶段等级1_东看西看的，还有余力想别的事？专心接招！</t>
         </is>
       </c>
       <c r="F256" t="b">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_人形态普攻近距离二阶段_我现在的样子让你感到恐惧吧……如此暴力，如此狂妄，但这就是我的本性！</t>
+          <t>厄什栗boss战语音_二阶段入战_我现在的样子让你感到恐惧吧……如此暴力，如此狂妄，但这就是我的本性！</t>
         </is>
       </c>
       <c r="F257" t="b">
@@ -25856,6 +25856,531 @@
         <v>0</v>
       </c>
       <c r="I709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>15140</v>
+      </c>
+      <c r="B710" t="n">
+        <v>15140</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_33</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_33.AKE_Play_VO_Game_Battle_B01_33'</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_马车大回环右_你咎由自取，我罪有应得……哈哈哈，我们还真是相配啊！</t>
+        </is>
+      </c>
+      <c r="F710" t="b">
+        <v>0</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>15141</v>
+      </c>
+      <c r="B711" t="n">
+        <v>15141</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_29</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_29.AKE_Play_VO_Game_Battle_B01_29'</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_战争践踏-等级2_被蚂蚁践踏的滋味如何啊？！</t>
+        </is>
+      </c>
+      <c r="F711" t="b">
+        <v>0</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>15142</v>
+      </c>
+      <c r="B712" t="n">
+        <v>15142</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_30</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_30.AKE_Play_VO_Game_Battle_B01_30'</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_马车跳劈_徒劳！</t>
+        </is>
+      </c>
+      <c r="F712" t="b">
+        <v>0</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>15143</v>
+      </c>
+      <c r="B713" t="n">
+        <v>15143</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_28</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_28.AKE_Play_VO_Game_Battle_B01_28'</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_驻场冲撞_要是你不来碍事……我就不用对你出手了！</t>
+        </is>
+      </c>
+      <c r="F713" t="b">
+        <v>0</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>15144</v>
+      </c>
+      <c r="B714" t="n">
+        <v>15144</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_26</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_26.AKE_Play_VO_Game_Battle_B01_26'</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_南瓜派对（驻场）_书里说，骗子将经受火刑之罚……这点你与我同罪，侦探！</t>
+        </is>
+      </c>
+      <c r="F714" t="b">
+        <v>0</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>15145</v>
+      </c>
+      <c r="B715" t="n">
+        <v>15145</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_27</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_27.AKE_Play_VO_Game_Battle_B01_27'</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_射击/扫射（车下）_真相只掌握在拿着枪的人手里！哈哈哈，如此至理名言，真该早点认识到！</t>
+        </is>
+      </c>
+      <c r="F715" t="b">
+        <v>0</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>15146</v>
+      </c>
+      <c r="B716" t="n">
+        <v>15146</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_21</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_21.AKE_Play_VO_Game_Battle_B01_21'</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊1</t>
+        </is>
+      </c>
+      <c r="F716" t="b">
+        <v>0</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>15147</v>
+      </c>
+      <c r="B717" t="n">
+        <v>15147</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_22</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_22.AKE_Play_VO_Game_Battle_B01_22'</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊2</t>
+        </is>
+      </c>
+      <c r="F717" t="b">
+        <v>0</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>15148</v>
+      </c>
+      <c r="B718" t="n">
+        <v>15148</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_23</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_23.AKE_Play_VO_Game_Battle_B01_23'</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊3</t>
+        </is>
+      </c>
+      <c r="F718" t="b">
+        <v>0</v>
+      </c>
+      <c r="G718" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>15149</v>
+      </c>
+      <c r="B719" t="n">
+        <v>15149</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_24</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_24.AKE_Play_VO_Game_Battle_B01_24'</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊4</t>
+        </is>
+      </c>
+      <c r="F719" t="b">
+        <v>0</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>15150</v>
+      </c>
+      <c r="B720" t="n">
+        <v>15150</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_25</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_25.AKE_Play_VO_Game_Battle_B01_25'</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊5</t>
+        </is>
+      </c>
+      <c r="F720" t="b">
+        <v>0</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>15151</v>
+      </c>
+      <c r="B721" t="n">
+        <v>15151</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_31</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_31.AKE_Play_VO_Game_Battle_B01_31'</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_人形态普攻近距离一阶段等级2_你们知道自己面对着怎样的怪物吗？</t>
+        </is>
+      </c>
+      <c r="F721" t="b">
+        <v>0</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>15152</v>
+      </c>
+      <c r="B722" t="n">
+        <v>15152</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_32</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_32.AKE_Play_VO_Game_Battle_B01_32'</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_火焰手风琴_灼烧之苦……相比那时，根本就不算什么！</t>
+        </is>
+      </c>
+      <c r="F722" t="b">
+        <v>0</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>15153</v>
+      </c>
+      <c r="B723" t="n">
+        <v>15153</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C08_18</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_18.AKE_Play_VO_Game_Battle_C08_18'</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>厄什栗语音_处决1_占位</t>
+        </is>
+      </c>
+      <c r="F723" t="b">
+        <v>0</v>
+      </c>
+      <c r="G723" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>15154</v>
+      </c>
+      <c r="B724" t="n">
+        <v>15154</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C08_19</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_19.AKE_Play_VO_Game_Battle_C08_19'</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>厄什栗语音_处决2_短呼喊占位</t>
+        </is>
+      </c>
+      <c r="F724" t="b">
+        <v>0</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module/ue/ue_ID表生成/Audio.xlsx
+++ b/module/ue/ue_ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I724"/>
+  <dimension ref="A1:I725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>C02女骑库拉蒂_大招_大招释放</t>
+          <t>C02女骑库拉蒂_大招_大招起手</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -26381,6 +26381,41 @@
         <v>0</v>
       </c>
       <c r="I724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>3369</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3369</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Ult_2nd</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_2nd.AKE_Play_Char_Skill_C02_Ult_2nd'</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>C02女骑库拉蒂_大招_大招释放</t>
+        </is>
+      </c>
+      <c r="F725" t="b">
+        <v>0</v>
+      </c>
+      <c r="G725" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="n">
         <v>0</v>
       </c>
     </row>
